--- a/Recycling/SW2/SW2_Max.xlsx
+++ b/Recycling/SW2/SW2_Max.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.515032571980586E-10</v>
+        <v>0.0006072742067537161</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.181577090341664E-13</v>
+        <v>2.136991633692225E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02074181631757102</v>
+        <v>84356.1518962855</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.703524007097508E-10</v>
+        <v>0.0002956240712849115</v>
       </c>
       <c r="C7">
-        <v>0.004669593286537943</v>
+        <v>18991.05240071852</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.169555198327515E-10</v>
+        <v>0.001244181525003987</v>
       </c>
       <c r="C8">
-        <v>0.02371031671529509</v>
+        <v>96428.92636408677</v>
       </c>
       <c r="D8">
-        <v>2.812026057584467E-11</v>
+        <v>4.858193654029727E-05</v>
       </c>
       <c r="E8">
-        <v>4.145261672273329E-14</v>
+        <v>1.709593306953779E-07</v>
       </c>
       <c r="F8">
-        <v>0.0008296726527028416</v>
+        <v>3374.246075851423</v>
       </c>
       <c r="G8">
-        <v>0.0004669593456890343</v>
+        <v>1899.105269634259</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1424.560837625121</v>
+        <v>1440490583.127244</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58.94634257479959</v>
+        <v>129824086.4095545</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12090.20763487258</v>
+        <v>8493699499.468343</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>750.5931810308035</v>
+        <v>833340886.9751284</v>
       </c>
       <c r="C7">
-        <v>2721.861554468828</v>
+        <v>1912181727.643064</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3158.992312681012</v>
+        <v>3507249362.673295</v>
       </c>
       <c r="C8">
-        <v>13820.5183088844</v>
+        <v>9709289781.258726</v>
       </c>
       <c r="D8">
-        <v>113.9648670100096</v>
+        <v>115239246.6501795</v>
       </c>
       <c r="E8">
-        <v>4.715707405983965</v>
+        <v>10385926.91276435</v>
       </c>
       <c r="F8">
-        <v>483.6083053949036</v>
+        <v>339747979.978734</v>
       </c>
       <c r="G8">
-        <v>347.2454735499631</v>
+        <v>274552261.4618192</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1351.766707388664</v>
+        <v>1281903396.89975</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54.30556689496856</v>
+        <v>112222927.1995967</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12418.15409316432</v>
+        <v>8742021458.738266</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>710.513776215124</v>
+        <v>738092947.6139824</v>
       </c>
       <c r="C7">
-        <v>2795.691953723002</v>
+        <v>1968086308.811517</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2990.311681269353</v>
+        <v>3106383066.729395</v>
       </c>
       <c r="C8">
-        <v>14195.39938355526</v>
+        <v>9993150761.00642</v>
       </c>
       <c r="D8">
-        <v>108.141336591093</v>
+        <v>102552271.7519799</v>
       </c>
       <c r="E8">
-        <v>4.344445351597483</v>
+        <v>8977834.175967729</v>
       </c>
       <c r="F8">
-        <v>496.7261637265732</v>
+        <v>349680858.3495309</v>
       </c>
       <c r="G8">
-        <v>350.6205729938126</v>
+        <v>270617925.6425498</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.426131447350275E-09</v>
+        <v>0.01110209876372748</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.121982142272706E-11</v>
+        <v>4.627290898861752E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04841226258683733</v>
+        <v>196890.7695397214</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.116207655055885E-09</v>
+        <v>0.005412185385979559</v>
       </c>
       <c r="C7">
-        <v>0.01089902508538274</v>
+        <v>44325.90673581082</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.311506189480726E-08</v>
+        <v>0.02277805402606276</v>
       </c>
       <c r="C8">
-        <v>0.05534086606800913</v>
+        <v>225069.1276322929</v>
       </c>
       <c r="D8">
-        <v>5.140905157880218E-10</v>
+        <v>0.0008881679010981978</v>
       </c>
       <c r="E8">
-        <v>8.975857138181648E-13</v>
+        <v>3.7018327190894E-06</v>
       </c>
       <c r="F8">
-        <v>0.001936490503473495</v>
+        <v>7875.630781588861</v>
       </c>
       <c r="G8">
-        <v>0.001089902820159039</v>
+        <v>4432.59121479962</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.652922364301958E-08</v>
+        <v>0.1494921158560457</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.771552468402297E-10</v>
+        <v>0.0007306255870783329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.105294743966387</v>
+        <v>428229.5860649677</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.19880113148903E-08</v>
+        <v>0.07299011047260544</v>
       </c>
       <c r="C7">
-        <v>0.02370494570027854</v>
+        <v>96407.08265707303</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.767133093140349E-07</v>
+        <v>0.3071906376341512</v>
       </c>
       <c r="C8">
-        <v>0.1203641807291496</v>
+        <v>489516.3932128161</v>
       </c>
       <c r="D8">
-        <v>6.922337891441563E-09</v>
+        <v>0.01195936926848365</v>
       </c>
       <c r="E8">
-        <v>1.417241974721837E-11</v>
+        <v>5.845004696626661E-05</v>
       </c>
       <c r="F8">
-        <v>0.004211789758655484</v>
+        <v>17129.18344259873</v>
       </c>
       <c r="G8">
-        <v>0.002370498768828985</v>
+        <v>9640.715564718348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.096199027112185E-07</v>
+        <v>1.571503801329208</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.153801360401484E-09</v>
+        <v>0.008882730889775127</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2171062367345118</v>
+        <v>882954.4390082959</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.416986260039457E-07</v>
+        <v>0.7685658736172477</v>
       </c>
       <c r="C7">
-        <v>0.04887700334431054</v>
+        <v>198779.0296464666</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.858959819155308E-06</v>
+        <v>3.23463328458644</v>
       </c>
       <c r="C8">
-        <v>0.2481777658729131</v>
+        <v>1009319.968585761</v>
       </c>
       <c r="D8">
-        <v>7.276959221689745E-08</v>
+        <v>0.1257203041063366</v>
       </c>
       <c r="E8">
-        <v>1.723041088321186E-10</v>
+        <v>0.0007106184711820099</v>
       </c>
       <c r="F8">
-        <v>0.008684249469380482</v>
+        <v>35318.17756033187</v>
       </c>
       <c r="G8">
-        <v>0.004887744504293653</v>
+        <v>19877.97982123401</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.793452530233238E-06</v>
+        <v>13.464349493932</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.102341269409361E-08</v>
+        <v>0.0867049862534701</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4299347756829984</v>
+        <v>1748024.079407229</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.787112312119908E-06</v>
+        <v>6.596151807098821</v>
       </c>
       <c r="C7">
-        <v>0.09679097102397004</v>
+        <v>393531.6647747916</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.593867221764094E-05</v>
+        <v>27.76096743016775</v>
       </c>
       <c r="C8">
-        <v>0.4914656239496099</v>
+        <v>1998195.52512367</v>
       </c>
       <c r="D8">
-        <v>6.234762024186587E-07</v>
+        <v>1.07714795951456</v>
       </c>
       <c r="E8">
-        <v>1.681873015527488E-09</v>
+        <v>0.006936398900277605</v>
       </c>
       <c r="F8">
-        <v>0.01719739102731995</v>
+        <v>69920.96317628921</v>
       </c>
       <c r="G8">
-        <v>0.009679475813628213</v>
+        <v>39353.82609265987</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.623070106665293E-05</v>
+        <v>97.14690742173185</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.703118482258205E-07</v>
+        <v>0.7024019684193097</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8251758261690378</v>
+        <v>3350019.14589974</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.73441950338758E-05</v>
+        <v>47.67337114076379</v>
       </c>
       <c r="C7">
-        <v>0.1857713634667638</v>
+        <v>754187.9010959683</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.000115082449576529</v>
+        <v>200.6410619750636</v>
       </c>
       <c r="C8">
-        <v>0.9432722710835558</v>
+        <v>3829462.846235775</v>
       </c>
       <c r="D8">
-        <v>4.498456085332232E-06</v>
+        <v>7.771752593738545</v>
       </c>
       <c r="E8">
-        <v>1.362494785806563E-08</v>
+        <v>0.05619215747354474</v>
       </c>
       <c r="F8">
-        <v>0.03300703304676154</v>
+        <v>134000.7658359897</v>
       </c>
       <c r="G8">
-        <v>0.01857987076617977</v>
+        <v>75423.5574467109</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0003504594467552026</v>
+        <v>605.4708688167095</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.175933300819055E-06</v>
+        <v>4.849796851067792</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.54088509200461</v>
+        <v>6231837.065466153</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0001705446761988857</v>
+        <v>297.6255044594628</v>
       </c>
       <c r="C7">
-        <v>0.3468985825921023</v>
+        <v>1402969.926941617</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0007177647422017316</v>
+        <v>1252.604878922643</v>
       </c>
       <c r="C8">
-        <v>1.761411488460445</v>
+        <v>7123717.049559765</v>
       </c>
       <c r="D8">
-        <v>2.803675574041619E-05</v>
+        <v>48.43766950533674</v>
       </c>
       <c r="E8">
-        <v>9.407466406552434E-08</v>
+        <v>0.3879837480854231</v>
       </c>
       <c r="F8">
-        <v>0.06163540368018446</v>
+        <v>249273.4826186463</v>
       </c>
       <c r="G8">
-        <v>0.03470691272683012</v>
+        <v>140326.7552446077</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001925249284832635</v>
+        <v>3326.154760469614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.071077300815892E-06</v>
+        <v>29.16261356257884</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.797304579655727</v>
+        <v>11239232.77852693</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0009375344107114028</v>
+        <v>1637.674666400343</v>
       </c>
       <c r="C7">
-        <v>0.629755585796832</v>
+        <v>2530282.070041614</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003945764591471423</v>
+        <v>6892.417640573816</v>
       </c>
       <c r="C8">
-        <v>3.197645592714887</v>
+        <v>12847754.73544481</v>
       </c>
       <c r="D8">
-        <v>0.0001540199427866107</v>
+        <v>266.092380837569</v>
       </c>
       <c r="E8">
-        <v>5.656861840652711E-07</v>
+        <v>2.333009085006306</v>
       </c>
       <c r="F8">
-        <v>0.1118921831862292</v>
+        <v>449569.3111410775</v>
       </c>
       <c r="G8">
-        <v>0.06306931202075433</v>
+        <v>253191.9744708014</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00947524282350762</v>
+        <v>16369.89260158202</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.769029315120186E-05</v>
+        <v>155.442715088922</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.924434886125732</v>
+        <v>19610103.76883785</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.004617197866636307</v>
+        <v>8072.544015767251</v>
       </c>
       <c r="C7">
-        <v>1.108635219412588</v>
+        <v>4414811.485419668</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01943222098927206</v>
+        <v>33974.60186697501</v>
       </c>
       <c r="C8">
-        <v>5.629203778792427</v>
+        <v>22416637.19609088</v>
       </c>
       <c r="D8">
-        <v>0.0007580194258806092</v>
+        <v>1309.591408126561</v>
       </c>
       <c r="E8">
-        <v>3.015223452096147E-06</v>
+        <v>12.43541720711376</v>
       </c>
       <c r="F8">
-        <v>0.1969773954450294</v>
+        <v>784404.1507535147</v>
       </c>
       <c r="G8">
-        <v>0.1113252417279225</v>
+        <v>442288.4029435434</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04233767965525711</v>
+        <v>73144.64461324019</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001807018912946136</v>
+        <v>745.2526966237156</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.390662634621094</v>
+        <v>33062368.1746007</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02064377481775161</v>
+        <v>36123.76468831937</v>
       </c>
       <c r="C7">
-        <v>1.888985096982082</v>
+        <v>7443312.104464765</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08688265175076097</v>
+        <v>152032.68273605</v>
       </c>
       <c r="C8">
-        <v>9.591506619867513</v>
+        <v>37794145.35232354</v>
       </c>
       <c r="D8">
-        <v>0.003387014372420567</v>
+        <v>5851.571569059212</v>
       </c>
       <c r="E8">
-        <v>1.445615130356908E-05</v>
+        <v>59.62021572989722</v>
       </c>
       <c r="F8">
-        <v>0.3356265053848441</v>
+        <v>1322494.726984029</v>
       </c>
       <c r="G8">
-        <v>0.1909628871799833</v>
+        <v>747943.5869153083</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1736442898246406</v>
+        <v>299996.3618914635</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000788814940888041</v>
+        <v>3253.239122032981</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.83140003404299</v>
+        <v>53875958.90448723</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08471912706934494</v>
+        <v>148366.6940325473</v>
       </c>
       <c r="C7">
-        <v>3.113855206965371</v>
+        <v>12129063.92354211</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3565540933659553</v>
+        <v>624425.1316845873</v>
       </c>
       <c r="C8">
-        <v>15.81090442620923</v>
+        <v>61586508.59729565</v>
       </c>
       <c r="D8">
-        <v>0.01389154318597124</v>
+        <v>23999.70895131706</v>
       </c>
       <c r="E8">
-        <v>6.310519527104324E-05</v>
+        <v>260.2591297626383</v>
       </c>
       <c r="F8">
-        <v>0.55325600136172</v>
+        <v>2155038.356179491</v>
       </c>
       <c r="G8">
-        <v>0.3198574334034715</v>
+        <v>1227743.061757465</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6596164074478009</v>
+        <v>1139585.54362273</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003167257300664811</v>
+        <v>13062.43689324742</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>22.07604209848907</v>
+        <v>84962401.50490327</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.322000419158197</v>
+        <v>564341.2659799493</v>
       </c>
       <c r="C7">
-        <v>4.969966776203014</v>
+        <v>19127537.02959693</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.35519063389821</v>
+        <v>2375121.125549058</v>
       </c>
       <c r="C8">
-        <v>25.23549249310197</v>
+        <v>97121940.41882384</v>
       </c>
       <c r="D8">
-        <v>0.05276931259582405</v>
+        <v>91166.84348981832</v>
       </c>
       <c r="E8">
-        <v>0.0002533805840531848</v>
+        <v>1044.994951459793</v>
       </c>
       <c r="F8">
-        <v>0.8830416839395634</v>
+        <v>3398496.060196134</v>
       </c>
       <c r="G8">
-        <v>0.529196719536121</v>
+        <v>1969187.829557687</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.336846832085613</v>
+        <v>4037250.793600011</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01179528622291994</v>
+        <v>48646.24770696853</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34.17168035734284</v>
+        <v>129913411.7872667</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.141370865019942</v>
+        <v>2001821.192640759</v>
       </c>
       <c r="C7">
-        <v>7.693050923953745</v>
+        <v>29247332.35628716</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.803643144698519</v>
+        <v>8424986.955289932</v>
       </c>
       <c r="C8">
-        <v>39.0622186389754</v>
+        <v>148506191.1589314</v>
       </c>
       <c r="D8">
-        <v>0.186947746566849</v>
+        <v>322980.0634880007</v>
       </c>
       <c r="E8">
-        <v>0.0009436228978335944</v>
+        <v>3891.699816557481</v>
       </c>
       <c r="F8">
-        <v>1.366867214293715</v>
+        <v>5196536.471490674</v>
       </c>
       <c r="G8">
-        <v>0.8834421788973685</v>
+        <v>3124915.354892791</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.751355844563398</v>
+        <v>13391621.13416763</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04099673204324084</v>
+        <v>169079.1719933761</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>51.40238441791288</v>
+        <v>193017140.5423495</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.787926033187229</v>
+        <v>6648244.247044199</v>
       </c>
       <c r="C7">
-        <v>11.5721895091026</v>
+        <v>43453838.84726515</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.94209689383211</v>
+        <v>27980206.85505868</v>
       </c>
       <c r="C8">
-        <v>58.75892428174718</v>
+        <v>220641117.6181731</v>
       </c>
       <c r="D8">
-        <v>0.6201084675650715</v>
+        <v>1071329.69073341</v>
       </c>
       <c r="E8">
-        <v>0.003279738563459265</v>
+        <v>13526.33375947008</v>
       </c>
       <c r="F8">
-        <v>2.056095376716517</v>
+        <v>7720685.621693986</v>
       </c>
       <c r="G8">
-        <v>1.536011554228983</v>
+        <v>5010208.309430934</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.01902609198265</v>
+        <v>41496442.79128077</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1333419021968586</v>
+        <v>549930.1664843741</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75.30103578569039</v>
+        <v>279225159.4833217</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74427467123089</v>
+        <v>20628366.76000154</v>
       </c>
       <c r="C7">
-        <v>16.95247927137127</v>
+        <v>62861801.02035033</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>49.42767179616856</v>
+        <v>86817804.45769209</v>
       </c>
       <c r="C8">
-        <v>86.07787187643797</v>
+        <v>319186944.1356444</v>
       </c>
       <c r="D8">
-        <v>1.921522087358611</v>
+        <v>3319715.42330246</v>
       </c>
       <c r="E8">
-        <v>0.01066735217574868</v>
+        <v>43994.4133187499</v>
       </c>
       <c r="F8">
-        <v>3.012041431427618</v>
+        <v>11169006.37933288</v>
       </c>
       <c r="G8">
-        <v>2.869675394260216</v>
+        <v>8349016.778035184</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68.3802005926392</v>
+        <v>118136972.0462733</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4038196580047633</v>
+        <v>1665437.764933068</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>107.6487285607685</v>
+        <v>394047540.7662736</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.46062026630899</v>
+        <v>58832981.34790636</v>
       </c>
       <c r="C7">
-        <v>24.23489691044452</v>
+        <v>88711698.27977997</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>140.8244104398155</v>
+        <v>247608079.1926544</v>
       </c>
       <c r="C8">
-        <v>123.0550598412372</v>
+        <v>450442326.2362403</v>
       </c>
       <c r="D8">
-        <v>5.470416047411133</v>
+        <v>9450957.76370186</v>
       </c>
       <c r="E8">
-        <v>0.03230557264038104</v>
+        <v>133235.0211946454</v>
       </c>
       <c r="F8">
-        <v>4.305949142430742</v>
+        <v>15761901.63065096</v>
       </c>
       <c r="G8">
-        <v>5.769551717675351</v>
+        <v>14754467.96276863</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>170.3254295248996</v>
+        <v>294262507.1853498</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.113109726783228</v>
+        <v>4590701.43839009</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>150.4618129764094</v>
+        <v>543353603.4397206</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83.45925195642805</v>
+        <v>147013028.928531</v>
       </c>
       <c r="C7">
-        <v>33.87338220519189</v>
+        <v>122324887.0779434</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>351.2517060045662</v>
+        <v>618728014.0373695</v>
       </c>
       <c r="C8">
-        <v>171.9954118100077</v>
+        <v>621116580.5686445</v>
       </c>
       <c r="D8">
-        <v>13.62603436199196</v>
+        <v>23541000.57482797</v>
       </c>
       <c r="E8">
-        <v>0.08904877814265823</v>
+        <v>367256.1150712071</v>
       </c>
       <c r="F8">
-        <v>6.018472519056383</v>
+        <v>21734144.13758884</v>
       </c>
       <c r="G8">
-        <v>11.73326341616199</v>
+        <v>26933791.60064743</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>334.5472921093051</v>
+        <v>577980085.2816648</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.629492415741565</v>
+        <v>10844593.58947319</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>205.9895956080317</v>
+        <v>733070641.1100074</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>164.3970263630383</v>
+        <v>290693178.9031477</v>
       </c>
       <c r="C7">
-        <v>46.37432026302761</v>
+        <v>165035775.6463935</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>691.891367565119</v>
+        <v>1223429070.115898</v>
       </c>
       <c r="C8">
-        <v>235.4701477027612</v>
+        <v>837985295.4670337</v>
       </c>
       <c r="D8">
-        <v>26.7637833687444</v>
+        <v>46238406.82253317</v>
       </c>
       <c r="E8">
-        <v>0.2103593932593251</v>
+        <v>867567.487157855</v>
       </c>
       <c r="F8">
-        <v>8.239583824321276</v>
+        <v>29322825.64440032</v>
       </c>
       <c r="G8">
-        <v>21.07713466260658</v>
+        <v>45572895.45495411</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>461.9795980637074</v>
+        <v>798137681.8587985</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.706360756422609</v>
+        <v>19410086.43439022</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>276.7411585973477</v>
+        <v>968771166.6088493</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>228.1560487028042</v>
+        <v>406116610.02228</v>
       </c>
       <c r="C7">
-        <v>62.30257931655614</v>
+        <v>218098900.6230854</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>960.2314837899581</v>
+        <v>1709207173.11953</v>
       </c>
       <c r="C8">
-        <v>316.347441228774</v>
+        <v>1107418503.435654</v>
       </c>
       <c r="D8">
-        <v>36.95836784509657</v>
+        <v>63851014.54870385</v>
       </c>
       <c r="E8">
-        <v>0.3765088605138086</v>
+        <v>1552806.914751217</v>
       </c>
       <c r="F8">
-        <v>11.06964634389392</v>
+        <v>38750846.664354</v>
       </c>
       <c r="G8">
-        <v>29.04586280193603</v>
+        <v>62421551.06453652</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>495.2475382152321</v>
+        <v>855609934.4203008</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.329008856029499</v>
+        <v>21978240.45553729</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>365.5506703560969</v>
+        <v>1255140185.985456</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>244.8864023604022</v>
+        <v>436599645.2362351</v>
       </c>
       <c r="C7">
-        <v>82.29621408508213</v>
+        <v>282568994.7498302</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1030.643872189498</v>
+        <v>1837499937.218217</v>
       </c>
       <c r="C8">
-        <v>417.8670776430093</v>
+        <v>1434771713.150267</v>
       </c>
       <c r="D8">
-        <v>39.61980305721855</v>
+        <v>68448794.75362404</v>
       </c>
       <c r="E8">
-        <v>0.4263207084823597</v>
+        <v>1758259.236442982</v>
       </c>
       <c r="F8">
-        <v>14.62202681424389</v>
+        <v>50205607.43941827</v>
       </c>
       <c r="G8">
-        <v>32.71826164454843</v>
+        <v>71916863.99860652</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.813916589127078E-08</v>
+        <v>0.2364497030519316</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.308883728281836E-08</v>
+        <v>0.05323178689225268</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.645985171883641E-08</v>
+        <v>0.2702896053442296</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.325566635650833E-09</v>
+        <v>0.009457988122077272</v>
       </c>
       <c r="G8">
-        <v>1.308883728281836E-09</v>
+        <v>0.005323178689225267</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>527.0054613278237</v>
+        <v>910463861.2340307</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.555998388561678</v>
+        <v>14666880.49981884</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>475.7551344939412</v>
+        <v>1595377385.773013</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>258.3505380799857</v>
+        <v>455356413.7657173</v>
       </c>
       <c r="C7">
-        <v>107.1064822894461</v>
+        <v>359166401.6323004</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1087.30985625379</v>
+        <v>1916440819.033849</v>
       </c>
       <c r="C8">
-        <v>543.8436415148113</v>
+        <v>1823702539.736279</v>
       </c>
       <c r="D8">
-        <v>42.16043690622588</v>
+        <v>72837108.89872243</v>
       </c>
       <c r="E8">
-        <v>0.2844798710849341</v>
+        <v>1173350.439985506</v>
       </c>
       <c r="F8">
-        <v>19.03020537975767</v>
+        <v>63815095.43092059</v>
       </c>
       <c r="G8">
-        <v>36.54570203694317</v>
+        <v>81452281.53980176</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>579.0485130075634</v>
+        <v>1000327989.829269</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.526259509854854</v>
+        <v>10423478.45386857</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>611.5578549663035</v>
+        <v>1990617156.482344</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>282.4010362955011</v>
+        <v>494274521.9588609</v>
       </c>
       <c r="C7">
-        <v>137.6796713536135</v>
+        <v>448146505.9596931</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1188.530252200664</v>
+        <v>2080233946.540536</v>
       </c>
       <c r="C8">
-        <v>699.0819998099188</v>
+        <v>2275507723.93609</v>
       </c>
       <c r="D8">
-        <v>46.32388104060505</v>
+        <v>80026239.18634148</v>
       </c>
       <c r="E8">
-        <v>0.2021007607883882</v>
+        <v>833878.2763094853</v>
       </c>
       <c r="F8">
-        <v>24.46231419865216</v>
+        <v>79624686.25929382</v>
       </c>
       <c r="G8">
-        <v>42.00807076491144</v>
+        <v>94242102.79185538</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>633.9613722832147</v>
+        <v>1095027977.356727</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.065074434512772</v>
+        <v>16782173.8465657</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>778.5957189678176</v>
+        <v>2439451749.05213</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>310.5577168810394</v>
+        <v>546755282.8496629</v>
       </c>
       <c r="C7">
-        <v>175.2848104791753</v>
+        <v>549192381.9881289</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1307.032178101693</v>
+        <v>2301107682.683485</v>
       </c>
       <c r="C8">
-        <v>890.0257724421742</v>
+        <v>2788578044.281899</v>
       </c>
       <c r="D8">
-        <v>50.71690978265715</v>
+        <v>87602238.18853812</v>
       </c>
       <c r="E8">
-        <v>0.3252059547610215</v>
+        <v>1342573.907725255</v>
       </c>
       <c r="F8">
-        <v>31.14382875871273</v>
+        <v>97578069.96208529</v>
       </c>
       <c r="G8">
-        <v>48.58425273602146</v>
+        <v>109594766.4837791</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>693.6088424660845</v>
+        <v>1197513278.187475</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.334190246816691</v>
+        <v>26181494.03874053</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>984.7326042899581</v>
+        <v>2937701308.226795</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>341.774901999649</v>
+        <v>606216677.63815</v>
       </c>
       <c r="C7">
-        <v>221.6922899915979</v>
+        <v>661363021.2860745</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1438.414730335646</v>
+        <v>2551360541.069648</v>
       </c>
       <c r="C8">
-        <v>1125.664289477541</v>
+        <v>3358135438.408455</v>
       </c>
       <c r="D8">
-        <v>55.48870739728673</v>
+        <v>95801062.25499797</v>
       </c>
       <c r="E8">
-        <v>0.5067352197453351</v>
+        <v>2094519.523099241</v>
       </c>
       <c r="F8">
-        <v>39.38930417159836</v>
+        <v>117508052.3290719</v>
       </c>
       <c r="G8">
-        <v>56.34671919912468</v>
+        <v>126757969.8924224</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>739.9539626625983</v>
+        <v>1275831118.97656</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.928775185689668</v>
+        <v>37009906.49430639</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1241.118631129768</v>
+        <v>3478649763.861675</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>366.9106446524238</v>
+        <v>655516552.7587502</v>
       </c>
       <c r="C7">
-        <v>279.4123300962397</v>
+        <v>783146438.80944</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1544.202552314787</v>
+        <v>2758847007.051436</v>
       </c>
       <c r="C8">
-        <v>1418.743439570985</v>
+        <v>3976502654.344479</v>
       </c>
       <c r="D8">
-        <v>59.19631701300784</v>
+        <v>102066489.5181248</v>
       </c>
       <c r="E8">
-        <v>0.7143020148551731</v>
+        <v>2960792.519544509</v>
       </c>
       <c r="F8">
-        <v>49.64474524519076</v>
+        <v>139145990.5544671</v>
       </c>
       <c r="G8">
-        <v>64.63229747486635</v>
+        <v>143866299.156819</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>793.3705221991696</v>
+        <v>1363126130.680191</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.28604320398579</v>
+        <v>51221743.9358689</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1563.565128607759</v>
+        <v>4054028976.321123</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>396.2700532726896</v>
+        <v>712735813.600687</v>
       </c>
       <c r="C7">
-        <v>352.004526306915</v>
+        <v>912681232.9941742</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1667.766352893031</v>
+        <v>2999663483.546378</v>
       </c>
       <c r="C8">
-        <v>1787.337417161279</v>
+        <v>4634228243.556918</v>
       </c>
       <c r="D8">
-        <v>63.46964177593354</v>
+        <v>109050090.4544152</v>
       </c>
       <c r="E8">
-        <v>0.9828834563188624</v>
+        <v>4097739.51486951</v>
       </c>
       <c r="F8">
-        <v>62.54260514431042</v>
+        <v>162161159.0528451</v>
       </c>
       <c r="G8">
-        <v>74.82745795796043</v>
+        <v>162541704.6594861</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>807.9165395997011</v>
+        <v>1375789080.690856</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.52051498642058</v>
+        <v>61354449.15133987</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1974.287114035509</v>
+        <v>4656060305.159842</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>405.6630042949522</v>
+        <v>729582527.9542121</v>
       </c>
       <c r="C7">
-        <v>444.4701328103455</v>
+        <v>1048216202.949979</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1707.298100346381</v>
+        <v>3070565594.678846</v>
       </c>
       <c r="C8">
-        <v>2256.840579629125</v>
+        <v>5322420312.214076</v>
       </c>
       <c r="D8">
-        <v>64.63332316797606</v>
+        <v>110063126.4552684</v>
       </c>
       <c r="E8">
-        <v>1.161641198913646</v>
+        <v>4908355.932107187</v>
       </c>
       <c r="F8">
-        <v>78.97148456142044</v>
+        <v>186242412.2063939</v>
       </c>
       <c r="G8">
-        <v>85.01331371052974</v>
+        <v>177779873.090419</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>791.4204445865971</v>
+        <v>1322866054.105439</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.8906596874219</v>
+        <v>68864880.10253169</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2504.043791198229</v>
+        <v>5280807980.846852</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>399.1449378709668</v>
+        <v>711969332.2441286</v>
       </c>
       <c r="C7">
-        <v>563.7339516246168</v>
+        <v>1188865291.125391</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1679.865767829536</v>
+        <v>2996437623.287621</v>
       </c>
       <c r="C8">
-        <v>2862.414286640014</v>
+        <v>6036579816.419836</v>
       </c>
       <c r="D8">
-        <v>63.31363556692774</v>
+        <v>105829284.3284351</v>
       </c>
       <c r="E8">
-        <v>1.271252774993751</v>
+        <v>5509190.408202532</v>
       </c>
       <c r="F8">
-        <v>100.1617516479293</v>
+        <v>211232319.2338743</v>
       </c>
       <c r="G8">
-        <v>96.28788894955834</v>
+        <v>190083462.3369519</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>810.372657372599</v>
+        <v>1324203190.229594</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.53355423494594</v>
+        <v>99339924.13676615</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3194.637951992417</v>
+        <v>5932907067.847981</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>415.3345031835218</v>
+        <v>744885273.7193015</v>
       </c>
       <c r="C7">
-        <v>719.2070214654206</v>
+        <v>1335671986.942017</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1748.002161365343</v>
+        <v>3134969665.294623</v>
       </c>
       <c r="C8">
-        <v>3651.844007907603</v>
+        <v>6782005175.791747</v>
       </c>
       <c r="D8">
-        <v>64.82981258980789</v>
+        <v>105936255.2183674</v>
       </c>
       <c r="E8">
-        <v>1.802684338795675</v>
+        <v>7947193.930941288</v>
       </c>
       <c r="F8">
-        <v>127.7855180796968</v>
+        <v>237316282.7139195</v>
       </c>
       <c r="G8">
-        <v>113.4541524648942</v>
+        <v>208055726.0661318</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>812.7214548650845</v>
+        <v>1301860272.358797</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.95371433198734</v>
+        <v>159611170.5654437</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4101.587140755801</v>
+        <v>6631355827.058598</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>430.6797538387691</v>
+        <v>797913061.0215325</v>
       </c>
       <c r="C7">
-        <v>923.3879754493233</v>
+        <v>1492913358.047872</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1812.585120658308</v>
+        <v>3358145650.208556</v>
       </c>
       <c r="C8">
-        <v>4688.592775759868</v>
+        <v>7580413619.716675</v>
       </c>
       <c r="D8">
-        <v>65.01771638920673</v>
+        <v>104148821.7887037</v>
       </c>
       <c r="E8">
-        <v>2.876297146558985</v>
+        <v>12768893.64523549</v>
       </c>
       <c r="F8">
-        <v>164.0634856302322</v>
+        <v>265254233.0823441</v>
       </c>
       <c r="G8">
-        <v>135.4067729288092</v>
+        <v>229082641.9069404</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.560270578589934E-06</v>
+        <v>14.47948053927126</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.015216863124256E-07</v>
+        <v>3.259757201757718</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.069804771099221E-06</v>
+        <v>16.551736077628</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.424108231435975E-07</v>
+        <v>0.5791792215708511</v>
       </c>
       <c r="G8">
-        <v>8.015216863124255E-08</v>
+        <v>0.3259757201757717</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>829.650120825924</v>
+        <v>1292799433.651452</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50.33753415144726</v>
+        <v>223767074.6893836</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5296.511680264077</v>
+        <v>7415497060.017845</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>454.088646379761</v>
+        <v>861470598.2827249</v>
       </c>
       <c r="C7">
-        <v>1192.400656025443</v>
+        <v>1669446626.931476</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1911.105215770036</v>
+        <v>3625637784.023724</v>
       </c>
       <c r="C8">
-        <v>6054.530977546877</v>
+        <v>8476778561.837763</v>
       </c>
       <c r="D8">
-        <v>66.37200966607388</v>
+        <v>103423954.6921161</v>
       </c>
       <c r="E8">
-        <v>4.027002732115778</v>
+        <v>17901365.97515067</v>
       </c>
       <c r="F8">
-        <v>211.8604672105633</v>
+        <v>296619882.400714</v>
       </c>
       <c r="G8">
-        <v>164.6489302405204</v>
+        <v>253091722.52142</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>855.0152427131515</v>
+        <v>1279920944.190228</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66.21947656229931</v>
+        <v>288197291.2259485</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6868.563316269896</v>
+        <v>8349765677.348493</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>483.159371583222</v>
+        <v>923474379.1099944</v>
       </c>
       <c r="C7">
-        <v>1546.31574490631</v>
+        <v>1879777988.299021</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2033.4540456857</v>
+        <v>3886590683.59778</v>
       </c>
       <c r="C8">
-        <v>7851.569463078153</v>
+        <v>9544756624.84399</v>
       </c>
       <c r="D8">
-        <v>68.40121941705208</v>
+        <v>102393675.5352182</v>
       </c>
       <c r="E8">
-        <v>5.297558124983942</v>
+        <v>23055783.29807587</v>
       </c>
       <c r="F8">
-        <v>274.7425326507961</v>
+        <v>333990627.09394</v>
       </c>
       <c r="G8">
-        <v>202.9475116489532</v>
+        <v>280325236.7409015</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>843.4513990208003</v>
+        <v>1223563381.223077</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.29250840535781</v>
+        <v>298287447.8393159</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8924.082861205117</v>
+        <v>9525446932.19171</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>484.0038539392269</v>
+        <v>906933701.5751872</v>
       </c>
       <c r="C7">
-        <v>2009.073688589666</v>
+        <v>2144458439.1655</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2037.008185715525</v>
+        <v>3816976577.715239</v>
       </c>
       <c r="C8">
-        <v>10201.26819141983</v>
+        <v>10888697506.47998</v>
       </c>
       <c r="D8">
-        <v>67.47611192166399</v>
+        <v>97885070.49784608</v>
       </c>
       <c r="E8">
-        <v>5.783400672428622</v>
+        <v>23862995.82714526</v>
       </c>
       <c r="F8">
-        <v>356.963314448205</v>
+        <v>381017877.2876687</v>
       </c>
       <c r="G8">
-        <v>249.3077542528892</v>
+        <v>305139214.0740686</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>811.8100236927841</v>
+        <v>1150292552.224827</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67.65742590964264</v>
+        <v>261792337.1059656</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11583.57999746167</v>
+        <v>11057741729.4608</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>463.8104954986497</v>
+        <v>832893484.0683279</v>
       </c>
       <c r="C7">
-        <v>2607.804763192336</v>
+        <v>2489423093.599519</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1952.021183844031</v>
+        <v>3505366395.469525</v>
       </c>
       <c r="C8">
-        <v>13241.38379357398</v>
+        <v>12640289285.53127</v>
       </c>
       <c r="D8">
-        <v>64.94480189542269</v>
+        <v>92023404.17798613</v>
       </c>
       <c r="E8">
-        <v>5.412594072771409</v>
+        <v>20943386.96847724</v>
       </c>
       <c r="F8">
-        <v>463.3431998984673</v>
+        <v>442309669.1784325</v>
       </c>
       <c r="G8">
-        <v>307.1615258690985</v>
+        <v>332231657.7667846</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>773.8794281456991</v>
+        <v>1045611539.310686</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70.11915042459856</v>
+        <v>256495886.4095519</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14975.21072928354</v>
+        <v>13077103832.88185</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>448.0937521744845</v>
+        <v>776715912.8188782</v>
       </c>
       <c r="C7">
-        <v>3371.360656911958</v>
+        <v>2944040933.081395</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1885.874737811528</v>
+        <v>3268934037.426536</v>
       </c>
       <c r="C8">
-        <v>17118.41353878011</v>
+        <v>14948655838.48436</v>
       </c>
       <c r="D8">
-        <v>61.9103542516559</v>
+        <v>83648923.1448548</v>
       </c>
       <c r="E8">
-        <v>5.609532033967882</v>
+        <v>20519670.91276414</v>
       </c>
       <c r="F8">
-        <v>599.0084291713423</v>
+        <v>523084153.3152746</v>
       </c>
       <c r="G8">
-        <v>381.9454409086442</v>
+        <v>372075684.5900273</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>817.9084890401291</v>
+        <v>1029399665.00484</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.6928317031559</v>
+        <v>235824445.048554</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19224.24359576825</v>
+        <v>15715062947.42064</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>472.0885211244848</v>
+        <v>746995329.6551666</v>
       </c>
       <c r="C7">
-        <v>4327.94300456335</v>
+        <v>3537923165.12955</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1986.860588167258</v>
+        <v>3143850175.601912</v>
       </c>
       <c r="C8">
-        <v>21975.55398663498</v>
+        <v>17964150968.22999</v>
       </c>
       <c r="D8">
-        <v>65.43267912321029</v>
+        <v>82351973.20038719</v>
       </c>
       <c r="E8">
-        <v>5.81542653625247</v>
+        <v>18865955.60388431</v>
       </c>
       <c r="F8">
-        <v>768.9697438307305</v>
+        <v>628602517.8968261</v>
       </c>
       <c r="G8">
-        <v>480.0031525687834</v>
+        <v>428491849.4784715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1003.971240779904</v>
+        <v>1184294858.144105</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.31675734073767</v>
+        <v>204585620.2708075</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>24438.55090486019</v>
+        <v>19086214997.64985</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>561.5732418430089</v>
+        <v>788743126.2836106</v>
       </c>
       <c r="C7">
-        <v>5501.837037356175</v>
+        <v>4296868704.933287</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2363.471450077851</v>
+        <v>3319552502.712732</v>
       </c>
       <c r="C8">
-        <v>27936.11577430808</v>
+        <v>21817771190.42041</v>
       </c>
       <c r="D8">
-        <v>80.31769926239225</v>
+        <v>94743588.65152833</v>
       </c>
       <c r="E8">
-        <v>5.78534058725901</v>
+        <v>16366849.62166459</v>
       </c>
       <c r="F8">
-        <v>977.5420361944085</v>
+        <v>763448599.9059945</v>
       </c>
       <c r="G8">
-        <v>606.3410279199182</v>
+        <v>508561183.1216897</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1403.223811089961</v>
+        <v>1592757409.454473</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67.6700937371852</v>
+        <v>174148577.5234949</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30690.82096751063</v>
+        <v>23269123173.42614</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>749.5232918234697</v>
+        <v>953832909.9131961</v>
       </c>
       <c r="C7">
-        <v>6909.407033308853</v>
+        <v>5238564438.650835</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3154.489511607405</v>
+        <v>4014359450.827852</v>
       </c>
       <c r="C8">
-        <v>35083.19012427319</v>
+        <v>26599323399.74339</v>
       </c>
       <c r="D8">
-        <v>112.2579048871968</v>
+        <v>127420592.7563578</v>
       </c>
       <c r="E8">
-        <v>5.413607498974813</v>
+        <v>13931886.20187958</v>
       </c>
       <c r="F8">
-        <v>1227.632838700426</v>
+        <v>930764926.9370463</v>
       </c>
       <c r="G8">
-        <v>765.8930325132321</v>
+        <v>619239734.856403</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2152.654376377029</v>
+        <v>2424558329.419892</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79.4077627732553</v>
+        <v>193367206.2381386</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>37998.8079521371</v>
+        <v>28288992021.87918</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1123.986216444482</v>
+        <v>1376008777.605816</v>
       </c>
       <c r="C7">
-        <v>8554.649978238891</v>
+        <v>6368684651.613086</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4730.477050739182</v>
+        <v>5791154596.780145</v>
       </c>
       <c r="C8">
-        <v>43437.0721230238</v>
+        <v>32337619335.05342</v>
       </c>
       <c r="D8">
-        <v>172.2123501101622</v>
+        <v>193964666.3535913</v>
       </c>
       <c r="E8">
-        <v>6.352621021860421</v>
+        <v>15469376.49905108</v>
       </c>
       <c r="F8">
-        <v>1519.952318085486</v>
+        <v>1131559680.875168</v>
       </c>
       <c r="G8">
-        <v>967.8636194683371</v>
+        <v>774469342.92189</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3261.47915404035</v>
+        <v>3677044377.862302</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>123.6535669828346</v>
+        <v>299343902.588824</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>46305.48074178176</v>
+        <v>34104142221.73262</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1706.48765519122</v>
+        <v>2093276703.017501</v>
       </c>
       <c r="C7">
-        <v>10424.72648928836</v>
+        <v>7677846101.974698</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7182.028188733142</v>
+        <v>8809892202.944439</v>
       </c>
       <c r="C8">
-        <v>52932.5685480863</v>
+        <v>38985014667.96528</v>
       </c>
       <c r="D8">
-        <v>260.9183323232278</v>
+        <v>294163550.2289841</v>
       </c>
       <c r="E8">
-        <v>9.89228535862676</v>
+        <v>23947512.2071059</v>
       </c>
       <c r="F8">
-        <v>1852.219229671272</v>
+        <v>1364165688.869306</v>
       </c>
       <c r="G8">
-        <v>1213.121414447957</v>
+        <v>977112280.4992197</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.921281003525125E-05</v>
+        <v>159.4769575127164</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.827957575334454E-06</v>
+        <v>35.90295655679998</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.482481818358842E-05</v>
+        <v>182.3007741233806</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.568512401410051E-06</v>
+        <v>6.379078300508662</v>
       </c>
       <c r="G8">
-        <v>8.827957575334453E-07</v>
+        <v>3.590295655679997</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4551.571054764599</v>
+        <v>5140819787.005578</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>176.0046600978788</v>
+        <v>426313840.5025715</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55461.47614864787</v>
+        <v>40597150200.77676</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2385.138057482712</v>
+        <v>2934843737.099625</v>
       </c>
       <c r="C7">
-        <v>12486.01051711264</v>
+        <v>9139613287.845352</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10038.23772809041</v>
+        <v>12351762630.83751</v>
       </c>
       <c r="C8">
-        <v>63398.93984444562</v>
+        <v>46407280551.57828</v>
       </c>
       <c r="D8">
-        <v>364.1256843811677</v>
+        <v>411265582.9604461</v>
       </c>
       <c r="E8">
-        <v>14.0803728078303</v>
+        <v>34105107.24020571</v>
       </c>
       <c r="F8">
-        <v>2218.459045945917</v>
+        <v>1623886008.031072</v>
       </c>
       <c r="G8">
-        <v>1487.114857459535</v>
+        <v>1207445702.494497</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6338.944974595844</v>
+        <v>7165175315.949172</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>245.4306920376126</v>
+        <v>594749296.220588</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65212.88739942872</v>
+        <v>47570924791.00388</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3322.095432213977</v>
+        <v>4091122869.952055</v>
       </c>
       <c r="C7">
-        <v>14681.34017454204</v>
+        <v>10709615186.89635</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13981.57377068681</v>
+        <v>17218149622.22744</v>
       </c>
       <c r="C8">
-        <v>74545.9409381368</v>
+        <v>54379118779.42377</v>
       </c>
       <c r="D8">
-        <v>507.1155979676672</v>
+        <v>573214025.2759335</v>
       </c>
       <c r="E8">
-        <v>19.634455363009</v>
+        <v>47579943.69764701</v>
       </c>
       <c r="F8">
-        <v>2608.515495977151</v>
+        <v>1902836991.640157</v>
       </c>
       <c r="G8">
-        <v>1800.343560675602</v>
+        <v>1480073805.68484</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8985.362616532408</v>
+        <v>10143564839.81871</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>348.6863434857337</v>
+        <v>844880082.9733275</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75198.04951000676</v>
+        <v>54750452774.48586</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4709.860657467441</v>
+        <v>5794782590.747834</v>
       </c>
       <c r="C7">
-        <v>16929.29402981987</v>
+        <v>12325938230.10922</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19822.20727119528</v>
+        <v>24388275993.51575</v>
       </c>
       <c r="C8">
-        <v>85960.14654436476</v>
+        <v>62586157148.11646</v>
       </c>
       <c r="D8">
-        <v>718.8290093225922</v>
+        <v>811485187.1854962</v>
       </c>
       <c r="E8">
-        <v>27.89490747885868</v>
+        <v>67590406.63786617</v>
       </c>
       <c r="F8">
-        <v>3007.921980400273</v>
+        <v>2190018110.979436</v>
       </c>
       <c r="G8">
-        <v>2163.915468728731</v>
+        <v>1812072082.085705</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10793.55897591352</v>
+        <v>12160797571.7206</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>420.0819784953718</v>
+        <v>1017312368.235763</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84957.22979850636</v>
+        <v>61792023783.39474</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5658.962519582457</v>
+        <v>6951853091.900586</v>
       </c>
       <c r="C7">
-        <v>19126.37272628321</v>
+        <v>13911203098.25996</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23816.65534525728</v>
+        <v>29257993585.87622</v>
       </c>
       <c r="C8">
-        <v>97116.02855485052</v>
+        <v>70635494594.66566</v>
       </c>
       <c r="D8">
-        <v>863.484718073081</v>
+        <v>972863805.7376477</v>
       </c>
       <c r="E8">
-        <v>33.60655827962973</v>
+        <v>81384989.45886096</v>
       </c>
       <c r="F8">
-        <v>3398.289191940258</v>
+        <v>2471680951.335792</v>
       </c>
       <c r="G8">
-        <v>2478.533524586566</v>
+        <v>2086305619.016054</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10972.9185518633</v>
+        <v>12338878909.6517</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>427.8937141066656</v>
+        <v>1035004011.432386</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>93958.3517694347</v>
+        <v>68302297849.54332</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5753.87914447059</v>
+        <v>7056614053.445821</v>
       </c>
       <c r="C7">
-        <v>21152.79018573926</v>
+        <v>15376857388.48026</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24216.12725087127</v>
+        <v>29698896968.09984</v>
       </c>
       <c r="C8">
-        <v>107405.3614394985</v>
+        <v>78077497630.86995</v>
       </c>
       <c r="D8">
-        <v>877.8334841490639</v>
+        <v>987110312.7721353</v>
       </c>
       <c r="E8">
-        <v>34.23149712853323</v>
+        <v>82800320.91459084</v>
       </c>
       <c r="F8">
-        <v>3758.334070777391</v>
+        <v>2732091913.981735</v>
       </c>
       <c r="G8">
-        <v>2690.666933020984</v>
+        <v>2243347144.192608</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10839.95628383655</v>
+        <v>12177682892.20553</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>422.7438112171745</v>
+        <v>1021333188.176206</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>101639.55568786</v>
+        <v>73868560997.84633</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5684.194681635536</v>
+        <v>6964267672.955291</v>
       </c>
       <c r="C7">
-        <v>22882.05524627414</v>
+        <v>16629987038.77036</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23922.84896381446</v>
+        <v>29310242350.06445</v>
       </c>
       <c r="C8">
-        <v>116185.873949695</v>
+        <v>84440386017.60864</v>
       </c>
       <c r="D8">
-        <v>867.1965027069238</v>
+        <v>974214631.376442</v>
       </c>
       <c r="E8">
-        <v>33.81950489737394</v>
+        <v>81706655.05409642</v>
       </c>
       <c r="F8">
-        <v>4065.582227514404</v>
+        <v>2954742439.913856</v>
       </c>
       <c r="G8">
-        <v>2856.624992790967</v>
+        <v>2359425471.172565</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10580.01059786126</v>
+        <v>11888506452.31368</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>412.6881943721041</v>
+        <v>997531778.4738352</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>107465.5665625977</v>
+        <v>78098763614.67683</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5547.972582339452</v>
+        <v>6799369411.137893</v>
       </c>
       <c r="C7">
-        <v>24193.66175418279</v>
+        <v>17582330143.04872</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23349.53631540666</v>
+        <v>28616241452.34747</v>
       </c>
       <c r="C8">
-        <v>122845.6843014897</v>
+        <v>89276001292.53297</v>
       </c>
       <c r="D8">
-        <v>846.4008478289001</v>
+        <v>951080516.1850939</v>
       </c>
       <c r="E8">
-        <v>33.01505554976831</v>
+        <v>79802542.27790678</v>
       </c>
       <c r="F8">
-        <v>4298.622662503911</v>
+        <v>3123950544.587076</v>
       </c>
       <c r="G8">
-        <v>2974.163433652223</v>
+        <v>2438169955.418661</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10154.9973321975</v>
+        <v>11414784870.12715</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>397.030309470193</v>
+        <v>961778795.921385</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>110990.3764701304</v>
+        <v>80666347090.07407</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5326.077620028069</v>
+        <v>6532665817.657245</v>
       </c>
       <c r="C7">
-        <v>24987.20019982961</v>
+        <v>18160368747.56495</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22415.65562227053</v>
+        <v>27493776416.87681</v>
       </c>
       <c r="C8">
-        <v>126874.9533871489</v>
+        <v>92211048853.58263</v>
       </c>
       <c r="D8">
-        <v>812.3997865757997</v>
+        <v>913182789.6101718</v>
       </c>
       <c r="E8">
-        <v>31.76242475761542</v>
+        <v>76942303.67371076</v>
       </c>
       <c r="F8">
-        <v>4439.615058805219</v>
+        <v>3226653883.602965</v>
       </c>
       <c r="G8">
-        <v>3031.327781985767</v>
+        <v>2469303456.522219</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9772.134393995924</v>
+        <v>10983874336.47506</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>383.0892736434303</v>
+        <v>929925286.1170478</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>111915.2265600976</v>
+        <v>81351941224.75258</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5126.362551700998</v>
+        <v>6290772476.860368</v>
       </c>
       <c r="C7">
-        <v>25195.41117349956</v>
+        <v>18314716164.37591</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21575.12258584545</v>
+        <v>26475729326.41876</v>
       </c>
       <c r="C8">
-        <v>127932.1649741937</v>
+        <v>92994762961.4742</v>
       </c>
       <c r="D8">
-        <v>781.7707515196736</v>
+        <v>878709946.9180046</v>
       </c>
       <c r="E8">
-        <v>30.6471418914744</v>
+        <v>74394022.88936378</v>
       </c>
       <c r="F8">
-        <v>4476.609062403907</v>
+        <v>3254077648.990106</v>
       </c>
       <c r="G8">
-        <v>3032.177372520056</v>
+        <v>2460548864.123627</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9415.661994584751</v>
+        <v>10577943108.19465</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>369.8660713185188</v>
+        <v>899008395.6875621</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>110129.9959487687</v>
+        <v>80073195255.72806</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4940.156302914856</v>
+        <v>6061937891.034123</v>
       </c>
       <c r="C7">
-        <v>24793.50322339775</v>
+        <v>18026832813.14374</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20791.44359254474</v>
+        <v>25512642109.84174</v>
       </c>
       <c r="C8">
-        <v>125891.4380409121</v>
+        <v>91533007083.40802</v>
       </c>
       <c r="D8">
-        <v>753.2529595667796</v>
+        <v>846235448.6555718</v>
       </c>
       <c r="E8">
-        <v>29.58928570548149</v>
+        <v>71920671.65500493</v>
       </c>
       <c r="F8">
-        <v>4405.199837950752</v>
+        <v>3202927810.229125</v>
       </c>
       <c r="G8">
-        <v>2973.36595263126</v>
+        <v>2408877070.417786</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002187080123950813</v>
+        <v>889.4768920938303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.92376101859013E-05</v>
+        <v>200.2474257923802</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0002500087823874495</v>
+        <v>1016.77589366247</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8.74832049580326E-06</v>
+        <v>35.57907568375325</v>
       </c>
       <c r="G8">
-        <v>4.923761018590129E-06</v>
+        <v>20.02474257923802</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8560.929507645698</v>
+        <v>9608519249.412903</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>337.117484933059</v>
+        <v>820754130.1467572</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>105728.9260155196</v>
+        <v>76896034846.24576</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4492.575823219349</v>
+        <v>5510766529.693423</v>
       </c>
       <c r="C7">
-        <v>23802.69285755364</v>
+        <v>17311560500.86294</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18907.72904464219</v>
+        <v>23192948649.45878</v>
       </c>
       <c r="C8">
-        <v>120860.5014823283</v>
+        <v>87901141946.29819</v>
       </c>
       <c r="D8">
-        <v>684.8743606116556</v>
+        <v>768681539.9530319</v>
       </c>
       <c r="E8">
-        <v>26.9693987946447</v>
+        <v>65660330.41174055</v>
       </c>
       <c r="F8">
-        <v>4229.157040620788</v>
+        <v>3075841393.849833</v>
       </c>
       <c r="G8">
-        <v>2829.526868077298</v>
+        <v>2282232703.055635</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6627.66644825356</v>
+        <v>7424834476.508821</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>262.3647262206962</v>
+        <v>641331152.8397658</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>98997.78944222593</v>
+        <v>72025176468.9754</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3479.502051153544</v>
+        <v>4265884160.762875</v>
       </c>
       <c r="C7">
-        <v>22287.31591697223</v>
+        <v>16214986930.355</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14644.04488255106</v>
+        <v>17953660666.26254</v>
       </c>
       <c r="C8">
-        <v>113166.0268247979</v>
+        <v>82333182369.74974</v>
       </c>
       <c r="D8">
-        <v>530.2133158602845</v>
+        <v>593986758.1207054</v>
       </c>
       <c r="E8">
-        <v>20.98917809765569</v>
+        <v>51306492.22718124</v>
       </c>
       <c r="F8">
-        <v>3959.911577689041</v>
+        <v>2881007058.759019</v>
       </c>
       <c r="G8">
-        <v>2576.681796812577</v>
+        <v>2048087109.111787</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3614.102815241162</v>
+        <v>4031083232.9486</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>146.0726695260613</v>
+        <v>363299804.4754559</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>90377.14633391306</v>
+        <v>65777254814.53128</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1900.57219198657</v>
+        <v>2332028173.10006</v>
       </c>
       <c r="C7">
-        <v>20346.55544701685</v>
+        <v>14808395889.06359</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7998.864226205223</v>
+        <v>9814716224.388807</v>
       </c>
       <c r="C8">
-        <v>103311.6256837333</v>
+        <v>75191078757.84346</v>
       </c>
       <c r="D8">
-        <v>289.1282252192929</v>
+        <v>322486658.6358879</v>
       </c>
       <c r="E8">
-        <v>11.6858135620849</v>
+        <v>29063984.35803646</v>
       </c>
       <c r="F8">
-        <v>3615.085853356526</v>
+        <v>2631090192.581254</v>
       </c>
       <c r="G8">
-        <v>2224.712763900342</v>
+        <v>1714042406.216365</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1507.420716632936</v>
+        <v>1664718313.590897</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66.52349183299314</v>
+        <v>177219637.4070409</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80412.07773769468</v>
+        <v>58544115871.94884</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>798.6444579298144</v>
+        <v>991847630.1872011</v>
       </c>
       <c r="C7">
-        <v>18103.12523317525</v>
+        <v>13180003441.18203</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3361.223851915117</v>
+        <v>4174350524.753386</v>
       </c>
       <c r="C8">
-        <v>91920.38930942297</v>
+        <v>66922756806.25616</v>
       </c>
       <c r="D8">
-        <v>120.5936573306348</v>
+        <v>133177465.0872717</v>
       </c>
       <c r="E8">
-        <v>5.321879346639449</v>
+        <v>14177570.99256326</v>
       </c>
       <c r="F8">
-        <v>3216.48310950779</v>
+        <v>2341764634.877955</v>
       </c>
       <c r="G8">
-        <v>1890.176969110506</v>
+        <v>1417185107.136923</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1173.050264332881</v>
+        <v>1290428162.329036</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.62605909915787</v>
+        <v>159887453.0536012</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69699.92319725665</v>
+        <v>50754656044.96899</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>626.6368429660755</v>
+        <v>792683007.8838259</v>
       </c>
       <c r="C7">
-        <v>15691.5039864857</v>
+        <v>11426366789.65075</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2637.30209626204</v>
+        <v>3336134129.088369</v>
       </c>
       <c r="C8">
-        <v>79675.14651254164</v>
+        <v>58018495158.62491</v>
       </c>
       <c r="D8">
-        <v>93.84402114663045</v>
+        <v>103234252.9863229</v>
       </c>
       <c r="E8">
-        <v>4.530084727932628</v>
+        <v>12790996.24428809</v>
       </c>
       <c r="F8">
-        <v>2787.996927890269</v>
+        <v>2030186241.798762</v>
       </c>
       <c r="G8">
-        <v>1631.814082945177</v>
+        <v>1221904979.753458</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1053.110131003703</v>
+        <v>1156146030.301875</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52.79859095088292</v>
+        <v>152464935.0576974</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58843.45946643526</v>
+        <v>42840626809.29619</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>564.6434206456532</v>
+        <v>719954476.6078218</v>
       </c>
       <c r="C7">
-        <v>13247.39449400887</v>
+        <v>9644685898.134192</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2376.392792132665</v>
+        <v>3030044389.639952</v>
       </c>
       <c r="C8">
-        <v>67264.94146951321</v>
+        <v>48971836139.04098</v>
       </c>
       <c r="D8">
-        <v>84.24881048029617</v>
+        <v>92491682.42414995</v>
       </c>
       <c r="E8">
-        <v>4.223887276070632</v>
+        <v>12197194.80461579</v>
       </c>
       <c r="F8">
-        <v>2353.738378657412</v>
+        <v>1713625072.371849</v>
       </c>
       <c r="G8">
-        <v>1381.203791465452</v>
+        <v>1036464037.474201</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>781.2121294114103</v>
+        <v>857112356.9147992</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.56610674287836</v>
+        <v>116311724.4287768</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>48410.34398347852</v>
+        <v>35207051542.27657</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>419.2834304001602</v>
+        <v>537215083.564908</v>
       </c>
       <c r="C7">
-        <v>10898.59315130201</v>
+        <v>7926143448.746076</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1764.621857674822</v>
+        <v>2260956217.197751</v>
       </c>
       <c r="C8">
-        <v>55338.67288046028</v>
+        <v>40245768735.88147</v>
       </c>
       <c r="D8">
-        <v>62.49697035291279</v>
+        <v>68568988.5531839</v>
       </c>
       <c r="E8">
-        <v>3.165288539430267</v>
+        <v>9304937.954302143</v>
       </c>
       <c r="F8">
-        <v>1936.413759339143</v>
+        <v>1408282061.691064</v>
       </c>
       <c r="G8">
-        <v>1131.787658170217</v>
+        <v>846335853.2310982</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>350.7619808034395</v>
+        <v>389426998.5101106</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.74542813580195</v>
+        <v>55702790.62968751</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>38895.35668082464</v>
+        <v>28204828903.20832</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>188.2362486563224</v>
+        <v>247107514.28239</v>
       </c>
       <c r="C7">
-        <v>8756.489482573277</v>
+        <v>6349737056.672396</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>792.2225747596165</v>
+        <v>1039991779.503987</v>
       </c>
       <c r="C8">
-        <v>44461.93195122837</v>
+        <v>32241411068.19386</v>
       </c>
       <c r="D8">
-        <v>28.06095846427515</v>
+        <v>31154159.88080883</v>
       </c>
       <c r="E8">
-        <v>1.419634250864155</v>
+        <v>4456223.250374999</v>
       </c>
       <c r="F8">
-        <v>1555.814267232987</v>
+        <v>1128193156.128334</v>
       </c>
       <c r="G8">
-        <v>894.4725731229597</v>
+        <v>659684457.0954785</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55.18586793282268</v>
+        <v>73461974.86642931</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.366209571726579</v>
+        <v>10384210.6635579</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30683.51796794756</v>
+        <v>22104254486.82812</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.16469276723651</v>
+        <v>46483744.97821525</v>
       </c>
       <c r="C7">
-        <v>6907.762913179297</v>
+        <v>4976318215.111171</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>122.7443075447054</v>
+        <v>195634328.6374465</v>
       </c>
       <c r="C8">
-        <v>35074.84194347934</v>
+        <v>25267742545.48755</v>
       </c>
       <c r="D8">
-        <v>4.414869434625812</v>
+        <v>5876957.989314342</v>
       </c>
       <c r="E8">
-        <v>0.1892967657381263</v>
+        <v>830736.8530846313</v>
       </c>
       <c r="F8">
-        <v>1227.340718717904</v>
+        <v>884170179.4731255</v>
       </c>
       <c r="G8">
-        <v>693.6927605946532</v>
+        <v>502280196.0089386</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>38.20566316789409</v>
+        <v>68913674.84634893</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5590112658075218</v>
+        <v>1616162.356712745</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>24018.43787061702</v>
+        <v>17072759561.59339</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04827730428926</v>
+        <v>35002079.001768</v>
       </c>
       <c r="C7">
-        <v>5407.257229385013</v>
+        <v>3843580630.108912</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80.16774345249017</v>
+        <v>147311887.83595</v>
       </c>
       <c r="C8">
-        <v>27455.87754706609</v>
+        <v>19516156647.59999</v>
       </c>
       <c r="D8">
-        <v>3.056453053431525</v>
+        <v>5513093.987707911</v>
       </c>
       <c r="E8">
-        <v>0.04472090126460172</v>
+        <v>129292.9885370196</v>
       </c>
       <c r="F8">
-        <v>960.7375148246819</v>
+        <v>682910382.4637361</v>
       </c>
       <c r="G8">
-        <v>542.6305506689301</v>
+        <v>387858270.9110679</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0008686279407737503</v>
+        <v>3532.675701654701</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0001955537132637851</v>
+        <v>795.3092673946838</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0009929431091361646</v>
+        <v>4038.260606314593</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -15518,10 +15518,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.474511763095005E-05</v>
+        <v>141.3070280661882</v>
       </c>
       <c r="G8">
-        <v>1.95553713263785E-05</v>
+        <v>79.53092673946837</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>110.5606794149841</v>
+        <v>170639450.1864052</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.723110055506473</v>
+        <v>3096647.643345419</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18985.79753774983</v>
+        <v>13164159979.50806</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>55.23410516637739</v>
+        <v>85711315.33775829</v>
       </c>
       <c r="C7">
-        <v>4274.261779415241</v>
+        <v>2963639833.756897</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>232.4616290528759</v>
+        <v>360729877.5215556</v>
       </c>
       <c r="C8">
-        <v>21702.98231458035</v>
+        <v>15048171173.9264</v>
       </c>
       <c r="D8">
-        <v>8.844854353198723</v>
+        <v>13651156.01491241</v>
       </c>
       <c r="E8">
-        <v>0.1378488044405178</v>
+        <v>247731.8114676334</v>
       </c>
       <c r="F8">
-        <v>759.4319015099937</v>
+        <v>526566399.1803227</v>
       </c>
       <c r="G8">
-        <v>432.9495884581618</v>
+        <v>304935114.9094655</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>286.147775973806</v>
+        <v>360798795.9229231</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.015456311939053</v>
+        <v>9058652.088515574</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15521.08114098484</v>
+        <v>10326052395.12425</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>143.5427480079029</v>
+        <v>183886399.7479707</v>
       </c>
       <c r="C7">
-        <v>3494.252151599468</v>
+        <v>2324698290.759807</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>604.1227777680328</v>
+        <v>773915534.9275517</v>
       </c>
       <c r="C8">
-        <v>17742.40712491471</v>
+        <v>11803882984.91107</v>
       </c>
       <c r="D8">
-        <v>22.89182207790447</v>
+        <v>28863903.67383384</v>
       </c>
       <c r="E8">
-        <v>0.401236504955124</v>
+        <v>724692.1670812456</v>
       </c>
       <c r="F8">
-        <v>620.8432456393944</v>
+        <v>413042095.8049703</v>
       </c>
       <c r="G8">
-        <v>363.779489960737</v>
+        <v>250858469.0507777</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>609.2097441017194</v>
+        <v>644273968.2455887</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.0166494438758</v>
+        <v>24508134.85561906</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13442.53865966532</v>
+        <v>8425937573.856678</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>308.0795489595789</v>
+        <v>337186652.1501623</v>
       </c>
       <c r="C7">
-        <v>3026.311067368993</v>
+        <v>1896926523.948532</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1296.602409205211</v>
+        <v>1419104341.739678</v>
       </c>
       <c r="C8">
-        <v>15366.39049340438</v>
+        <v>9631829992.159649</v>
       </c>
       <c r="D8">
-        <v>48.73677952813753</v>
+        <v>51541917.45964707</v>
       </c>
       <c r="E8">
-        <v>1.041331955510064</v>
+        <v>1960650.788449524</v>
       </c>
       <c r="F8">
-        <v>537.7015463866135</v>
+        <v>337037502.9542674</v>
       </c>
       <c r="G8">
-        <v>333.4390616328571</v>
+        <v>223411317.6098694</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>998.6666682175451</v>
+        <v>999694593.7417065</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.38797136627604</v>
+        <v>56542260.58911265</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12499.59298210857</v>
+        <v>7288633795.492036</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>512.4945599863008</v>
+        <v>542803683.0203371</v>
       </c>
       <c r="C7">
-        <v>2814.026244377917</v>
+        <v>1640885972.489841</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2156.915911578368</v>
+        <v>2284476738.25299</v>
       </c>
       <c r="C8">
-        <v>14288.49353790732</v>
+        <v>8331759044.964736</v>
       </c>
       <c r="D8">
-        <v>79.89333345740357</v>
+        <v>79975567.49933648</v>
       </c>
       <c r="E8">
-        <v>2.271037709302082</v>
+        <v>4523380.84712901</v>
       </c>
       <c r="F8">
-        <v>499.9837192843434</v>
+        <v>291545351.8196817</v>
       </c>
       <c r="G8">
-        <v>332.6520804364217</v>
+        <v>218368965.5510178</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1368.944740252537</v>
+        <v>1375576039.082166</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49.26969909160405</v>
+        <v>102934656.2214365</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12420.67711525617</v>
+        <v>6732819215.659664</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>713.4796410292666</v>
+        <v>773508859.8207563</v>
       </c>
       <c r="C7">
-        <v>2796.259960248637</v>
+        <v>1515755752.898296</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3002.794001099998</v>
+        <v>3255436638.271491</v>
       </c>
       <c r="C8">
-        <v>14198.2834922544</v>
+        <v>7696398114.126667</v>
       </c>
       <c r="D8">
-        <v>109.5155792202029</v>
+        <v>110046083.1265733</v>
       </c>
       <c r="E8">
-        <v>3.941575927328322</v>
+        <v>8234772.49771492</v>
       </c>
       <c r="F8">
-        <v>496.8270846102472</v>
+        <v>269312768.6263868</v>
       </c>
       <c r="G8">
-        <v>350.9739601277903</v>
+        <v>228926461.2719052</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1777.152174322084</v>
+        <v>1726601052.277587</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.69990833133782</v>
+        <v>144684222.4582783</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12947.07532986152</v>
+        <v>6596302008.643076</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>932.3094750555985</v>
+        <v>987290136.2838134</v>
       </c>
       <c r="C7">
-        <v>2914.767690301401</v>
+        <v>1485021711.885622</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3923.774608098178</v>
+        <v>4155169577.510939</v>
       </c>
       <c r="C8">
-        <v>14800.01808461436</v>
+        <v>7540343014.327678</v>
       </c>
       <c r="D8">
-        <v>142.1721739457666</v>
+        <v>138128084.1822069</v>
       </c>
       <c r="E8">
-        <v>5.575992666507023</v>
+        <v>11574737.79666226</v>
       </c>
       <c r="F8">
-        <v>517.8830131944615</v>
+        <v>263852080.3457233</v>
       </c>
       <c r="G8">
-        <v>384.7077165356998</v>
+        <v>247231184.8169435</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2284.516389091345</v>
+        <v>2036931496.12606</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89.75348773517911</v>
+        <v>171948031.8953649</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13848.74132595704</v>
+        <v>6746506634.339642</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1198.641021213829</v>
+        <v>1166073778.359733</v>
       </c>
       <c r="C7">
-        <v>3117.759242130949</v>
+        <v>1518837193.665077</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5044.67382248069</v>
+        <v>4907609334.791074</v>
       </c>
       <c r="C8">
-        <v>15830.72754667464</v>
+        <v>7712044431.061899</v>
       </c>
       <c r="D8">
-        <v>182.7613111273075</v>
+        <v>162954519.6900847</v>
       </c>
       <c r="E8">
-        <v>7.180279018814325</v>
+        <v>13755842.55162918</v>
       </c>
       <c r="F8">
-        <v>553.9496530382821</v>
+        <v>269860265.3735859</v>
       </c>
       <c r="G8">
-        <v>431.6400263344776</v>
+        <v>268491097.2024809</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2714.43929134459</v>
+        <v>2111121340.795416</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>106.3319694080416</v>
+        <v>178032610.5164977</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14927.46693764487</v>
+        <v>7079796947.231662</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1423.882543388381</v>
+        <v>1208356264.80896</v>
       </c>
       <c r="C7">
-        <v>3360.612124310165</v>
+        <v>1593870651.859879</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5992.639051886069</v>
+        <v>5085561990.143891</v>
       </c>
       <c r="C8">
-        <v>17063.83681301945</v>
+        <v>8093034155.193012</v>
       </c>
       <c r="D8">
-        <v>217.1551433075671</v>
+        <v>168889707.2636332</v>
       </c>
       <c r="E8">
-        <v>8.506557552643322</v>
+        <v>14242608.84131981</v>
       </c>
       <c r="F8">
-        <v>597.0986775057954</v>
+        <v>283191877.8892667</v>
       </c>
       <c r="G8">
-        <v>478.4494667698544</v>
+        <v>280222691.6668838</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2505.721274351179</v>
+        <v>1598967757.878983</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98.45140972563878</v>
+        <v>135946992.7247853</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16016.11421232917</v>
+        <v>7516183479.030984</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1314.710604266154</v>
+        <v>916381369.4092187</v>
       </c>
       <c r="C7">
-        <v>3605.698664825289</v>
+        <v>1692114103.061375</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5533.171359981416</v>
+        <v>3856738609.685051</v>
       </c>
       <c r="C8">
-        <v>18308.28769807244</v>
+        <v>8591874889.332865</v>
       </c>
       <c r="D8">
-        <v>200.4577019480942</v>
+        <v>127917420.6303186</v>
       </c>
       <c r="E8">
-        <v>7.876112778051099</v>
+        <v>10875759.41798282</v>
       </c>
       <c r="F8">
-        <v>640.6445684931674</v>
+        <v>300647339.1612396</v>
       </c>
       <c r="G8">
-        <v>492.0409269091441</v>
+        <v>260849547.2470593</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1723.901124334382</v>
+        <v>717906999.2148095</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68.02174504247046</v>
+        <v>62083028.15038582</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16979.3759893572</v>
+        <v>7994133276.611529</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>904.8080232105016</v>
+        <v>412545222.5844936</v>
       </c>
       <c r="C7">
-        <v>3822.557239711919</v>
+        <v>1799714668.600741</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3808.0303178997</v>
+        <v>1736263024.649313</v>
       </c>
       <c r="C8">
-        <v>19409.40832624639</v>
+        <v>9138227286.882832</v>
       </c>
       <c r="D8">
-        <v>137.9120899467505</v>
+        <v>57432559.93718474</v>
       </c>
       <c r="E8">
-        <v>5.441739603397634</v>
+        <v>4966642.252030863</v>
       </c>
       <c r="F8">
-        <v>679.1750395742887</v>
+        <v>319765331.0644615</v>
       </c>
       <c r="G8">
-        <v>472.736526292242</v>
+        <v>221225989.1185234</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.827322487511568E-13</v>
+        <v>4.8846205139803E-07</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.555989225201057E-16</v>
+        <v>1.054143843626955E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002840932565082944</v>
+        <v>11553.96110533607</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.368525705301288E-13</v>
+        <v>2.370818273402326E-07</v>
       </c>
       <c r="C7">
-        <v>0.0006395775292918923</v>
+        <v>2601.1366788883</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.759660881565764E-13</v>
+        <v>9.977970610066414E-07</v>
       </c>
       <c r="C8">
-        <v>0.003247517471642542</v>
+        <v>13207.52594321499</v>
       </c>
       <c r="D8">
-        <v>2.261857990009253E-14</v>
+        <v>3.907696411184238E-08</v>
       </c>
       <c r="E8">
-        <v>2.044791380160845E-17</v>
+        <v>8.433150749015633E-11</v>
       </c>
       <c r="F8">
-        <v>0.0001136373026033178</v>
+        <v>462.1584442134433</v>
       </c>
       <c r="G8">
-        <v>6.395775294287447E-05</v>
+        <v>260.1136679125382</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1178.132518906831</v>
+        <v>196239694.234948</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46.57498087167485</v>
+        <v>17512889.09892013</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17716.20564572333</v>
+        <v>8466669645.260115</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>618.4488930899857</v>
+        <v>113343593.4817088</v>
       </c>
       <c r="C7">
-        <v>3988.439280320611</v>
+        <v>1906096511.969839</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2602.841790241589</v>
+        <v>477024771.2730893</v>
       </c>
       <c r="C8">
-        <v>20251.69061484535</v>
+        <v>9678391503.391785</v>
       </c>
       <c r="D8">
-        <v>94.25060151254642</v>
+        <v>15699175.53879583</v>
       </c>
       <c r="E8">
-        <v>3.725998469733987</v>
+        <v>1401031.12791361</v>
       </c>
       <c r="F8">
-        <v>708.6482258289338</v>
+        <v>338666785.8104049</v>
       </c>
       <c r="G8">
-        <v>460.6888173410595</v>
+        <v>201944010.5451548</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1036.293280185533</v>
+        <v>190242125.5897035</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41.05927911844239</v>
+        <v>16781886.25429163</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18161.3329101335</v>
+        <v>8897968825.906353</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>544.0888109884485</v>
+        <v>109672237.7099984</v>
       </c>
       <c r="C7">
-        <v>4088.650527673327</v>
+        <v>2003194650.705591</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2289.885406323355</v>
+        <v>461573279.1025601</v>
       </c>
       <c r="C8">
-        <v>20760.52302644265</v>
+        <v>10171416801.44664</v>
       </c>
       <c r="D8">
-        <v>82.90346241484259</v>
+        <v>15219370.04717627</v>
       </c>
       <c r="E8">
-        <v>3.28474232947539</v>
+        <v>1342550.90034333</v>
       </c>
       <c r="F8">
-        <v>726.4533164053405</v>
+        <v>355918753.0362545</v>
       </c>
       <c r="G8">
-        <v>463.2739338661774</v>
+        <v>211286688.8415589</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1039.581001507643</v>
+        <v>439771186.6733115</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41.45735557007026</v>
+        <v>38647281.64765266</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18284.09745879495</v>
+        <v>9259953535.112961</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>546.0985618462989</v>
+        <v>253367652.745923</v>
       </c>
       <c r="C7">
-        <v>4116.288440548333</v>
+        <v>2084688061.989377</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2298.343766552041</v>
+        <v>1066338580.650596</v>
       </c>
       <c r="C8">
-        <v>20900.85723274394</v>
+        <v>10585207569.3319</v>
       </c>
       <c r="D8">
-        <v>83.16648012061141</v>
+        <v>35181694.9338649</v>
       </c>
       <c r="E8">
-        <v>3.316588445605619</v>
+        <v>3091782.531812211</v>
       </c>
       <c r="F8">
-        <v>731.3638983517988</v>
+        <v>370398141.4045188</v>
       </c>
       <c r="G8">
-        <v>466.2387002394631</v>
+        <v>233805571.47353</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1025.069296742349</v>
+        <v>809916606.3845326</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41.02949284245133</v>
+        <v>71158569.48401231</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18084.90991869646</v>
+        <v>9529505183.451107</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>538.635203396718</v>
+        <v>466603184.1011132</v>
       </c>
       <c r="C7">
-        <v>4071.445463165585</v>
+        <v>2145372070.958677</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2266.933020271838</v>
+        <v>1963774663.6915</v>
       </c>
       <c r="C8">
-        <v>20673.16262831939</v>
+        <v>10893336561.28586</v>
       </c>
       <c r="D8">
-        <v>82.00554373938785</v>
+        <v>64793328.51076257</v>
       </c>
       <c r="E8">
-        <v>3.282359427396105</v>
+        <v>5692685.558720982</v>
       </c>
       <c r="F8">
-        <v>723.3963967478591</v>
+        <v>381180207.3380446</v>
       </c>
       <c r="G8">
-        <v>461.0080666562302</v>
+        <v>261197525.5059789</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>877.6488728787832</v>
+        <v>936198481.0307623</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.12311865758936</v>
+        <v>82271059.93318278</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17590.65174277802</v>
+        <v>9687376577.825571</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>461.1652871096281</v>
+        <v>539374270.5826553</v>
       </c>
       <c r="C7">
-        <v>3960.17340170537</v>
+        <v>2180913568.001194</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1940.888398231879</v>
+        <v>2270043503.577487</v>
       </c>
       <c r="C8">
-        <v>20108.16785106728</v>
+        <v>11073801989.36569</v>
       </c>
       <c r="D8">
-        <v>70.21190983030262</v>
+        <v>74895878.48246095</v>
       </c>
       <c r="E8">
-        <v>2.809849492607147</v>
+        <v>6581684.794654619</v>
       </c>
       <c r="F8">
-        <v>703.6260697111213</v>
+        <v>387495063.1130232</v>
       </c>
       <c r="G8">
-        <v>442.1338688814997</v>
+        <v>272028783.8583848</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>575.6136480168656</v>
+        <v>639504465.6742216</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.07209608649159</v>
+        <v>56465760.44207866</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16849.83032657743</v>
+        <v>9719384194.81225</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>302.4976960802138</v>
+        <v>368722511.1714891</v>
       </c>
       <c r="C7">
-        <v>3793.392698480104</v>
+        <v>2188119424.571838</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1273.110282202119</v>
+        <v>1551828084.42723</v>
       </c>
       <c r="C8">
-        <v>19261.322515121</v>
+        <v>11110390431.01596</v>
       </c>
       <c r="D8">
-        <v>46.04909184134922</v>
+        <v>51160357.25393771</v>
       </c>
       <c r="E8">
-        <v>1.845767686919326</v>
+        <v>4517260.835366291</v>
       </c>
       <c r="F8">
-        <v>673.9932130630978</v>
+        <v>388775367.7924904</v>
       </c>
       <c r="G8">
-        <v>409.5890394560317</v>
+        <v>255684193.5743327</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>260.3842966921465</v>
+        <v>288990551.6841193</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.52112208489478</v>
+        <v>25923948.73792697</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15927.36115508001</v>
+        <v>9619517516.685152</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>136.9269058981692</v>
+        <v>167056018.0627494</v>
       </c>
       <c r="C7">
-        <v>3585.717739628333</v>
+        <v>2165636496.240432</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>576.2789405273872</v>
+        <v>703082162.4606105</v>
       </c>
       <c r="C8">
-        <v>18206.83259575116</v>
+        <v>10996231163.02109</v>
       </c>
       <c r="D8">
-        <v>20.83074373537171</v>
+        <v>23119244.13472953</v>
       </c>
       <c r="E8">
-        <v>0.841689766791582</v>
+        <v>2073915.899034157</v>
       </c>
       <c r="F8">
-        <v>637.0944462032011</v>
+        <v>384780700.6674064</v>
       </c>
       <c r="G8">
-        <v>372.2644645526502</v>
+        <v>233269251.4303181</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>184.9445846826135</v>
+        <v>207137970.3013844</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.564483341092865</v>
+        <v>18939233.5309926</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14898.51305210806</v>
+        <v>9393751534.605042</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>97.35280821657479</v>
+        <v>120118673.0937988</v>
       </c>
       <c r="C7">
-        <v>3354.093752560468</v>
+        <v>2114809929.361771</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>409.7249755876048</v>
+        <v>505538785.1933888</v>
       </c>
       <c r="C8">
-        <v>17030.73914280074</v>
+        <v>10738154297.58649</v>
       </c>
       <c r="D8">
-        <v>14.79556677460907</v>
+        <v>16571037.62411074</v>
       </c>
       <c r="E8">
-        <v>0.605158667287429</v>
+        <v>1515138.682479408</v>
       </c>
       <c r="F8">
-        <v>595.9405220843231</v>
+        <v>375750061.384202</v>
       </c>
       <c r="G8">
-        <v>345.1446560777042</v>
+        <v>223492860.2455569</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>401.1684030677449</v>
+        <v>450302155.1980634</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.35098934279335</v>
+        <v>40891890.26804005</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13842.02348144731</v>
+        <v>9062850136.455814</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>211.1099456750927</v>
+        <v>260831753.2103294</v>
       </c>
       <c r="C7">
-        <v>3116.246857625062</v>
+        <v>2040314286.18154</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>888.4902133033835</v>
+        <v>1097752449.819721</v>
       </c>
       <c r="C8">
-        <v>15823.04826639701</v>
+        <v>10359895381.8036</v>
       </c>
       <c r="D8">
-        <v>32.09347224541958</v>
+        <v>36024172.41584506</v>
       </c>
       <c r="E8">
-        <v>1.308079147423468</v>
+        <v>3271351.221443202</v>
       </c>
       <c r="F8">
-        <v>553.680939257893</v>
+        <v>362514005.4582329</v>
       </c>
       <c r="G8">
-        <v>332.7356803300154</v>
+        <v>230114603.939187</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>779.6716798934534</v>
+        <v>875578354.8994963</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.37904163717506</v>
+        <v>77747124.8938747</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12833.09996115758</v>
+        <v>8662468494.68778</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>409.8699954692141</v>
+        <v>505299589.8673913</v>
       </c>
       <c r="C7">
-        <v>2889.108480501159</v>
+        <v>1950176595.353122</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1725.003900392099</v>
+        <v>2126634720.821491</v>
       </c>
       <c r="C8">
-        <v>14669.73093674179</v>
+        <v>9902212438.903954</v>
       </c>
       <c r="D8">
-        <v>62.37373439147624</v>
+        <v>70046268.39195967</v>
       </c>
       <c r="E8">
-        <v>2.510323330974003</v>
+        <v>6219769.991509973</v>
       </c>
       <c r="F8">
-        <v>513.3239984463036</v>
+        <v>346498739.7875115</v>
       </c>
       <c r="G8">
-        <v>329.8978475970373</v>
+        <v>245547618.5220513</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.302430822250888E-11</v>
+        <v>2.250143144444144E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.611693205890667E-14</v>
+        <v>6.646962569536631E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.008112902498436565</v>
+        <v>32994.85565775237</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.308831623890598E-12</v>
+        <v>1.094034607654471E-05</v>
       </c>
       <c r="C7">
-        <v>0.001826453115822052</v>
+        <v>7428.113050022982</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.655173415577749E-11</v>
+        <v>4.604420880351201E-05</v>
       </c>
       <c r="C8">
-        <v>0.009273994368337271</v>
+        <v>37716.97066654809</v>
       </c>
       <c r="D8">
-        <v>1.04194465780071E-12</v>
+        <v>1.800114515555314E-06</v>
       </c>
       <c r="E8">
-        <v>1.289354564712533E-15</v>
+        <v>5.317570055629303E-09</v>
       </c>
       <c r="F8">
-        <v>0.0003245160999374629</v>
+        <v>1319.794226310096</v>
       </c>
       <c r="G8">
-        <v>0.0001826453122130884</v>
+        <v>742.8113060963327</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1044.961716391978</v>
+        <v>1175083031.447875</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40.81155536394815</v>
+        <v>98842073.98901016</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11937.28838194491</v>
+        <v>8239542526.163944</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>548.0140330874932</v>
+        <v>672321333.4981912</v>
       </c>
       <c r="C7">
-        <v>2687.434930207936</v>
+        <v>1854963513.090482</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2306.40533582687</v>
+        <v>2829572633.814099</v>
       </c>
       <c r="C8">
-        <v>13645.71375641568</v>
+        <v>9418758699.496943</v>
       </c>
       <c r="D8">
-        <v>83.59693731135819</v>
+        <v>94006642.51582998</v>
       </c>
       <c r="E8">
-        <v>3.264924429115851</v>
+        <v>7907365.919120808</v>
       </c>
       <c r="F8">
-        <v>477.4915352777967</v>
+        <v>329581701.0465581</v>
       </c>
       <c r="G8">
-        <v>323.5448963295429</v>
+        <v>252728484.6588673</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1030.908290725441</v>
+        <v>1163141532.915107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>38.26937687830234</v>
+        <v>88993478.64335778</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11205.83860756647</v>
+        <v>7845229686.596712</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>538.5332122422657</v>
+        <v>656123980.6728029</v>
       </c>
       <c r="C7">
-        <v>2522.764059365068</v>
+        <v>1766192088.24284</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2266.503774068942</v>
+        <v>2761403465.27607</v>
       </c>
       <c r="C8">
-        <v>12809.58130078535</v>
+        <v>8968013105.76963</v>
       </c>
       <c r="D8">
-        <v>82.47266325803528</v>
+        <v>93051322.6332085</v>
       </c>
       <c r="E8">
-        <v>3.061550150264186</v>
+        <v>7119478.291468619</v>
       </c>
       <c r="F8">
-        <v>448.2335443026593</v>
+        <v>313809187.4638687</v>
       </c>
       <c r="G8">
-        <v>306.1297271607333</v>
+        <v>242231606.8915642</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>949.2242106333163</v>
+        <v>1075739818.426819</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.80083328674811</v>
+        <v>75682548.56159262</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10672.65762366347</v>
+        <v>7526091902.509467</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>494.3416387453292</v>
+        <v>599807144.0686884</v>
       </c>
       <c r="C7">
-        <v>2402.729328325916</v>
+        <v>1694344780.792144</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2080.516418347986</v>
+        <v>2524384986.554226</v>
       </c>
       <c r="C8">
-        <v>12200.09321153816</v>
+        <v>8603201373.726862</v>
       </c>
       <c r="D8">
-        <v>75.93793685066527</v>
+        <v>86059185.47414547</v>
       </c>
       <c r="E8">
-        <v>2.704066662939848</v>
+        <v>6054603.884927407</v>
       </c>
       <c r="F8">
-        <v>426.9063049465393</v>
+        <v>301043676.1003789</v>
       </c>
       <c r="G8">
-        <v>289.7070967071245</v>
+        <v>229415192.4860832</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>986.2111785630617</v>
+        <v>1118339126.107794</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.43708628439137</v>
+        <v>79515826.1013184</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10352.72801682756</v>
+        <v>7316079919.939489</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>513.9418807827656</v>
+        <v>624445015.2110664</v>
       </c>
       <c r="C7">
-        <v>2330.703758271083</v>
+        <v>1647064902.844785</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2163.007194293908</v>
+        <v>2628077436.08156</v>
       </c>
       <c r="C8">
-        <v>11834.37633368435</v>
+        <v>8363133168.295741</v>
       </c>
       <c r="D8">
-        <v>78.89689428504489</v>
+        <v>89467130.08862348</v>
       </c>
       <c r="E8">
-        <v>2.834966902751308</v>
+        <v>6361266.088105469</v>
       </c>
       <c r="F8">
-        <v>414.109120673103</v>
+        <v>292643196.7975798</v>
       </c>
       <c r="G8">
-        <v>284.4645639053848</v>
+        <v>227150991.8055851</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1136.247071945036</v>
+        <v>1282751875.036419</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42.17321471789009</v>
+        <v>97435820.32657295</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10242.04704935281</v>
+        <v>7231651437.230249</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>593.5539006954079</v>
+        <v>722844773.760246</v>
       </c>
       <c r="C7">
-        <v>2305.786215142047</v>
+        <v>1628057566.649368</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2498.06720450565</v>
+        <v>3042208670.793337</v>
       </c>
       <c r="C8">
-        <v>11707.85507088836</v>
+        <v>8266621559.371112</v>
       </c>
       <c r="D8">
-        <v>90.89976575560283</v>
+        <v>102620150.0029134</v>
       </c>
       <c r="E8">
-        <v>3.373857177431205</v>
+        <v>7794865.626125832</v>
       </c>
       <c r="F8">
-        <v>409.6818819741129</v>
+        <v>289266057.4892102</v>
       </c>
       <c r="G8">
-        <v>289.9340115837454</v>
+        <v>235090234.0409614</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1266.945663059891</v>
+        <v>1418040999.489591</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.49962043242589</v>
+        <v>111883095.3995332</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10319.31486098682</v>
+        <v>7271097801.536477</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>662.3317282108562</v>
+        <v>803498271.1939824</v>
       </c>
       <c r="C7">
-        <v>2323.181473539258</v>
+        <v>1636938104.164622</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2787.529770773336</v>
+        <v>3381651906.92041</v>
       </c>
       <c r="C8">
-        <v>11796.18119709111</v>
+        <v>8311713357.343272</v>
       </c>
       <c r="D8">
-        <v>101.3556530447912</v>
+        <v>113443279.9591673</v>
       </c>
       <c r="E8">
-        <v>3.79996963459407</v>
+        <v>8950647.631962655</v>
       </c>
       <c r="F8">
-        <v>412.772594439473</v>
+        <v>290843912.0614594</v>
       </c>
       <c r="G8">
-        <v>298.5513201750113</v>
+        <v>244043637.5358603</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1344.894301578426</v>
+        <v>1481136085.040536</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50.2645368289569</v>
+        <v>118602257.1640654</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10549.41455945716</v>
+        <v>7417562105.143996</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>702.9148201200001</v>
+        <v>841093075.8078877</v>
       </c>
       <c r="C7">
-        <v>2374.983687519009</v>
+        <v>1669911529.363829</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2958.330250454952</v>
+        <v>3539875698.147736</v>
       </c>
       <c r="C8">
-        <v>12059.21200612416</v>
+        <v>8479139149.417111</v>
       </c>
       <c r="D8">
-        <v>107.591544126274</v>
+        <v>118490886.8032428</v>
       </c>
       <c r="E8">
-        <v>4.02116294631655</v>
+        <v>9488180.573125225</v>
       </c>
       <c r="F8">
-        <v>421.9765823782867</v>
+        <v>296702484.2057601</v>
       </c>
       <c r="G8">
-        <v>307.7898507639008</v>
+        <v>251100460.5171717</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1394.102968621156</v>
+        <v>1503763016.304496</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52.88893055661586</v>
+        <v>123737713.3233989</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10888.24597643413</v>
+        <v>7644154536.278798</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>729.4654456603581</v>
+        <v>857461593.9207315</v>
       </c>
       <c r="C7">
-        <v>2451.264611318507</v>
+        <v>1720924154.247169</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3070.072834984802</v>
+        <v>3608765243.370411</v>
       </c>
       <c r="C8">
-        <v>12446.53585889643</v>
+        <v>8738160742.571592</v>
       </c>
       <c r="D8">
-        <v>111.5282374896924</v>
+        <v>120301041.3043596</v>
       </c>
       <c r="E8">
-        <v>4.231114444529267</v>
+        <v>9899017.065871909</v>
       </c>
       <c r="F8">
-        <v>435.5298390573657</v>
+        <v>305766181.4511522</v>
       </c>
       <c r="G8">
-        <v>318.0730056978864</v>
+        <v>257838574.81679</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1423.749565910947</v>
+        <v>1513954703.18113</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.43181413875141</v>
+        <v>130697245.8557003</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11288.06691560303</v>
+        <v>7919417810.625922</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>747.5386408424913</v>
+        <v>869754423.7864239</v>
       </c>
       <c r="C7">
-        <v>2541.276071490332</v>
+        <v>1782894018.324738</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3146.136788253782</v>
+        <v>3660501598.067224</v>
       </c>
       <c r="C8">
-        <v>12903.57785328872</v>
+        <v>9052818789.626549</v>
       </c>
       <c r="D8">
-        <v>113.8999652728757</v>
+        <v>121116376.2544904</v>
       </c>
       <c r="E8">
-        <v>4.514545131100111</v>
+        <v>10455779.66845602</v>
       </c>
       <c r="F8">
-        <v>451.5226766241214</v>
+        <v>316776712.4250371</v>
       </c>
       <c r="G8">
-        <v>328.8814712332822</v>
+        <v>265264844.2111162</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1436.605901374752</v>
+        <v>1507343847.229585</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59.38006338057085</v>
+        <v>135466425.6570247</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11702.44520958713</v>
+        <v>8211947522.059617</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>756.8711609478436</v>
+        <v>871610940.9686534</v>
       </c>
       <c r="C7">
-        <v>2634.564820655276</v>
+        <v>1848751065.543235</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3185.41420245872</v>
+        <v>3668315049.688206</v>
       </c>
       <c r="C8">
-        <v>13377.26060314431</v>
+        <v>9387214389.343199</v>
       </c>
       <c r="D8">
-        <v>114.9284721099801</v>
+        <v>120587507.7783668</v>
       </c>
       <c r="E8">
-        <v>4.750405070445665</v>
+        <v>10837314.05256197</v>
       </c>
       <c r="F8">
-        <v>468.0978083834855</v>
+        <v>328477900.882385</v>
       </c>
       <c r="G8">
-        <v>339.1435981603119</v>
+        <v>272036200.6511888</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Max.xlsx
+++ b/Recycling/SW2/SW2_Max.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0006072742067537161</v>
+        <v>6.072742067537164E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.136991633692225E-06</v>
+        <v>2.136991633692225E-12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84356.1518962855</v>
+        <v>0.08435615189628549</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0002956240712849115</v>
+        <v>2.956240712849116E-10</v>
       </c>
       <c r="C7">
-        <v>18991.05240071852</v>
+        <v>0.01899105240071852</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001244181525003987</v>
+        <v>1.244181525003988E-09</v>
       </c>
       <c r="C8">
-        <v>96428.92636408677</v>
+        <v>0.09642892636408679</v>
       </c>
       <c r="D8">
-        <v>4.858193654029727E-05</v>
+        <v>4.858193654029728E-11</v>
       </c>
       <c r="E8">
-        <v>1.709593306953779E-07</v>
+        <v>1.709593306953779E-13</v>
       </c>
       <c r="F8">
-        <v>3374.246075851423</v>
+        <v>0.003374246075851423</v>
       </c>
       <c r="G8">
-        <v>1899.105269634259</v>
+        <v>0.001899105269634259</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1440490583.127244</v>
+        <v>1440.490583127255</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>129824086.4095545</v>
+        <v>129.8240864095543</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8493699499.468343</v>
+        <v>8493.699499468348</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>833340886.9751284</v>
+        <v>833.3408869751333</v>
       </c>
       <c r="C7">
-        <v>1912181727.643064</v>
+        <v>1912.181727643066</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3507249362.673295</v>
+        <v>3507.249362673316</v>
       </c>
       <c r="C8">
-        <v>9709289781.258726</v>
+        <v>9709.289781258733</v>
       </c>
       <c r="D8">
-        <v>115239246.6501795</v>
+        <v>115.2392466501803</v>
       </c>
       <c r="E8">
-        <v>10385926.91276435</v>
+        <v>10.38592691276434</v>
       </c>
       <c r="F8">
-        <v>339747979.978734</v>
+        <v>339.7479799787342</v>
       </c>
       <c r="G8">
-        <v>274552261.4618192</v>
+        <v>274.5522614618199</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1281903396.89975</v>
+        <v>1281.903396899753</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112222927.1995967</v>
+        <v>112.222927199596</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8742021458.738266</v>
+        <v>8742.021458738269</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>738092947.6139824</v>
+        <v>738.0929476139835</v>
       </c>
       <c r="C7">
-        <v>1968086308.811517</v>
+        <v>1968.086308811517</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3106383066.729395</v>
+        <v>3106.383066729399</v>
       </c>
       <c r="C8">
-        <v>9993150761.00642</v>
+        <v>9993.150761006425</v>
       </c>
       <c r="D8">
-        <v>102552271.7519799</v>
+        <v>102.5522717519802</v>
       </c>
       <c r="E8">
-        <v>8977834.175967729</v>
+        <v>8.977834175967677</v>
       </c>
       <c r="F8">
-        <v>349680858.3495309</v>
+        <v>349.6808583495311</v>
       </c>
       <c r="G8">
-        <v>270617925.6425498</v>
+        <v>270.6179256425501</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01110209876372748</v>
+        <v>1.110209876372749E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.627290898861752E-05</v>
+        <v>4.627290898861751E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>196890.7695397214</v>
+        <v>0.1968907695397213</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005412185385979559</v>
+        <v>5.412185385979563E-09</v>
       </c>
       <c r="C7">
-        <v>44325.90673581082</v>
+        <v>0.04432590673581081</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02277805402606276</v>
+        <v>2.277805402606277E-08</v>
       </c>
       <c r="C8">
-        <v>225069.1276322929</v>
+        <v>0.2250691276322929</v>
       </c>
       <c r="D8">
-        <v>0.0008881679010981978</v>
+        <v>8.881679010981984E-10</v>
       </c>
       <c r="E8">
-        <v>3.7018327190894E-06</v>
+        <v>3.701832719089399E-12</v>
       </c>
       <c r="F8">
-        <v>7875.630781588861</v>
+        <v>0.007875630781588861</v>
       </c>
       <c r="G8">
-        <v>4432.59121479962</v>
+        <v>0.004432591214799619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1494921158560457</v>
+        <v>1.494921158560458E-07</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0007306255870783329</v>
+        <v>7.306255870783328E-10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>428229.5860649677</v>
+        <v>0.4282295860649677</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07299011047260544</v>
+        <v>7.299011047260546E-08</v>
       </c>
       <c r="C7">
-        <v>96407.08265707303</v>
+        <v>0.09640708265707303</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3071906376341512</v>
+        <v>3.071906376341514E-07</v>
       </c>
       <c r="C8">
-        <v>489516.3932128161</v>
+        <v>0.4895163932128161</v>
       </c>
       <c r="D8">
-        <v>0.01195936926848365</v>
+        <v>1.195936926848366E-08</v>
       </c>
       <c r="E8">
-        <v>5.845004696626661E-05</v>
+        <v>5.84500469662666E-11</v>
       </c>
       <c r="F8">
-        <v>17129.18344259873</v>
+        <v>0.01712918344259872</v>
       </c>
       <c r="G8">
-        <v>9640.715564718348</v>
+        <v>0.009640715564718348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.571503801329208</v>
+        <v>1.57150380132921E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.008882730889775127</v>
+        <v>8.882730889775126E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>882954.4390082959</v>
+        <v>0.8829544390082961</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7685658736172477</v>
+        <v>7.685658736172483E-07</v>
       </c>
       <c r="C7">
-        <v>198779.0296464666</v>
+        <v>0.1987790296464666</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.23463328458644</v>
+        <v>3.234633284586442E-06</v>
       </c>
       <c r="C8">
-        <v>1009319.968585761</v>
+        <v>1.009319968585761</v>
       </c>
       <c r="D8">
-        <v>0.1257203041063366</v>
+        <v>1.257203041063367E-07</v>
       </c>
       <c r="E8">
-        <v>0.0007106184711820099</v>
+        <v>7.106184711820096E-10</v>
       </c>
       <c r="F8">
-        <v>35318.17756033187</v>
+        <v>0.03531817756033188</v>
       </c>
       <c r="G8">
-        <v>19877.97982123401</v>
+        <v>0.01987797982123402</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.464349493932</v>
+        <v>1.346434949393201E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0867049862534701</v>
+        <v>8.670498625347009E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1748024.079407229</v>
+        <v>1.748024079407229</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.596151807098821</v>
+        <v>6.596151807098824E-06</v>
       </c>
       <c r="C7">
-        <v>393531.6647747916</v>
+        <v>0.3935316647747917</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.76096743016775</v>
+        <v>2.776096743016777E-05</v>
       </c>
       <c r="C8">
-        <v>1998195.52512367</v>
+        <v>1.99819552512367</v>
       </c>
       <c r="D8">
-        <v>1.07714795951456</v>
+        <v>1.07714795951456E-06</v>
       </c>
       <c r="E8">
-        <v>0.006936398900277605</v>
+        <v>6.936398900277604E-09</v>
       </c>
       <c r="F8">
-        <v>69920.96317628921</v>
+        <v>0.06992096317628922</v>
       </c>
       <c r="G8">
-        <v>39353.82609265987</v>
+        <v>0.03935382609265988</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>97.14690742173185</v>
+        <v>9.714690742173191E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7024019684193097</v>
+        <v>7.024019684193095E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3350019.14589974</v>
+        <v>3.35001914589974</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>47.67337114076379</v>
+        <v>4.767337114076382E-05</v>
       </c>
       <c r="C7">
-        <v>754187.9010959683</v>
+        <v>0.7541879010959686</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>200.6410619750636</v>
+        <v>0.0002006410619750638</v>
       </c>
       <c r="C8">
-        <v>3829462.846235775</v>
+        <v>3.829462846235776</v>
       </c>
       <c r="D8">
-        <v>7.771752593738545</v>
+        <v>7.771752593738549E-06</v>
       </c>
       <c r="E8">
-        <v>0.05619215747354474</v>
+        <v>5.619215747354473E-08</v>
       </c>
       <c r="F8">
-        <v>134000.7658359897</v>
+        <v>0.1340007658359897</v>
       </c>
       <c r="G8">
-        <v>75423.5574467109</v>
+        <v>0.07542355744671092</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>605.4708688167095</v>
+        <v>0.0006054708688167099</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.849796851067792</v>
+        <v>4.849796851067793E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6231837.065466153</v>
+        <v>6.231837065466153</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>297.6255044594628</v>
+        <v>0.000297625504459463</v>
       </c>
       <c r="C7">
-        <v>1402969.926941617</v>
+        <v>1.402969926941617</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1252.604878922643</v>
+        <v>0.001252604878922644</v>
       </c>
       <c r="C8">
-        <v>7123717.049559765</v>
+        <v>7.123717049559765</v>
       </c>
       <c r="D8">
-        <v>48.43766950533674</v>
+        <v>4.843766950533677E-05</v>
       </c>
       <c r="E8">
-        <v>0.3879837480854231</v>
+        <v>3.879837480854232E-07</v>
       </c>
       <c r="F8">
-        <v>249273.4826186463</v>
+        <v>0.2492734826186463</v>
       </c>
       <c r="G8">
-        <v>140326.7552446077</v>
+        <v>0.1403267552446077</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3326.154760469614</v>
+        <v>0.003326154760469616</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.16261356257884</v>
+        <v>2.916261356257883E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11239232.77852693</v>
+        <v>11.23923277852693</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1637.674666400343</v>
+        <v>0.001637674666400344</v>
       </c>
       <c r="C7">
-        <v>2530282.070041614</v>
+        <v>2.530282070041614</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6892.417640573816</v>
+        <v>0.006892417640573819</v>
       </c>
       <c r="C8">
-        <v>12847754.73544481</v>
+        <v>12.84775473544481</v>
       </c>
       <c r="D8">
-        <v>266.092380837569</v>
+        <v>0.0002660923808375691</v>
       </c>
       <c r="E8">
-        <v>2.333009085006306</v>
+        <v>2.333009085006305E-06</v>
       </c>
       <c r="F8">
-        <v>449569.3111410775</v>
+        <v>0.4495693111410777</v>
       </c>
       <c r="G8">
-        <v>253191.9744708014</v>
+        <v>0.2531919744708014</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16369.89260158202</v>
+        <v>0.01636989260158203</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>155.442715088922</v>
+        <v>0.000155442715088922</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19610103.76883785</v>
+        <v>19.61010376883785</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8072.544015767251</v>
+        <v>0.008072544015767253</v>
       </c>
       <c r="C7">
-        <v>4414811.485419668</v>
+        <v>4.414811485419667</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33974.60186697501</v>
+        <v>0.03397460186697503</v>
       </c>
       <c r="C8">
-        <v>22416637.19609088</v>
+        <v>22.41663719609088</v>
       </c>
       <c r="D8">
-        <v>1309.591408126561</v>
+        <v>0.001309591408126562</v>
       </c>
       <c r="E8">
-        <v>12.43541720711376</v>
+        <v>1.243541720711375E-05</v>
       </c>
       <c r="F8">
-        <v>784404.1507535147</v>
+        <v>0.7844041507535147</v>
       </c>
       <c r="G8">
-        <v>442288.4029435434</v>
+        <v>0.4422884029435434</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73144.64461324019</v>
+        <v>0.0731446446132402</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>745.2526966237156</v>
+        <v>0.0007452526966237153</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>33062368.1746007</v>
+        <v>33.0623681746007</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>36123.76468831937</v>
+        <v>0.03612376468831938</v>
       </c>
       <c r="C7">
-        <v>7443312.104464765</v>
+        <v>7.443312104464765</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>152032.68273605</v>
+        <v>0.1520326827360501</v>
       </c>
       <c r="C8">
-        <v>37794145.35232354</v>
+        <v>37.79414535232354</v>
       </c>
       <c r="D8">
-        <v>5851.571569059212</v>
+        <v>0.005851571569059214</v>
       </c>
       <c r="E8">
-        <v>59.62021572989722</v>
+        <v>5.962021572989719E-05</v>
       </c>
       <c r="F8">
-        <v>1322494.726984029</v>
+        <v>1.322494726984029</v>
       </c>
       <c r="G8">
-        <v>747943.5869153083</v>
+        <v>0.7479435869153082</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>299996.3618914635</v>
+        <v>0.2999963618914634</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3253.239122032981</v>
+        <v>0.00325323912203298</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53875958.90448723</v>
+        <v>53.87595890448723</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>148366.6940325473</v>
+        <v>0.1483666940325473</v>
       </c>
       <c r="C7">
-        <v>12129063.92354211</v>
+        <v>12.12906392354211</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>624425.1316845873</v>
+        <v>0.6244251316845874</v>
       </c>
       <c r="C8">
-        <v>61586508.59729565</v>
+        <v>61.58650859729565</v>
       </c>
       <c r="D8">
-        <v>23999.70895131706</v>
+        <v>0.02399970895131706</v>
       </c>
       <c r="E8">
-        <v>260.2591297626383</v>
+        <v>0.0002602591297626383</v>
       </c>
       <c r="F8">
-        <v>2155038.356179491</v>
+        <v>2.155038356179491</v>
       </c>
       <c r="G8">
-        <v>1227743.061757465</v>
+        <v>1.227743061757465</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1139585.54362273</v>
+        <v>1.13958554362273</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13062.43689324742</v>
+        <v>0.01306243689324741</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84962401.50490327</v>
+        <v>84.96240150490331</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>564341.2659799493</v>
+        <v>0.5643412659799492</v>
       </c>
       <c r="C7">
-        <v>19127537.02959693</v>
+        <v>19.12753702959694</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2375121.125549058</v>
+        <v>2.375121125549058</v>
       </c>
       <c r="C8">
-        <v>97121940.41882384</v>
+        <v>97.12194041882388</v>
       </c>
       <c r="D8">
-        <v>91166.84348981832</v>
+        <v>0.09116684348981832</v>
       </c>
       <c r="E8">
-        <v>1044.994951459793</v>
+        <v>0.001044994951459793</v>
       </c>
       <c r="F8">
-        <v>3398496.060196134</v>
+        <v>3.398496060196135</v>
       </c>
       <c r="G8">
-        <v>1969187.829557687</v>
+        <v>1.969187829557688</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4037250.793600011</v>
+        <v>4.037250793600011</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>48646.24770696853</v>
+        <v>0.04864624770696854</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>129913411.7872667</v>
+        <v>129.9134117872667</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2001821.192640759</v>
+        <v>2.001821192640759</v>
       </c>
       <c r="C7">
-        <v>29247332.35628716</v>
+        <v>29.24733235628715</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8424986.955289932</v>
+        <v>8.424986955289933</v>
       </c>
       <c r="C8">
-        <v>148506191.1589314</v>
+        <v>148.5061911589314</v>
       </c>
       <c r="D8">
-        <v>322980.0634880007</v>
+        <v>0.3229800634880007</v>
       </c>
       <c r="E8">
-        <v>3891.699816557481</v>
+        <v>0.003891699816557481</v>
       </c>
       <c r="F8">
-        <v>5196536.471490674</v>
+        <v>5.196536471490672</v>
       </c>
       <c r="G8">
-        <v>3124915.354892791</v>
+        <v>3.124915354892791</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13391621.13416763</v>
+        <v>13.39162113416763</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>169079.1719933761</v>
+        <v>0.1690791719933761</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>193017140.5423495</v>
+        <v>193.0171405423495</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6648244.247044199</v>
+        <v>6.648244247044199</v>
       </c>
       <c r="C7">
-        <v>43453838.84726515</v>
+        <v>43.45383884726514</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27980206.85505868</v>
+        <v>27.98020685505868</v>
       </c>
       <c r="C8">
-        <v>220641117.6181731</v>
+        <v>220.6411176181731</v>
       </c>
       <c r="D8">
-        <v>1071329.69073341</v>
+        <v>1.07132969073341</v>
       </c>
       <c r="E8">
-        <v>13526.33375947008</v>
+        <v>0.01352633375947008</v>
       </c>
       <c r="F8">
-        <v>7720685.621693986</v>
+        <v>7.720685621693986</v>
       </c>
       <c r="G8">
-        <v>5010208.309430934</v>
+        <v>5.010208309430933</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41496442.79128077</v>
+        <v>41.49644279128078</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>549930.1664843741</v>
+        <v>0.549930166484374</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>279225159.4833217</v>
+        <v>279.2251594833216</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20628366.76000154</v>
+        <v>20.62836676000154</v>
       </c>
       <c r="C7">
-        <v>62861801.02035033</v>
+        <v>62.86180102035033</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86817804.45769209</v>
+        <v>86.81780445769209</v>
       </c>
       <c r="C8">
-        <v>319186944.1356444</v>
+        <v>319.1869441356444</v>
       </c>
       <c r="D8">
-        <v>3319715.42330246</v>
+        <v>3.319715423302461</v>
       </c>
       <c r="E8">
-        <v>43994.4133187499</v>
+        <v>0.0439944133187499</v>
       </c>
       <c r="F8">
-        <v>11169006.37933288</v>
+        <v>11.16900637933288</v>
       </c>
       <c r="G8">
-        <v>8349016.778035184</v>
+        <v>8.349016778035185</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>118136972.0462733</v>
+        <v>118.1369720462733</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1665437.764933068</v>
+        <v>1.665437764933068</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>394047540.7662736</v>
+        <v>394.0475407662737</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58832981.34790636</v>
+        <v>58.83298134790637</v>
       </c>
       <c r="C7">
-        <v>88711698.27977997</v>
+        <v>88.71169827977999</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>247608079.1926544</v>
+        <v>247.6080791926544</v>
       </c>
       <c r="C8">
-        <v>450442326.2362403</v>
+        <v>450.4423262362405</v>
       </c>
       <c r="D8">
-        <v>9450957.76370186</v>
+        <v>9.450957763701862</v>
       </c>
       <c r="E8">
-        <v>133235.0211946454</v>
+        <v>0.1332350211946454</v>
       </c>
       <c r="F8">
-        <v>15761901.63065096</v>
+        <v>15.76190163065096</v>
       </c>
       <c r="G8">
-        <v>14754467.96276863</v>
+        <v>14.75446796276863</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>294262507.1853498</v>
+        <v>294.2625071853499</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4590701.43839009</v>
+        <v>4.590701438390089</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>543353603.4397206</v>
+        <v>543.3536034397208</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>147013028.928531</v>
+        <v>147.0130289285311</v>
       </c>
       <c r="C7">
-        <v>122324887.0779434</v>
+        <v>122.3248870779434</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>618728014.0373695</v>
+        <v>618.7280140373696</v>
       </c>
       <c r="C8">
-        <v>621116580.5686445</v>
+        <v>621.1165805686447</v>
       </c>
       <c r="D8">
-        <v>23541000.57482797</v>
+        <v>23.54100057482798</v>
       </c>
       <c r="E8">
-        <v>367256.1150712071</v>
+        <v>0.3672561150712069</v>
       </c>
       <c r="F8">
-        <v>21734144.13758884</v>
+        <v>21.73414413758885</v>
       </c>
       <c r="G8">
-        <v>26933791.60064743</v>
+        <v>26.93379160064745</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>577980085.2816648</v>
+        <v>577.9800852816647</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10844593.58947319</v>
+        <v>10.84459358947319</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>733070641.1100074</v>
+        <v>733.0706411100075</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>290693178.9031477</v>
+        <v>290.6931789031477</v>
       </c>
       <c r="C7">
-        <v>165035775.6463935</v>
+        <v>165.0357756463936</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1223429070.115898</v>
+        <v>1223.429070115898</v>
       </c>
       <c r="C8">
-        <v>837985295.4670337</v>
+        <v>837.985295467034</v>
       </c>
       <c r="D8">
-        <v>46238406.82253317</v>
+        <v>46.23840682253316</v>
       </c>
       <c r="E8">
-        <v>867567.487157855</v>
+        <v>0.8675674871578549</v>
       </c>
       <c r="F8">
-        <v>29322825.64440032</v>
+        <v>29.32282564440033</v>
       </c>
       <c r="G8">
-        <v>45572895.45495411</v>
+        <v>45.57289545495411</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>798137681.8587985</v>
+        <v>798.1376818587983</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19410086.43439022</v>
+        <v>19.41008643439022</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>968771166.6088493</v>
+        <v>968.7711666088493</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>406116610.02228</v>
+        <v>406.1166100222799</v>
       </c>
       <c r="C7">
-        <v>218098900.6230854</v>
+        <v>218.0989006230854</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1709207173.11953</v>
+        <v>1709.207173119529</v>
       </c>
       <c r="C8">
-        <v>1107418503.435654</v>
+        <v>1107.418503435654</v>
       </c>
       <c r="D8">
-        <v>63851014.54870385</v>
+        <v>63.85101454870383</v>
       </c>
       <c r="E8">
-        <v>1552806.914751217</v>
+        <v>1.552806914751217</v>
       </c>
       <c r="F8">
-        <v>38750846.664354</v>
+        <v>38.75084666435401</v>
       </c>
       <c r="G8">
-        <v>62421551.06453652</v>
+        <v>62.42155106453652</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>855609934.4203008</v>
+        <v>855.6099344203004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21978240.45553729</v>
+        <v>21.97824045553729</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1255140185.985456</v>
+        <v>1255.140185985456</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>436599645.2362351</v>
+        <v>436.5996452362348</v>
       </c>
       <c r="C7">
-        <v>282568994.7498302</v>
+        <v>282.5689947498303</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1837499937.218217</v>
+        <v>1837.499937218217</v>
       </c>
       <c r="C8">
-        <v>1434771713.150267</v>
+        <v>1434.771713150267</v>
       </c>
       <c r="D8">
-        <v>68448794.75362404</v>
+        <v>68.448794753624</v>
       </c>
       <c r="E8">
-        <v>1758259.236442982</v>
+        <v>1.758259236442982</v>
       </c>
       <c r="F8">
-        <v>50205607.43941827</v>
+        <v>50.20560743941828</v>
       </c>
       <c r="G8">
-        <v>71916863.99860652</v>
+        <v>71.9168639986065</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2364497030519316</v>
+        <v>2.364497030519315E-07</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05323178689225268</v>
+        <v>5.323178689225266E-08</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2702896053442296</v>
+        <v>2.702896053442295E-07</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.009457988122077272</v>
+        <v>9.457988122077267E-09</v>
       </c>
       <c r="G8">
-        <v>0.005323178689225267</v>
+        <v>5.323178689225265E-09</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>910463861.2340307</v>
+        <v>910.4638612340307</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14666880.49981884</v>
+        <v>14.66688049981883</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1595377385.773013</v>
+        <v>1595.377385773013</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>455356413.7657173</v>
+        <v>455.3564137657173</v>
       </c>
       <c r="C7">
-        <v>359166401.6323004</v>
+        <v>359.1664016323004</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1916440819.033849</v>
+        <v>1916.440819033849</v>
       </c>
       <c r="C8">
-        <v>1823702539.736279</v>
+        <v>1823.702539736279</v>
       </c>
       <c r="D8">
-        <v>72837108.89872243</v>
+        <v>72.83710889872242</v>
       </c>
       <c r="E8">
-        <v>1173350.439985506</v>
+        <v>1.173350439985506</v>
       </c>
       <c r="F8">
-        <v>63815095.43092059</v>
+        <v>63.81509543092059</v>
       </c>
       <c r="G8">
-        <v>81452281.53980176</v>
+        <v>81.45228153980177</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1000327989.829269</v>
+        <v>1000.327989829268</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10423478.45386857</v>
+        <v>10.42347845386857</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1990617156.482344</v>
+        <v>1990.617156482343</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>494274521.9588609</v>
+        <v>494.2745219588606</v>
       </c>
       <c r="C7">
-        <v>448146505.9596931</v>
+        <v>448.146505959693</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2080233946.540536</v>
+        <v>2080.233946540535</v>
       </c>
       <c r="C8">
-        <v>2275507723.93609</v>
+        <v>2275.50772393609</v>
       </c>
       <c r="D8">
-        <v>80026239.18634148</v>
+        <v>80.02623918634143</v>
       </c>
       <c r="E8">
-        <v>833878.2763094853</v>
+        <v>0.8338782763094854</v>
       </c>
       <c r="F8">
-        <v>79624686.25929382</v>
+        <v>79.6246862592938</v>
       </c>
       <c r="G8">
-        <v>94242102.79185538</v>
+        <v>94.24210279185534</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1095027977.356727</v>
+        <v>1095.027977356727</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16782173.8465657</v>
+        <v>16.7821738465657</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2439451749.05213</v>
+        <v>2439.451749052131</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>546755282.8496629</v>
+        <v>546.7552828496629</v>
       </c>
       <c r="C7">
-        <v>549192381.9881289</v>
+        <v>549.1923819881291</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2301107682.683485</v>
+        <v>2301.107682683485</v>
       </c>
       <c r="C8">
-        <v>2788578044.281899</v>
+        <v>2788.5780442819</v>
       </c>
       <c r="D8">
-        <v>87602238.18853812</v>
+        <v>87.60223818853814</v>
       </c>
       <c r="E8">
-        <v>1342573.907725255</v>
+        <v>1.342573907725255</v>
       </c>
       <c r="F8">
-        <v>97578069.96208529</v>
+        <v>97.57806996208534</v>
       </c>
       <c r="G8">
-        <v>109594766.4837791</v>
+        <v>109.5947664837792</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1197513278.187475</v>
+        <v>1197.513278187475</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26181494.03874053</v>
+        <v>26.18149403874052</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2937701308.226795</v>
+        <v>2937.701308226795</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>606216677.63815</v>
+        <v>606.2166776381501</v>
       </c>
       <c r="C7">
-        <v>661363021.2860745</v>
+        <v>661.3630212860747</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2551360541.069648</v>
+        <v>2551.360541069649</v>
       </c>
       <c r="C8">
-        <v>3358135438.408455</v>
+        <v>3358.135438408457</v>
       </c>
       <c r="D8">
-        <v>95801062.25499797</v>
+        <v>95.80106225499799</v>
       </c>
       <c r="E8">
-        <v>2094519.523099241</v>
+        <v>2.094519523099241</v>
       </c>
       <c r="F8">
-        <v>117508052.3290719</v>
+        <v>117.5080523290719</v>
       </c>
       <c r="G8">
-        <v>126757969.8924224</v>
+        <v>126.7579698924225</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1275831118.97656</v>
+        <v>1275.831118976561</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37009906.49430639</v>
+        <v>37.00990649430639</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3478649763.861675</v>
+        <v>3478.649763861675</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>655516552.7587502</v>
+        <v>655.5165527587507</v>
       </c>
       <c r="C7">
-        <v>783146438.80944</v>
+        <v>783.1464388094399</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2758847007.051436</v>
+        <v>2758.847007051438</v>
       </c>
       <c r="C8">
-        <v>3976502654.344479</v>
+        <v>3976.502654344479</v>
       </c>
       <c r="D8">
-        <v>102066489.5181248</v>
+        <v>102.0664895181248</v>
       </c>
       <c r="E8">
-        <v>2960792.519544509</v>
+        <v>2.960792519544509</v>
       </c>
       <c r="F8">
-        <v>139145990.5544671</v>
+        <v>139.1459905544671</v>
       </c>
       <c r="G8">
-        <v>143866299.156819</v>
+        <v>143.8662991568191</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1363126130.680191</v>
+        <v>1363.126130680192</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51221743.9358689</v>
+        <v>51.2217439358689</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4054028976.321123</v>
+        <v>4054.028976321124</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>712735813.600687</v>
+        <v>712.7358136006873</v>
       </c>
       <c r="C7">
-        <v>912681232.9941742</v>
+        <v>912.6812329941744</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2999663483.546378</v>
+        <v>2999.663483546379</v>
       </c>
       <c r="C8">
-        <v>4634228243.556918</v>
+        <v>4634.228243556918</v>
       </c>
       <c r="D8">
-        <v>109050090.4544152</v>
+        <v>109.0500904544153</v>
       </c>
       <c r="E8">
-        <v>4097739.51486951</v>
+        <v>4.09773951486951</v>
       </c>
       <c r="F8">
-        <v>162161159.0528451</v>
+        <v>162.1611590528451</v>
       </c>
       <c r="G8">
-        <v>162541704.6594861</v>
+        <v>162.5417046594861</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1375789080.690856</v>
+        <v>1375.789080690857</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61354449.15133987</v>
+        <v>61.35444915133987</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4656060305.159842</v>
+        <v>4656.060305159843</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>729582527.9542121</v>
+        <v>729.5825279542127</v>
       </c>
       <c r="C7">
-        <v>1048216202.949979</v>
+        <v>1048.216202949979</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3070565594.678846</v>
+        <v>3070.565594678848</v>
       </c>
       <c r="C8">
-        <v>5322420312.214076</v>
+        <v>5322.420312214076</v>
       </c>
       <c r="D8">
-        <v>110063126.4552684</v>
+        <v>110.0631264552685</v>
       </c>
       <c r="E8">
-        <v>4908355.932107187</v>
+        <v>4.908355932107187</v>
       </c>
       <c r="F8">
-        <v>186242412.2063939</v>
+        <v>186.2424122063939</v>
       </c>
       <c r="G8">
-        <v>177779873.090419</v>
+        <v>177.7798730904191</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1322866054.105439</v>
+        <v>1322.86605410544</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68864880.10253169</v>
+        <v>68.86488010253171</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5280807980.846852</v>
+        <v>5280.807980846854</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>711969332.2441286</v>
+        <v>711.969332244129</v>
       </c>
       <c r="C7">
-        <v>1188865291.125391</v>
+        <v>1188.865291125391</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2996437623.287621</v>
+        <v>2996.437623287623</v>
       </c>
       <c r="C8">
-        <v>6036579816.419836</v>
+        <v>6036.579816419837</v>
       </c>
       <c r="D8">
-        <v>105829284.3284351</v>
+        <v>105.8292843284352</v>
       </c>
       <c r="E8">
-        <v>5509190.408202532</v>
+        <v>5.509190408202534</v>
       </c>
       <c r="F8">
-        <v>211232319.2338743</v>
+        <v>211.2323192338743</v>
       </c>
       <c r="G8">
-        <v>190083462.3369519</v>
+        <v>190.083462336952</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1324203190.229594</v>
+        <v>1324.203190229594</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99339924.13676615</v>
+        <v>99.3399241367662</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5932907067.847981</v>
+        <v>5932.907067847979</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>744885273.7193015</v>
+        <v>744.8852737193019</v>
       </c>
       <c r="C7">
-        <v>1335671986.942017</v>
+        <v>1335.671986942017</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3134969665.294623</v>
+        <v>3134.969665294625</v>
       </c>
       <c r="C8">
-        <v>6782005175.791747</v>
+        <v>6782.005175791744</v>
       </c>
       <c r="D8">
-        <v>105936255.2183674</v>
+        <v>105.9362552183675</v>
       </c>
       <c r="E8">
-        <v>7947193.930941288</v>
+        <v>7.947193930941292</v>
       </c>
       <c r="F8">
-        <v>237316282.7139195</v>
+        <v>237.3162827139194</v>
       </c>
       <c r="G8">
-        <v>208055726.0661318</v>
+        <v>208.0557260661318</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1301860272.358797</v>
+        <v>1301.860272358798</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>159611170.5654437</v>
+        <v>159.6111705654437</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6631355827.058598</v>
+        <v>6631.355827058596</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>797913061.0215325</v>
+        <v>797.9130610215326</v>
       </c>
       <c r="C7">
-        <v>1492913358.047872</v>
+        <v>1492.913358047871</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3358145650.208556</v>
+        <v>3358.145650208557</v>
       </c>
       <c r="C8">
-        <v>7580413619.716675</v>
+        <v>7580.413619716675</v>
       </c>
       <c r="D8">
-        <v>104148821.7887037</v>
+        <v>104.1488217887038</v>
       </c>
       <c r="E8">
-        <v>12768893.64523549</v>
+        <v>12.76889364523549</v>
       </c>
       <c r="F8">
-        <v>265254233.0823441</v>
+        <v>265.2542330823441</v>
       </c>
       <c r="G8">
-        <v>229082641.9069404</v>
+        <v>229.0826419069404</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14.47948053927126</v>
+        <v>1.447948053927125E-05</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.259757201757718</v>
+        <v>3.259757201757716E-06</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>16.551736077628</v>
+        <v>1.655173607762799E-05</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5791792215708511</v>
+        <v>5.791792215708507E-07</v>
       </c>
       <c r="G8">
-        <v>0.3259757201757717</v>
+        <v>3.259757201757715E-07</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1292799433.651452</v>
+        <v>1292.799433651451</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>223767074.6893836</v>
+        <v>223.7670746893835</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7415497060.017845</v>
+        <v>7415.497060017848</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>861470598.2827249</v>
+        <v>861.4705982827245</v>
       </c>
       <c r="C7">
-        <v>1669446626.931476</v>
+        <v>1669.446626931476</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3625637784.023724</v>
+        <v>3625.637784023722</v>
       </c>
       <c r="C8">
-        <v>8476778561.837763</v>
+        <v>8476.778561837766</v>
       </c>
       <c r="D8">
-        <v>103423954.6921161</v>
+        <v>103.4239546921161</v>
       </c>
       <c r="E8">
-        <v>17901365.97515067</v>
+        <v>17.90136597515067</v>
       </c>
       <c r="F8">
-        <v>296619882.400714</v>
+        <v>296.6198824007142</v>
       </c>
       <c r="G8">
-        <v>253091722.52142</v>
+        <v>253.09172252142</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1279920944.190228</v>
+        <v>1279.920944190228</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>288197291.2259485</v>
+        <v>288.1972912259483</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8349765677.348493</v>
+        <v>8349.765677348494</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>923474379.1099944</v>
+        <v>923.4743791099942</v>
       </c>
       <c r="C7">
-        <v>1879777988.299021</v>
+        <v>1879.777988299021</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3886590683.59778</v>
+        <v>3886.590683597779</v>
       </c>
       <c r="C8">
-        <v>9544756624.84399</v>
+        <v>9544.756624843993</v>
       </c>
       <c r="D8">
-        <v>102393675.5352182</v>
+        <v>102.3936755352182</v>
       </c>
       <c r="E8">
-        <v>23055783.29807587</v>
+        <v>23.05578329807586</v>
       </c>
       <c r="F8">
-        <v>333990627.09394</v>
+        <v>333.9906270939401</v>
       </c>
       <c r="G8">
-        <v>280325236.7409015</v>
+        <v>280.3252367409015</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1223563381.223077</v>
+        <v>1223.563381223076</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>298287447.8393159</v>
+        <v>298.2874478393159</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9525446932.19171</v>
+        <v>9525.446932191704</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>906933701.5751872</v>
+        <v>906.9337015751869</v>
       </c>
       <c r="C7">
-        <v>2144458439.1655</v>
+        <v>2144.458439165498</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3816976577.715239</v>
+        <v>3816.976577715238</v>
       </c>
       <c r="C8">
-        <v>10888697506.47998</v>
+        <v>10888.69750647998</v>
       </c>
       <c r="D8">
-        <v>97885070.49784608</v>
+        <v>97.88507049784604</v>
       </c>
       <c r="E8">
-        <v>23862995.82714526</v>
+        <v>23.86299582714526</v>
       </c>
       <c r="F8">
-        <v>381017877.2876687</v>
+        <v>381.0178772876685</v>
       </c>
       <c r="G8">
-        <v>305139214.0740686</v>
+        <v>305.1392140740685</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1150292552.224827</v>
+        <v>1150.292552224827</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>261792337.1059656</v>
+        <v>261.7923371059655</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11057741729.4608</v>
+        <v>11057.74172946081</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>832893484.0683279</v>
+        <v>832.8934840683276</v>
       </c>
       <c r="C7">
-        <v>2489423093.599519</v>
+        <v>2489.42309359952</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3505366395.469525</v>
+        <v>3505.366395469524</v>
       </c>
       <c r="C8">
-        <v>12640289285.53127</v>
+        <v>12640.28928553127</v>
       </c>
       <c r="D8">
-        <v>92023404.17798613</v>
+        <v>92.02340417798611</v>
       </c>
       <c r="E8">
-        <v>20943386.96847724</v>
+        <v>20.94338696847723</v>
       </c>
       <c r="F8">
-        <v>442309669.1784325</v>
+        <v>442.3096691784328</v>
       </c>
       <c r="G8">
-        <v>332231657.7667846</v>
+        <v>332.2316577667847</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1045611539.310686</v>
+        <v>1045.611539310685</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>256495886.4095519</v>
+        <v>256.4958864095518</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13077103832.88185</v>
+        <v>13077.10383288185</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>776715912.8188782</v>
+        <v>776.7159128188775</v>
       </c>
       <c r="C7">
-        <v>2944040933.081395</v>
+        <v>2944.040933081395</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3268934037.426536</v>
+        <v>3268.934037426533</v>
       </c>
       <c r="C8">
-        <v>14948655838.48436</v>
+        <v>14948.65583848435</v>
       </c>
       <c r="D8">
-        <v>83648923.1448548</v>
+        <v>83.64892314485472</v>
       </c>
       <c r="E8">
-        <v>20519670.91276414</v>
+        <v>20.51967091276413</v>
       </c>
       <c r="F8">
-        <v>523084153.3152746</v>
+        <v>523.0841533152746</v>
       </c>
       <c r="G8">
-        <v>372075684.5900273</v>
+        <v>372.0756845900273</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1029399665.00484</v>
+        <v>1029.39966500484</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>235824445.048554</v>
+        <v>235.824445048554</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15715062947.42064</v>
+        <v>15715.06294742063</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>746995329.6551666</v>
+        <v>746.9953296551661</v>
       </c>
       <c r="C7">
-        <v>3537923165.12955</v>
+        <v>3537.923165129547</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3143850175.601912</v>
+        <v>3143.850175601911</v>
       </c>
       <c r="C8">
-        <v>17964150968.22999</v>
+        <v>17964.15096822998</v>
       </c>
       <c r="D8">
-        <v>82351973.20038719</v>
+        <v>82.35197320038712</v>
       </c>
       <c r="E8">
-        <v>18865955.60388431</v>
+        <v>18.86595560388431</v>
       </c>
       <c r="F8">
-        <v>628602517.8968261</v>
+        <v>628.6025178968258</v>
       </c>
       <c r="G8">
-        <v>428491849.4784715</v>
+        <v>428.4918494784712</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1184294858.144105</v>
+        <v>1184.294858144104</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>204585620.2708075</v>
+        <v>204.5856202708076</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19086214997.64985</v>
+        <v>19086.21499764985</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>788743126.2836106</v>
+        <v>788.7431262836101</v>
       </c>
       <c r="C7">
-        <v>4296868704.933287</v>
+        <v>4296.868704933289</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3319552502.712732</v>
+        <v>3319.552502712731</v>
       </c>
       <c r="C8">
-        <v>21817771190.42041</v>
+        <v>21817.77119042042</v>
       </c>
       <c r="D8">
-        <v>94743588.65152833</v>
+        <v>94.74358865152823</v>
       </c>
       <c r="E8">
-        <v>16366849.62166459</v>
+        <v>16.3668496216646</v>
       </c>
       <c r="F8">
-        <v>763448599.9059945</v>
+        <v>763.4485999059949</v>
       </c>
       <c r="G8">
-        <v>508561183.1216897</v>
+        <v>508.5611831216898</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1592757409.454473</v>
+        <v>1592.757409454472</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>174148577.5234949</v>
+        <v>174.1485775234948</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23269123173.42614</v>
+        <v>23269.12317342614</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>953832909.9131961</v>
+        <v>953.8329099131955</v>
       </c>
       <c r="C7">
-        <v>5238564438.650835</v>
+        <v>5238.564438650835</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4014359450.827852</v>
+        <v>4014.35945082785</v>
       </c>
       <c r="C8">
-        <v>26599323399.74339</v>
+        <v>26599.32339974339</v>
       </c>
       <c r="D8">
-        <v>127420592.7563578</v>
+        <v>127.4205927563577</v>
       </c>
       <c r="E8">
-        <v>13931886.20187958</v>
+        <v>13.93188620187958</v>
       </c>
       <c r="F8">
-        <v>930764926.9370463</v>
+        <v>930.7649269370463</v>
       </c>
       <c r="G8">
-        <v>619239734.856403</v>
+        <v>619.2397348564029</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2424558329.419892</v>
+        <v>2424.558329419892</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>193367206.2381386</v>
+        <v>193.3672062381385</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28288992021.87918</v>
+        <v>28288.99202187918</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1376008777.605816</v>
+        <v>1376.008777605816</v>
       </c>
       <c r="C7">
-        <v>6368684651.613086</v>
+        <v>6368.684651613087</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5791154596.780145</v>
+        <v>5791.154596780144</v>
       </c>
       <c r="C8">
-        <v>32337619335.05342</v>
+        <v>32337.61933505343</v>
       </c>
       <c r="D8">
-        <v>193964666.3535913</v>
+        <v>193.9646663535912</v>
       </c>
       <c r="E8">
-        <v>15469376.49905108</v>
+        <v>15.46937649905107</v>
       </c>
       <c r="F8">
-        <v>1131559680.875168</v>
+        <v>1131.559680875168</v>
       </c>
       <c r="G8">
-        <v>774469342.92189</v>
+        <v>774.4693429218901</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3677044377.862302</v>
+        <v>3677.044377862303</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>299343902.588824</v>
+        <v>299.3439025888239</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34104142221.73262</v>
+        <v>34104.14222173263</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2093276703.017501</v>
+        <v>2093.276703017501</v>
       </c>
       <c r="C7">
-        <v>7677846101.974698</v>
+        <v>7677.846101974699</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8809892202.944439</v>
+        <v>8809.892202944444</v>
       </c>
       <c r="C8">
-        <v>38985014667.96528</v>
+        <v>38985.0146679653</v>
       </c>
       <c r="D8">
-        <v>294163550.2289841</v>
+        <v>294.1635502289841</v>
       </c>
       <c r="E8">
-        <v>23947512.2071059</v>
+        <v>23.9475122071059</v>
       </c>
       <c r="F8">
-        <v>1364165688.869306</v>
+        <v>1364.165688869306</v>
       </c>
       <c r="G8">
-        <v>977112280.4992197</v>
+        <v>977.1122804992199</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>159.4769575127164</v>
+        <v>0.0001594769575127164</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>35.90295655679998</v>
+        <v>3.590295655679997E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>182.3007741233806</v>
+        <v>0.0001823007741233805</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.379078300508662</v>
+        <v>6.37907830050866E-06</v>
       </c>
       <c r="G8">
-        <v>3.590295655679997</v>
+        <v>3.590295655679996E-06</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5140819787.005578</v>
+        <v>5140.819787005579</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>426313840.5025715</v>
+        <v>426.3138405025713</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>40597150200.77676</v>
+        <v>40597.15020077676</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2934843737.099625</v>
+        <v>2934.843737099625</v>
       </c>
       <c r="C7">
-        <v>9139613287.845352</v>
+        <v>9139.61328784535</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12351762630.83751</v>
+        <v>12351.7626308375</v>
       </c>
       <c r="C8">
-        <v>46407280551.57828</v>
+        <v>46407.28055157827</v>
       </c>
       <c r="D8">
-        <v>411265582.9604461</v>
+        <v>411.2655829604461</v>
       </c>
       <c r="E8">
-        <v>34105107.24020571</v>
+        <v>34.10510724020568</v>
       </c>
       <c r="F8">
-        <v>1623886008.031072</v>
+        <v>1623.886008031072</v>
       </c>
       <c r="G8">
-        <v>1207445702.494497</v>
+        <v>1207.445702494497</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7165175315.949172</v>
+        <v>7165.175315949168</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>594749296.220588</v>
+        <v>594.7492962205879</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>47570924791.00388</v>
+        <v>47570.9247910039</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4091122869.952055</v>
+        <v>4091.122869952052</v>
       </c>
       <c r="C7">
-        <v>10709615186.89635</v>
+        <v>10709.61518689635</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17218149622.22744</v>
+        <v>17218.14962222743</v>
       </c>
       <c r="C8">
-        <v>54379118779.42377</v>
+        <v>54379.1187794238</v>
       </c>
       <c r="D8">
-        <v>573214025.2759335</v>
+        <v>573.2140252759332</v>
       </c>
       <c r="E8">
-        <v>47579943.69764701</v>
+        <v>47.57994369764701</v>
       </c>
       <c r="F8">
-        <v>1902836991.640157</v>
+        <v>1902.836991640158</v>
       </c>
       <c r="G8">
-        <v>1480073805.68484</v>
+        <v>1480.07380568484</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10143564839.81871</v>
+        <v>10143.56483981871</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>844880082.9733275</v>
+        <v>844.8800829733275</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54750452774.48586</v>
+        <v>54750.45277448583</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5794782590.747834</v>
+        <v>5794.782590747835</v>
       </c>
       <c r="C7">
-        <v>12325938230.10922</v>
+        <v>12325.93823010921</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24388275993.51575</v>
+        <v>24388.27599351575</v>
       </c>
       <c r="C8">
-        <v>62586157148.11646</v>
+        <v>62586.15714811644</v>
       </c>
       <c r="D8">
-        <v>811485187.1854962</v>
+        <v>811.4851871854962</v>
       </c>
       <c r="E8">
-        <v>67590406.63786617</v>
+        <v>67.59040663786617</v>
       </c>
       <c r="F8">
-        <v>2190018110.979436</v>
+        <v>2190.018110979435</v>
       </c>
       <c r="G8">
-        <v>1812072082.085705</v>
+        <v>1812.072082085704</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12160797571.7206</v>
+        <v>12160.7975717206</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1017312368.235763</v>
+        <v>1017.312368235763</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>61792023783.39474</v>
+        <v>61792.02378339468</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6951853091.900586</v>
+        <v>6951.853091900587</v>
       </c>
       <c r="C7">
-        <v>13911203098.25996</v>
+        <v>13911.20309825995</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29257993585.87622</v>
+        <v>29257.99358587622</v>
       </c>
       <c r="C8">
-        <v>70635494594.66566</v>
+        <v>70635.49459466561</v>
       </c>
       <c r="D8">
-        <v>972863805.7376477</v>
+        <v>972.8638057376479</v>
       </c>
       <c r="E8">
-        <v>81384989.45886096</v>
+        <v>81.38498945886097</v>
       </c>
       <c r="F8">
-        <v>2471680951.335792</v>
+        <v>2471.680951335789</v>
       </c>
       <c r="G8">
-        <v>2086305619.016054</v>
+        <v>2086.305619016053</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12338878909.6517</v>
+        <v>12338.8789096517</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1035004011.432386</v>
+        <v>1035.004011432386</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>68302297849.54332</v>
+        <v>68302.29784954333</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7056614053.445821</v>
+        <v>7056.614053445822</v>
       </c>
       <c r="C7">
-        <v>15376857388.48026</v>
+        <v>15376.85738848027</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29698896968.09984</v>
+        <v>29698.89696809984</v>
       </c>
       <c r="C8">
-        <v>78077497630.86995</v>
+        <v>78077.49763086997</v>
       </c>
       <c r="D8">
-        <v>987110312.7721353</v>
+        <v>987.1103127721354</v>
       </c>
       <c r="E8">
-        <v>82800320.91459084</v>
+        <v>82.80032091459086</v>
       </c>
       <c r="F8">
-        <v>2732091913.981735</v>
+        <v>2732.091913981736</v>
       </c>
       <c r="G8">
-        <v>2243347144.192608</v>
+        <v>2243.347144192609</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12177682892.20553</v>
+        <v>12177.68289220554</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1021333188.176206</v>
+        <v>1021.333188176206</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73868560997.84633</v>
+        <v>73868.56099784632</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6964267672.955291</v>
+        <v>6964.267672955294</v>
       </c>
       <c r="C7">
-        <v>16629987038.77036</v>
+        <v>16629.98703877036</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29310242350.06445</v>
+        <v>29310.24235006445</v>
       </c>
       <c r="C8">
-        <v>84440386017.60864</v>
+        <v>84440.38601760863</v>
       </c>
       <c r="D8">
-        <v>974214631.376442</v>
+        <v>974.2146313764424</v>
       </c>
       <c r="E8">
-        <v>81706655.05409642</v>
+        <v>81.70665505409642</v>
       </c>
       <c r="F8">
-        <v>2954742439.913856</v>
+        <v>2954.742439913855</v>
       </c>
       <c r="G8">
-        <v>2359425471.172565</v>
+        <v>2359.425471172565</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11888506452.31368</v>
+        <v>11888.50645231369</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>997531778.4738352</v>
+        <v>997.5317784738352</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78098763614.67683</v>
+        <v>78098.76361467685</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6799369411.137893</v>
+        <v>6799.369411137896</v>
       </c>
       <c r="C7">
-        <v>17582330143.04872</v>
+        <v>17582.33014304872</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28616241452.34747</v>
+        <v>28616.24145234748</v>
       </c>
       <c r="C8">
-        <v>89276001292.53297</v>
+        <v>89276.00129253299</v>
       </c>
       <c r="D8">
-        <v>951080516.1850939</v>
+        <v>951.0805161850944</v>
       </c>
       <c r="E8">
-        <v>79802542.27790678</v>
+        <v>79.80254227790678</v>
       </c>
       <c r="F8">
-        <v>3123950544.587076</v>
+        <v>3123.950544587077</v>
       </c>
       <c r="G8">
-        <v>2438169955.418661</v>
+        <v>2438.169955418661</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11414784870.12715</v>
+        <v>11414.78487012716</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>961778795.921385</v>
+        <v>961.7787959213856</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80666347090.07407</v>
+        <v>80666.34709007408</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6532665817.657245</v>
+        <v>6532.665817657247</v>
       </c>
       <c r="C7">
-        <v>18160368747.56495</v>
+        <v>18160.36874756495</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27493776416.87681</v>
+        <v>27493.77641687683</v>
       </c>
       <c r="C8">
-        <v>92211048853.58263</v>
+        <v>92211.04885358264</v>
       </c>
       <c r="D8">
-        <v>913182789.6101718</v>
+        <v>913.1827896101722</v>
       </c>
       <c r="E8">
-        <v>76942303.67371076</v>
+        <v>76.94230367371081</v>
       </c>
       <c r="F8">
-        <v>3226653883.602965</v>
+        <v>3226.653883602966</v>
       </c>
       <c r="G8">
-        <v>2469303456.522219</v>
+        <v>2469.303456522219</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10983874336.47506</v>
+        <v>10983.87433647506</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>929925286.1170478</v>
+        <v>929.9252861170482</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81351941224.75258</v>
+        <v>81351.94122475263</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6290772476.860368</v>
+        <v>6290.772476860368</v>
       </c>
       <c r="C7">
-        <v>18314716164.37591</v>
+        <v>18314.71616437592</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26475729326.41876</v>
+        <v>26475.72932641876</v>
       </c>
       <c r="C8">
-        <v>92994762961.4742</v>
+        <v>92994.76296147426</v>
       </c>
       <c r="D8">
-        <v>878709946.9180046</v>
+        <v>878.7099469180047</v>
       </c>
       <c r="E8">
-        <v>74394022.88936378</v>
+        <v>74.39402288936382</v>
       </c>
       <c r="F8">
-        <v>3254077648.990106</v>
+        <v>3254.077648990108</v>
       </c>
       <c r="G8">
-        <v>2460548864.123627</v>
+        <v>2460.548864123628</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10577943108.19465</v>
+        <v>10577.94310819465</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>899008395.6875621</v>
+        <v>899.0083956875624</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80073195255.72806</v>
+        <v>80073.19525572802</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6061937891.034123</v>
+        <v>6061.937891034124</v>
       </c>
       <c r="C7">
-        <v>18026832813.14374</v>
+        <v>18026.83281314373</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25512642109.84174</v>
+        <v>25512.64210984175</v>
       </c>
       <c r="C8">
-        <v>91533007083.40802</v>
+        <v>91533.007083408</v>
       </c>
       <c r="D8">
-        <v>846235448.6555718</v>
+        <v>846.2354486555716</v>
       </c>
       <c r="E8">
-        <v>71920671.65500493</v>
+        <v>71.92067165500495</v>
       </c>
       <c r="F8">
-        <v>3202927810.229125</v>
+        <v>3202.927810229124</v>
       </c>
       <c r="G8">
-        <v>2408877070.417786</v>
+        <v>2408.877070417785</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>889.4768920938303</v>
+        <v>0.0008894768920938302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>200.2474257923802</v>
+        <v>0.0002002474257923802</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1016.77589366247</v>
+        <v>0.001016775893662469</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.57907568375325</v>
+        <v>3.557907568375324E-05</v>
       </c>
       <c r="G8">
-        <v>20.02474257923802</v>
+        <v>2.002474257923801E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9608519249.412903</v>
+        <v>9608.519249412902</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>820754130.1467572</v>
+        <v>820.7541301467572</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76896034846.24576</v>
+        <v>76896.03484624575</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5510766529.693423</v>
+        <v>5510.766529693423</v>
       </c>
       <c r="C7">
-        <v>17311560500.86294</v>
+        <v>17311.56050086294</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23192948649.45878</v>
+        <v>23192.94864945877</v>
       </c>
       <c r="C8">
-        <v>87901141946.29819</v>
+        <v>87901.14194629819</v>
       </c>
       <c r="D8">
-        <v>768681539.9530319</v>
+        <v>768.6815399530318</v>
       </c>
       <c r="E8">
-        <v>65660330.41174055</v>
+        <v>65.66033041174055</v>
       </c>
       <c r="F8">
-        <v>3075841393.849833</v>
+        <v>3075.841393849832</v>
       </c>
       <c r="G8">
-        <v>2282232703.055635</v>
+        <v>2282.232703055635</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7424834476.508821</v>
+        <v>7424.83447650882</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>641331152.8397658</v>
+        <v>641.3311528397658</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72025176468.9754</v>
+        <v>72025.17646897542</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4265884160.762875</v>
+        <v>4265.884160762874</v>
       </c>
       <c r="C7">
-        <v>16214986930.355</v>
+        <v>16214.986930355</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17953660666.26254</v>
+        <v>17953.66066626253</v>
       </c>
       <c r="C8">
-        <v>82333182369.74974</v>
+        <v>82333.18236974976</v>
       </c>
       <c r="D8">
-        <v>593986758.1207054</v>
+        <v>593.9867581207053</v>
       </c>
       <c r="E8">
-        <v>51306492.22718124</v>
+        <v>51.30649222718124</v>
       </c>
       <c r="F8">
-        <v>2881007058.759019</v>
+        <v>2881.007058759019</v>
       </c>
       <c r="G8">
-        <v>2048087109.111787</v>
+        <v>2048.087109111787</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4031083232.9486</v>
+        <v>4031.0832329486</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>363299804.4754559</v>
+        <v>363.2998044754556</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65777254814.53128</v>
+        <v>65777.2548145313</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2332028173.10006</v>
+        <v>2332.028173100059</v>
       </c>
       <c r="C7">
-        <v>14808395889.06359</v>
+        <v>14808.3958890636</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9814716224.388807</v>
+        <v>9814.716224388805</v>
       </c>
       <c r="C8">
-        <v>75191078757.84346</v>
+        <v>75191.0787578435</v>
       </c>
       <c r="D8">
-        <v>322486658.6358879</v>
+        <v>322.4866586358878</v>
       </c>
       <c r="E8">
-        <v>29063984.35803646</v>
+        <v>29.06398435803643</v>
       </c>
       <c r="F8">
-        <v>2631090192.581254</v>
+        <v>2631.090192581255</v>
       </c>
       <c r="G8">
-        <v>1714042406.216365</v>
+        <v>1714.042406216365</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1664718313.590897</v>
+        <v>1664.718313590904</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>177219637.4070409</v>
+        <v>177.21963740704</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58544115871.94884</v>
+        <v>58544.11587194887</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>991847630.1872011</v>
+        <v>991.8476301872037</v>
       </c>
       <c r="C7">
-        <v>13180003441.18203</v>
+        <v>13180.00344118204</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4174350524.753386</v>
+        <v>4174.350524753397</v>
       </c>
       <c r="C8">
-        <v>66922756806.25616</v>
+        <v>66922.75680625619</v>
       </c>
       <c r="D8">
-        <v>133177465.0872717</v>
+        <v>133.1774650872723</v>
       </c>
       <c r="E8">
-        <v>14177570.99256326</v>
+        <v>14.1775709925632</v>
       </c>
       <c r="F8">
-        <v>2341764634.877955</v>
+        <v>2341.764634877957</v>
       </c>
       <c r="G8">
-        <v>1417185107.136923</v>
+        <v>1417.185107136924</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1290428162.329036</v>
+        <v>1290.428162329041</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>159887453.0536012</v>
+        <v>159.8874530536008</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50754656044.96899</v>
+        <v>50754.65604496898</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>792683007.8838259</v>
+        <v>792.6830078838278</v>
       </c>
       <c r="C7">
-        <v>11426366789.65075</v>
+        <v>11426.36678965075</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3336134129.088369</v>
+        <v>3336.134129088377</v>
       </c>
       <c r="C8">
-        <v>58018495158.62491</v>
+        <v>58018.49515862489</v>
       </c>
       <c r="D8">
-        <v>103234252.9863229</v>
+        <v>103.2342529863232</v>
       </c>
       <c r="E8">
-        <v>12790996.24428809</v>
+        <v>12.79099624428806</v>
       </c>
       <c r="F8">
-        <v>2030186241.798762</v>
+        <v>2030.186241798761</v>
       </c>
       <c r="G8">
-        <v>1221904979.753458</v>
+        <v>1221.904979753458</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1156146030.301875</v>
+        <v>1156.146030301874</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>152464935.0576974</v>
+        <v>152.4649350576973</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>42840626809.29619</v>
+        <v>42840.62680929619</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>719954476.6078218</v>
+        <v>719.9544766078213</v>
       </c>
       <c r="C7">
-        <v>9644685898.134192</v>
+        <v>9644.68589813419</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3030044389.639952</v>
+        <v>3030.044389639949</v>
       </c>
       <c r="C8">
-        <v>48971836139.04098</v>
+        <v>48971.83613904097</v>
       </c>
       <c r="D8">
-        <v>92491682.42414995</v>
+        <v>92.49168242414987</v>
       </c>
       <c r="E8">
-        <v>12197194.80461579</v>
+        <v>12.19719480461578</v>
       </c>
       <c r="F8">
-        <v>1713625072.371849</v>
+        <v>1713.625072371849</v>
       </c>
       <c r="G8">
-        <v>1036464037.474201</v>
+        <v>1036.464037474201</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>857112356.9147992</v>
+        <v>857.1123569147954</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>116311724.4287768</v>
+        <v>116.311724428777</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>35207051542.27657</v>
+        <v>35207.05154227657</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>537215083.564908</v>
+        <v>537.2150835649064</v>
       </c>
       <c r="C7">
-        <v>7926143448.746076</v>
+        <v>7926.143448746074</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2260956217.197751</v>
+        <v>2260.956217197744</v>
       </c>
       <c r="C8">
-        <v>40245768735.88147</v>
+        <v>40245.76873588147</v>
       </c>
       <c r="D8">
-        <v>68568988.5531839</v>
+        <v>68.5689885531836</v>
       </c>
       <c r="E8">
-        <v>9304937.954302143</v>
+        <v>9.304937954302154</v>
       </c>
       <c r="F8">
-        <v>1408282061.691064</v>
+        <v>1408.282061691064</v>
       </c>
       <c r="G8">
-        <v>846335853.2310982</v>
+        <v>846.3358532310979</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>389426998.5101106</v>
+        <v>389.4269985101077</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55702790.62968751</v>
+        <v>55.70279062968776</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28204828903.20832</v>
+        <v>28204.82890320832</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>247107514.28239</v>
+        <v>247.1075142823889</v>
       </c>
       <c r="C7">
-        <v>6349737056.672396</v>
+        <v>6349.737056672397</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1039991779.503987</v>
+        <v>1039.991779503982</v>
       </c>
       <c r="C8">
-        <v>32241411068.19386</v>
+        <v>32241.41106819387</v>
       </c>
       <c r="D8">
-        <v>31154159.88080883</v>
+        <v>31.1541598808086</v>
       </c>
       <c r="E8">
-        <v>4456223.250374999</v>
+        <v>4.456223250375019</v>
       </c>
       <c r="F8">
-        <v>1128193156.128334</v>
+        <v>1128.193156128334</v>
       </c>
       <c r="G8">
-        <v>659684457.0954785</v>
+        <v>659.6844570954785</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73461974.86642931</v>
+        <v>73.46197486643311</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10384210.6635579</v>
+        <v>10.38421066355767</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>22104254486.82812</v>
+        <v>22104.25448682811</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46483744.97821525</v>
+        <v>46.48374497821685</v>
       </c>
       <c r="C7">
-        <v>4976318215.111171</v>
+        <v>4976.31821511117</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>195634328.6374465</v>
+        <v>195.6343286374532</v>
       </c>
       <c r="C8">
-        <v>25267742545.48755</v>
+        <v>25267.74254548754</v>
       </c>
       <c r="D8">
-        <v>5876957.989314342</v>
+        <v>5.876957989314646</v>
       </c>
       <c r="E8">
-        <v>830736.8530846313</v>
+        <v>0.8307368530846135</v>
       </c>
       <c r="F8">
-        <v>884170179.4731255</v>
+        <v>884.1701794731252</v>
       </c>
       <c r="G8">
-        <v>502280196.0089386</v>
+        <v>502.2801960089384</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68913674.84634893</v>
+        <v>68.91367484635599</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1616162.356712745</v>
+        <v>1.616162356712421</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17072759561.59339</v>
+        <v>17072.75956159338</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35002079.001768</v>
+        <v>35.00207900177107</v>
       </c>
       <c r="C7">
-        <v>3843580630.108912</v>
+        <v>3843.580630108911</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>147311887.83595</v>
+        <v>147.3118878359628</v>
       </c>
       <c r="C8">
-        <v>19516156647.59999</v>
+        <v>19516.15664759999</v>
       </c>
       <c r="D8">
-        <v>5513093.987707911</v>
+        <v>5.513093987708476</v>
       </c>
       <c r="E8">
-        <v>129292.9885370196</v>
+        <v>0.1292929885369936</v>
       </c>
       <c r="F8">
-        <v>682910382.4637361</v>
+        <v>682.9103824637359</v>
       </c>
       <c r="G8">
-        <v>387858270.9110679</v>
+        <v>387.8582709110681</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3532.675701654701</v>
+        <v>0.003532675701654701</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>795.3092673946838</v>
+        <v>0.0007953092673946838</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4038.260606314593</v>
+        <v>0.004038260606314592</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -15518,10 +15518,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>141.3070280661882</v>
+        <v>0.0001413070280661881</v>
       </c>
       <c r="G8">
-        <v>79.53092673946837</v>
+        <v>7.953092673946836E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>170639450.1864052</v>
+        <v>170.6394501864155</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3096647.643345419</v>
+        <v>3.09664764334509</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13164159979.50806</v>
+        <v>13164.15997950806</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>85711315.33775829</v>
+        <v>85.71131533776294</v>
       </c>
       <c r="C7">
-        <v>2963639833.756897</v>
+        <v>2963.639833756898</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>360729877.5215556</v>
+        <v>360.7298775215751</v>
       </c>
       <c r="C8">
-        <v>15048171173.9264</v>
+        <v>15048.1711739264</v>
       </c>
       <c r="D8">
-        <v>13651156.01491241</v>
+        <v>13.65115601491323</v>
       </c>
       <c r="E8">
-        <v>247731.8114676334</v>
+        <v>0.247731811467607</v>
       </c>
       <c r="F8">
-        <v>526566399.1803227</v>
+        <v>526.5663991803228</v>
       </c>
       <c r="G8">
-        <v>304935114.9094655</v>
+        <v>304.935114909466</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>360798795.9229231</v>
+        <v>360.798795922928</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9058652.088515574</v>
+        <v>9.05865208851514</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10326052395.12425</v>
+        <v>10326.05239512424</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>183886399.7479707</v>
+        <v>183.8863997479725</v>
       </c>
       <c r="C7">
-        <v>2324698290.759807</v>
+        <v>2324.698290759806</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>773915534.9275517</v>
+        <v>773.9155349275595</v>
       </c>
       <c r="C8">
-        <v>11803882984.91107</v>
+        <v>11803.88298491106</v>
       </c>
       <c r="D8">
-        <v>28863903.67383384</v>
+        <v>28.86390367383422</v>
       </c>
       <c r="E8">
-        <v>724692.1670812456</v>
+        <v>0.7246921670812109</v>
       </c>
       <c r="F8">
-        <v>413042095.8049703</v>
+        <v>413.0420958049701</v>
       </c>
       <c r="G8">
-        <v>250858469.0507777</v>
+        <v>250.8584690507778</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>644273968.2455887</v>
+        <v>644.2739682455815</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24508134.85561906</v>
+        <v>24.50813485561815</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8425937573.856678</v>
+        <v>8425.937573856676</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>337186652.1501623</v>
+        <v>337.1866521501579</v>
       </c>
       <c r="C7">
-        <v>1896926523.948532</v>
+        <v>1896.926523948532</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1419104341.739678</v>
+        <v>1419.104341739659</v>
       </c>
       <c r="C8">
-        <v>9631829992.159649</v>
+        <v>9631.829992159646</v>
       </c>
       <c r="D8">
-        <v>51541917.45964707</v>
+        <v>51.54191745964649</v>
       </c>
       <c r="E8">
-        <v>1960650.788449524</v>
+        <v>1.960650788449451</v>
       </c>
       <c r="F8">
-        <v>337037502.9542674</v>
+        <v>337.0375029542673</v>
       </c>
       <c r="G8">
-        <v>223411317.6098694</v>
+        <v>223.4113176098689</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>999694593.7417065</v>
+        <v>999.6945937417032</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56542260.58911265</v>
+        <v>56.54226058911129</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7288633795.492036</v>
+        <v>7288.633795492032</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>542803683.0203371</v>
+        <v>542.803683020334</v>
       </c>
       <c r="C7">
-        <v>1640885972.489841</v>
+        <v>1640.88597248984</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2284476738.25299</v>
+        <v>2284.476738252977</v>
       </c>
       <c r="C8">
-        <v>8331759044.964736</v>
+        <v>8331.759044964732</v>
       </c>
       <c r="D8">
-        <v>79975567.49933648</v>
+        <v>79.97556749933622</v>
       </c>
       <c r="E8">
-        <v>4523380.84712901</v>
+        <v>4.523380847128901</v>
       </c>
       <c r="F8">
-        <v>291545351.8196817</v>
+        <v>291.5453518196815</v>
       </c>
       <c r="G8">
-        <v>218368965.5510178</v>
+        <v>218.3689655510173</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1375576039.082166</v>
+        <v>1375.576039082172</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>102934656.2214365</v>
+        <v>102.9346562214357</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6732819215.659664</v>
+        <v>6732.819215659663</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>773508859.8207563</v>
+        <v>773.5088598207581</v>
       </c>
       <c r="C7">
-        <v>1515755752.898296</v>
+        <v>1515.755752898296</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3255436638.271491</v>
+        <v>3255.436638271499</v>
       </c>
       <c r="C8">
-        <v>7696398114.126667</v>
+        <v>7696.398114126665</v>
       </c>
       <c r="D8">
-        <v>110046083.1265733</v>
+        <v>110.0460831265737</v>
       </c>
       <c r="E8">
-        <v>8234772.49771492</v>
+        <v>8.23477249771485</v>
       </c>
       <c r="F8">
-        <v>269312768.6263868</v>
+        <v>269.3127686263868</v>
       </c>
       <c r="G8">
-        <v>228926461.2719052</v>
+        <v>228.9264612719053</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1726601052.277587</v>
+        <v>1726.601052277589</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>144684222.4582783</v>
+        <v>144.6842224582781</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6596302008.643076</v>
+        <v>6596.302008643077</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>987290136.2838134</v>
+        <v>987.2901362838145</v>
       </c>
       <c r="C7">
-        <v>1485021711.885622</v>
+        <v>1485.021711885623</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4155169577.510939</v>
+        <v>4155.169577510943</v>
       </c>
       <c r="C8">
-        <v>7540343014.327678</v>
+        <v>7540.34301432768</v>
       </c>
       <c r="D8">
-        <v>138128084.1822069</v>
+        <v>138.1280841822071</v>
       </c>
       <c r="E8">
-        <v>11574737.79666226</v>
+        <v>11.57473779666224</v>
       </c>
       <c r="F8">
-        <v>263852080.3457233</v>
+        <v>263.8520803457233</v>
       </c>
       <c r="G8">
-        <v>247231184.8169435</v>
+        <v>247.2311848169436</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2036931496.12606</v>
+        <v>2036.931496126062</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>171948031.8953649</v>
+        <v>171.9480318953651</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6746506634.339642</v>
+        <v>6746.506634339639</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1166073778.359733</v>
+        <v>1166.073778359734</v>
       </c>
       <c r="C7">
-        <v>1518837193.665077</v>
+        <v>1518.837193665077</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4907609334.791074</v>
+        <v>4907.609334791079</v>
       </c>
       <c r="C8">
-        <v>7712044431.061899</v>
+        <v>7712.044431061897</v>
       </c>
       <c r="D8">
-        <v>162954519.6900847</v>
+        <v>162.9545196900849</v>
       </c>
       <c r="E8">
-        <v>13755842.55162918</v>
+        <v>13.75584255162921</v>
       </c>
       <c r="F8">
-        <v>269860265.3735859</v>
+        <v>269.8602653735858</v>
       </c>
       <c r="G8">
-        <v>268491097.2024809</v>
+        <v>268.491097202481</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2111121340.795416</v>
+        <v>2111.121340795415</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>178032610.5164977</v>
+        <v>178.0326105164985</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7079796947.231662</v>
+        <v>7079.796947231662</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1208356264.80896</v>
+        <v>1208.356264808961</v>
       </c>
       <c r="C7">
-        <v>1593870651.859879</v>
+        <v>1593.870651859879</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5085561990.143891</v>
+        <v>5085.561990143894</v>
       </c>
       <c r="C8">
-        <v>8093034155.193012</v>
+        <v>8093.034155193011</v>
       </c>
       <c r="D8">
-        <v>168889707.2636332</v>
+        <v>168.8897072636331</v>
       </c>
       <c r="E8">
-        <v>14242608.84131981</v>
+        <v>14.24260884131987</v>
       </c>
       <c r="F8">
-        <v>283191877.8892667</v>
+        <v>283.1918778892667</v>
       </c>
       <c r="G8">
-        <v>280222691.6668838</v>
+        <v>280.2226916668839</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1598967757.878983</v>
+        <v>1598.967757878981</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135946992.7247853</v>
+        <v>135.9469927247864</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7516183479.030984</v>
+        <v>7516.18347903098</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>916381369.4092187</v>
+        <v>916.3813694092187</v>
       </c>
       <c r="C7">
-        <v>1692114103.061375</v>
+        <v>1692.114103061374</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3856738609.685051</v>
+        <v>3856.73860968505</v>
       </c>
       <c r="C8">
-        <v>8591874889.332865</v>
+        <v>8591.874889332861</v>
       </c>
       <c r="D8">
-        <v>127917420.6303186</v>
+        <v>127.9174206303184</v>
       </c>
       <c r="E8">
-        <v>10875759.41798282</v>
+        <v>10.87575941798291</v>
       </c>
       <c r="F8">
-        <v>300647339.1612396</v>
+        <v>300.6473391612395</v>
       </c>
       <c r="G8">
-        <v>260849547.2470593</v>
+        <v>260.8495472470592</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>717906999.2148095</v>
+        <v>717.9069992148054</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62083028.15038582</v>
+        <v>62.08302815038684</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7994133276.611529</v>
+        <v>7994.13327661153</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>412545222.5844936</v>
+        <v>412.5452225844927</v>
       </c>
       <c r="C7">
-        <v>1799714668.600741</v>
+        <v>1799.714668600741</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1736263024.649313</v>
+        <v>1736.263024649309</v>
       </c>
       <c r="C8">
-        <v>9138227286.882832</v>
+        <v>9138.22728688283</v>
       </c>
       <c r="D8">
-        <v>57432559.93718474</v>
+        <v>57.4325599371844</v>
       </c>
       <c r="E8">
-        <v>4966642.252030863</v>
+        <v>4.966642252030945</v>
       </c>
       <c r="F8">
-        <v>319765331.0644615</v>
+        <v>319.7653310644615</v>
       </c>
       <c r="G8">
-        <v>221225989.1185234</v>
+        <v>221.2259891185233</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.8846205139803E-07</v>
+        <v>4.884620513980304E-13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.054143843626955E-09</v>
+        <v>1.054143843626954E-15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11553.96110533607</v>
+        <v>0.01155396110533607</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.370818273402326E-07</v>
+        <v>2.370818273402328E-13</v>
       </c>
       <c r="C7">
-        <v>2601.1366788883</v>
+        <v>0.0026011366788883</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.977970610066414E-07</v>
+        <v>9.977970610066423E-13</v>
       </c>
       <c r="C8">
-        <v>13207.52594321499</v>
+        <v>0.01320752594321499</v>
       </c>
       <c r="D8">
-        <v>3.907696411184238E-08</v>
+        <v>3.907696411184241E-14</v>
       </c>
       <c r="E8">
-        <v>8.433150749015633E-11</v>
+        <v>8.43315074901563E-17</v>
       </c>
       <c r="F8">
-        <v>462.1584442134433</v>
+        <v>0.0004621584442134434</v>
       </c>
       <c r="G8">
-        <v>260.1136679125382</v>
+        <v>0.0002601136679125382</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>196239694.234948</v>
+        <v>196.2396942349429</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17512889.09892013</v>
+        <v>17.51288909892043</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8466669645.260115</v>
+        <v>8466.669645260114</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>113343593.4817088</v>
+        <v>113.3435934817066</v>
       </c>
       <c r="C7">
-        <v>1906096511.969839</v>
+        <v>1906.096511969839</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>477024771.2730893</v>
+        <v>477.0247712730803</v>
       </c>
       <c r="C8">
-        <v>9678391503.391785</v>
+        <v>9678.391503391782</v>
       </c>
       <c r="D8">
-        <v>15699175.53879583</v>
+        <v>15.69917553879542</v>
       </c>
       <c r="E8">
-        <v>1401031.12791361</v>
+        <v>1.401031127913633</v>
       </c>
       <c r="F8">
-        <v>338666785.8104049</v>
+        <v>338.6667858104049</v>
       </c>
       <c r="G8">
-        <v>201944010.5451548</v>
+        <v>201.9440105451545</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>190242125.5897035</v>
+        <v>190.2421255897019</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16781886.25429163</v>
+        <v>16.78188625429165</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8897968825.906353</v>
+        <v>8897.968825906346</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>109672237.7099984</v>
+        <v>109.6722377099976</v>
       </c>
       <c r="C7">
-        <v>2003194650.705591</v>
+        <v>2003.194650705589</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>461573279.1025601</v>
+        <v>461.573279102557</v>
       </c>
       <c r="C8">
-        <v>10171416801.44664</v>
+        <v>10171.41680144664</v>
       </c>
       <c r="D8">
-        <v>15219370.04717627</v>
+        <v>15.21937004717615</v>
       </c>
       <c r="E8">
-        <v>1342550.90034333</v>
+        <v>1.342550900343331</v>
       </c>
       <c r="F8">
-        <v>355918753.0362545</v>
+        <v>355.9187530362541</v>
       </c>
       <c r="G8">
-        <v>211286688.8415589</v>
+        <v>211.2866888415586</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>439771186.6733115</v>
+        <v>439.7711866733097</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>38647281.64765266</v>
+        <v>38.64728164765266</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9259953535.112961</v>
+        <v>9259.953535112953</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>253367652.745923</v>
+        <v>253.3676527459221</v>
       </c>
       <c r="C7">
-        <v>2084688061.989377</v>
+        <v>2084.688061989375</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1066338580.650596</v>
+        <v>1066.338580650592</v>
       </c>
       <c r="C8">
-        <v>10585207569.3319</v>
+        <v>10585.20756933189</v>
       </c>
       <c r="D8">
-        <v>35181694.9338649</v>
+        <v>35.18169493386475</v>
       </c>
       <c r="E8">
-        <v>3091782.531812211</v>
+        <v>3.091782531812211</v>
       </c>
       <c r="F8">
-        <v>370398141.4045188</v>
+        <v>370.3981414045184</v>
       </c>
       <c r="G8">
-        <v>233805571.47353</v>
+        <v>233.8055714735297</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>809916606.3845326</v>
+        <v>809.91660638453</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71158569.48401231</v>
+        <v>71.15856948401249</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9529505183.451107</v>
+        <v>9529.5051834511</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>466603184.1011132</v>
+        <v>466.6031841011122</v>
       </c>
       <c r="C7">
-        <v>2145372070.958677</v>
+        <v>2145.372070958675</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1963774663.6915</v>
+        <v>1963.774663691496</v>
       </c>
       <c r="C8">
-        <v>10893336561.28586</v>
+        <v>10893.33656128585</v>
       </c>
       <c r="D8">
-        <v>64793328.51076257</v>
+        <v>64.79332851076236</v>
       </c>
       <c r="E8">
-        <v>5692685.558720982</v>
+        <v>5.692685558720997</v>
       </c>
       <c r="F8">
-        <v>381180207.3380446</v>
+        <v>381.1802073380443</v>
       </c>
       <c r="G8">
-        <v>261197525.5059789</v>
+        <v>261.1975255059787</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>936198481.0307623</v>
+        <v>936.1984810307622</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82271059.93318278</v>
+        <v>82.27105993318337</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9687376577.825571</v>
+        <v>9687.376577825564</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>539374270.5826553</v>
+        <v>539.3742705826559</v>
       </c>
       <c r="C7">
-        <v>2180913568.001194</v>
+        <v>2180.913568001192</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2270043503.577487</v>
+        <v>2270.043503577489</v>
       </c>
       <c r="C8">
-        <v>11073801989.36569</v>
+        <v>11073.80198936569</v>
       </c>
       <c r="D8">
-        <v>74895878.48246095</v>
+        <v>74.89587848246094</v>
       </c>
       <c r="E8">
-        <v>6581684.794654619</v>
+        <v>6.581684794654666</v>
       </c>
       <c r="F8">
-        <v>387495063.1130232</v>
+        <v>387.4950631130229</v>
       </c>
       <c r="G8">
-        <v>272028783.8583848</v>
+        <v>272.0287838583847</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>639504465.6742216</v>
+        <v>639.5044656742264</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56465760.44207866</v>
+        <v>56.46576044207902</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9719384194.81225</v>
+        <v>9719.384194812244</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>368722511.1714891</v>
+        <v>368.7225111714918</v>
       </c>
       <c r="C7">
-        <v>2188119424.571838</v>
+        <v>2188.119424571837</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1551828084.42723</v>
+        <v>1551.828084427241</v>
       </c>
       <c r="C8">
-        <v>11110390431.01596</v>
+        <v>11110.39043101596</v>
       </c>
       <c r="D8">
-        <v>51160357.25393771</v>
+        <v>51.16035725393808</v>
       </c>
       <c r="E8">
-        <v>4517260.835366291</v>
+        <v>4.517260835366319</v>
       </c>
       <c r="F8">
-        <v>388775367.7924904</v>
+        <v>388.7753677924901</v>
       </c>
       <c r="G8">
-        <v>255684193.5743327</v>
+        <v>255.6841935743329</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>288990551.6841193</v>
+        <v>288.9905516841234</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25923948.73792697</v>
+        <v>25.92394873792682</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9619517516.685152</v>
+        <v>9619.517516685142</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>167056018.0627494</v>
+        <v>167.0560180627513</v>
       </c>
       <c r="C7">
-        <v>2165636496.240432</v>
+        <v>2165.63649624043</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>703082162.4606105</v>
+        <v>703.0821624606182</v>
       </c>
       <c r="C8">
-        <v>10996231163.02109</v>
+        <v>10996.23116302108</v>
       </c>
       <c r="D8">
-        <v>23119244.13472953</v>
+        <v>23.11924413472986</v>
       </c>
       <c r="E8">
-        <v>2073915.899034157</v>
+        <v>2.073915899034145</v>
       </c>
       <c r="F8">
-        <v>384780700.6674064</v>
+        <v>384.7807006674061</v>
       </c>
       <c r="G8">
-        <v>233269251.4303181</v>
+        <v>233.2692514303181</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>207137970.3013844</v>
+        <v>207.1379703013829</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18939233.5309926</v>
+        <v>18.9392335309926</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9393751534.605042</v>
+        <v>9393.751534605031</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>120118673.0937988</v>
+        <v>120.1186730937981</v>
       </c>
       <c r="C7">
-        <v>2114809929.361771</v>
+        <v>2114.809929361768</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>505538785.1933888</v>
+        <v>505.5387851933859</v>
       </c>
       <c r="C8">
-        <v>10738154297.58649</v>
+        <v>10738.15429758648</v>
       </c>
       <c r="D8">
-        <v>16571037.62411074</v>
+        <v>16.57103762411063</v>
       </c>
       <c r="E8">
-        <v>1515138.682479408</v>
+        <v>1.515138682479407</v>
       </c>
       <c r="F8">
-        <v>375750061.384202</v>
+        <v>375.7500613842016</v>
       </c>
       <c r="G8">
-        <v>223492860.2455569</v>
+        <v>223.4928602455566</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>450302155.1980634</v>
+        <v>450.3021551980589</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40891890.26804005</v>
+        <v>40.89189026804014</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9062850136.455814</v>
+        <v>9062.850136455809</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>260831753.2103294</v>
+        <v>260.8317532103273</v>
       </c>
       <c r="C7">
-        <v>2040314286.18154</v>
+        <v>2040.314286181539</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1097752449.819721</v>
+        <v>1097.752449819712</v>
       </c>
       <c r="C8">
-        <v>10359895381.8036</v>
+        <v>10359.8953818036</v>
       </c>
       <c r="D8">
-        <v>36024172.41584506</v>
+        <v>36.0241724158447</v>
       </c>
       <c r="E8">
-        <v>3271351.221443202</v>
+        <v>3.27135122144321</v>
       </c>
       <c r="F8">
-        <v>362514005.4582329</v>
+        <v>362.5140054582326</v>
       </c>
       <c r="G8">
-        <v>230114603.939187</v>
+        <v>230.1146039391867</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>875578354.8994963</v>
+        <v>875.5783548994915</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>77747124.8938747</v>
+        <v>77.74712489387498</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8662468494.68778</v>
+        <v>8662.468494687779</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>505299589.8673913</v>
+        <v>505.2995898673893</v>
       </c>
       <c r="C7">
-        <v>1950176595.353122</v>
+        <v>1950.176595353122</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2126634720.821491</v>
+        <v>2126.634720821482</v>
       </c>
       <c r="C8">
-        <v>9902212438.903954</v>
+        <v>9902.212438903953</v>
       </c>
       <c r="D8">
-        <v>70046268.39195967</v>
+        <v>70.04626839195929</v>
       </c>
       <c r="E8">
-        <v>6219769.991509973</v>
+        <v>6.219769991509995</v>
       </c>
       <c r="F8">
-        <v>346498739.7875115</v>
+        <v>346.4987397875115</v>
       </c>
       <c r="G8">
-        <v>245547618.5220513</v>
+        <v>245.5476185220511</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.250143144444144E-05</v>
+        <v>2.250143144444144E-11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.646962569536631E-08</v>
+        <v>6.646962569536629E-14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>32994.85565775237</v>
+        <v>0.03299485565775238</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.094034607654471E-05</v>
+        <v>1.094034607654471E-11</v>
       </c>
       <c r="C7">
-        <v>7428.113050022982</v>
+        <v>0.007428113050022982</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.604420880351201E-05</v>
+        <v>4.604420880351203E-11</v>
       </c>
       <c r="C8">
-        <v>37716.97066654809</v>
+        <v>0.0377169706665481</v>
       </c>
       <c r="D8">
-        <v>1.800114515555314E-06</v>
+        <v>1.800114515555315E-12</v>
       </c>
       <c r="E8">
-        <v>5.317570055629303E-09</v>
+        <v>5.317570055629301E-15</v>
       </c>
       <c r="F8">
-        <v>1319.794226310096</v>
+        <v>0.001319794226310096</v>
       </c>
       <c r="G8">
-        <v>742.8113060963327</v>
+        <v>0.0007428113060963326</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1175083031.447875</v>
+        <v>1175.083031447878</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98842073.98901016</v>
+        <v>98.84207398901066</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8239542526.163944</v>
+        <v>8239.542526163947</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>672321333.4981912</v>
+        <v>672.3213334981932</v>
       </c>
       <c r="C7">
-        <v>1854963513.090482</v>
+        <v>1854.963513090483</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2829572633.814099</v>
+        <v>2829.572633814107</v>
       </c>
       <c r="C8">
-        <v>9418758699.496943</v>
+        <v>9418.758699496946</v>
       </c>
       <c r="D8">
-        <v>94006642.51582998</v>
+        <v>94.00664251583022</v>
       </c>
       <c r="E8">
-        <v>7907365.919120808</v>
+        <v>7.907365919120848</v>
       </c>
       <c r="F8">
-        <v>329581701.0465581</v>
+        <v>329.5817010465582</v>
       </c>
       <c r="G8">
-        <v>252728484.6588673</v>
+        <v>252.7284846588676</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1163141532.915107</v>
+        <v>1163.141532915116</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>88993478.64335778</v>
+        <v>88.9934786433578</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7845229686.596712</v>
+        <v>7845.229686596717</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>656123980.6728029</v>
+        <v>656.1239806728074</v>
       </c>
       <c r="C7">
-        <v>1766192088.24284</v>
+        <v>1766.192088242841</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2761403465.27607</v>
+        <v>2761.403465276088</v>
       </c>
       <c r="C8">
-        <v>8968013105.76963</v>
+        <v>8968.013105769636</v>
       </c>
       <c r="D8">
-        <v>93051322.6332085</v>
+        <v>93.05132263320922</v>
       </c>
       <c r="E8">
-        <v>7119478.291468619</v>
+        <v>7.119478291468621</v>
       </c>
       <c r="F8">
-        <v>313809187.4638687</v>
+        <v>313.809187463869</v>
       </c>
       <c r="G8">
-        <v>242231606.8915642</v>
+        <v>242.2316068915648</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1075739818.426819</v>
+        <v>1075.739818426821</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75682548.56159262</v>
+        <v>75.68254856159199</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7526091902.509467</v>
+        <v>7526.091902509472</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>599807144.0686884</v>
+        <v>599.8071440686889</v>
       </c>
       <c r="C7">
-        <v>1694344780.792144</v>
+        <v>1694.344780792145</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2524384986.554226</v>
+        <v>2524.384986554229</v>
       </c>
       <c r="C8">
-        <v>8603201373.726862</v>
+        <v>8603.201373726866</v>
       </c>
       <c r="D8">
-        <v>86059185.47414547</v>
+        <v>86.05918547414566</v>
       </c>
       <c r="E8">
-        <v>6054603.884927407</v>
+        <v>6.054603884927356</v>
       </c>
       <c r="F8">
-        <v>301043676.1003789</v>
+        <v>301.0436761003791</v>
       </c>
       <c r="G8">
-        <v>229415192.4860832</v>
+        <v>229.4151924860833</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1118339126.107794</v>
+        <v>1118.339126107794</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79515826.1013184</v>
+        <v>79.51582610131818</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7316079919.939489</v>
+        <v>7316.079919939503</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>624445015.2110664</v>
+        <v>624.4450152110659</v>
       </c>
       <c r="C7">
-        <v>1647064902.844785</v>
+        <v>1647.064902844788</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2628077436.08156</v>
+        <v>2628.077436081558</v>
       </c>
       <c r="C8">
-        <v>8363133168.295741</v>
+        <v>8363.133168295757</v>
       </c>
       <c r="D8">
-        <v>89467130.08862348</v>
+        <v>89.46713008862345</v>
       </c>
       <c r="E8">
-        <v>6361266.088105469</v>
+        <v>6.361266088105451</v>
       </c>
       <c r="F8">
-        <v>292643196.7975798</v>
+        <v>292.6431967975804</v>
       </c>
       <c r="G8">
-        <v>227150991.8055851</v>
+        <v>227.1509918055854</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1282751875.036419</v>
+        <v>1282.751875036422</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>97435820.32657295</v>
+        <v>97.43582032657329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7231651437.230249</v>
+        <v>7231.651437230264</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>722844773.760246</v>
+        <v>722.8447737602482</v>
       </c>
       <c r="C7">
-        <v>1628057566.649368</v>
+        <v>1628.057566649371</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3042208670.793337</v>
+        <v>3042.208670793346</v>
       </c>
       <c r="C8">
-        <v>8266621559.371112</v>
+        <v>8266.621559371128</v>
       </c>
       <c r="D8">
-        <v>102620150.0029134</v>
+        <v>102.6201500029137</v>
       </c>
       <c r="E8">
-        <v>7794865.626125832</v>
+        <v>7.794865626125859</v>
       </c>
       <c r="F8">
-        <v>289266057.4892102</v>
+        <v>289.2660574892108</v>
       </c>
       <c r="G8">
-        <v>235090234.0409614</v>
+        <v>235.0902340409619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1418040999.489591</v>
+        <v>1418.040999489598</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>111883095.3995332</v>
+        <v>111.8830953995334</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7271097801.536477</v>
+        <v>7271.097801536496</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>803498271.1939824</v>
+        <v>803.4982711939855</v>
       </c>
       <c r="C7">
-        <v>1636938104.164622</v>
+        <v>1636.938104164626</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3381651906.92041</v>
+        <v>3381.651906920424</v>
       </c>
       <c r="C8">
-        <v>8311713357.343272</v>
+        <v>8311.713357343295</v>
       </c>
       <c r="D8">
-        <v>113443279.9591673</v>
+        <v>113.4432799591678</v>
       </c>
       <c r="E8">
-        <v>8950647.631962655</v>
+        <v>8.950647631962671</v>
       </c>
       <c r="F8">
-        <v>290843912.0614594</v>
+        <v>290.8439120614601</v>
       </c>
       <c r="G8">
-        <v>244043637.5358603</v>
+        <v>244.0436375358611</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1481136085.040536</v>
+        <v>1481.136085040532</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>118602257.1640654</v>
+        <v>118.6022571640649</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7417562105.143996</v>
+        <v>7417.562105144012</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>841093075.8078877</v>
+        <v>841.0930758078856</v>
       </c>
       <c r="C7">
-        <v>1669911529.363829</v>
+        <v>1669.911529363833</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3539875698.147736</v>
+        <v>3539.875698147726</v>
       </c>
       <c r="C8">
-        <v>8479139149.417111</v>
+        <v>8479.139149417131</v>
       </c>
       <c r="D8">
-        <v>118490886.8032428</v>
+        <v>118.4908868032425</v>
       </c>
       <c r="E8">
-        <v>9488180.573125225</v>
+        <v>9.488180573125186</v>
       </c>
       <c r="F8">
-        <v>296702484.2057601</v>
+        <v>296.7024842057608</v>
       </c>
       <c r="G8">
-        <v>251100460.5171717</v>
+        <v>251.1004605171718</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1503763016.304496</v>
+        <v>1503.763016304482</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>123737713.3233989</v>
+        <v>123.7377133233987</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7644154536.278798</v>
+        <v>7644.154536278815</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>857461593.9207315</v>
+        <v>857.4615939207248</v>
       </c>
       <c r="C7">
-        <v>1720924154.247169</v>
+        <v>1720.924154247173</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3608765243.370411</v>
+        <v>3608.765243370382</v>
       </c>
       <c r="C8">
-        <v>8738160742.571592</v>
+        <v>8738.160742571612</v>
       </c>
       <c r="D8">
-        <v>120301041.3043596</v>
+        <v>120.3010413043585</v>
       </c>
       <c r="E8">
-        <v>9899017.065871909</v>
+        <v>9.89901706587189</v>
       </c>
       <c r="F8">
-        <v>305766181.4511522</v>
+        <v>305.7661814511529</v>
       </c>
       <c r="G8">
-        <v>257838574.81679</v>
+        <v>257.8385748167897</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1513954703.18113</v>
+        <v>1513.954703181121</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>130697245.8557003</v>
+        <v>130.6972458557009</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7919417810.625922</v>
+        <v>7919.417810625937</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>869754423.7864239</v>
+        <v>869.7544237864203</v>
       </c>
       <c r="C7">
-        <v>1782894018.324738</v>
+        <v>1782.894018324741</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3660501598.067224</v>
+        <v>3660.501598067207</v>
       </c>
       <c r="C8">
-        <v>9052818789.626549</v>
+        <v>9052.818789626563</v>
       </c>
       <c r="D8">
-        <v>121116376.2544904</v>
+        <v>121.1163762544897</v>
       </c>
       <c r="E8">
-        <v>10455779.66845602</v>
+        <v>10.45577966845607</v>
       </c>
       <c r="F8">
-        <v>316776712.4250371</v>
+        <v>316.7767124250378</v>
       </c>
       <c r="G8">
-        <v>265264844.2111162</v>
+        <v>265.2648442111161</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1507343847.229585</v>
+        <v>1507.343847229589</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135466425.6570247</v>
+        <v>135.4664256570252</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8211947522.059617</v>
+        <v>8211.947522059627</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>871610940.9686534</v>
+        <v>871.6109409686558</v>
       </c>
       <c r="C7">
-        <v>1848751065.543235</v>
+        <v>1848.751065543237</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3668315049.688206</v>
+        <v>3668.315049688215</v>
       </c>
       <c r="C8">
-        <v>9387214389.343199</v>
+        <v>9387.214389343209</v>
       </c>
       <c r="D8">
-        <v>120587507.7783668</v>
+        <v>120.587507778367</v>
       </c>
       <c r="E8">
-        <v>10837314.05256197</v>
+        <v>10.83731405256201</v>
       </c>
       <c r="F8">
-        <v>328477900.882385</v>
+        <v>328.4779008823854</v>
       </c>
       <c r="G8">
-        <v>272036200.6511888</v>
+        <v>272.0362006511892</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Max.xlsx
+++ b/Recycling/SW2/SW2_Max.xlsx
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08435615189628549</v>
+        <v>0.08435615592145057</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>2.956240712849116E-10</v>
       </c>
       <c r="C7">
-        <v>0.01899105240071852</v>
+        <v>0.01899105330690164</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>1.244181525003988E-09</v>
       </c>
       <c r="C8">
-        <v>0.09642892636408679</v>
+        <v>0.09642893096532022</v>
       </c>
       <c r="D8">
         <v>4.858193654029728E-11</v>
@@ -912,10 +912,10 @@
         <v>1.709593306953779E-13</v>
       </c>
       <c r="F8">
-        <v>0.003374246075851423</v>
+        <v>0.003374246236858026</v>
       </c>
       <c r="G8">
-        <v>0.001899105269634259</v>
+        <v>0.001899105360252571</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1440.490583127255</v>
+        <v>8101.228007185266</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>129.8240864095543</v>
+        <v>660.342749362991</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8493.699499468348</v>
+        <v>54151.96494913431</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>833.3408869751333</v>
+        <v>4612.766808219123</v>
       </c>
       <c r="C7">
-        <v>1912.181727643066</v>
+        <v>12191.20100707399</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3507.249362673316</v>
+        <v>19413.57216614033</v>
       </c>
       <c r="C8">
-        <v>9709.289781258733</v>
+        <v>61902.01571748812</v>
       </c>
       <c r="D8">
-        <v>115.2392466501803</v>
+        <v>648.0982405748209</v>
       </c>
       <c r="E8">
-        <v>10.38592691276434</v>
+        <v>52.82741994903925</v>
       </c>
       <c r="F8">
-        <v>339.7479799787342</v>
+        <v>2166.078597965374</v>
       </c>
       <c r="G8">
-        <v>274.5522614618199</v>
+        <v>1680.396781529311</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1281.903396899753</v>
+        <v>9955.075475737569</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112.222927199596</v>
+        <v>808.5271458852234</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8742.021458738269</v>
+        <v>55788.73416186919</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>738.0929476139835</v>
+        <v>5665.233304786703</v>
       </c>
       <c r="C7">
-        <v>1968.086308811517</v>
+        <v>12559.68592712046</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3106.383066729399</v>
+        <v>23843.04695492723</v>
       </c>
       <c r="C8">
-        <v>9993.150761006425</v>
+        <v>63773.0339460563</v>
       </c>
       <c r="D8">
-        <v>102.5522717519802</v>
+        <v>796.4060380590051</v>
       </c>
       <c r="E8">
-        <v>8.977834175967677</v>
+        <v>64.68217167081784</v>
       </c>
       <c r="F8">
-        <v>349.6808583495311</v>
+        <v>2231.54936647477</v>
       </c>
       <c r="G8">
-        <v>270.6179256425501</v>
+        <v>1822.491923190716</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1968907695397213</v>
+        <v>0.1968907913942362</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>5.412185385979563E-09</v>
       </c>
       <c r="C7">
-        <v>0.04432590673581081</v>
+        <v>0.04432591165590528</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>2.277805402606277E-08</v>
       </c>
       <c r="C8">
-        <v>0.2250691276322929</v>
+        <v>0.2250691526145539</v>
       </c>
       <c r="D8">
         <v>8.881679010981984E-10</v>
@@ -1566,10 +1566,10 @@
         <v>3.701832719089399E-12</v>
       </c>
       <c r="F8">
-        <v>0.007875630781588861</v>
+        <v>0.007875631655769454</v>
       </c>
       <c r="G8">
-        <v>0.004432591214799619</v>
+        <v>0.004432591706809066</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4282295860649677</v>
+        <v>0.4282296841740271</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>7.299011047260546E-08</v>
       </c>
       <c r="C7">
-        <v>0.09640708265707303</v>
+        <v>0.09640710474430965</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>3.071906376341514E-07</v>
       </c>
       <c r="C8">
-        <v>0.4895163932128161</v>
+        <v>0.4895165053629208</v>
       </c>
       <c r="D8">
         <v>1.195936926848366E-08</v>
@@ -1784,10 +1784,10 @@
         <v>5.84500469662666E-11</v>
       </c>
       <c r="F8">
-        <v>0.01712918344259872</v>
+        <v>0.0171291873669611</v>
       </c>
       <c r="G8">
-        <v>0.009640715564718348</v>
+        <v>0.00964071777344201</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8829544390082961</v>
+        <v>0.8829548192345827</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>7.685658736172483E-07</v>
       </c>
       <c r="C7">
-        <v>0.1987790296464666</v>
+        <v>0.1987791152465938</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>3.234633284586442E-06</v>
       </c>
       <c r="C8">
-        <v>1.009319968585761</v>
+        <v>1.009320403228781</v>
       </c>
       <c r="D8">
         <v>1.257203041063367E-07</v>
@@ -2002,10 +2002,10 @@
         <v>7.106184711820096E-10</v>
       </c>
       <c r="F8">
-        <v>0.03531817756033188</v>
+        <v>0.03531819276938334</v>
       </c>
       <c r="G8">
-        <v>0.01987797982123402</v>
+        <v>0.01987798838124674</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.748024079407229</v>
+        <v>1.748025389161437</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>6.596151807098824E-06</v>
       </c>
       <c r="C7">
-        <v>0.3935316647747917</v>
+        <v>0.3935319596390102</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>2.776096743016777E-05</v>
       </c>
       <c r="C8">
-        <v>1.99819552512367</v>
+        <v>1.998197022325584</v>
       </c>
       <c r="D8">
         <v>1.07714795951456E-06</v>
@@ -2220,10 +2220,10 @@
         <v>6.936398900277604E-09</v>
       </c>
       <c r="F8">
-        <v>0.06992096317628922</v>
+        <v>0.06992101556645755</v>
       </c>
       <c r="G8">
-        <v>0.03935382609265988</v>
+        <v>0.03935385557908173</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.35001914589974</v>
+        <v>3.350023238979148</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>4.767337114076382E-05</v>
       </c>
       <c r="C7">
-        <v>0.7541879010959686</v>
+        <v>0.7541888225686029</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0.0002006410619750638</v>
       </c>
       <c r="C8">
-        <v>3.829462846235776</v>
+        <v>3.82946752510322</v>
       </c>
       <c r="D8">
         <v>7.771752593738549E-06</v>
@@ -2438,10 +2438,10 @@
         <v>5.619215747354473E-08</v>
       </c>
       <c r="F8">
-        <v>0.1340007658359897</v>
+        <v>0.134000929559166</v>
       </c>
       <c r="G8">
-        <v>0.07542355744671092</v>
+        <v>0.07542364959397435</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.231837065466153</v>
+        <v>6.231848848119995</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0.000297625504459463</v>
       </c>
       <c r="C7">
-        <v>1.402969926941617</v>
+        <v>1.402972579563762</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0.001252604878922644</v>
       </c>
       <c r="C8">
-        <v>7.123717049559765</v>
+        <v>7.123730518508196</v>
       </c>
       <c r="D8">
         <v>4.843766950533677E-05</v>
@@ -2656,10 +2656,10 @@
         <v>3.879837480854232E-07</v>
       </c>
       <c r="F8">
-        <v>0.2492734826186463</v>
+        <v>0.2492739539248</v>
       </c>
       <c r="G8">
-        <v>0.1403267552446077</v>
+        <v>0.1403270205068221</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.23923277852693</v>
+        <v>11.2392643989077</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0.001637674666400344</v>
       </c>
       <c r="C7">
-        <v>2.530282070041614</v>
+        <v>2.530289188719917</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0.006892417640573819</v>
       </c>
       <c r="C8">
-        <v>12.84775473544481</v>
+        <v>12.84779088123028</v>
       </c>
       <c r="D8">
         <v>0.0002660923808375691</v>
@@ -2874,10 +2874,10 @@
         <v>2.333009085006305E-06</v>
       </c>
       <c r="F8">
-        <v>0.4495693111410777</v>
+        <v>0.4495705759563084</v>
       </c>
       <c r="G8">
-        <v>0.2531919744708014</v>
+        <v>0.2531926863386316</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19.61010376883785</v>
+        <v>19.61018365365227</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0.008072544015767253</v>
       </c>
       <c r="C7">
-        <v>4.414811485419667</v>
+        <v>4.41482946984241</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0.03397460186697503</v>
       </c>
       <c r="C8">
-        <v>22.41663719609088</v>
+        <v>22.41672851375668</v>
       </c>
       <c r="D8">
         <v>0.001309591408126562</v>
@@ -3092,10 +3092,10 @@
         <v>1.243541720711375E-05</v>
       </c>
       <c r="F8">
-        <v>0.7844041507535147</v>
+        <v>0.7844073461460914</v>
       </c>
       <c r="G8">
-        <v>0.4422884029435434</v>
+        <v>0.4422902013858177</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>33.0623681746007</v>
+        <v>33.06255971557332</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0.03612376468831938</v>
       </c>
       <c r="C7">
-        <v>7.443312104464765</v>
+        <v>7.44335522597477</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0.1520326827360501</v>
       </c>
       <c r="C8">
-        <v>37.79414535232354</v>
+        <v>37.79436430600895</v>
       </c>
       <c r="D8">
         <v>0.005851571569059214</v>
@@ -3310,10 +3310,10 @@
         <v>5.962021572989719E-05</v>
       </c>
       <c r="F8">
-        <v>1.322494726984029</v>
+        <v>1.322502388622934</v>
       </c>
       <c r="G8">
-        <v>0.7479435869153082</v>
+        <v>0.7479478990663088</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53.87595890448723</v>
+        <v>53.87639772979655</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0.1483666940325473</v>
       </c>
       <c r="C7">
-        <v>12.12906392354211</v>
+        <v>12.1291627160339</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>0.6244251316845874</v>
       </c>
       <c r="C8">
-        <v>61.58650859729565</v>
+        <v>61.5870102258371</v>
       </c>
       <c r="D8">
         <v>0.02399970895131706</v>
@@ -3746,10 +3746,10 @@
         <v>0.0002602591297626383</v>
       </c>
       <c r="F8">
-        <v>2.155038356179491</v>
+        <v>2.155055909191864</v>
       </c>
       <c r="G8">
-        <v>1.227743061757465</v>
+        <v>1.227752941006645</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84.96240150490331</v>
+        <v>84.96336745391159</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0.5643412659799492</v>
       </c>
       <c r="C7">
-        <v>19.12753702959694</v>
+        <v>19.12775449314666</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>2.375121125549058</v>
       </c>
       <c r="C8">
-        <v>97.12194041882388</v>
+        <v>97.12304461127098</v>
       </c>
       <c r="D8">
         <v>0.09116684348981832</v>
@@ -3964,10 +3964,10 @@
         <v>0.001044994951459793</v>
       </c>
       <c r="F8">
-        <v>3.398496060196135</v>
+        <v>3.398534698156467</v>
       </c>
       <c r="G8">
-        <v>1.969187829557688</v>
+        <v>1.969209575912661</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>129.9134117872667</v>
+        <v>129.9154637329017</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>2.001821192640759</v>
       </c>
       <c r="C7">
-        <v>29.24733235628715</v>
+        <v>29.24779430963854</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>8.424986955289933</v>
       </c>
       <c r="C8">
-        <v>148.5061911589314</v>
+        <v>148.5085367722636</v>
       </c>
       <c r="D8">
         <v>0.3229800634880007</v>
@@ -4182,10 +4182,10 @@
         <v>0.003891699816557481</v>
       </c>
       <c r="F8">
-        <v>5.196536471490672</v>
+        <v>5.196618549316073</v>
       </c>
       <c r="G8">
-        <v>3.124915354892791</v>
+        <v>3.124961550227929</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.39162113416763</v>
+        <v>13.39162113416764</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>193.0171405423495</v>
+        <v>193.0213615685877</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.648244247044199</v>
+        <v>6.6482442470442</v>
       </c>
       <c r="C7">
-        <v>43.45383884726514</v>
+        <v>43.45478912449654</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>27.98020685505868</v>
       </c>
       <c r="C8">
-        <v>220.6411176181731</v>
+        <v>220.6459427437764</v>
       </c>
       <c r="D8">
         <v>1.07132969073341</v>
@@ -4400,10 +4400,10 @@
         <v>0.01352633375947008</v>
       </c>
       <c r="F8">
-        <v>7.720685621693986</v>
+        <v>7.720854462743516</v>
       </c>
       <c r="G8">
-        <v>5.010208309430933</v>
+        <v>5.010303337154074</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>279.2251594833216</v>
+        <v>279.2335899264567</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4583,7 +4583,7 @@
         <v>20.62836676000154</v>
       </c>
       <c r="C7">
-        <v>62.86180102035033</v>
+        <v>62.86369896120869</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>86.81780445769209</v>
       </c>
       <c r="C8">
-        <v>319.1869441356444</v>
+        <v>319.1965811160188</v>
       </c>
       <c r="D8">
         <v>3.319715423302461</v>
@@ -4618,10 +4618,10 @@
         <v>0.0439944133187499</v>
       </c>
       <c r="F8">
-        <v>11.16900637933288</v>
+        <v>11.16934359705828</v>
       </c>
       <c r="G8">
-        <v>8.349016778035185</v>
+        <v>8.349206572121021</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>118.1369720462733</v>
+        <v>118.1369720462734</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>394.0475407662737</v>
+        <v>394.0639214416234</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58.83298134790637</v>
+        <v>58.83298134790638</v>
       </c>
       <c r="C7">
-        <v>88.71169827977999</v>
+        <v>88.71538605188593</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>247.6080791926544</v>
+        <v>247.6080791926545</v>
       </c>
       <c r="C8">
-        <v>450.4423262362405</v>
+        <v>450.4610512598646</v>
       </c>
       <c r="D8">
-        <v>9.450957763701862</v>
+        <v>9.450957763701863</v>
       </c>
       <c r="E8">
         <v>0.1332350211946454</v>
       </c>
       <c r="F8">
-        <v>15.76190163065096</v>
+        <v>15.76255685766495</v>
       </c>
       <c r="G8">
-        <v>14.75446796276863</v>
+        <v>14.75483673997923</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>294.2625071853499</v>
+        <v>294.26250718535</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.590701438390089</v>
+        <v>4.590701438390091</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>543.3536034397208</v>
+        <v>543.3846160467349</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>147.0130289285311</v>
       </c>
       <c r="C7">
-        <v>122.3248870779434</v>
+        <v>122.331868928486</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>618.7280140373696</v>
+        <v>618.7280140373698</v>
       </c>
       <c r="C8">
-        <v>621.1165805686447</v>
+        <v>621.1520315977741</v>
       </c>
       <c r="D8">
-        <v>23.54100057482798</v>
+        <v>23.54100057482799</v>
       </c>
       <c r="E8">
-        <v>0.3672561150712069</v>
+        <v>0.3672561150712071</v>
       </c>
       <c r="F8">
-        <v>21.73414413758885</v>
+        <v>21.73538464186942</v>
       </c>
       <c r="G8">
-        <v>26.93379160064745</v>
+        <v>26.93448978570171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>577.9800852816647</v>
+        <v>577.9800852816657</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.84459358947319</v>
+        <v>10.8445935894732</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>733.0706411100075</v>
+        <v>733.127923157197</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>290.6931789031477</v>
+        <v>290.6931789031482</v>
       </c>
       <c r="C7">
-        <v>165.0357756463936</v>
+        <v>165.0486715210316</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1223.429070115898</v>
+        <v>1223.4290701159</v>
       </c>
       <c r="C8">
-        <v>837.985295467034</v>
+        <v>838.0507755320471</v>
       </c>
       <c r="D8">
-        <v>46.23840682253316</v>
+        <v>46.23840682253323</v>
       </c>
       <c r="E8">
-        <v>0.8675674871578549</v>
+        <v>0.8675674871578551</v>
       </c>
       <c r="F8">
-        <v>29.32282564440033</v>
+        <v>29.3251169262879</v>
       </c>
       <c r="G8">
-        <v>45.57289545495411</v>
+        <v>45.57418504241797</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>798.1376818587983</v>
+        <v>798.1376818588051</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.41008643439022</v>
+        <v>19.41008643439027</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>968.7711666088493</v>
+        <v>968.8745005644022</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>406.1166100222799</v>
+        <v>406.1166100222832</v>
       </c>
       <c r="C7">
-        <v>218.0989006230854</v>
+        <v>218.1221641376076</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1709.207173119529</v>
+        <v>1709.207173119544</v>
       </c>
       <c r="C8">
-        <v>1107.418503435654</v>
+        <v>1107.536626206393</v>
       </c>
       <c r="D8">
-        <v>63.85101454870383</v>
+        <v>63.85101454870438</v>
       </c>
       <c r="E8">
-        <v>1.552806914751217</v>
+        <v>1.552806914751221</v>
       </c>
       <c r="F8">
-        <v>38.75084666435401</v>
+        <v>38.75498002257612</v>
       </c>
       <c r="G8">
-        <v>62.42155106453652</v>
+        <v>62.42387741598908</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>855.6099344203004</v>
+        <v>855.6099344203495</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.97824045553729</v>
+        <v>21.97824045553765</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1255.140185985456</v>
+        <v>1255.322423128713</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>436.5996452362348</v>
+        <v>436.5996452362589</v>
       </c>
       <c r="C7">
-        <v>282.5689947498303</v>
+        <v>282.6100216940323</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1837.499937218217</v>
+        <v>1837.499937218318</v>
       </c>
       <c r="C8">
-        <v>1434.771713150267</v>
+        <v>1434.980031472913</v>
       </c>
       <c r="D8">
-        <v>68.448794753624</v>
+        <v>68.44879475362792</v>
       </c>
       <c r="E8">
-        <v>1.758259236442982</v>
+        <v>1.758259236443011</v>
       </c>
       <c r="F8">
-        <v>50.20560743941828</v>
+        <v>50.21289692514855</v>
       </c>
       <c r="G8">
-        <v>71.9168639986065</v>
+        <v>71.92096669302911</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>910.4638612340307</v>
+        <v>910.4638612343557</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.66688049981883</v>
+        <v>14.66688049982133</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1595.377385773013</v>
+        <v>1595.691870073381</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>455.3564137657173</v>
+        <v>455.356413765877</v>
       </c>
       <c r="C7">
-        <v>359.1664016323004</v>
+        <v>359.2372013036135</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1916.440819033849</v>
+        <v>1916.440819034521</v>
       </c>
       <c r="C8">
-        <v>1823.702539736279</v>
+        <v>1824.062031993347</v>
       </c>
       <c r="D8">
-        <v>72.83710889872242</v>
+        <v>72.83710889874843</v>
       </c>
       <c r="E8">
-        <v>1.173350439985506</v>
+        <v>1.173350439985706</v>
       </c>
       <c r="F8">
-        <v>63.81509543092059</v>
+        <v>63.8276748029353</v>
       </c>
       <c r="G8">
-        <v>81.45228153980177</v>
+        <v>81.45936150694904</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1000.327989829268</v>
+        <v>1000.32798983127</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.42347845386857</v>
+        <v>10.42347845388469</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1990.617156482343</v>
+        <v>1991.148666610971</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>494.2745219588606</v>
+        <v>494.2745219598445</v>
       </c>
       <c r="C7">
-        <v>448.146505959693</v>
+        <v>448.2661645320363</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2080.233946540535</v>
+        <v>2080.233946544676</v>
       </c>
       <c r="C8">
-        <v>2275.50772393609</v>
+        <v>2276.115302042761</v>
       </c>
       <c r="D8">
-        <v>80.02623918634143</v>
+        <v>80.02623918650153</v>
       </c>
       <c r="E8">
-        <v>0.8338782763094854</v>
+        <v>0.8338782763107752</v>
       </c>
       <c r="F8">
-        <v>79.6246862592938</v>
+        <v>79.64594666443892</v>
       </c>
       <c r="G8">
-        <v>94.24210279185534</v>
+        <v>94.25406864918806</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1095.027977356727</v>
+        <v>1095.027977368283</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.7821738465657</v>
+        <v>16.78217384666313</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2439.451749052131</v>
+        <v>2440.332277820175</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>546.7552828496629</v>
+        <v>546.7552828553484</v>
       </c>
       <c r="C7">
-        <v>549.1923819881291</v>
+        <v>549.3906149278539</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2301.107682683485</v>
+        <v>2301.107682707413</v>
       </c>
       <c r="C8">
-        <v>2788.5780442819</v>
+        <v>2789.584591425486</v>
       </c>
       <c r="D8">
-        <v>87.60223818853814</v>
+        <v>87.60223818946257</v>
       </c>
       <c r="E8">
-        <v>1.342573907725255</v>
+        <v>1.34257390773305</v>
       </c>
       <c r="F8">
-        <v>97.57806996208534</v>
+        <v>97.6132911128071</v>
       </c>
       <c r="G8">
-        <v>109.5947664837792</v>
+        <v>109.6145897783202</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1197.513278187475</v>
+        <v>1197.513278250312</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.18149403874052</v>
+        <v>26.18149403929359</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2937.701308226795</v>
+        <v>2939.132343494549</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>606.2166776381501</v>
+        <v>606.2166776690909</v>
       </c>
       <c r="C7">
-        <v>661.3630212860747</v>
+        <v>661.6851894403381</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2551.360541069649</v>
+        <v>2551.360541199868</v>
       </c>
       <c r="C8">
-        <v>3358.135438408457</v>
+        <v>3359.771278727824</v>
       </c>
       <c r="D8">
-        <v>95.80106225499799</v>
+        <v>95.80106226002492</v>
       </c>
       <c r="E8">
-        <v>2.094519523099241</v>
+        <v>2.094519523143486</v>
       </c>
       <c r="F8">
-        <v>117.5080523290719</v>
+        <v>117.5652937397821</v>
       </c>
       <c r="G8">
-        <v>126.7579698924225</v>
+        <v>126.7901867109429</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1275.831118976561</v>
+        <v>1275.8311192996</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.00990649430639</v>
+        <v>37.00990649726682</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3478.649763861675</v>
+        <v>3480.93311075859</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>655.5165527587507</v>
+        <v>655.5165529179388</v>
       </c>
       <c r="C7">
-        <v>783.1464388094399</v>
+        <v>783.6604873950328</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2758.847007051438</v>
+        <v>2758.847007721407</v>
       </c>
       <c r="C8">
-        <v>3976.502654344479</v>
+        <v>3979.112786324622</v>
       </c>
       <c r="D8">
-        <v>102.0664895181248</v>
+        <v>102.066489543968</v>
       </c>
       <c r="E8">
-        <v>2.960792519544509</v>
+        <v>2.960792519781344</v>
       </c>
       <c r="F8">
-        <v>139.1459905544671</v>
+        <v>139.2373244303437</v>
       </c>
       <c r="G8">
-        <v>143.8662991568191</v>
+        <v>143.9177040312971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1363.126130680192</v>
+        <v>1363.126132255604</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51.2217439358689</v>
+        <v>51.22174395086689</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4054.028976321124</v>
+        <v>4057.608544754195</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>712.7358136006873</v>
+        <v>712.7358143776166</v>
       </c>
       <c r="C7">
-        <v>912.6812329941744</v>
+        <v>913.4870991954681</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2999.663483546379</v>
+        <v>2999.663486816211</v>
       </c>
       <c r="C8">
-        <v>4634.228243556918</v>
+        <v>4638.320108027837</v>
       </c>
       <c r="D8">
-        <v>109.0500904544153</v>
+        <v>109.0500905804482</v>
       </c>
       <c r="E8">
-        <v>4.09773951486951</v>
+        <v>4.09773951606935</v>
       </c>
       <c r="F8">
-        <v>162.1611590528451</v>
+        <v>162.3043417901679</v>
       </c>
       <c r="G8">
-        <v>162.5417046594861</v>
+        <v>162.6222913573084</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1375.789080690857</v>
+        <v>1375.789088000543</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61.35444915133987</v>
+        <v>61.35444922348341</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4656.060305159843</v>
+        <v>4661.577643802632</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>729.5825279542127</v>
+        <v>729.5825315617585</v>
       </c>
       <c r="C7">
-        <v>1048.216202949979</v>
+        <v>1049.458318254225</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3070.565594678848</v>
+        <v>3070.565609861786</v>
       </c>
       <c r="C8">
-        <v>5322.420312214076</v>
+        <v>5328.7272741813</v>
       </c>
       <c r="D8">
-        <v>110.0631264552685</v>
+        <v>110.0631270400434</v>
       </c>
       <c r="E8">
-        <v>4.908355932107187</v>
+        <v>4.90835593787867</v>
       </c>
       <c r="F8">
-        <v>186.2424122063939</v>
+        <v>186.4631057521055</v>
       </c>
       <c r="G8">
-        <v>177.7798730904191</v>
+        <v>177.9040849815984</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1322.86605410544</v>
+        <v>1322.866086450988</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68.86488010253171</v>
+        <v>68.86488043292731</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5280.807980846854</v>
+        <v>5289.174619546184</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>711.969332244129</v>
+        <v>711.9693482194286</v>
       </c>
       <c r="C7">
-        <v>1188.865291125391</v>
+        <v>1190.748867727512</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2996.437623287623</v>
+        <v>2996.437690522244</v>
       </c>
       <c r="C8">
-        <v>6036.579816419837</v>
+        <v>6046.143860877964</v>
       </c>
       <c r="D8">
-        <v>105.8292843284352</v>
+        <v>105.829286916079</v>
       </c>
       <c r="E8">
-        <v>5.509190408202534</v>
+        <v>5.509190434634182</v>
       </c>
       <c r="F8">
-        <v>211.2323192338743</v>
+        <v>211.5669847818475</v>
       </c>
       <c r="G8">
-        <v>190.083462336952</v>
+        <v>190.271821594694</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1324.203190229594</v>
+        <v>1324.203326982158</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99.3399241367662</v>
+        <v>99.33992558056009</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5932.907067847979</v>
+        <v>5945.396870530536</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>744.8852737193019</v>
+        <v>744.8853413103799</v>
       </c>
       <c r="C7">
-        <v>1335.671986942017</v>
+        <v>1338.483809101836</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3134.969665294625</v>
+        <v>3134.969949762565</v>
       </c>
       <c r="C8">
-        <v>6782.005175791744</v>
+        <v>6796.282477874691</v>
       </c>
       <c r="D8">
-        <v>105.9362552183675</v>
+        <v>105.9362661585726</v>
       </c>
       <c r="E8">
-        <v>7.947193930941292</v>
+        <v>7.947194046444803</v>
       </c>
       <c r="F8">
-        <v>237.3162827139194</v>
+        <v>237.8158748212217</v>
       </c>
       <c r="G8">
-        <v>208.0557260661318</v>
+        <v>208.3369150412216</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1301.860272358798</v>
+        <v>1301.860825432705</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>159.6111705654437</v>
+        <v>159.6111765954857</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6631.355827058596</v>
+        <v>6649.720480209932</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>797.9130610215326</v>
+        <v>797.9133345849436</v>
       </c>
       <c r="C7">
-        <v>1492.913358047871</v>
+        <v>1497.047781945572</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3358.145650208557</v>
+        <v>3358.14680154424</v>
       </c>
       <c r="C8">
-        <v>7580.413619716675</v>
+        <v>7601.406561507209</v>
       </c>
       <c r="D8">
-        <v>104.1488217887038</v>
+        <v>104.1488660346163</v>
       </c>
       <c r="E8">
-        <v>12.76889364523549</v>
+        <v>12.76889412763885</v>
       </c>
       <c r="F8">
-        <v>265.2542330823441</v>
+        <v>265.9888192083975</v>
       </c>
       <c r="G8">
-        <v>229.0826419069404</v>
+        <v>229.4961116530515</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1292.799433651451</v>
+        <v>1292.801574581076</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>223.7670746893835</v>
+        <v>223.7670987838447</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7415.497060017848</v>
+        <v>7442.107444481594</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>861.4705982827245</v>
+        <v>861.4716580337533</v>
       </c>
       <c r="C7">
-        <v>1669.446626931476</v>
+        <v>1675.437407620188</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3625.637784023722</v>
+        <v>3625.642244156637</v>
       </c>
       <c r="C8">
-        <v>8476.778561837766</v>
+        <v>8507.197336832734</v>
       </c>
       <c r="D8">
-        <v>103.4239546921161</v>
+        <v>103.424125966486</v>
       </c>
       <c r="E8">
-        <v>17.90136597515067</v>
+        <v>17.90136790270757</v>
       </c>
       <c r="F8">
-        <v>296.6198824007142</v>
+        <v>297.684297779264</v>
       </c>
       <c r="G8">
-        <v>253.09172252142</v>
+        <v>253.690906565394</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1279.920944190228</v>
+        <v>1279.928876116193</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>288.1972912259483</v>
+        <v>288.1973833680826</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8349.765677348494</v>
+        <v>8387.78111442511</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>923.4743791099942</v>
+        <v>923.4783084234252</v>
       </c>
       <c r="C7">
-        <v>1879.777988299021</v>
+        <v>1888.336381982577</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3886.590683597779</v>
+        <v>3886.607220746313</v>
       </c>
       <c r="C8">
-        <v>9544.756624843993</v>
+        <v>9588.21270599699</v>
       </c>
       <c r="D8">
-        <v>102.3936755352182</v>
+        <v>102.3943100892954</v>
       </c>
       <c r="E8">
-        <v>23.05578329807586</v>
+        <v>23.0557906694466</v>
       </c>
       <c r="F8">
-        <v>333.9906270939401</v>
+        <v>335.5112445770047</v>
       </c>
       <c r="G8">
-        <v>280.3252367409015</v>
+        <v>281.1814690406001</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1223.563381223076</v>
+        <v>1223.5914919155</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>298.2874478393159</v>
+        <v>298.2877850097626</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9525.446932191704</v>
+        <v>9579.013099867225</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>906.9337015751869</v>
+        <v>906.9476382804454</v>
       </c>
       <c r="C7">
-        <v>2144.458439165498</v>
+        <v>2156.517759966217</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3816.976577715238</v>
+        <v>3817.035232584332</v>
       </c>
       <c r="C8">
-        <v>10888.69750647998</v>
+        <v>10949.92988754852</v>
       </c>
       <c r="D8">
-        <v>97.88507049784604</v>
+        <v>97.88731935323999</v>
       </c>
       <c r="E8">
-        <v>23.86299582714526</v>
+        <v>23.86302280078099</v>
       </c>
       <c r="F8">
-        <v>381.0178772876685</v>
+        <v>383.1605239946894</v>
       </c>
       <c r="G8">
-        <v>305.1392140740685</v>
+        <v>306.3465398246663</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1150.292552224827</v>
+        <v>1150.387754500646</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>261.7923371059655</v>
+        <v>261.7935168086875</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11057.74172946081</v>
+        <v>11132.21639371477</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>832.8934840683276</v>
+        <v>832.9407234428143</v>
       </c>
       <c r="C7">
-        <v>2489.42309359952</v>
+        <v>2506.189532318913</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3505.366395469524</v>
+        <v>3505.56520998667</v>
       </c>
       <c r="C8">
-        <v>12640.28928553127</v>
+        <v>12725.42251830563</v>
       </c>
       <c r="D8">
-        <v>92.02340417798611</v>
+        <v>92.03102036005163</v>
       </c>
       <c r="E8">
-        <v>20.94338696847723</v>
+        <v>20.94348134469499</v>
       </c>
       <c r="F8">
-        <v>442.3096691784328</v>
+        <v>445.2886557485912</v>
       </c>
       <c r="G8">
-        <v>332.2316577667847</v>
+        <v>333.9130255761726</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1045.611539310685</v>
+        <v>1045.919211973548</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>256.4958864095518</v>
+        <v>256.4998283681504</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13077.10383288185</v>
+        <v>13179.30748140754</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>776.7159128188775</v>
+        <v>776.8687170546274</v>
       </c>
       <c r="C7">
-        <v>2944.040933081395</v>
+        <v>2967.049982226765</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3268.934037426533</v>
+        <v>3269.577138667362</v>
       </c>
       <c r="C8">
-        <v>14948.65583848435</v>
+        <v>15065.48653637989</v>
       </c>
       <c r="D8">
-        <v>83.64892314485472</v>
+        <v>83.6735369578838</v>
       </c>
       <c r="E8">
-        <v>20.51967091276413</v>
+        <v>20.51998626945202</v>
       </c>
       <c r="F8">
-        <v>523.0841533152746</v>
+        <v>527.172299256302</v>
       </c>
       <c r="G8">
-        <v>372.0756845900273</v>
+        <v>374.3918699281392</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1029.39966500484</v>
+        <v>1030.346688693053</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>235.824445048554</v>
+        <v>235.83700403879</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15715.06294742063</v>
+        <v>15853.54908847011</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>746.9953296551661</v>
+        <v>747.4661152980105</v>
       </c>
       <c r="C7">
-        <v>3537.923165129547</v>
+        <v>3569.100471138923</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3143.850175601911</v>
+        <v>3145.831552816961</v>
       </c>
       <c r="C8">
-        <v>17964.15096822998</v>
+        <v>18122.45678941212</v>
       </c>
       <c r="D8">
-        <v>82.35197320038712</v>
+        <v>82.42773509544421</v>
       </c>
       <c r="E8">
-        <v>18.86595560388431</v>
+        <v>18.86696032310319</v>
       </c>
       <c r="F8">
-        <v>628.6025178968258</v>
+        <v>634.1419635388048</v>
       </c>
       <c r="G8">
-        <v>428.4918494784712</v>
+        <v>431.6566586436932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1184.294858144104</v>
+        <v>1187.063757443237</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>204.5856202708076</v>
+        <v>204.6236862472257</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19086.21499764985</v>
+        <v>19271.5525441774</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>788.7431262836101</v>
+        <v>790.1210304899063</v>
       </c>
       <c r="C7">
-        <v>4296.868704933289</v>
+        <v>4338.593641156705</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3319.552502712731</v>
+        <v>3325.351634526482</v>
       </c>
       <c r="C8">
-        <v>21817.77119042042</v>
+        <v>22029.63363583613</v>
       </c>
       <c r="D8">
-        <v>94.74358865152823</v>
+        <v>94.96510059545894</v>
       </c>
       <c r="E8">
-        <v>16.3668496216646</v>
+        <v>16.36989489977805</v>
       </c>
       <c r="F8">
-        <v>763.4485999059949</v>
+        <v>770.8621017670969</v>
       </c>
       <c r="G8">
-        <v>508.5611831216898</v>
+        <v>512.871467164661</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1592.757409454472</v>
+        <v>1600.417891109342</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>174.1485775234948</v>
+        <v>174.2580019726064</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23269.12317342614</v>
+        <v>23514.18133742881</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>953.8329099131955</v>
+        <v>957.6493946186213</v>
       </c>
       <c r="C7">
-        <v>5238.564438650835</v>
+        <v>5293.734243450853</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4014.35945082785</v>
+        <v>4030.421741494209</v>
       </c>
       <c r="C8">
-        <v>26599.32339974339</v>
+        <v>26879.45348060087</v>
       </c>
       <c r="D8">
-        <v>127.4205927563577</v>
+        <v>128.0334312887473</v>
       </c>
       <c r="E8">
-        <v>13.93188620187958</v>
+        <v>13.9406401578085</v>
       </c>
       <c r="F8">
-        <v>930.7649269370463</v>
+        <v>940.5672534971534</v>
       </c>
       <c r="G8">
-        <v>619.2397348564029</v>
+        <v>625.1383638069473</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2424.558329419892</v>
+        <v>2444.497109616637</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>193.3672062381385</v>
+        <v>193.6641816824763</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28288.99202187918</v>
+        <v>28609.21696660943</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1376.008777605816</v>
+        <v>1385.955243966358</v>
       </c>
       <c r="C7">
-        <v>6368.684651613087</v>
+        <v>6440.776710919757</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5791.154596780144</v>
+        <v>5833.015902698409</v>
       </c>
       <c r="C8">
-        <v>32337.61933505343</v>
+        <v>32703.67381858775</v>
       </c>
       <c r="D8">
-        <v>193.9646663535912</v>
+        <v>195.5597687693308</v>
       </c>
       <c r="E8">
-        <v>15.46937649905107</v>
+        <v>15.4931345345981</v>
       </c>
       <c r="F8">
-        <v>1131.559680875168</v>
+        <v>1144.368678664378</v>
       </c>
       <c r="G8">
-        <v>774.4693429218901</v>
+        <v>782.6731954886113</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3677.044377862303</v>
+        <v>3725.440169627375</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>299.3439025888239</v>
+        <v>300.099638549846</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34104.14222173263</v>
+        <v>34517.81490596954</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2093.276703017501</v>
+        <v>2117.455925653034</v>
       </c>
       <c r="C7">
-        <v>7677.846101974699</v>
+        <v>7770.975997619393</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8809.892202944444</v>
+        <v>8911.654356348703</v>
       </c>
       <c r="C8">
-        <v>38985.0146679653</v>
+        <v>39457.89082353198</v>
       </c>
       <c r="D8">
-        <v>294.1635502289841</v>
+        <v>298.0352135701899</v>
       </c>
       <c r="E8">
-        <v>23.9475122071059</v>
+        <v>24.00797108398767</v>
       </c>
       <c r="F8">
-        <v>1364.165688869306</v>
+        <v>1380.712596238783</v>
       </c>
       <c r="G8">
-        <v>977.1122804992199</v>
+        <v>988.8431923272424</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001594769575127164</v>
+        <v>0.0001594769575133833</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.590295655679997E-05</v>
+        <v>3.590295655695012E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0001823007741233805</v>
+        <v>0.000182300774124143</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.37907830050866E-06</v>
+        <v>6.379078300535339E-06</v>
       </c>
       <c r="G8">
-        <v>3.590295655679996E-06</v>
+        <v>3.590295655695011E-06</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5140.819787005579</v>
+        <v>5248.91421759875</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>426.3138405025713</v>
+        <v>428.0980658676212</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>40597.15020077676</v>
+        <v>41125.61696948209</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2934.843737099625</v>
+        <v>2988.951165031684</v>
       </c>
       <c r="C7">
-        <v>9139.61328784535</v>
+        <v>9258.586710303747</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12351.7626308375</v>
+        <v>12579.48245725744</v>
       </c>
       <c r="C8">
-        <v>46407.28055157827</v>
+        <v>47011.37974268418</v>
       </c>
       <c r="D8">
-        <v>411.2655829604461</v>
+        <v>419.9131374078998</v>
       </c>
       <c r="E8">
-        <v>34.10510724020568</v>
+        <v>34.24784526940968</v>
       </c>
       <c r="F8">
-        <v>1623.886008031072</v>
+        <v>1645.024678779285</v>
       </c>
       <c r="G8">
-        <v>1207.445702494497</v>
+        <v>1224.753787533543</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7165.175315949168</v>
+        <v>7383.114147176774</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>594.7492962205879</v>
+        <v>598.5939752522285</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>47570.9247910039</v>
+        <v>48238.79684667182</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4091.122869952052</v>
+        <v>4200.475596931657</v>
       </c>
       <c r="C7">
-        <v>10709.61518689635</v>
+        <v>10859.97284215971</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17218.14962222743</v>
+        <v>17678.37818895231</v>
       </c>
       <c r="C8">
-        <v>54379.1187794238</v>
+        <v>55142.57448275905</v>
       </c>
       <c r="D8">
-        <v>573.2140252759332</v>
+        <v>590.6491317741417</v>
       </c>
       <c r="E8">
-        <v>47.57994369764701</v>
+        <v>47.88751802017826</v>
       </c>
       <c r="F8">
-        <v>1902.836991640158</v>
+        <v>1929.551873866875</v>
       </c>
       <c r="G8">
-        <v>1480.07380568484</v>
+        <v>1506.044843909136</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10143.56483981871</v>
+        <v>10530.39597331306</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>844.8800829733275</v>
+        <v>852.2588678278539</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54750.45277448583</v>
+        <v>55585.77810395524</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5794.782590747835</v>
+        <v>5989.465847295505</v>
       </c>
       <c r="C7">
-        <v>12325.93823010921</v>
+        <v>12513.99454546965</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24388.27599351575</v>
+        <v>25207.63183951106</v>
       </c>
       <c r="C8">
-        <v>62586.15714811644</v>
+        <v>63541.03148596552</v>
       </c>
       <c r="D8">
-        <v>811.4851871854962</v>
+        <v>842.4316778650442</v>
       </c>
       <c r="E8">
-        <v>67.59040663786617</v>
+        <v>68.18070942622828</v>
       </c>
       <c r="F8">
-        <v>2190.018110979435</v>
+        <v>2223.431124158211</v>
       </c>
       <c r="G8">
-        <v>1812.072082085704</v>
+        <v>1850.346039276515</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12160.7975717206</v>
+        <v>12750.10721010306</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1017.312368235763</v>
+        <v>1029.500648788249</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>61792.02378339468</v>
+        <v>62826.44559634323</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6951.853091900587</v>
+        <v>7249.442165222155</v>
       </c>
       <c r="C7">
-        <v>13911.20309825995</v>
+        <v>14144.08189147831</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29257.99358587622</v>
+        <v>30510.44513848648</v>
       </c>
       <c r="C8">
-        <v>70635.49459466561</v>
+        <v>71817.95944859656</v>
       </c>
       <c r="D8">
-        <v>972.8638057376479</v>
+        <v>1020.008576808245</v>
       </c>
       <c r="E8">
-        <v>81.38498945886097</v>
+        <v>82.3600519030599</v>
       </c>
       <c r="F8">
-        <v>2471.680951335789</v>
+        <v>2513.057823853731</v>
       </c>
       <c r="G8">
-        <v>2086.305619016053</v>
+        <v>2139.352405670046</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12338.8789096517</v>
+        <v>13102.97347548289</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1035.004011432386</v>
+        <v>1051.627762999862</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>68302.29784954333</v>
+        <v>69571.2269596168</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7056.614053445822</v>
+        <v>7443.334712711429</v>
       </c>
       <c r="C7">
-        <v>15376.85738848027</v>
+        <v>15662.53067585154</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29698.89696809984</v>
+        <v>31326.47315803708</v>
       </c>
       <c r="C8">
-        <v>78077.49763086997</v>
+        <v>79528.03169348298</v>
       </c>
       <c r="D8">
-        <v>987.1103127721354</v>
+        <v>1048.237878038631</v>
       </c>
       <c r="E8">
-        <v>82.80032091459086</v>
+        <v>84.1302210399889</v>
       </c>
       <c r="F8">
-        <v>2732.091913981736</v>
+        <v>2782.849078384675</v>
       </c>
       <c r="G8">
-        <v>2243.347144192609</v>
+        <v>2310.586538856296</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12177.68289220554</v>
+        <v>13051.17480217122</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1021.333188176206</v>
+        <v>1039.509734714527</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73868.56099784632</v>
+        <v>75411.40524751027</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6964.267672955294</v>
+        <v>7405.480108428279</v>
       </c>
       <c r="C7">
-        <v>16629.98703877036</v>
+        <v>16977.32668540976</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29310.24235006445</v>
+        <v>31167.15595805156</v>
       </c>
       <c r="C8">
-        <v>84440.38601760863</v>
+        <v>86204.0370519163</v>
       </c>
       <c r="D8">
-        <v>974.2146313764424</v>
+        <v>1044.093984173697</v>
       </c>
       <c r="E8">
-        <v>81.70665505409642</v>
+        <v>83.16077877716215</v>
       </c>
       <c r="F8">
-        <v>2954.742439913855</v>
+        <v>3016.456209900413</v>
       </c>
       <c r="G8">
-        <v>2359.425471172565</v>
+        <v>2438.280679383804</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11888.50645231369</v>
+        <v>12836.94474190334</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>997.5317784738352</v>
+        <v>1014.300872901413</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78098.76361467685</v>
+        <v>79959.27423223079</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6799.369411137896</v>
+        <v>7275.296493657472</v>
       </c>
       <c r="C7">
-        <v>17582.33014304872</v>
+        <v>18001.18583804891</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28616.24145234748</v>
+        <v>30619.25724448581</v>
       </c>
       <c r="C8">
-        <v>89276.00129253299</v>
+        <v>91402.78205844903</v>
       </c>
       <c r="D8">
-        <v>951.0805161850944</v>
+        <v>1026.955579352267</v>
       </c>
       <c r="E8">
-        <v>79.80254227790678</v>
+        <v>81.144069832113</v>
       </c>
       <c r="F8">
-        <v>3123.950544587077</v>
+        <v>3198.370969289234</v>
       </c>
       <c r="G8">
-        <v>2438.169955418661</v>
+        <v>2527.648233170637</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11414.78487012716</v>
+        <v>12444.86865250156</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>961.7787959213856</v>
+        <v>978.3419479932872</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80666.34709007408</v>
+        <v>82893.1578925401</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6532.665817657247</v>
+        <v>7047.81602357041</v>
       </c>
       <c r="C7">
-        <v>18160.36874756495</v>
+        <v>18661.68939443504</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27493.77641687683</v>
+        <v>29661.86904212669</v>
       </c>
       <c r="C8">
-        <v>92211.04885358264</v>
+        <v>94756.55347975092</v>
       </c>
       <c r="D8">
-        <v>913.1827896101722</v>
+        <v>995.5894922001241</v>
       </c>
       <c r="E8">
-        <v>76.94230367371081</v>
+        <v>78.26735583946294</v>
       </c>
       <c r="F8">
-        <v>3226.653883602966</v>
+        <v>3315.726315701607</v>
       </c>
       <c r="G8">
-        <v>2469.303456522219</v>
+        <v>2570.950541800545</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10983.87433647506</v>
+        <v>12104.27870757196</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>929.9252861170482</v>
+        <v>951.2943119654209</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81351.94122475263</v>
+        <v>83999.38918349682</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6290.772476860368</v>
+        <v>6854.64356798317</v>
       </c>
       <c r="C7">
-        <v>18314.71616437592</v>
+        <v>18910.73461451222</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26475.72932641876</v>
+        <v>28848.87164534277</v>
       </c>
       <c r="C8">
-        <v>92994.76296147426</v>
+        <v>96021.10494753796</v>
       </c>
       <c r="D8">
-        <v>878.7099469180047</v>
+        <v>968.3422966057562</v>
       </c>
       <c r="E8">
-        <v>74.39402288936382</v>
+        <v>76.10354495723364</v>
       </c>
       <c r="F8">
-        <v>3254.077648990108</v>
+        <v>3359.975567339876</v>
       </c>
       <c r="G8">
-        <v>2460.548864123628</v>
+        <v>2576.537818249538</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10577.94310819465</v>
+        <v>11785.94637440313</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>899.0083956875624</v>
+        <v>929.5134321070174</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80073.19525572802</v>
+        <v>83202.5166880711</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6061.937891034124</v>
+        <v>6677.800253611332</v>
       </c>
       <c r="C7">
-        <v>18026.83281314373</v>
+        <v>18731.33516376525</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25512.64210984175</v>
+        <v>28104.59806976556</v>
       </c>
       <c r="C8">
-        <v>91533.007083408</v>
+        <v>95110.18668662144</v>
       </c>
       <c r="D8">
-        <v>846.2354486555716</v>
+        <v>942.8757099522498</v>
       </c>
       <c r="E8">
-        <v>71.92067165500495</v>
+        <v>74.36107456856135</v>
       </c>
       <c r="F8">
-        <v>3202.927810229124</v>
+        <v>3328.100667522847</v>
       </c>
       <c r="G8">
-        <v>2408.877070417785</v>
+        <v>2540.913541737658</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0008894768920938302</v>
+        <v>0.0008894768921749529</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0002002474257923802</v>
+        <v>0.0002002474258106433</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001016775893662469</v>
+        <v>0.001016775893755202</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.557907568375324E-05</v>
+        <v>3.557907568699814E-05</v>
       </c>
       <c r="G8">
-        <v>2.002474257923801E-05</v>
+        <v>2.002474258106433E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9608.519249412902</v>
+        <v>10890.66613549176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>820.7541301467572</v>
+        <v>862.642683000873</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76896.03484624575</v>
+        <v>80577.02631994461</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5510.766529693423</v>
+        <v>6174.500089481622</v>
       </c>
       <c r="C7">
-        <v>17311.56050086294</v>
+        <v>18140.2600134908</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23192.94864945877</v>
+        <v>25986.37825424129</v>
       </c>
       <c r="C8">
-        <v>87901.14194629819</v>
+        <v>92108.94478918449</v>
       </c>
       <c r="D8">
-        <v>768.6815399530318</v>
+        <v>871.2532908393406</v>
       </c>
       <c r="E8">
-        <v>65.66033041174055</v>
+        <v>69.0114146400698</v>
       </c>
       <c r="F8">
-        <v>3075.841393849832</v>
+        <v>3223.081052797787</v>
       </c>
       <c r="G8">
-        <v>2282.232703055635</v>
+        <v>2431.476010297241</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7424.83447650882</v>
+        <v>8757.299029041646</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>641.3311528397658</v>
+        <v>696.2498028186228</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72025.17646897542</v>
+        <v>76338.38903917247</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4265.884160762874</v>
+        <v>4967.722670978063</v>
       </c>
       <c r="C7">
-        <v>16214.986930355</v>
+        <v>17186.01801812629</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17953.66066626253</v>
+        <v>20907.46109310426</v>
       </c>
       <c r="C8">
-        <v>82333.18236974976</v>
+        <v>87263.6877090112</v>
       </c>
       <c r="D8">
-        <v>593.9867581207053</v>
+        <v>700.5839223233313</v>
       </c>
       <c r="E8">
-        <v>51.30649222718124</v>
+        <v>55.6999842254898</v>
       </c>
       <c r="F8">
-        <v>2881.007058759019</v>
+        <v>3053.535561566901</v>
       </c>
       <c r="G8">
-        <v>2048.087109111787</v>
+        <v>2215.374068910435</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4031.0832329486</v>
+        <v>5379.177480988734</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>363.2998044754556</v>
+        <v>433.4016906389047</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65777.2548145313</v>
+        <v>70816.75033624785</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2332.028173100059</v>
+        <v>3057.494572288905</v>
       </c>
       <c r="C7">
-        <v>14808.3958890636</v>
+        <v>15942.93464379216</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9814.716224388805</v>
+        <v>12867.95842810647</v>
       </c>
       <c r="C8">
-        <v>75191.0787578435</v>
+        <v>80951.81027121574</v>
       </c>
       <c r="D8">
-        <v>322.4866586358878</v>
+        <v>430.3341984790985</v>
       </c>
       <c r="E8">
-        <v>29.06398435803643</v>
+        <v>34.67213525111236</v>
       </c>
       <c r="F8">
-        <v>2631.090192581255</v>
+        <v>2832.670013449916</v>
       </c>
       <c r="G8">
-        <v>1714.042406216365</v>
+        <v>1900.042921608106</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1664.718313590904</v>
+        <v>2997.735648690604</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>177.21963740704</v>
+        <v>268.5839403913361</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58544.11587194887</v>
+        <v>64420.75176287002</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>991.8476301872037</v>
+        <v>1732.545450431802</v>
       </c>
       <c r="C7">
-        <v>13180.00344118204</v>
+        <v>14503.00713013221</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4174.350524753397</v>
+        <v>7291.696617558152</v>
       </c>
       <c r="C8">
-        <v>66922.75680625619</v>
+        <v>73640.43745971826</v>
       </c>
       <c r="D8">
-        <v>133.1774650872723</v>
+        <v>239.8188518952482</v>
       </c>
       <c r="E8">
-        <v>14.1775709925632</v>
+        <v>21.48671523130687</v>
       </c>
       <c r="F8">
-        <v>2341.764634877957</v>
+        <v>2576.830070514803</v>
       </c>
       <c r="G8">
-        <v>1417.185107136924</v>
+        <v>1623.555258056401</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1290.428162329041</v>
+        <v>2603.954122449438</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>159.8874530536008</v>
+        <v>285.7676537801329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50754.65604496898</v>
+        <v>57599.77895756139</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>792.6830078838278</v>
+        <v>1560.513817015123</v>
       </c>
       <c r="C7">
-        <v>11426.36678965075</v>
+        <v>12967.40540983615</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3336.134129088377</v>
+        <v>6567.673776376831</v>
       </c>
       <c r="C8">
-        <v>58018.49515862489</v>
+        <v>65843.26950469795</v>
       </c>
       <c r="D8">
-        <v>103.2342529863232</v>
+        <v>208.3163297959549</v>
       </c>
       <c r="E8">
-        <v>12.79099624428806</v>
+        <v>22.86141230241062</v>
       </c>
       <c r="F8">
-        <v>2030.186241798761</v>
+        <v>2303.991158302458</v>
       </c>
       <c r="G8">
-        <v>1221.904979753458</v>
+        <v>1452.791922685127</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1156.146030301874</v>
+        <v>2453.421247811631</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>152.4649350576973</v>
+        <v>326.6632838135425</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>42840.62680929619</v>
+        <v>50809.94829008469</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>719.9544766078213</v>
+        <v>1531.098946675666</v>
       </c>
       <c r="C7">
-        <v>9644.68589813419</v>
+        <v>11438.81470128186</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3030.044389639949</v>
+        <v>6443.876556219244</v>
       </c>
       <c r="C8">
-        <v>48971.83613904097</v>
+        <v>58081.70064764865</v>
       </c>
       <c r="D8">
-        <v>92.49168242414987</v>
+        <v>196.2736998249304</v>
       </c>
       <c r="E8">
-        <v>12.19719480461578</v>
+        <v>26.13306270508339</v>
       </c>
       <c r="F8">
-        <v>1713.625072371849</v>
+        <v>2032.397931603389</v>
       </c>
       <c r="G8">
-        <v>1036.464037474201</v>
+        <v>1296.991364795753</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>857.1123569147954</v>
+        <v>2132.54585500188</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>116.311724428777</v>
+        <v>340.2690134727382</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>35207.05154227657</v>
+        <v>44484.35619858333</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>537.2150835649064</v>
+        <v>1390.497986720187</v>
       </c>
       <c r="C7">
-        <v>7926.143448746074</v>
+        <v>10014.73775876118</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2260.956217197744</v>
+        <v>5852.134767351727</v>
       </c>
       <c r="C8">
-        <v>40245.76873588147</v>
+        <v>50850.81066169265</v>
       </c>
       <c r="D8">
-        <v>68.5689885531836</v>
+        <v>170.6036684001503</v>
       </c>
       <c r="E8">
-        <v>9.304937954302154</v>
+        <v>27.22152107781904</v>
       </c>
       <c r="F8">
-        <v>1408.282061691064</v>
+        <v>1779.374247943335</v>
       </c>
       <c r="G8">
-        <v>846.3358532310979</v>
+        <v>1140.523574548136</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>389.4269985101077</v>
+        <v>1631.993680756875</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55.70279062968776</v>
+        <v>313.3780497235444</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28204.82890320832</v>
+        <v>39005.03914847369</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>247.1075142823889</v>
+        <v>1120.217091231182</v>
       </c>
       <c r="C7">
-        <v>6349.737056672397</v>
+        <v>8781.182234005613</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1039.991779503982</v>
+        <v>4714.614080124399</v>
       </c>
       <c r="C8">
-        <v>32241.41106819387</v>
+        <v>44587.31181219412</v>
       </c>
       <c r="D8">
-        <v>31.1541598808086</v>
+        <v>130.55949446055</v>
       </c>
       <c r="E8">
-        <v>4.456223250375019</v>
+        <v>25.07024397788354</v>
       </c>
       <c r="F8">
-        <v>1128.193156128334</v>
+        <v>1560.201565938949</v>
       </c>
       <c r="G8">
-        <v>659.6844570954785</v>
+        <v>990.1399325236792</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73.46197486643311</v>
+        <v>1265.342751470073</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.38421066355767</v>
+        <v>274.0136745120753</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>22104.25448682811</v>
+        <v>34675.26207060033</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46.48374497821685</v>
+        <v>901.4129449492145</v>
       </c>
       <c r="C7">
-        <v>4976.31821511117</v>
+        <v>7806.421988061492</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>195.6343286374532</v>
+        <v>3793.741584136321</v>
       </c>
       <c r="C8">
-        <v>25267.74254548754</v>
+        <v>39637.87130750526</v>
       </c>
       <c r="D8">
-        <v>5.876957989314646</v>
+        <v>101.2274201176058</v>
       </c>
       <c r="E8">
-        <v>0.8307368530846135</v>
+        <v>21.92109396096602</v>
       </c>
       <c r="F8">
-        <v>884.1701794731252</v>
+        <v>1387.010482824014</v>
       </c>
       <c r="G8">
-        <v>502.2801960089384</v>
+        <v>870.7834933010705</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68.91367484635599</v>
+        <v>1208.75362636174</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.616162356712421</v>
+        <v>251.9508816900446</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17072.75956159338</v>
+        <v>31695.35374447852</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.00207900177107</v>
+        <v>850.7136724663759</v>
       </c>
       <c r="C7">
-        <v>3843.580630108911</v>
+        <v>7135.556924891053</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>147.3118878359628</v>
+        <v>3580.365528931745</v>
       </c>
       <c r="C8">
-        <v>19516.15664759999</v>
+        <v>36231.48832189183</v>
       </c>
       <c r="D8">
-        <v>5.513093987708476</v>
+        <v>96.70029010893913</v>
       </c>
       <c r="E8">
-        <v>0.1292929885369936</v>
+        <v>20.15607053520356</v>
       </c>
       <c r="F8">
-        <v>682.9103824637359</v>
+        <v>1267.814149779142</v>
       </c>
       <c r="G8">
-        <v>387.8582709110681</v>
+        <v>798.6270597357427</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.003532675701654701</v>
+        <v>0.00353267570498542</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0007953092673946838</v>
+        <v>0.0007953092681445268</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004038260606314592</v>
+        <v>0.004038260610121994</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -15518,10 +15518,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0001413070280661881</v>
+        <v>0.0001413070281994169</v>
       </c>
       <c r="G8">
-        <v>7.953092673946836E-05</v>
+        <v>7.953092681445266E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>170.6394501864155</v>
+        <v>1305.621167794187</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.09664764334509</v>
+        <v>235.0119634231978</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13164.15997950806</v>
+        <v>30149.35884836886</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>85.71131533776294</v>
+        <v>879.5717080929929</v>
       </c>
       <c r="C7">
-        <v>2963.639833756898</v>
+        <v>6787.507975012926</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>360.7298775215751</v>
+        <v>3701.819220501875</v>
       </c>
       <c r="C8">
-        <v>15048.1711739264</v>
+        <v>34464.23573100194</v>
       </c>
       <c r="D8">
-        <v>13.65115601491323</v>
+        <v>104.4496934235349</v>
       </c>
       <c r="E8">
-        <v>0.247731811467607</v>
+        <v>18.80095707385581</v>
       </c>
       <c r="F8">
-        <v>526.5663991803228</v>
+        <v>1205.974353934756</v>
       </c>
       <c r="G8">
-        <v>304.935114909466</v>
+        <v>766.7079683105917</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>360.798795922928</v>
+        <v>1604.310411720639</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.05865208851514</v>
+        <v>220.4279106259926</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10326.05239512424</v>
+        <v>30009.20019280163</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>183.8863997479725</v>
+        <v>1008.419067301827</v>
       </c>
       <c r="C7">
-        <v>2324.698290759806</v>
+        <v>6755.954136763355</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>773.9155349275595</v>
+        <v>4244.09408728254</v>
       </c>
       <c r="C8">
-        <v>11803.88298491106</v>
+        <v>34304.01803053595</v>
       </c>
       <c r="D8">
-        <v>28.86390367383422</v>
+        <v>128.3448329376511</v>
       </c>
       <c r="E8">
-        <v>0.7246921670812109</v>
+        <v>17.6342328500794</v>
       </c>
       <c r="F8">
-        <v>413.0420958049701</v>
+        <v>1200.368007712066</v>
       </c>
       <c r="G8">
-        <v>250.8584690507778</v>
+        <v>776.437320406518</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>644.2739682455815</v>
+        <v>2194.354368384636</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.50813485561815</v>
+        <v>224.1323240923646</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8425.937573856676</v>
+        <v>31157.08480435956</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>337.1866521501579</v>
+        <v>1297.37931410465</v>
       </c>
       <c r="C7">
-        <v>1896.926523948532</v>
+        <v>7014.376745168694</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1419.104341739659</v>
+        <v>5460.229833502525</v>
       </c>
       <c r="C8">
-        <v>9631.829992159646</v>
+        <v>35616.18410490215</v>
       </c>
       <c r="D8">
-        <v>51.54191745964649</v>
+        <v>175.5483494707708</v>
       </c>
       <c r="E8">
-        <v>1.960650788449451</v>
+        <v>17.93058592738916</v>
       </c>
       <c r="F8">
-        <v>337.0375029542673</v>
+        <v>1246.283392174383</v>
       </c>
       <c r="G8">
-        <v>223.4113176098689</v>
+        <v>831.1756059273345</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>999.6945937417032</v>
+        <v>3152.406913110221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.54226058911129</v>
+        <v>268.5709026679501</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7288.633795492032</v>
+        <v>33418.97624470514</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>542.803683020334</v>
+        <v>1807.250032594392</v>
       </c>
       <c r="C7">
-        <v>1640.88597248984</v>
+        <v>7523.595076051699</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2284.476738252977</v>
+        <v>7606.102885477583</v>
       </c>
       <c r="C8">
-        <v>8331.759044964732</v>
+        <v>38201.78999423678</v>
       </c>
       <c r="D8">
-        <v>79.97556749933622</v>
+        <v>252.1925530488175</v>
       </c>
       <c r="E8">
-        <v>4.523380847128901</v>
+        <v>21.485672213436</v>
       </c>
       <c r="F8">
-        <v>291.5453518196815</v>
+        <v>1336.759049788207</v>
       </c>
       <c r="G8">
-        <v>218.3689655510173</v>
+        <v>933.084510864609</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1375.576039082172</v>
+        <v>4507.945707325138</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>102.9346562214357</v>
+        <v>365.871738989752</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6732.819215659663</v>
+        <v>36597.33079600813</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>773.5088598207581</v>
+        <v>2565.113679584824</v>
       </c>
       <c r="C7">
-        <v>1515.755752898296</v>
+        <v>8239.136224800035</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3255.436638271499</v>
+        <v>10795.69412532248</v>
       </c>
       <c r="C8">
-        <v>7696.398114126665</v>
+        <v>41835.02017480944</v>
       </c>
       <c r="D8">
-        <v>110.0460831265737</v>
+        <v>360.6356565860108</v>
       </c>
       <c r="E8">
-        <v>8.23477249771485</v>
+        <v>29.26973911918015</v>
       </c>
       <c r="F8">
-        <v>269.3127686263868</v>
+        <v>1463.893231840327</v>
       </c>
       <c r="G8">
-        <v>228.9264612719053</v>
+        <v>1080.424990438486</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1726.601052277589</v>
+        <v>6246.578409521583</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>144.6842224582781</v>
+        <v>506.3998170003724</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6596.302008643077</v>
+        <v>40493.13159121734</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>987.2901362838145</v>
+        <v>3553.815111236179</v>
       </c>
       <c r="C7">
-        <v>1485.021711885623</v>
+        <v>9116.195637556826</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4155.169577510943</v>
+        <v>14956.80336672814</v>
       </c>
       <c r="C8">
-        <v>7540.34301432768</v>
+        <v>46288.37514140697</v>
       </c>
       <c r="D8">
-        <v>138.1280841822071</v>
+        <v>499.7262727617264</v>
       </c>
       <c r="E8">
-        <v>11.57473779666224</v>
+        <v>40.51198536002977</v>
       </c>
       <c r="F8">
-        <v>263.8520803457233</v>
+        <v>1619.725263648695</v>
       </c>
       <c r="G8">
-        <v>247.2311848169436</v>
+        <v>1267.0010748793</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2036.931496126062</v>
+        <v>8333.856382312611</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>171.9480318953651</v>
+        <v>674.9507000585591</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6746.506634339639</v>
+        <v>44914.18096728641</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1166.073778359734</v>
+        <v>4740.61296012452</v>
       </c>
       <c r="C7">
-        <v>1518.837193665077</v>
+        <v>10111.50396397645</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4907.609334791079</v>
+        <v>19951.63329070366</v>
       </c>
       <c r="C8">
-        <v>7712.044431061897</v>
+        <v>51342.15053482589</v>
       </c>
       <c r="D8">
-        <v>162.9545196900849</v>
+        <v>666.7085105850086</v>
       </c>
       <c r="E8">
-        <v>13.75584255162921</v>
+        <v>53.9960560046847</v>
       </c>
       <c r="F8">
-        <v>269.8602653735858</v>
+        <v>1796.567238691458</v>
       </c>
       <c r="G8">
-        <v>268.491097202481</v>
+        <v>1485.211692410097</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2111.121340795415</v>
+        <v>10525.45809700914</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>178.0326105164985</v>
+        <v>850.0211900933343</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7079.796947231662</v>
+        <v>49673.7267240388</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1208.356264808961</v>
+        <v>5984.71098945903</v>
       </c>
       <c r="C7">
-        <v>1593.870651859879</v>
+        <v>11183.01778766573</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5085.561990143894</v>
+        <v>25187.62025436357</v>
       </c>
       <c r="C8">
-        <v>8093.034155193011</v>
+        <v>56782.86679543317</v>
       </c>
       <c r="D8">
-        <v>168.8897072636331</v>
+        <v>842.0366477607306</v>
       </c>
       <c r="E8">
-        <v>14.24260884131987</v>
+        <v>68.00169520746671</v>
       </c>
       <c r="F8">
-        <v>283.1918778892667</v>
+        <v>1986.949068961554</v>
       </c>
       <c r="G8">
-        <v>280.2226916668839</v>
+        <v>1716.772877712475</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1598.967757878981</v>
+        <v>12202.51193718216</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135.9469927247864</v>
+        <v>982.0672288830128</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7516.18347903098</v>
+        <v>54586.34619591368</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>916.3813694092187</v>
+        <v>6934.683362216287</v>
       </c>
       <c r="C7">
-        <v>1692.114103061374</v>
+        <v>12288.99300960179</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3856.73860968505</v>
+        <v>29185.73201269082</v>
       </c>
       <c r="C8">
-        <v>8591.874889332861</v>
+        <v>62398.56417682429</v>
       </c>
       <c r="D8">
-        <v>127.9174206303184</v>
+        <v>976.2009549745726</v>
       </c>
       <c r="E8">
-        <v>10.87575941798291</v>
+        <v>78.56537831064098</v>
       </c>
       <c r="F8">
-        <v>300.6473391612395</v>
+        <v>2183.453847836549</v>
       </c>
       <c r="G8">
-        <v>260.8495472470592</v>
+        <v>1922.367637181807</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>717.9069992148054</v>
+        <v>12939.642889574</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62.08302815038684</v>
+        <v>1036.277029984265</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7994.13327661153</v>
+        <v>59466.04371639396</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>412.5452225844927</v>
+        <v>7348.1783126504</v>
       </c>
       <c r="C7">
-        <v>1799.714668600741</v>
+        <v>13387.55653138303</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1736.263024649309</v>
+        <v>30925.99211998345</v>
       </c>
       <c r="C8">
-        <v>9138.22728688283</v>
+        <v>67976.6279256299</v>
       </c>
       <c r="D8">
-        <v>57.4325599371844</v>
+        <v>1035.171431165919</v>
       </c>
       <c r="E8">
-        <v>4.966642252030945</v>
+        <v>82.90216239874114</v>
       </c>
       <c r="F8">
-        <v>319.7653310644615</v>
+        <v>2378.641748655761</v>
       </c>
       <c r="G8">
-        <v>221.2259891185233</v>
+        <v>2073.573484403343</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01155396110533607</v>
+        <v>0.01155396116243872</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17881,7 +17881,7 @@
         <v>2.370818273402328E-13</v>
       </c>
       <c r="C7">
-        <v>0.0026011366788883</v>
+        <v>0.002601136691743785</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17907,7 +17907,7 @@
         <v>9.977970610066423E-13</v>
       </c>
       <c r="C8">
-        <v>0.01320752594321499</v>
+        <v>0.01320752600848997</v>
       </c>
       <c r="D8">
         <v>3.907696411184241E-14</v>
@@ -17916,10 +17916,10 @@
         <v>8.43315074901563E-17</v>
       </c>
       <c r="F8">
-        <v>0.0004621584442134434</v>
+        <v>0.000462158446497549</v>
       </c>
       <c r="G8">
-        <v>0.0002601136679125382</v>
+        <v>0.0002601136691980867</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>196.2396942349429</v>
+        <v>13034.38339522705</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.51288909892043</v>
+        <v>1037.68379518157</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8466.669645260114</v>
+        <v>64127.79498756219</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>113.3435934817066</v>
+        <v>7395.435052094188</v>
       </c>
       <c r="C7">
-        <v>1906.096511969839</v>
+        <v>14437.05393826712</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>477.0247712730803</v>
+        <v>31124.87972034812</v>
       </c>
       <c r="C8">
-        <v>9678.391503391782</v>
+        <v>73305.5536761532</v>
       </c>
       <c r="D8">
-        <v>15.69917553879542</v>
+        <v>1042.750671618164</v>
       </c>
       <c r="E8">
-        <v>1.401031127913633</v>
+        <v>83.01470361452554</v>
       </c>
       <c r="F8">
-        <v>338.6667858104049</v>
+        <v>2565.11179950249</v>
       </c>
       <c r="G8">
-        <v>201.9440105451545</v>
+        <v>2183.24889903613</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>190.2421255897019</v>
+        <v>12965.15085898118</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.78188625429165</v>
+        <v>1027.134220688804</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8897.968825906346</v>
+        <v>68391.56625364497</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>109.6722377099976</v>
+        <v>7350.819355049527</v>
       </c>
       <c r="C7">
-        <v>2003.194650705589</v>
+        <v>15396.95433342042</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>461.573279102557</v>
+        <v>30937.10737235605</v>
       </c>
       <c r="C8">
-        <v>10171.41680144664</v>
+        <v>78179.54183478693</v>
       </c>
       <c r="D8">
-        <v>15.21937004717615</v>
+        <v>1037.212068718494</v>
       </c>
       <c r="E8">
-        <v>1.342550900343331</v>
+        <v>82.17073765510428</v>
       </c>
       <c r="F8">
-        <v>355.9187530362541</v>
+        <v>2735.662650145801</v>
       </c>
       <c r="G8">
-        <v>211.2866888415586</v>
+        <v>2274.777368846994</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>439.7711866733097</v>
+        <v>12959.53273858082</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>38.64728164765266</v>
+        <v>1025.196574830317</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9259.953535112953</v>
+        <v>72087.8929922805</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>253.3676527459221</v>
+        <v>7346.053589315137</v>
       </c>
       <c r="C7">
-        <v>2084.688061989375</v>
+        <v>16229.10626550369</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1066.338580650592</v>
+        <v>30917.04987956309</v>
       </c>
       <c r="C8">
-        <v>10585.20756933189</v>
+        <v>82404.87467519101</v>
       </c>
       <c r="D8">
-        <v>35.18169493386475</v>
+        <v>1036.762619086465</v>
       </c>
       <c r="E8">
-        <v>3.091782531812211</v>
+        <v>82.01572598642532</v>
       </c>
       <c r="F8">
-        <v>370.3981414045184</v>
+        <v>2883.515719691222</v>
       </c>
       <c r="G8">
-        <v>233.8055714735297</v>
+        <v>2357.515985481883</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>809.91660638453</v>
+        <v>13022.25199377975</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71.15856948401249</v>
+        <v>1033.153521409759</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9529.5051834511</v>
+        <v>75065.00477751459</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>466.6031841011122</v>
+        <v>7384.777527646588</v>
       </c>
       <c r="C7">
-        <v>2145.372070958675</v>
+        <v>16899.34174501787</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1963.774663691496</v>
+        <v>31080.02581192873</v>
       </c>
       <c r="C8">
-        <v>10893.33656128585</v>
+        <v>85808.06088820075</v>
       </c>
       <c r="D8">
-        <v>64.79332851076236</v>
+        <v>1041.780159502379</v>
       </c>
       <c r="E8">
-        <v>5.692685558720997</v>
+        <v>82.65228171278068</v>
       </c>
       <c r="F8">
-        <v>381.1802073380443</v>
+        <v>3002.600191100586</v>
       </c>
       <c r="G8">
-        <v>261.1975255059787</v>
+        <v>2428.411927266445</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>936.1984810307622</v>
+        <v>12647.00150586479</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82.27105993318337</v>
+        <v>1008.383027199801</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9687.376577825564</v>
+        <v>77197.76689676411</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>539.3742705826559</v>
+        <v>7177.27256688939</v>
       </c>
       <c r="C7">
-        <v>2180.913568001192</v>
+        <v>17379.48926543503</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2270.043503577489</v>
+        <v>30206.70775836615</v>
       </c>
       <c r="C8">
-        <v>11073.80198936569</v>
+        <v>88246.05689354344</v>
       </c>
       <c r="D8">
-        <v>74.89587848246094</v>
+        <v>1011.760120469183</v>
       </c>
       <c r="E8">
-        <v>6.581684794654666</v>
+        <v>80.67064217598404</v>
       </c>
       <c r="F8">
-        <v>387.4950631130229</v>
+        <v>3087.910675870567</v>
       </c>
       <c r="G8">
-        <v>272.0287838583847</v>
+        <v>2455.676183232441</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>639.5044656742264</v>
+        <v>11385.65919279831</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.46576044207902</v>
+        <v>913.638569024504</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9719.384194812244</v>
+        <v>78398.10040356907</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>368.7225111714918</v>
+        <v>6467.620176936267</v>
       </c>
       <c r="C7">
-        <v>2188.119424571837</v>
+        <v>17649.71966373601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1551.828084427241</v>
+        <v>27220.02135993799</v>
       </c>
       <c r="C8">
-        <v>11110.39043101596</v>
+        <v>89618.17817620162</v>
       </c>
       <c r="D8">
-        <v>51.16035725393808</v>
+        <v>910.8527354238641</v>
       </c>
       <c r="E8">
-        <v>4.517260835366319</v>
+        <v>73.09108552196028</v>
       </c>
       <c r="F8">
-        <v>388.7753677924901</v>
+        <v>3135.924016142766</v>
       </c>
       <c r="G8">
-        <v>255.6841935743329</v>
+        <v>2411.733984067227</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>288.9905516841234</v>
+        <v>9367.914817199011</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.92394873792682</v>
+        <v>761.5178837165554</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9619.517516685142</v>
+        <v>78625.58589040894</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>167.0560180627513</v>
+        <v>5331.810448435364</v>
       </c>
       <c r="C7">
-        <v>2165.63649624043</v>
+        <v>17700.93334174127</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>703.0821624606182</v>
+        <v>22439.78315410301</v>
       </c>
       <c r="C8">
-        <v>10996.23116302108</v>
+        <v>89878.22063625068</v>
       </c>
       <c r="D8">
-        <v>23.11924413472986</v>
+        <v>749.4331853759205</v>
       </c>
       <c r="E8">
-        <v>2.073915899034145</v>
+        <v>60.9214306973244</v>
       </c>
       <c r="F8">
-        <v>384.7807006674061</v>
+        <v>3145.023435616361</v>
       </c>
       <c r="G8">
-        <v>233.2692514303181</v>
+        <v>2303.274379017662</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>207.1379703013829</v>
+        <v>6993.77439948868</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.9392335309926</v>
+        <v>587.9712750022536</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9393.751534605031</v>
+        <v>77896.19516401773</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>120.1186730937981</v>
+        <v>4001.145502995159</v>
       </c>
       <c r="C7">
-        <v>2114.809929361768</v>
+        <v>17536.72602319828</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>505.5387851933859</v>
+        <v>16839.46537926408</v>
       </c>
       <c r="C8">
-        <v>10738.15429758648</v>
+        <v>89044.44191277002</v>
       </c>
       <c r="D8">
-        <v>16.57103762411063</v>
+        <v>559.5019519590941</v>
       </c>
       <c r="E8">
-        <v>1.515138682479407</v>
+        <v>47.03770200018027</v>
       </c>
       <c r="F8">
-        <v>375.7500613842016</v>
+        <v>3115.847806560712</v>
       </c>
       <c r="G8">
-        <v>223.4928602455566</v>
+        <v>2153.787152619343</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>450.3021551980589</v>
+        <v>5098.894146760843</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40.89189026804014</v>
+        <v>464.5920387224888</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9062.850136455809</v>
+        <v>76286.79409125808</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>260.8317532103273</v>
+        <v>2955.123108031467</v>
       </c>
       <c r="C7">
-        <v>2040.314286181539</v>
+        <v>17174.40247690697</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1097.752449819712</v>
+        <v>12437.11163013393</v>
       </c>
       <c r="C8">
-        <v>10359.8953818036</v>
+        <v>87204.70866217997</v>
       </c>
       <c r="D8">
-        <v>36.0241724158447</v>
+        <v>407.9115317408672</v>
       </c>
       <c r="E8">
-        <v>3.27135122144321</v>
+        <v>37.16736309779909</v>
       </c>
       <c r="F8">
-        <v>362.5140054582326</v>
+        <v>3051.471763650326</v>
       </c>
       <c r="G8">
-        <v>230.1146039391867</v>
+        <v>2012.952558493843</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>875.5783548994915</v>
+        <v>4165.293216997798</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>77.74712489387498</v>
+        <v>429.1825355250594</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8662.468494687779</v>
+        <v>73933.3719476696</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>505.2995898673893</v>
+        <v>2466.625323667854</v>
       </c>
       <c r="C7">
-        <v>1950.176595353122</v>
+        <v>16644.57789096745</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2126.634720821482</v>
+        <v>10381.19001431654</v>
       </c>
       <c r="C8">
-        <v>9902.212438903953</v>
+        <v>84514.47249698928</v>
       </c>
       <c r="D8">
-        <v>70.04626839195929</v>
+        <v>333.2234573598236</v>
       </c>
       <c r="E8">
-        <v>6.219769991509995</v>
+        <v>34.33460284200473</v>
       </c>
       <c r="F8">
-        <v>346.4987397875115</v>
+        <v>2957.334877906786</v>
       </c>
       <c r="G8">
-        <v>245.5476185220511</v>
+        <v>1911.12032146353</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03299485565775238</v>
+        <v>0.03299485623165402</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>1.094034607654471E-11</v>
       </c>
       <c r="C7">
-        <v>0.007428113050022982</v>
+        <v>0.007428113179225132</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20305,7 +20305,7 @@
         <v>4.604420880351203E-11</v>
       </c>
       <c r="C8">
-        <v>0.0377169706665481</v>
+        <v>0.03771697132258465</v>
       </c>
       <c r="D8">
         <v>1.800114515555315E-12</v>
@@ -20314,10 +20314,10 @@
         <v>5.317570055629301E-15</v>
       </c>
       <c r="F8">
-        <v>0.001319794226310096</v>
+        <v>0.001319794249266162</v>
       </c>
       <c r="G8">
-        <v>0.0007428113060963326</v>
+        <v>0.0007428113190165477</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1175.083031447878</v>
+        <v>3782.605327154632</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98.84207398901066</v>
+        <v>438.951826468807</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8239.542526163947</v>
+        <v>71021.98877255314</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>672.3213334981932</v>
+        <v>2292.101663357245</v>
       </c>
       <c r="C7">
-        <v>1854.963513090483</v>
+        <v>15989.13985598946</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2829.572633814107</v>
+        <v>9646.67907652061</v>
       </c>
       <c r="C8">
-        <v>9418.758699496946</v>
+        <v>81186.4217561718</v>
       </c>
       <c r="D8">
-        <v>94.00664251583022</v>
+        <v>302.6084261723704</v>
       </c>
       <c r="E8">
-        <v>7.907365919120848</v>
+        <v>35.11614611750454</v>
       </c>
       <c r="F8">
-        <v>329.5817010465582</v>
+        <v>2840.879550902128</v>
       </c>
       <c r="G8">
-        <v>252.7284846588676</v>
+        <v>1828.12415193467</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1163.141532915116</v>
+        <v>3431.762934344822</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>88.9934786433578</v>
+        <v>439.7334960014635</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7845.229686596717</v>
+        <v>67773.08495134536</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>656.1239806728074</v>
+        <v>2123.444898150959</v>
       </c>
       <c r="C7">
-        <v>1766.192088242841</v>
+        <v>15257.71599031442</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2761.403465276088</v>
+        <v>8936.859911847916</v>
       </c>
       <c r="C8">
-        <v>8968.013105769636</v>
+        <v>77472.54552667723</v>
       </c>
       <c r="D8">
-        <v>93.05132263320922</v>
+        <v>274.5410347475857</v>
       </c>
       <c r="E8">
-        <v>7.119478291468621</v>
+        <v>35.17867968011706</v>
       </c>
       <c r="F8">
-        <v>313.809187463869</v>
+        <v>2710.923398053817</v>
       </c>
       <c r="G8">
-        <v>242.2316068915648</v>
+        <v>1738.116088846538</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1075.739818426821</v>
+        <v>3031.244895493199</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75.68254856159199</v>
+        <v>417.8414486335598</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7526.091902509472</v>
+        <v>64421.56825068923</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>599.8071440686889</v>
+        <v>1906.781707679979</v>
       </c>
       <c r="C7">
-        <v>1694.344780792145</v>
+        <v>14503.19094556962</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2524.384986554229</v>
+        <v>8024.99797326913</v>
       </c>
       <c r="C8">
-        <v>8603.201373726866</v>
+        <v>73641.37080058346</v>
       </c>
       <c r="D8">
-        <v>86.05918547414566</v>
+        <v>242.4995916394558</v>
       </c>
       <c r="E8">
-        <v>6.054603884927356</v>
+        <v>33.42731589068477</v>
       </c>
       <c r="F8">
-        <v>301.0436761003791</v>
+        <v>2576.862730027571</v>
       </c>
       <c r="G8">
-        <v>229.4151924860833</v>
+        <v>1640.99726532496</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1118.339126107794</v>
+        <v>2743.419816575947</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79.51582610131818</v>
+        <v>387.2927646351069</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7316.079919939503</v>
+        <v>61196.2238568225</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>624.4450152110659</v>
+        <v>1735.391576208114</v>
       </c>
       <c r="C7">
-        <v>1647.064902844788</v>
+        <v>13777.07100034505</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2628.077436081558</v>
+        <v>7303.674996359763</v>
       </c>
       <c r="C8">
-        <v>8363.133168295757</v>
+        <v>69954.42574603208</v>
       </c>
       <c r="D8">
-        <v>89.46713008862345</v>
+        <v>219.4735853260756</v>
       </c>
       <c r="E8">
-        <v>6.361266088105451</v>
+        <v>30.98342117080854</v>
       </c>
       <c r="F8">
-        <v>292.6431967975804</v>
+        <v>2447.848954272902</v>
       </c>
       <c r="G8">
-        <v>227.1509918055854</v>
+        <v>1551.246257655316</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1282.751875036422</v>
+        <v>2697.106185611326</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>97.43582032657329</v>
+        <v>364.1806971512412</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7231.651437230264</v>
+        <v>58301.90738316286</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>722.8447737602482</v>
+        <v>1688.545099616715</v>
       </c>
       <c r="C7">
-        <v>1628.057566649371</v>
+        <v>13125.47518213948</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3042.208670793346</v>
+        <v>7106.514053297123</v>
       </c>
       <c r="C8">
-        <v>8266.621559371128</v>
+        <v>66645.88423674142</v>
       </c>
       <c r="D8">
-        <v>102.6201500029137</v>
+        <v>215.768494848906</v>
       </c>
       <c r="E8">
-        <v>7.794865626125859</v>
+        <v>29.13445577209929</v>
       </c>
       <c r="F8">
-        <v>289.2660574892108</v>
+        <v>2332.076295326516</v>
       </c>
       <c r="G8">
-        <v>235.0902340409619</v>
+        <v>1481.40202817562</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1418.040999489598</v>
+        <v>2875.192797561964</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>111.8830953995334</v>
+        <v>351.0401337227518</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7271.097801536496</v>
+        <v>55906.72700982733</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>803.4982711939855</v>
+        <v>1760.660410206382</v>
       </c>
       <c r="C7">
-        <v>1636.938104164626</v>
+        <v>12586.24958973559</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3381.651906920424</v>
+        <v>7410.022954705613</v>
       </c>
       <c r="C8">
-        <v>8311.713357343295</v>
+        <v>63907.91354157452</v>
       </c>
       <c r="D8">
-        <v>113.4432799591678</v>
+        <v>230.015423804957</v>
       </c>
       <c r="E8">
-        <v>8.950647631962671</v>
+        <v>28.08321069782013</v>
       </c>
       <c r="F8">
-        <v>290.8439120614601</v>
+        <v>2236.269080393095</v>
       </c>
       <c r="G8">
-        <v>244.0436375358611</v>
+        <v>1434.690999994197</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1481.136085040532</v>
+        <v>3274.783044406441</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>118.6022571640649</v>
+        <v>349.6350125100824</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7417.562105144012</v>
+        <v>54134.70191262694</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>841.0930758078856</v>
+        <v>1952.206051138641</v>
       </c>
       <c r="C7">
-        <v>1669.911529363833</v>
+        <v>12187.31458950352</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3539.875698147726</v>
+        <v>8216.173639956416</v>
       </c>
       <c r="C8">
-        <v>8479.139149417131</v>
+        <v>61882.28205208532</v>
       </c>
       <c r="D8">
-        <v>118.4908868032425</v>
+        <v>261.9826435525152</v>
       </c>
       <c r="E8">
-        <v>9.488180573125186</v>
+        <v>27.97080100080658</v>
       </c>
       <c r="F8">
-        <v>296.7024842057608</v>
+        <v>2165.38807650508</v>
       </c>
       <c r="G8">
-        <v>251.1004605171718</v>
+        <v>1413.952064064216</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1503.763016304482</v>
+        <v>3950.47358291499</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>123.7377133233987</v>
+        <v>369.9110582676302</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7644.154536278815</v>
+        <v>53063.07624887759</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>857.4615939207248</v>
+        <v>2300.088022351666</v>
       </c>
       <c r="C7">
-        <v>1720.924154247173</v>
+        <v>11946.06011455734</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3608.765243370382</v>
+        <v>9680.290954842021</v>
       </c>
       <c r="C8">
-        <v>8738.160742571612</v>
+        <v>60657.2888548304</v>
       </c>
       <c r="D8">
-        <v>120.3010413043585</v>
+        <v>316.037886633199</v>
       </c>
       <c r="E8">
-        <v>9.89901706587189</v>
+        <v>29.5928846614104</v>
       </c>
       <c r="F8">
-        <v>305.7661814511529</v>
+        <v>2122.523049955105</v>
       </c>
       <c r="G8">
-        <v>257.8385748167897</v>
+        <v>1424.6148136909</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1513.954703181121</v>
+        <v>4983.023239163046</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>130.6972458557009</v>
+        <v>426.9313436713954</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7919.417810625937</v>
+        <v>52723.01943520171</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>869.7544237864203</v>
+        <v>2859.26946516855</v>
       </c>
       <c r="C7">
-        <v>1782.894018324741</v>
+        <v>11869.50331789738</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3660.501598067207</v>
+        <v>12033.69613343226</v>
       </c>
       <c r="C8">
-        <v>9052.818789626563</v>
+        <v>60268.56423062192</v>
       </c>
       <c r="D8">
-        <v>121.1163762544897</v>
+        <v>398.6418591330435</v>
       </c>
       <c r="E8">
-        <v>10.45577966845607</v>
+        <v>34.15450749371161</v>
       </c>
       <c r="F8">
-        <v>316.7767124250378</v>
+        <v>2108.92077740807</v>
       </c>
       <c r="G8">
-        <v>265.2648442111161</v>
+        <v>1472.877278306593</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1507.343847229589</v>
+        <v>6393.729678748129</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135.4664256570252</v>
+        <v>526.9488633485029</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8211.947522059627</v>
+        <v>53102.67750798784</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>871.6109409686558</v>
+        <v>3646.660118401684</v>
       </c>
       <c r="C7">
-        <v>1848.751065543237</v>
+        <v>11954.97552345155</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3668.315049688215</v>
+        <v>15347.55653544712</v>
       </c>
       <c r="C8">
-        <v>9387.214389343209</v>
+        <v>60702.55771564049</v>
       </c>
       <c r="D8">
-        <v>120.587507778367</v>
+        <v>511.4983742998501</v>
       </c>
       <c r="E8">
-        <v>10.83731405256201</v>
+        <v>42.15590906788021</v>
       </c>
       <c r="F8">
-        <v>328.4779008823854</v>
+        <v>2124.107100319516</v>
       </c>
       <c r="G8">
-        <v>272.0362006511892</v>
+        <v>1560.163564185323</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Max.xlsx
+++ b/Recycling/SW2/SW2_Max.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.072742067537164E-10</v>
+        <v>7.995736619867579E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.136991633692225E-12</v>
+        <v>2.753932560596006E-12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08435615592145057</v>
+        <v>0.09643475066249763</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.956240712849116E-10</v>
+        <v>3.891731134843901E-10</v>
       </c>
       <c r="C7">
-        <v>0.01899105330690164</v>
+        <v>0.02171030045720187</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.244181525003988E-09</v>
+        <v>1.637897738573874E-09</v>
       </c>
       <c r="C8">
-        <v>0.09642893096532022</v>
+        <v>0.1102361743812845</v>
       </c>
       <c r="D8">
-        <v>4.858193654029728E-11</v>
+        <v>6.39658929589406E-11</v>
       </c>
       <c r="E8">
-        <v>1.709593306953779E-13</v>
+        <v>2.203146048476803E-13</v>
       </c>
       <c r="F8">
-        <v>0.003374246236858026</v>
+        <v>0.003857390026499909</v>
       </c>
       <c r="G8">
-        <v>0.001899105360252571</v>
+        <v>0.002171030084637498</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8101.228007185266</v>
+        <v>8877.41406961706</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>660.342749362991</v>
+        <v>722.1243668572148</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54151.96494913431</v>
+        <v>58693.2201928651</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4612.766808219123</v>
+        <v>5053.146239309417</v>
       </c>
       <c r="C7">
-        <v>12191.20100707399</v>
+        <v>13213.57121197338</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19413.57216614033</v>
+        <v>21266.97994099725</v>
       </c>
       <c r="C8">
-        <v>61902.01571748812</v>
+        <v>67093.20044621591</v>
       </c>
       <c r="D8">
-        <v>648.0982405748209</v>
+        <v>710.1931255693644</v>
       </c>
       <c r="E8">
-        <v>52.82741994903925</v>
+        <v>57.76994934857716</v>
       </c>
       <c r="F8">
-        <v>2166.078597965374</v>
+        <v>2347.728807714606</v>
       </c>
       <c r="G8">
-        <v>1680.396781529311</v>
+        <v>1826.671745128279</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9955.075475737569</v>
+        <v>10899.32088132152</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>808.5271458852234</v>
+        <v>884.1844894744873</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55788.73416186919</v>
+        <v>60502.77835594553</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5665.233304786703</v>
+        <v>6201.491614031933</v>
       </c>
       <c r="C7">
-        <v>12559.68592712046</v>
+        <v>13620.95600993642</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23843.04695492723</v>
+        <v>26099.97643327733</v>
       </c>
       <c r="C8">
-        <v>63773.0339460563</v>
+        <v>69161.73661028553</v>
       </c>
       <c r="D8">
-        <v>796.4060380590051</v>
+        <v>871.9456705057214</v>
       </c>
       <c r="E8">
-        <v>64.68217167081784</v>
+        <v>70.73475915795895</v>
       </c>
       <c r="F8">
-        <v>2231.54936647477</v>
+        <v>2420.111134237824</v>
       </c>
       <c r="G8">
-        <v>1822.491923190716</v>
+        <v>1982.244762396835</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.110209876372749E-08</v>
+        <v>1.459853060855509E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.627290898861751E-11</v>
+        <v>5.91844515126912E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1968907913942362</v>
+        <v>0.2181035858331883</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.412185385979563E-09</v>
+        <v>7.114909032813633E-09</v>
       </c>
       <c r="C7">
-        <v>0.04432591165590528</v>
+        <v>0.04910153597849306</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.277805402606277E-08</v>
+        <v>2.994424077929449E-08</v>
       </c>
       <c r="C8">
-        <v>0.2250691526145539</v>
+        <v>0.2493178522878767</v>
       </c>
       <c r="D8">
-        <v>8.881679010981984E-10</v>
+        <v>1.167882448684407E-09</v>
       </c>
       <c r="E8">
-        <v>3.701832719089399E-12</v>
+        <v>4.734756121015293E-12</v>
       </c>
       <c r="F8">
-        <v>0.007875631655769454</v>
+        <v>0.008724143433327539</v>
       </c>
       <c r="G8">
-        <v>0.004432591706809066</v>
+        <v>0.004910154309340209</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.494921158560458E-07</v>
+        <v>1.962680483424368E-07</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.306255870783328E-10</v>
+        <v>9.279073283756305E-10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4282296841740271</v>
+        <v>0.460478347989555</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.299011047260546E-08</v>
+        <v>9.579546692894899E-08</v>
       </c>
       <c r="C7">
-        <v>0.09640710474430965</v>
+        <v>0.1036672280501573</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.071906376341514E-07</v>
+        <v>4.031706539122142E-07</v>
       </c>
       <c r="C8">
-        <v>0.4895165053629208</v>
+        <v>0.5263804916698241</v>
       </c>
       <c r="D8">
-        <v>1.195936926848366E-08</v>
+        <v>1.570144386739494E-08</v>
       </c>
       <c r="E8">
-        <v>5.84500469662666E-11</v>
+        <v>7.423258627005041E-11</v>
       </c>
       <c r="F8">
-        <v>0.0171291873669611</v>
+        <v>0.01841913391958222</v>
       </c>
       <c r="G8">
-        <v>0.00964071777344201</v>
+        <v>0.01036673238456242</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.57150380132921E-06</v>
+        <v>2.059565803901055E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.882730889775126E-09</v>
+        <v>1.120701736279172E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8829548192345827</v>
+        <v>0.9223322931532713</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.685658736172483E-07</v>
+        <v>1.006799398910526E-06</v>
       </c>
       <c r="C7">
-        <v>0.1987791152465938</v>
+        <v>0.2076441435081624</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.234633284586442E-06</v>
+        <v>4.23727745195129E-06</v>
       </c>
       <c r="C8">
-        <v>1.009320403228781</v>
+        <v>1.054333451448162</v>
       </c>
       <c r="D8">
-        <v>1.257203041063367E-07</v>
+        <v>1.647652643120844E-07</v>
       </c>
       <c r="E8">
-        <v>7.106184711820096E-10</v>
+        <v>8.96561389023337E-10</v>
       </c>
       <c r="F8">
-        <v>0.03531819276938334</v>
+        <v>0.03689329172613089</v>
       </c>
       <c r="G8">
-        <v>0.01987798838124674</v>
+        <v>0.02076451503075612</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.346434949393201E-05</v>
+        <v>1.761098483180265E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.670498625347009E-08</v>
+        <v>1.087234580209068E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.748025389161437</v>
+        <v>1.775421966913115</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.596151807098824E-06</v>
+        <v>8.622618208803105E-06</v>
       </c>
       <c r="C7">
-        <v>0.3935319596390102</v>
+        <v>0.3996997355745716</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.776096743016777E-05</v>
+        <v>3.628967771780819E-05</v>
       </c>
       <c r="C8">
-        <v>1.998197022325584</v>
+        <v>2.029514508000993</v>
       </c>
       <c r="D8">
-        <v>1.07714795951456E-06</v>
+        <v>1.408878786544211E-06</v>
       </c>
       <c r="E8">
-        <v>6.936398900277604E-09</v>
+        <v>8.697876641672537E-09</v>
       </c>
       <c r="F8">
-        <v>0.06992101556645755</v>
+        <v>0.07101687867652466</v>
       </c>
       <c r="G8">
-        <v>0.03935385557908173</v>
+        <v>0.03997083581927803</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.714690742173191E-05</v>
+        <v>0.0001267890596592312</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.024019684193095E-07</v>
+        <v>8.757794681037199E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.350023238979148</v>
+        <v>3.314004067188923</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.767337114076382E-05</v>
+        <v>6.217645174056818E-05</v>
       </c>
       <c r="C7">
-        <v>0.7541888225686029</v>
+        <v>0.7460798469512744</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0002006410619750638</v>
+        <v>0.0002616796129276002</v>
       </c>
       <c r="C8">
-        <v>3.82946752510322</v>
+        <v>3.788293408145807</v>
       </c>
       <c r="D8">
-        <v>7.771752593738549E-06</v>
+        <v>1.014312477273849E-05</v>
       </c>
       <c r="E8">
-        <v>5.619215747354473E-08</v>
+        <v>7.006235744829755E-08</v>
       </c>
       <c r="F8">
-        <v>0.134000929559166</v>
+        <v>0.132560162687557</v>
       </c>
       <c r="G8">
-        <v>0.07542364959397435</v>
+        <v>0.07461420234030147</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0006054708688167099</v>
+        <v>0.0007883597326943932</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.849796851067793E-06</v>
+        <v>6.015140545551558E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.231848848119995</v>
+        <v>6.021336408888529</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.000297625504459463</v>
+        <v>0.0003872091940063597</v>
       </c>
       <c r="C7">
-        <v>1.402972579563762</v>
+        <v>1.355580034093419</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001252604878922644</v>
+        <v>0.001629632267089971</v>
       </c>
       <c r="C8">
-        <v>7.123730518508196</v>
+        <v>6.883090232707425</v>
       </c>
       <c r="D8">
-        <v>4.843766950533677E-05</v>
+        <v>6.306877861555143E-05</v>
       </c>
       <c r="E8">
-        <v>3.879837480854232E-07</v>
+        <v>4.812112436441245E-07</v>
       </c>
       <c r="F8">
-        <v>0.2492739539248</v>
+        <v>0.2408534563555414</v>
       </c>
       <c r="G8">
-        <v>0.1403270205068221</v>
+        <v>0.1355967243287425</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003326154760469616</v>
+        <v>0.004319994171470933</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.916261356257883E-05</v>
+        <v>3.599420802329776E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.2392643989077</v>
+        <v>10.64496198527221</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001637674666400344</v>
+        <v>0.002125011251304158</v>
       </c>
       <c r="C7">
-        <v>2.530289188719917</v>
+        <v>2.396494225039003</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006892417640573819</v>
+        <v>0.00894345216141126</v>
       </c>
       <c r="C8">
-        <v>12.84779088123028</v>
+        <v>12.16843386464996</v>
       </c>
       <c r="D8">
-        <v>0.0002660923808375691</v>
+        <v>0.0003455995337176744</v>
       </c>
       <c r="E8">
-        <v>2.333009085006305E-06</v>
+        <v>2.879536641863819E-06</v>
       </c>
       <c r="F8">
-        <v>0.4495705759563084</v>
+        <v>0.4257984794108886</v>
       </c>
       <c r="G8">
-        <v>0.2531926863386316</v>
+        <v>0.2398619236290306</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01636989260158203</v>
+        <v>0.02120480999202463</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000155442715088922</v>
+        <v>0.000190993023592182</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19.61018365365227</v>
+        <v>18.27434543160692</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.008072544015767253</v>
+        <v>0.01044583364298556</v>
       </c>
       <c r="C7">
-        <v>4.41482946984241</v>
+        <v>4.114092972225301</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03397460186697503</v>
+        <v>0.04396297356767735</v>
       </c>
       <c r="C8">
-        <v>22.41672851375668</v>
+        <v>20.88970952756208</v>
       </c>
       <c r="D8">
-        <v>0.001309591408126562</v>
+        <v>0.001696384799361969</v>
       </c>
       <c r="E8">
-        <v>1.243541720711375E-05</v>
+        <v>1.527944188737455E-05</v>
       </c>
       <c r="F8">
-        <v>0.7844073461460914</v>
+        <v>0.7309738172642775</v>
       </c>
       <c r="G8">
-        <v>0.4422902013858177</v>
+        <v>0.4124538805868285</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0731446446132402</v>
+        <v>0.09448526190686592</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0007452526966237153</v>
+        <v>0.0009118726096895651</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>33.06255971557332</v>
+        <v>30.4174135723055</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03612376468831938</v>
+        <v>0.04660939527406979</v>
       </c>
       <c r="C7">
-        <v>7.44335522597477</v>
+        <v>6.84785498224483</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1520326827360501</v>
+        <v>0.1961631481480973</v>
       </c>
       <c r="C8">
-        <v>37.79436430600895</v>
+        <v>34.77065356366708</v>
       </c>
       <c r="D8">
-        <v>0.005851571569059214</v>
+        <v>0.007558820952549269</v>
       </c>
       <c r="E8">
-        <v>5.962021572989719E-05</v>
+        <v>7.294980877516518E-05</v>
       </c>
       <c r="F8">
-        <v>1.322502388622934</v>
+        <v>1.216696542892221</v>
       </c>
       <c r="G8">
-        <v>0.7479478990663088</v>
+        <v>0.68944643775189</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2999963618914634</v>
+        <v>0.3864039331643383</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00325323912203298</v>
+        <v>0.003965131336001044</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53.87639772979655</v>
+        <v>49.07218076312823</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1483666940325473</v>
+        <v>0.1908621702260782</v>
       </c>
       <c r="C7">
-        <v>12.1291627160339</v>
+        <v>11.04759208831497</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6244251316845874</v>
+        <v>0.8032741886860444</v>
       </c>
       <c r="C8">
-        <v>61.5870102258371</v>
+        <v>56.09522955896253</v>
       </c>
       <c r="D8">
-        <v>0.02399970895131706</v>
+        <v>0.03091231465314705</v>
       </c>
       <c r="E8">
-        <v>0.0002602591297626383</v>
+        <v>0.0003172105068800834</v>
       </c>
       <c r="F8">
-        <v>2.155055909191864</v>
+        <v>1.962887230525131</v>
       </c>
       <c r="G8">
-        <v>1.227752941006645</v>
+        <v>1.123845425854105</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.13958554362273</v>
+        <v>1.463425948724236</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01306243689324741</v>
+        <v>0.01586309220410758</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84.96336745391159</v>
+        <v>76.78750481970545</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5643412659799492</v>
+        <v>0.7237472679216722</v>
       </c>
       <c r="C7">
-        <v>19.12775449314666</v>
+        <v>17.28712719784063</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.375121125549058</v>
+        <v>3.046006962851185</v>
       </c>
       <c r="C8">
-        <v>97.12304461127098</v>
+        <v>87.77707946001486</v>
       </c>
       <c r="D8">
-        <v>0.09116684348981832</v>
+        <v>0.1170740758979388</v>
       </c>
       <c r="E8">
-        <v>0.001044994951459793</v>
+        <v>0.001269047376328606</v>
       </c>
       <c r="F8">
-        <v>3.398534698156467</v>
+        <v>3.07150019278822</v>
       </c>
       <c r="G8">
-        <v>1.969209575912661</v>
+        <v>1.801087446576229</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.037250793600011</v>
+        <v>5.168409562008447</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04864624770696854</v>
+        <v>0.05887416368291554</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>129.9154637329017</v>
+        <v>116.7054206951013</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.001821192640759</v>
+        <v>2.559090191394522</v>
       </c>
       <c r="C7">
-        <v>29.24779430963854</v>
+        <v>26.27382484911764</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.424986955289933</v>
+        <v>10.7703433049719</v>
       </c>
       <c r="C8">
-        <v>148.5085367722636</v>
+        <v>133.4079159079474</v>
       </c>
       <c r="D8">
-        <v>0.3229800634880007</v>
+        <v>0.4134727649606756</v>
       </c>
       <c r="E8">
-        <v>0.003891699816557481</v>
+        <v>0.004709933094633241</v>
       </c>
       <c r="F8">
-        <v>5.196618549316073</v>
+        <v>4.668216827804056</v>
       </c>
       <c r="G8">
-        <v>3.124961550227929</v>
+        <v>2.883291504051215</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.39162113416764</v>
+        <v>17.08713532915442</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1690791719933761</v>
+        <v>0.2039526243066155</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>193.0213615685877</v>
+        <v>172.5755091824185</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.6482442470442</v>
+        <v>8.470395778206196</v>
       </c>
       <c r="C7">
-        <v>43.45478912449654</v>
+        <v>38.85182602916131</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.98020685505868</v>
+        <v>35.64902509768599</v>
       </c>
       <c r="C8">
-        <v>220.6459427437764</v>
+        <v>197.2739473424107</v>
       </c>
       <c r="D8">
-        <v>1.07132969073341</v>
+        <v>1.366970826332353</v>
       </c>
       <c r="E8">
-        <v>0.01352633375947008</v>
+        <v>0.01631620994452923</v>
       </c>
       <c r="F8">
-        <v>7.720854462743516</v>
+        <v>6.903020367296747</v>
       </c>
       <c r="G8">
-        <v>5.010303337154074</v>
+        <v>4.732222180736749</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41.49644279128078</v>
+        <v>52.74933311635031</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.549930166484374</v>
+        <v>0.6611138246162966</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>279.2335899264567</v>
+        <v>248.7270303478749</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.62836676000154</v>
+        <v>26.18213027190049</v>
       </c>
       <c r="C7">
-        <v>62.86369896120869</v>
+        <v>55.99577458937639</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86.81780445769209</v>
+        <v>110.1917128329896</v>
       </c>
       <c r="C8">
-        <v>319.1965811160188</v>
+        <v>284.3240232634335</v>
       </c>
       <c r="D8">
-        <v>3.319715423302461</v>
+        <v>4.219946649308023</v>
       </c>
       <c r="E8">
-        <v>0.0439944133187499</v>
+        <v>0.05288910596930371</v>
       </c>
       <c r="F8">
-        <v>11.16934359705828</v>
+        <v>9.949081213915006</v>
       </c>
       <c r="G8">
-        <v>8.349206572121021</v>
+        <v>8.217790486127685</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>118.1369720462734</v>
+        <v>149.4216731242916</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.665437764933068</v>
+        <v>1.994218578661015</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>394.0639214416234</v>
+        <v>349.9797214447257</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58.83298134790638</v>
+        <v>74.29409869125199</v>
       </c>
       <c r="C7">
-        <v>88.71538605188593</v>
+        <v>78.79073523075589</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>247.6080791926545</v>
+        <v>312.6786821070226</v>
       </c>
       <c r="C8">
-        <v>450.4610512598646</v>
+        <v>400.0676658367475</v>
       </c>
       <c r="D8">
-        <v>9.450957763701863</v>
+        <v>11.95373384994332</v>
       </c>
       <c r="E8">
-        <v>0.1332350211946454</v>
+        <v>0.1595374862928811</v>
       </c>
       <c r="F8">
-        <v>15.76255685766495</v>
+        <v>13.99918885778904</v>
       </c>
       <c r="G8">
-        <v>14.75483673997923</v>
+        <v>15.30848339220078</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>294.26250718535</v>
+        <v>368.9497955053607</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.590701438390091</v>
+        <v>5.465006023531271</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>543.3846160467349</v>
+        <v>481.4762345648949</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>147.0130289285311</v>
+        <v>184.0186648186084</v>
       </c>
       <c r="C7">
-        <v>122.331868928486</v>
+        <v>108.3944702878889</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>618.7280140373698</v>
+        <v>774.4721937834277</v>
       </c>
       <c r="C8">
-        <v>621.1520315977741</v>
+        <v>550.3835265743128</v>
       </c>
       <c r="D8">
-        <v>23.54100057482799</v>
+        <v>29.51598364042884</v>
       </c>
       <c r="E8">
-        <v>0.3672561150712071</v>
+        <v>0.4372004818825014</v>
       </c>
       <c r="F8">
-        <v>21.73538464186942</v>
+        <v>19.25904938259581</v>
       </c>
       <c r="G8">
-        <v>26.93448978570171</v>
+        <v>29.24131351064972</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>577.9800852816657</v>
+        <v>710.43378124295</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.8445935894732</v>
+        <v>12.77253213436893</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>733.127923157197</v>
+        <v>648.436353206606</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>290.6931789031482</v>
+        <v>356.720225978977</v>
       </c>
       <c r="C7">
-        <v>165.0486715210316</v>
+        <v>145.9821066449064</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1223.4290701159</v>
+        <v>1501.314533790277</v>
       </c>
       <c r="C8">
-        <v>838.0507755320471</v>
+        <v>741.2384271870762</v>
       </c>
       <c r="D8">
-        <v>46.23840682253323</v>
+        <v>56.83470249943597</v>
       </c>
       <c r="E8">
-        <v>0.8675674871578551</v>
+        <v>1.021802570749514</v>
       </c>
       <c r="F8">
-        <v>29.3251169262879</v>
+        <v>25.93745412826426</v>
       </c>
       <c r="G8">
-        <v>45.57418504241797</v>
+        <v>50.27023326238833</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>798.1376818588051</v>
+        <v>933.1709613586801</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.41008643439027</v>
+        <v>22.3609389707181</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>968.8745005644022</v>
+        <v>855.8308353292047</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>406.1166100222832</v>
+        <v>474.4729616682895</v>
       </c>
       <c r="C7">
-        <v>218.1221641376076</v>
+        <v>192.672708208295</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1709.207173119544</v>
+        <v>1996.895890296674</v>
       </c>
       <c r="C8">
-        <v>1107.536626206393</v>
+        <v>978.3145241326341</v>
       </c>
       <c r="D8">
-        <v>63.85101454870438</v>
+        <v>74.65367690869437</v>
       </c>
       <c r="E8">
-        <v>1.552806914751221</v>
+        <v>1.788875117657447</v>
       </c>
       <c r="F8">
-        <v>38.75498002257612</v>
+        <v>34.23323341316821</v>
       </c>
       <c r="G8">
-        <v>62.42387741598908</v>
+        <v>66.71456698765843</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>855.6099344203495</v>
+        <v>909.528336507073</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.97824045553765</v>
+        <v>24.17602281482333</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1255.322423128713</v>
+        <v>1107.971757854374</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>436.5996452362589</v>
+        <v>464.9737048563358</v>
       </c>
       <c r="C7">
-        <v>282.6100216940323</v>
+        <v>249.4370503979231</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1837.499937218318</v>
+        <v>1956.916737802997</v>
       </c>
       <c r="C8">
-        <v>1434.980031472913</v>
+        <v>1266.541024571461</v>
       </c>
       <c r="D8">
-        <v>68.44879475362792</v>
+        <v>72.76226692056581</v>
       </c>
       <c r="E8">
-        <v>1.758259236443011</v>
+        <v>1.934081825185865</v>
       </c>
       <c r="F8">
-        <v>50.21289692514855</v>
+        <v>44.31887031417499</v>
       </c>
       <c r="G8">
-        <v>71.92096669302911</v>
+        <v>71.44107552542587</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.364497030519315E-07</v>
+        <v>3.121085478750846E-07</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.323178689225266E-08</v>
+        <v>7.02648195083078E-08</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.702896053442295E-07</v>
+        <v>3.567764947084296E-07</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>9.457988122077267E-09</v>
+        <v>1.24843419150034E-08</v>
       </c>
       <c r="G8">
-        <v>5.323178689225265E-09</v>
+        <v>7.026481950830778E-09</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>910.4638612343557</v>
+        <v>883.5822709144828</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.66688049982133</v>
+        <v>14.93272454319652</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1595.691870073381</v>
+        <v>1408.080282460502</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>455.356413765877</v>
+        <v>442.6519930671377</v>
       </c>
       <c r="C7">
-        <v>359.2372013036135</v>
+        <v>317.0003115066634</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1916.440819034521</v>
+        <v>1862.972218015168</v>
       </c>
       <c r="C8">
-        <v>1824.062031993347</v>
+        <v>1609.600092226174</v>
       </c>
       <c r="D8">
-        <v>72.83710889874843</v>
+        <v>70.68658167315859</v>
       </c>
       <c r="E8">
-        <v>1.173350439985706</v>
+        <v>1.194617963455721</v>
       </c>
       <c r="F8">
-        <v>63.8276748029353</v>
+        <v>56.32321129842011</v>
       </c>
       <c r="G8">
-        <v>81.45936150694904</v>
+        <v>75.96523045738009</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1000.32798983127</v>
+        <v>932.0307007070596</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.42347845388469</v>
+        <v>9.596423893016526</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1991.148666610971</v>
+        <v>1757.913867440443</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>494.2745219598445</v>
+        <v>460.4057913577433</v>
       </c>
       <c r="C7">
-        <v>448.2661645320363</v>
+        <v>395.7581471183877</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2080.233946544676</v>
+        <v>1937.691938015676</v>
       </c>
       <c r="C8">
-        <v>2276.115302042761</v>
+        <v>2009.500707028883</v>
       </c>
       <c r="D8">
-        <v>80.02623918650153</v>
+        <v>74.56245605656473</v>
       </c>
       <c r="E8">
-        <v>0.8338782763107752</v>
+        <v>0.7677139114413217</v>
       </c>
       <c r="F8">
-        <v>79.64594666443892</v>
+        <v>70.3165546976178</v>
       </c>
       <c r="G8">
-        <v>94.25406864918806</v>
+        <v>85.61639384761308</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1095.027977368283</v>
+        <v>990.0579934050155</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.78217384666313</v>
+        <v>14.86466444865804</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2440.332277820175</v>
+        <v>2157.523101551676</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>546.7552828553484</v>
+        <v>494.0160740724821</v>
       </c>
       <c r="C7">
-        <v>549.3906149278539</v>
+        <v>485.7219462512351</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2301.107682707413</v>
+        <v>2079.146226978286</v>
       </c>
       <c r="C8">
-        <v>2789.584591425486</v>
+        <v>2466.300697833322</v>
       </c>
       <c r="D8">
-        <v>87.60223818946257</v>
+        <v>79.2046394724012</v>
       </c>
       <c r="E8">
-        <v>1.34257390773305</v>
+        <v>1.189173155892642</v>
       </c>
       <c r="F8">
-        <v>97.6132911128071</v>
+        <v>86.3009240620671</v>
       </c>
       <c r="G8">
-        <v>109.6145897783202</v>
+        <v>97.97380203237171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1197.513278250312</v>
+        <v>1041.679358522754</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.18149403929359</v>
+        <v>22.62638628598478</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2939.132343494549</v>
+        <v>2605.253503998009</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>606.2166776690909</v>
+        <v>527.1721351667586</v>
       </c>
       <c r="C7">
-        <v>661.6851894403381</v>
+        <v>586.5192365864705</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2551.360541199868</v>
+        <v>2218.688851082278</v>
       </c>
       <c r="C8">
-        <v>3359.771278727824</v>
+        <v>2978.108800004013</v>
       </c>
       <c r="D8">
-        <v>95.80106226002492</v>
+        <v>83.33434868182025</v>
       </c>
       <c r="E8">
-        <v>2.094519523143486</v>
+        <v>1.810110902878781</v>
       </c>
       <c r="F8">
-        <v>117.5652937397821</v>
+        <v>104.2101401599204</v>
       </c>
       <c r="G8">
-        <v>126.7901867109429</v>
+        <v>111.3691371753229</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1275.8311192996</v>
+        <v>1080.326608750618</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.00990649726682</v>
+        <v>31.54696224082196</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3480.93311075859</v>
+        <v>3098.169538779687</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>655.5165529179388</v>
+        <v>555.2877878617206</v>
       </c>
       <c r="C7">
-        <v>783.6604873950328</v>
+        <v>697.4891425774696</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2758.847007721407</v>
+        <v>2337.018104496784</v>
       </c>
       <c r="C8">
-        <v>3979.112786324622</v>
+        <v>3541.569353302829</v>
       </c>
       <c r="D8">
-        <v>102.066489543968</v>
+        <v>86.42612870004942</v>
       </c>
       <c r="E8">
-        <v>2.960792519781344</v>
+        <v>2.523756979265755</v>
       </c>
       <c r="F8">
-        <v>139.2373244303437</v>
+        <v>123.9267815511876</v>
       </c>
       <c r="G8">
-        <v>143.9177040312971</v>
+        <v>125.277693043919</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1363.126132255604</v>
+        <v>1162.063325218546</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51.22174395086689</v>
+        <v>44.26964933839616</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4057.608544754195</v>
+        <v>3633.130917389956</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>712.7358143776166</v>
+        <v>608.2450947683752</v>
       </c>
       <c r="C7">
-        <v>913.4870991954681</v>
+        <v>817.9246928623992</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2999.663486816211</v>
+        <v>2559.897461312505</v>
       </c>
       <c r="C8">
-        <v>4638.320108027837</v>
+        <v>4153.092641480601</v>
       </c>
       <c r="D8">
-        <v>109.0500905804482</v>
+        <v>92.96506601748364</v>
       </c>
       <c r="E8">
-        <v>4.09773951606935</v>
+        <v>3.541571947071691</v>
       </c>
       <c r="F8">
-        <v>162.3043417901679</v>
+        <v>145.3252366955984</v>
       </c>
       <c r="G8">
-        <v>162.6222913573084</v>
+        <v>142.6169787630774</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1375.789088000543</v>
+        <v>1198.035852381355</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61.35444922348341</v>
+        <v>54.30344317701834</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4661.577643802632</v>
+        <v>4208.776320155939</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>729.5825315617585</v>
+        <v>636.2474313371805</v>
       </c>
       <c r="C7">
-        <v>1049.458318254225</v>
+        <v>947.5194143191383</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3070.565609861786</v>
+        <v>2677.749805556399</v>
       </c>
       <c r="C8">
-        <v>5328.7272741813</v>
+        <v>4811.122517279028</v>
       </c>
       <c r="D8">
-        <v>110.0631270400434</v>
+        <v>95.84286819050831</v>
       </c>
       <c r="E8">
-        <v>4.90835593787867</v>
+        <v>4.344275454161465</v>
       </c>
       <c r="F8">
-        <v>186.4631057521055</v>
+        <v>168.3510528062377</v>
       </c>
       <c r="G8">
-        <v>177.9040849815984</v>
+        <v>158.3766845656318</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1322.866086450988</v>
+        <v>1169.908905450918</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68.86488043292731</v>
+        <v>62.51984498035123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5289.174619546184</v>
+        <v>4828.628252394769</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>711.9693482194286</v>
+        <v>631.3602446286453</v>
       </c>
       <c r="C7">
-        <v>1190.748867727512</v>
+        <v>1087.066326562211</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2996.437690522244</v>
+        <v>2657.18129303448</v>
       </c>
       <c r="C8">
-        <v>6046.143860877964</v>
+        <v>5519.68561536799</v>
       </c>
       <c r="D8">
-        <v>105.829286916079</v>
+        <v>93.59271243607343</v>
       </c>
       <c r="E8">
-        <v>5.509190434634182</v>
+        <v>5.001587598428096</v>
       </c>
       <c r="F8">
-        <v>211.5669847818475</v>
+        <v>193.1451300957909</v>
       </c>
       <c r="G8">
-        <v>190.271821594694</v>
+        <v>171.8426571190856</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1324.203326982158</v>
+        <v>1191.936452112963</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99.33992558056009</v>
+        <v>92.53081854843066</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5945.396870530536</v>
+        <v>5505.373917178341</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>744.8853413103799</v>
+        <v>673.7798781448336</v>
       </c>
       <c r="C7">
-        <v>1338.483809101836</v>
+        <v>1239.421692388587</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3134.969949762565</v>
+        <v>2835.711153911121</v>
       </c>
       <c r="C8">
-        <v>6796.282477874691</v>
+        <v>6293.284889512967</v>
       </c>
       <c r="D8">
-        <v>105.9362661585726</v>
+        <v>95.35491616903695</v>
       </c>
       <c r="E8">
-        <v>7.947194046444803</v>
+        <v>7.402465483874449</v>
       </c>
       <c r="F8">
-        <v>237.8158748212217</v>
+        <v>220.2149566871338</v>
       </c>
       <c r="G8">
-        <v>208.3369150412216</v>
+        <v>191.320157053342</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1301.860825432705</v>
+        <v>1199.872572191219</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>159.6111765954857</v>
+        <v>152.8585356465747</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6649.720480209932</v>
+        <v>6266.055104105486</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>797.9133345849436</v>
+        <v>741.494619397414</v>
       </c>
       <c r="C7">
-        <v>1497.047781945572</v>
+        <v>1410.673414479175</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3358.14680154424</v>
+        <v>3120.699550392845</v>
       </c>
       <c r="C8">
-        <v>7601.406561507209</v>
+        <v>7162.832261125277</v>
       </c>
       <c r="D8">
-        <v>104.1488660346163</v>
+        <v>95.98980577529746</v>
       </c>
       <c r="E8">
-        <v>12.76889412763885</v>
+        <v>12.22868285172597</v>
       </c>
       <c r="F8">
-        <v>265.9888192083975</v>
+        <v>250.6422041642197</v>
       </c>
       <c r="G8">
-        <v>229.4961116530515</v>
+        <v>215.2168033876589</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.447948053927125E-05</v>
+        <v>1.909867334425444E-05</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.259757201757716E-06</v>
+        <v>4.299673445404202E-06</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.655173607762799E-05</v>
+        <v>2.183201253453518E-05</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5.791792215708507E-07</v>
+        <v>7.639469337701783E-07</v>
       </c>
       <c r="G8">
-        <v>3.259757201757715E-07</v>
+        <v>4.299673445404201E-07</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1292.801574581076</v>
+        <v>1232.270365615798</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>223.7670987838447</v>
+        <v>224.0669282245248</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7442.107444481594</v>
+        <v>7157.392828363732</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>861.4716580337533</v>
+        <v>832.5478116206095</v>
       </c>
       <c r="C7">
-        <v>1675.437407620188</v>
+        <v>1611.339768356218</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3625.642244156637</v>
+        <v>3503.911577290191</v>
       </c>
       <c r="C8">
-        <v>8507.197336832734</v>
+        <v>8181.735303119253</v>
       </c>
       <c r="D8">
-        <v>103.424125966486</v>
+        <v>98.58162924926383</v>
       </c>
       <c r="E8">
-        <v>17.90136790270757</v>
+        <v>17.92535425796197</v>
       </c>
       <c r="F8">
-        <v>297.684297779264</v>
+        <v>286.2957131345495</v>
       </c>
       <c r="G8">
-        <v>253.690906565394</v>
+        <v>244.3887579976827</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1279.928876116193</v>
+        <v>1291.957794637884</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>288.1973833680826</v>
+        <v>300.7277184780925</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8387.78111442511</v>
+        <v>8249.979198557125</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>923.4783084234252</v>
+        <v>942.5575840533043</v>
       </c>
       <c r="C7">
-        <v>1888.336381982577</v>
+        <v>1857.313115198361</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3886.607220746313</v>
+        <v>3966.905425645454</v>
       </c>
       <c r="C8">
-        <v>9588.21270599699</v>
+        <v>9430.68903404949</v>
       </c>
       <c r="D8">
-        <v>102.3943100892954</v>
+        <v>103.3566235710307</v>
       </c>
       <c r="E8">
-        <v>23.0557906694466</v>
+        <v>24.05821747824739</v>
       </c>
       <c r="F8">
-        <v>335.5112445770047</v>
+        <v>329.9991679422853</v>
       </c>
       <c r="G8">
-        <v>281.1814690406001</v>
+        <v>279.9870699251665</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1223.5914919155</v>
+        <v>1284.593111163927</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>298.2877850097626</v>
+        <v>314.2475515318048</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9579.013099867225</v>
+        <v>9639.755222861946</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>906.9476382804454</v>
+        <v>953.3160029124981</v>
       </c>
       <c r="C7">
-        <v>2156.517759966217</v>
+        <v>2170.192599498276</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3817.035232584332</v>
+        <v>4012.183964448755</v>
       </c>
       <c r="C8">
-        <v>10949.92988754852</v>
+        <v>11019.36522301353</v>
       </c>
       <c r="D8">
-        <v>97.88731935323999</v>
+        <v>102.7674488931141</v>
       </c>
       <c r="E8">
-        <v>23.86302280078099</v>
+        <v>25.13980412254437</v>
       </c>
       <c r="F8">
-        <v>383.1605239946894</v>
+        <v>385.5902089144782</v>
       </c>
       <c r="G8">
-        <v>306.3465398246663</v>
+        <v>312.3508602410773</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1150.387754500646</v>
+        <v>1203.446457989871</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>261.7935168086875</v>
+        <v>272.5077140412063</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11132.21639371477</v>
+        <v>11445.19121862205</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>832.9407234428143</v>
+        <v>869.9175058516132</v>
       </c>
       <c r="C7">
-        <v>2506.189532318913</v>
+        <v>2576.649376281775</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3505.56520998667</v>
+        <v>3661.187955208865</v>
       </c>
       <c r="C8">
-        <v>12725.42251830563</v>
+        <v>13083.18926876032</v>
       </c>
       <c r="D8">
-        <v>92.03102036005163</v>
+        <v>96.27571663918964</v>
       </c>
       <c r="E8">
-        <v>20.94348134469499</v>
+        <v>21.80061712329649</v>
       </c>
       <c r="F8">
-        <v>445.2886557485912</v>
+        <v>457.8076487448822</v>
       </c>
       <c r="G8">
-        <v>333.9130255761726</v>
+        <v>344.6566882133388</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1045.919211973548</v>
+        <v>1083.897635937725</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>256.4998283681504</v>
+        <v>264.0348636674737</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13179.30748140754</v>
+        <v>13799.12187307437</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>776.8687170546274</v>
+        <v>803.1941261692243</v>
       </c>
       <c r="C7">
-        <v>2967.049982226765</v>
+        <v>3106.588442982258</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3269.577138667362</v>
+        <v>3380.371863590105</v>
       </c>
       <c r="C8">
-        <v>15065.48653637989</v>
+        <v>15774.00672121389</v>
       </c>
       <c r="D8">
-        <v>83.6735369578838</v>
+        <v>86.71181087501799</v>
       </c>
       <c r="E8">
-        <v>20.51998626945202</v>
+        <v>21.12278909339788</v>
       </c>
       <c r="F8">
-        <v>527.172299256302</v>
+        <v>551.9648749229752</v>
       </c>
       <c r="G8">
-        <v>374.3918699281392</v>
+        <v>390.9782569151481</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1030.346688693053</v>
+        <v>1072.909095402176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>235.83700403879</v>
+        <v>243.7166254102296</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15853.54908847011</v>
+        <v>16835.25520395119</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>747.4661152980105</v>
+        <v>776.3708305872715</v>
       </c>
       <c r="C7">
-        <v>3569.100471138923</v>
+        <v>3790.111409429815</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3145.831552816961</v>
+        <v>3267.481703266783</v>
       </c>
       <c r="C8">
-        <v>18122.45678941212</v>
+        <v>19244.6614489761</v>
       </c>
       <c r="D8">
-        <v>82.42773509544421</v>
+        <v>85.83272763217407</v>
       </c>
       <c r="E8">
-        <v>18.86696032310319</v>
+        <v>19.49733003281835</v>
       </c>
       <c r="F8">
-        <v>634.1419635388048</v>
+        <v>673.4102081580482</v>
       </c>
       <c r="G8">
-        <v>431.6566586436932</v>
+        <v>456.6482240017085</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1187.063757443237</v>
+        <v>1251.123719405516</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>204.6236862472257</v>
+        <v>213.9763763153585</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19271.5525441774</v>
+        <v>20670.68464717029</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>790.1210304899063</v>
+        <v>830.9705873077845</v>
       </c>
       <c r="C7">
-        <v>4338.593641156705</v>
+        <v>4653.579454119511</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3325.351634526482</v>
+        <v>3497.273574700365</v>
       </c>
       <c r="C8">
-        <v>22029.63363583613</v>
+        <v>23629.00491463756</v>
       </c>
       <c r="D8">
-        <v>94.96510059545894</v>
+        <v>100.0898975524412</v>
       </c>
       <c r="E8">
-        <v>16.36989489977805</v>
+        <v>17.11811010522867</v>
       </c>
       <c r="F8">
-        <v>770.8621017670969</v>
+        <v>826.8273858868124</v>
       </c>
       <c r="G8">
-        <v>512.871467164661</v>
+        <v>548.4550041427294</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1600.417891109342</v>
+        <v>1712.956388523141</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>174.2580019726064</v>
+        <v>184.8100810071211</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23514.18133742881</v>
+        <v>25386.75230732321</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>957.6493946186213</v>
+        <v>1023.187929591012</v>
       </c>
       <c r="C7">
-        <v>5293.734243450853</v>
+        <v>5715.305078700091</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4030.421741494209</v>
+        <v>4306.251223288638</v>
       </c>
       <c r="C8">
-        <v>26879.45348060087</v>
+        <v>29020.02063674001</v>
       </c>
       <c r="D8">
-        <v>128.0334312887473</v>
+        <v>137.0365110818512</v>
       </c>
       <c r="E8">
-        <v>13.9406401578085</v>
+        <v>14.78480648056968</v>
       </c>
       <c r="F8">
-        <v>940.5672534971534</v>
+        <v>1015.470092292929</v>
       </c>
       <c r="G8">
-        <v>625.1383638069473</v>
+        <v>673.8493008291101</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2444.497109616637</v>
+        <v>2667.877656076265</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>193.6641816824763</v>
+        <v>210.8381329826022</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28609.21696660943</v>
+        <v>31010.85864206125</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1385.955243966358</v>
+        <v>1512.051103122799</v>
       </c>
       <c r="C7">
-        <v>6440.776710919757</v>
+        <v>6981.456932586711</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5833.015902698409</v>
+        <v>6363.710638279487</v>
       </c>
       <c r="C8">
-        <v>32703.67381858775</v>
+        <v>35449.03053613691</v>
       </c>
       <c r="D8">
-        <v>195.5597687693308</v>
+        <v>213.4302124861011</v>
       </c>
       <c r="E8">
-        <v>15.4931345345981</v>
+        <v>16.86705063860817</v>
       </c>
       <c r="F8">
-        <v>1144.368678664378</v>
+        <v>1240.434345682451</v>
       </c>
       <c r="G8">
-        <v>782.6731954886113</v>
+        <v>849.3508035709508</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3725.440169627375</v>
+        <v>4095.545536174373</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>300.099638549846</v>
+        <v>328.7581638517623</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34517.81490596954</v>
+        <v>37501.26463356276</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2117.455925653034</v>
+        <v>2326.592421039596</v>
       </c>
       <c r="C7">
-        <v>7770.975997619393</v>
+        <v>8442.638334484798</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8911.654356348703</v>
+        <v>9791.83898621691</v>
       </c>
       <c r="C8">
-        <v>39457.89082353198</v>
+        <v>42868.32204432489</v>
       </c>
       <c r="D8">
-        <v>298.0352135701899</v>
+        <v>327.6436428939496</v>
       </c>
       <c r="E8">
-        <v>24.00797108398767</v>
+        <v>26.30065310814097</v>
       </c>
       <c r="F8">
-        <v>1380.712596238783</v>
+        <v>1500.050585342512</v>
       </c>
       <c r="G8">
-        <v>988.8431923272424</v>
+        <v>1076.923075552439</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001594769575133833</v>
+        <v>0.0002095100189919424</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.590295655695012E-05</v>
+        <v>4.716687117311135E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.000182300774124143</v>
+        <v>0.0002394944024799932</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.379078300535339E-06</v>
+        <v>8.380400759677704E-06</v>
       </c>
       <c r="G8">
-        <v>3.590295655695011E-06</v>
+        <v>4.716687117311134E-06</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5248.91421759875</v>
+        <v>5768.387401390477</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>428.0980658676212</v>
+        <v>468.433496484823</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>41125.61696948209</v>
+        <v>44736.11043998337</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2988.951165031684</v>
+        <v>3282.608731657184</v>
       </c>
       <c r="C7">
-        <v>9258.586710303747</v>
+        <v>10071.41504764948</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12579.48245725744</v>
+        <v>13815.38763062524</v>
       </c>
       <c r="C8">
-        <v>47011.37974268418</v>
+        <v>51138.59514047801</v>
       </c>
       <c r="D8">
-        <v>419.9131374078998</v>
+        <v>461.4709921112379</v>
       </c>
       <c r="E8">
-        <v>34.24784526940968</v>
+        <v>37.47467971878582</v>
       </c>
       <c r="F8">
-        <v>1645.024678779285</v>
+        <v>1789.444417599336</v>
       </c>
       <c r="G8">
-        <v>1224.753787533543</v>
+        <v>1335.402377930666</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7383.114147176774</v>
+        <v>8113.707644663092</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>598.5939752522285</v>
+        <v>654.9305298015215</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>48238.79684667182</v>
+        <v>52507.53663422288</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4200.475596931657</v>
+        <v>4613.064459893511</v>
       </c>
       <c r="C7">
-        <v>10859.97284215971</v>
+        <v>11820.99179771953</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17678.37818895231</v>
+        <v>19414.82488115961</v>
       </c>
       <c r="C8">
-        <v>55142.57448275905</v>
+        <v>60022.2422412801</v>
       </c>
       <c r="D8">
-        <v>590.6491317741417</v>
+        <v>649.096611573047</v>
       </c>
       <c r="E8">
-        <v>47.88751802017826</v>
+        <v>52.3944423841217</v>
       </c>
       <c r="F8">
-        <v>1929.551873866875</v>
+        <v>2100.301465368917</v>
       </c>
       <c r="G8">
-        <v>1506.044843909136</v>
+        <v>1643.405625761304</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10530.39597331306</v>
+        <v>11556.06105837128</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>852.2588678278539</v>
+        <v>932.3816853580038</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55585.77810395524</v>
+        <v>60522.31186579198</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5989.465847295505</v>
+        <v>6569.784753289784</v>
       </c>
       <c r="C7">
-        <v>12513.99454546965</v>
+        <v>13625.35357787575</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25207.63183951106</v>
+        <v>27649.99743684006</v>
       </c>
       <c r="C8">
-        <v>63541.03148596552</v>
+        <v>69184.06569168945</v>
       </c>
       <c r="D8">
-        <v>842.4316778650442</v>
+        <v>924.4848846697021</v>
       </c>
       <c r="E8">
-        <v>68.18070942622828</v>
+        <v>74.59053482864026</v>
       </c>
       <c r="F8">
-        <v>2223.431124158211</v>
+        <v>2420.892474631681</v>
       </c>
       <c r="G8">
-        <v>1850.346039276515</v>
+        <v>2019.513833116553</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12750.10721010306</v>
+        <v>13954.83399353588</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1029.500648788249</v>
+        <v>1125.957271301869</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62826.44559634323</v>
+        <v>68411.29588819171</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7249.442165222155</v>
+        <v>7933.557810186599</v>
       </c>
       <c r="C7">
-        <v>14144.08189147831</v>
+        <v>15401.39605480174</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30510.44513848648</v>
+        <v>33389.65603200884</v>
       </c>
       <c r="C8">
-        <v>71817.95944859656</v>
+        <v>78202.09510961195</v>
       </c>
       <c r="D8">
-        <v>1020.008576808245</v>
+        <v>1116.38671948287</v>
       </c>
       <c r="E8">
-        <v>82.3600519030599</v>
+        <v>90.07658170414946</v>
       </c>
       <c r="F8">
-        <v>2513.057823853731</v>
+        <v>2736.451835527671</v>
       </c>
       <c r="G8">
-        <v>2139.352405670046</v>
+        <v>2333.495386498834</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13102.97347548289</v>
+        <v>14280.65464609804</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1051.627762999862</v>
+        <v>1149.42145489004</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69571.2269596168</v>
+        <v>75750.32648386361</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7443.334712711429</v>
+        <v>8115.801020849121</v>
       </c>
       <c r="C7">
-        <v>15662.53067585154</v>
+        <v>17053.62783019427</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31326.47315803708</v>
+        <v>34156.65594097496</v>
       </c>
       <c r="C8">
-        <v>79528.03169348298</v>
+        <v>86591.46357871809</v>
       </c>
       <c r="D8">
-        <v>1048.237878038631</v>
+        <v>1142.452371687842</v>
       </c>
       <c r="E8">
-        <v>84.1302210399889</v>
+        <v>91.95371639120317</v>
       </c>
       <c r="F8">
-        <v>2782.849078384675</v>
+        <v>3030.013059354547</v>
       </c>
       <c r="G8">
-        <v>2310.586538856296</v>
+        <v>2516.942885104339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13051.17480217122</v>
+        <v>14154.14956599173</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1039.509734714527</v>
+        <v>1135.045831221638</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75411.40524751027</v>
+        <v>82093.76579630535</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7405.480108428279</v>
+        <v>8039.466779438741</v>
       </c>
       <c r="C7">
-        <v>16977.32668540976</v>
+        <v>18481.7227073939</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31167.15595805156</v>
+        <v>33835.39098959535</v>
       </c>
       <c r="C8">
-        <v>86204.0370519163</v>
+        <v>93842.75502106082</v>
       </c>
       <c r="D8">
-        <v>1044.093984173697</v>
+        <v>1132.331965279338</v>
       </c>
       <c r="E8">
-        <v>83.16077877716215</v>
+        <v>90.80366649773099</v>
       </c>
       <c r="F8">
-        <v>3016.456209900413</v>
+        <v>3283.750631852217</v>
       </c>
       <c r="G8">
-        <v>2438.280679383804</v>
+        <v>2652.118948683263</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12836.94474190334</v>
+        <v>13860.9348537514</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1014.300872901413</v>
+        <v>1106.138647103608</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79959.27423223079</v>
+        <v>87018.88235894236</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7275.296493657472</v>
+        <v>7867.211214000056</v>
       </c>
       <c r="C7">
-        <v>18001.18583804891</v>
+        <v>19590.51139225097</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30619.25724448581</v>
+        <v>33110.42569442703</v>
       </c>
       <c r="C8">
-        <v>91402.78205844903</v>
+        <v>99472.73803566038</v>
       </c>
       <c r="D8">
-        <v>1026.955579352267</v>
+        <v>1108.874788300112</v>
       </c>
       <c r="E8">
-        <v>81.144069832113</v>
+        <v>88.49109176828864</v>
       </c>
       <c r="F8">
-        <v>3198.370969289234</v>
+        <v>3480.755294357697</v>
       </c>
       <c r="G8">
-        <v>2527.648233170637</v>
+        <v>2745.772260625102</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12444.86865250156</v>
+        <v>13383.22319633638</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>978.3419479932872</v>
+        <v>1065.061240636981</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>82893.1578925401</v>
+        <v>90175.41181089915</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7047.81602357041</v>
+        <v>7592.942072120871</v>
       </c>
       <c r="C7">
-        <v>18661.68939443504</v>
+        <v>20301.13906882191</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29661.86904212669</v>
+        <v>31956.11982981458</v>
       </c>
       <c r="C8">
-        <v>94756.55347975092</v>
+        <v>103081.019580592</v>
       </c>
       <c r="D8">
-        <v>995.5894922001241</v>
+        <v>1070.65785570691</v>
       </c>
       <c r="E8">
-        <v>78.26735583946294</v>
+        <v>85.20489925095841</v>
       </c>
       <c r="F8">
-        <v>3315.726315701607</v>
+        <v>3607.016472435969</v>
       </c>
       <c r="G8">
-        <v>2570.950541800545</v>
+        <v>2789.408114094278</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12104.27870757196</v>
+        <v>12966.51340577194</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>951.2943119654209</v>
+        <v>1033.200327789913</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83999.38918349682</v>
+        <v>91331.57818312108</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6854.64356798317</v>
+        <v>7357.900968248664</v>
       </c>
       <c r="C7">
-        <v>18910.73461451222</v>
+        <v>20561.42614528566</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28848.87164534277</v>
+        <v>30966.91148225581</v>
       </c>
       <c r="C8">
-        <v>96021.10494753796</v>
+        <v>104402.6526739163</v>
       </c>
       <c r="D8">
-        <v>968.3422966057562</v>
+        <v>1037.321072461755</v>
       </c>
       <c r="E8">
-        <v>76.10354495723364</v>
+        <v>82.65602622319304</v>
       </c>
       <c r="F8">
-        <v>3359.975567339876</v>
+        <v>3653.263127324846</v>
       </c>
       <c r="G8">
-        <v>2576.537818249538</v>
+        <v>2791.932711353431</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11785.94637440313</v>
+        <v>12586.49078054358</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>929.5134321070174</v>
+        <v>1006.915461727226</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83202.5166880711</v>
+        <v>90407.06326597715</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6677.800253611332</v>
+        <v>7146.487122639837</v>
       </c>
       <c r="C7">
-        <v>18731.33516376525</v>
+        <v>20353.29062888238</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28104.59806976556</v>
+        <v>30077.14225712718</v>
       </c>
       <c r="C8">
-        <v>95110.18668662144</v>
+        <v>103345.8242285246</v>
       </c>
       <c r="D8">
-        <v>942.8757099522498</v>
+        <v>1006.919262443486</v>
       </c>
       <c r="E8">
-        <v>74.36107456856135</v>
+        <v>80.55323693817805</v>
       </c>
       <c r="F8">
-        <v>3328.100667522847</v>
+        <v>3616.282530639089</v>
       </c>
       <c r="G8">
-        <v>2540.913541737658</v>
+        <v>2749.977775152222</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0008894768921749529</v>
+        <v>0.001155467972064247</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0002002474258106433</v>
+        <v>0.0002601298460342681</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001016775893755202</v>
+        <v>0.001320834740437588</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.557907568699814E-05</v>
+        <v>4.621871888256992E-05</v>
       </c>
       <c r="G8">
-        <v>2.002474258106433E-05</v>
+        <v>2.60129846034268E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10890.66613549176</v>
+        <v>11598.63994741095</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>862.642683000873</v>
+        <v>931.6226425568271</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80577.02631994461</v>
+        <v>87485.66829171147</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6174.500089481622</v>
+        <v>6589.549956318004</v>
       </c>
       <c r="C7">
-        <v>18140.2600134908</v>
+        <v>19695.59864326778</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25986.37825424129</v>
+        <v>27733.18247768866</v>
       </c>
       <c r="C8">
-        <v>92108.94478918449</v>
+        <v>100006.328832857</v>
       </c>
       <c r="D8">
-        <v>871.2532908393406</v>
+        <v>927.8911957928755</v>
       </c>
       <c r="E8">
-        <v>69.0114146400698</v>
+        <v>74.52981140454614</v>
       </c>
       <c r="F8">
-        <v>3223.081052797787</v>
+        <v>3499.426731668462</v>
       </c>
       <c r="G8">
-        <v>2431.476010297241</v>
+        <v>2628.514859958577</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8757.299029041646</v>
+        <v>9279.65278875765</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>696.2498028186228</v>
+        <v>748.0726437544155</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76338.38903917247</v>
+        <v>82805.35259781282</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4967.722670978063</v>
+        <v>5274.935791892079</v>
       </c>
       <c r="C7">
-        <v>17186.01801812629</v>
+        <v>18641.9218384745</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20907.46109310426</v>
+        <v>22200.41700030999</v>
       </c>
       <c r="C8">
-        <v>87263.6877090112</v>
+        <v>94656.18178060032</v>
       </c>
       <c r="D8">
-        <v>700.5839223233313</v>
+        <v>742.3722231006117</v>
       </c>
       <c r="E8">
-        <v>55.6999842254898</v>
+        <v>59.84581150035321</v>
       </c>
       <c r="F8">
-        <v>3053.535561566901</v>
+        <v>3312.214103912515</v>
       </c>
       <c r="G8">
-        <v>2215.374068910435</v>
+        <v>2391.685763036657</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5379.177480988734</v>
+        <v>5612.017279122676</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>433.4016906389047</v>
+        <v>459.1932809966113</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>70816.75033624785</v>
+        <v>76729.31524238035</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3057.494572288905</v>
+        <v>3197.285205153893</v>
       </c>
       <c r="C7">
-        <v>15942.93464379216</v>
+        <v>17274.02701146044</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12867.95842810647</v>
+        <v>13456.28982488102</v>
       </c>
       <c r="C8">
-        <v>80951.81027121574</v>
+        <v>87710.56198214392</v>
       </c>
       <c r="D8">
-        <v>430.3341984790985</v>
+        <v>448.9613823298138</v>
       </c>
       <c r="E8">
-        <v>34.67213525111236</v>
+        <v>36.73546247972889</v>
       </c>
       <c r="F8">
-        <v>2832.670013449916</v>
+        <v>3069.172609695217</v>
       </c>
       <c r="G8">
-        <v>1900.042921608106</v>
+        <v>2047.131221661433</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2997.735648690604</v>
+        <v>3038.226395780845</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>268.5839403913361</v>
+        <v>276.9246083364244</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>64420.75176287002</v>
+        <v>69706.31097906768</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1732.545450431802</v>
+        <v>1760.937593004705</v>
       </c>
       <c r="C7">
-        <v>14503.00713013221</v>
+        <v>15692.94206416434</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7291.696617558152</v>
+        <v>7411.189523162717</v>
       </c>
       <c r="C8">
-        <v>73640.43745971826</v>
+        <v>79682.44849263485</v>
       </c>
       <c r="D8">
-        <v>239.8188518952482</v>
+        <v>243.0581116624675</v>
       </c>
       <c r="E8">
-        <v>21.48671523130687</v>
+        <v>22.15396866691394</v>
       </c>
       <c r="F8">
-        <v>2576.830070514803</v>
+        <v>2788.25243916271</v>
       </c>
       <c r="G8">
-        <v>1623.555258056401</v>
+        <v>1745.387965716904</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2603.954122449438</v>
+        <v>2643.586053878495</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>285.7676537801329</v>
+        <v>293.8776549797647</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>57599.77895756139</v>
+        <v>62229.25336108238</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1560.513817015123</v>
+        <v>1588.246831234998</v>
       </c>
       <c r="C7">
-        <v>12967.40540983615</v>
+        <v>14009.63634390183</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6567.673776376831</v>
+        <v>6684.392634131102</v>
       </c>
       <c r="C8">
-        <v>65843.26950469795</v>
+        <v>71135.29902864316</v>
       </c>
       <c r="D8">
-        <v>208.3163297959549</v>
+        <v>211.4868843102795</v>
       </c>
       <c r="E8">
-        <v>22.86141230241062</v>
+        <v>23.51021239838116</v>
       </c>
       <c r="F8">
-        <v>2303.991158302458</v>
+        <v>2489.170134443298</v>
       </c>
       <c r="G8">
-        <v>1452.791922685127</v>
+        <v>1559.788317513682</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2453.421247811631</v>
+        <v>2523.991105807144</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>326.6632838135425</v>
+        <v>339.0372342134371</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50809.94829008469</v>
+        <v>54797.90351042413</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1531.098946675666</v>
+        <v>1578.292505500941</v>
       </c>
       <c r="C7">
-        <v>11438.81470128186</v>
+        <v>12336.6207872482</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6443.876556219244</v>
+        <v>6642.498250773363</v>
       </c>
       <c r="C8">
-        <v>58081.70064764865</v>
+        <v>62640.39887701064</v>
       </c>
       <c r="D8">
-        <v>196.2736998249304</v>
+        <v>201.9192884645714</v>
       </c>
       <c r="E8">
-        <v>26.13306270508339</v>
+        <v>27.12297873707496</v>
       </c>
       <c r="F8">
-        <v>2032.397931603389</v>
+        <v>2191.916140416967</v>
       </c>
       <c r="G8">
-        <v>1296.991364795753</v>
+        <v>1391.491329274913</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2132.54585500188</v>
+        <v>2222.162394015927</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>340.2690134727382</v>
+        <v>356.4724188956631</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>44484.35619858333</v>
+        <v>47886.22586983663</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1390.497986720187</v>
+        <v>1450.94759760281</v>
       </c>
       <c r="C7">
-        <v>10014.73775876118</v>
+        <v>10780.59873907969</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5852.134767351727</v>
+        <v>6106.546692358182</v>
       </c>
       <c r="C8">
-        <v>50850.81066169265</v>
+        <v>54739.54470959972</v>
       </c>
       <c r="D8">
-        <v>170.6036684001503</v>
+        <v>177.7729915212741</v>
       </c>
       <c r="E8">
-        <v>27.22152107781904</v>
+        <v>28.51779351165304</v>
       </c>
       <c r="F8">
-        <v>1779.374247943335</v>
+        <v>1915.449034793467</v>
       </c>
       <c r="G8">
-        <v>1140.523574548136</v>
+        <v>1223.15463366825</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1631.993680756875</v>
+        <v>1712.807815613562</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>313.3780497235444</v>
+        <v>328.9705395777671</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>39005.03914847369</v>
+        <v>41911.64223658812</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1120.217091231182</v>
+        <v>1175.767550469356</v>
       </c>
       <c r="C7">
-        <v>8781.182234005613</v>
+        <v>9435.54413072108</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4714.614080124399</v>
+        <v>4948.407136248752</v>
       </c>
       <c r="C8">
-        <v>44587.31181219412</v>
+        <v>47909.8983557104</v>
       </c>
       <c r="D8">
-        <v>130.55949446055</v>
+        <v>137.0246252490849</v>
       </c>
       <c r="E8">
-        <v>25.07024397788354</v>
+        <v>26.31764316622136</v>
       </c>
       <c r="F8">
-        <v>1560.201565938949</v>
+        <v>1676.465689463526</v>
       </c>
       <c r="G8">
-        <v>990.1399325236792</v>
+        <v>1061.131168119043</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1265.342751470073</v>
+        <v>1327.219428844946</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>274.0136745120753</v>
+        <v>285.9631219068041</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34675.26207060033</v>
+        <v>37204.69644137033</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>901.4129449492145</v>
+        <v>943.9575078033963</v>
       </c>
       <c r="C7">
-        <v>7806.421988061492</v>
+        <v>8375.872106394674</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3793.741584136321</v>
+        <v>3972.797230256318</v>
       </c>
       <c r="C8">
-        <v>39637.87130750526</v>
+        <v>42529.30998979195</v>
       </c>
       <c r="D8">
-        <v>101.2274201176058</v>
+        <v>106.1775543075956</v>
       </c>
       <c r="E8">
-        <v>21.92109396096602</v>
+        <v>22.87704975254432</v>
       </c>
       <c r="F8">
-        <v>1387.010482824014</v>
+        <v>1488.187857654814</v>
       </c>
       <c r="G8">
-        <v>870.7834933010705</v>
+        <v>931.9829614198068</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1208.75362636174</v>
+        <v>1267.973608028662</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>251.9508816900446</v>
+        <v>261.690672291481</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31695.35374447852</v>
+        <v>33982.66511267544</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>850.7136724663759</v>
+        <v>889.635038511115</v>
       </c>
       <c r="C7">
-        <v>7135.556924891053</v>
+        <v>7650.498029644075</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3580.365528931745</v>
+        <v>3744.172367631667</v>
       </c>
       <c r="C8">
-        <v>36231.48832189183</v>
+        <v>38846.15215538175</v>
       </c>
       <c r="D8">
-        <v>96.70029010893913</v>
+        <v>101.4378886422929</v>
       </c>
       <c r="E8">
-        <v>20.15607053520356</v>
+        <v>20.93525378331847</v>
       </c>
       <c r="F8">
-        <v>1267.814149779142</v>
+        <v>1359.306604507019</v>
       </c>
       <c r="G8">
-        <v>798.6270597357427</v>
+        <v>854.0133068155188</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.00353267570498542</v>
+        <v>0.004485588116110603</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0007953092681445268</v>
+        <v>0.00100983789618369</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004038260610121994</v>
+        <v>0.005127550705250917</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -15518,10 +15518,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0001413070281994169</v>
+        <v>0.0001794235246444243</v>
       </c>
       <c r="G8">
-        <v>7.953092681445266E-05</v>
+        <v>0.000100983789618369</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1305.621167794187</v>
+        <v>1378.682903388795</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>235.0119634231978</v>
+        <v>244.8098854972772</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30149.35884836886</v>
+        <v>32335.06856407207</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>879.5717080929929</v>
+        <v>925.24128550402</v>
       </c>
       <c r="C7">
-        <v>6787.507975012926</v>
+        <v>7279.575557644171</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3701.819220501875</v>
+        <v>3894.026993781532</v>
       </c>
       <c r="C8">
-        <v>34464.23573100194</v>
+        <v>36962.75701831654</v>
       </c>
       <c r="D8">
-        <v>104.4496934235349</v>
+        <v>110.2946322711036</v>
       </c>
       <c r="E8">
-        <v>18.80095707385581</v>
+        <v>19.58479083978217</v>
       </c>
       <c r="F8">
-        <v>1205.974353934756</v>
+        <v>1293.402742562884</v>
       </c>
       <c r="G8">
-        <v>766.7079683105917</v>
+        <v>820.4816843148188</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1604.310411720639</v>
+        <v>1715.373139277741</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>220.4279106259926</v>
+        <v>232.2749163227636</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30009.20019280163</v>
+        <v>32228.39436696127</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1008.419067301827</v>
+        <v>1074.615886141259</v>
       </c>
       <c r="C7">
-        <v>6755.954136763355</v>
+        <v>7255.560056443659</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4244.09408728254</v>
+        <v>4522.694062771954</v>
       </c>
       <c r="C8">
-        <v>34304.01803053595</v>
+        <v>36840.81596165487</v>
       </c>
       <c r="D8">
-        <v>128.3448329376511</v>
+        <v>137.2298511422192</v>
       </c>
       <c r="E8">
-        <v>17.6342328500794</v>
+        <v>18.58199330582108</v>
       </c>
       <c r="F8">
-        <v>1200.368007712066</v>
+        <v>1289.135774678452</v>
       </c>
       <c r="G8">
-        <v>776.437320406518</v>
+        <v>833.0175942584916</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2194.354368384636</v>
+        <v>2375.966122642024</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>224.1323240923646</v>
+        <v>240.0881915964802</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31157.08480435956</v>
+        <v>33530.8193022854</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1297.37931410465</v>
+        <v>1402.007732972181</v>
       </c>
       <c r="C7">
-        <v>7014.376745168694</v>
+        <v>7548.774239863897</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5460.229833502525</v>
+        <v>5900.57538851621</v>
       </c>
       <c r="C8">
-        <v>35616.18410490215</v>
+        <v>38329.63966164457</v>
       </c>
       <c r="D8">
-        <v>175.5483494707708</v>
+        <v>190.0772898113618</v>
       </c>
       <c r="E8">
-        <v>17.93058592738916</v>
+        <v>19.20705532771841</v>
       </c>
       <c r="F8">
-        <v>1246.283392174383</v>
+        <v>1341.232772091417</v>
       </c>
       <c r="G8">
-        <v>831.1756059273345</v>
+        <v>895.0781972836077</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3152.406913110221</v>
+        <v>3444.24791155814</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>268.5709026679501</v>
+        <v>291.8027526944858</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>33418.97624470514</v>
+        <v>36049.05692834232</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1807.250032594392</v>
+        <v>1972.832379518333</v>
       </c>
       <c r="C7">
-        <v>7523.595076051699</v>
+        <v>8115.703641440996</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7606.102885477583</v>
+        <v>8302.98286556222</v>
       </c>
       <c r="C8">
-        <v>38201.78999423678</v>
+        <v>41208.27915801315</v>
       </c>
       <c r="D8">
-        <v>252.1925530488175</v>
+        <v>275.539832924651</v>
       </c>
       <c r="E8">
-        <v>21.485672213436</v>
+        <v>23.34422021555886</v>
       </c>
       <c r="F8">
-        <v>1336.759049788207</v>
+        <v>1441.962277133694</v>
       </c>
       <c r="G8">
-        <v>933.084510864609</v>
+        <v>1008.853602095933</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4507.945707325138</v>
+        <v>4946.05641296995</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>365.871738989752</v>
+        <v>399.9799067614449</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>36597.33079600813</v>
+        <v>39564.3963277767</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2565.113679584824</v>
+        <v>2812.872725352274</v>
       </c>
       <c r="C7">
-        <v>8239.136224800035</v>
+        <v>8907.109996997007</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10795.69412532248</v>
+        <v>11838.42798003418</v>
       </c>
       <c r="C8">
-        <v>41835.02017480944</v>
+        <v>45226.72234766459</v>
       </c>
       <c r="D8">
-        <v>360.6356565860108</v>
+        <v>395.6845130375958</v>
       </c>
       <c r="E8">
-        <v>29.26973911918015</v>
+        <v>31.99839254091557</v>
       </c>
       <c r="F8">
-        <v>1463.893231840327</v>
+        <v>1582.575853111069</v>
       </c>
       <c r="G8">
-        <v>1080.424990438486</v>
+        <v>1171.998272234928</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6246.578409521583</v>
+        <v>6857.873301915859</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>506.3998170003724</v>
+        <v>554.0807812122125</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>40493.13159121734</v>
+        <v>43857.00504838856</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3553.815111236179</v>
+        <v>3899.607965790318</v>
       </c>
       <c r="C7">
-        <v>9116.195637556826</v>
+        <v>9873.502551853589</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14956.80336672814</v>
+        <v>16412.12829762665</v>
       </c>
       <c r="C8">
-        <v>46288.37514140697</v>
+        <v>50133.67508228721</v>
       </c>
       <c r="D8">
-        <v>499.7262727617264</v>
+        <v>548.6298641532685</v>
       </c>
       <c r="E8">
-        <v>40.51198536002977</v>
+        <v>44.32646249697698</v>
       </c>
       <c r="F8">
-        <v>1619.725263648695</v>
+        <v>1754.280201935544</v>
       </c>
       <c r="G8">
-        <v>1267.0010748793</v>
+        <v>1377.31105176439</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8333.856382312611</v>
+        <v>9141.041773833787</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>674.9507000585591</v>
+        <v>738.3387779721592</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>44914.18096728641</v>
+        <v>48715.1469876215</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4740.61296012452</v>
+        <v>5197.668585342777</v>
       </c>
       <c r="C7">
-        <v>10111.50396397645</v>
+        <v>10967.21327791343</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19951.63329070366</v>
+        <v>21875.22551485528</v>
       </c>
       <c r="C8">
-        <v>51342.15053482589</v>
+        <v>55687.09828609273</v>
       </c>
       <c r="D8">
-        <v>666.7085105850086</v>
+        <v>731.2833419067026</v>
       </c>
       <c r="E8">
-        <v>53.9960560046847</v>
+        <v>59.0671022377727</v>
       </c>
       <c r="F8">
-        <v>1796.567238691458</v>
+        <v>1948.605879504862</v>
       </c>
       <c r="G8">
-        <v>1485.211692410097</v>
+        <v>1616.488186325621</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10525.45809700914</v>
+        <v>11525.19375784038</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>850.0211900933343</v>
+        <v>929.6155003386533</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49673.7267240388</v>
+        <v>53933.7554826268</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5984.71098945903</v>
+        <v>6551.944307898162</v>
       </c>
       <c r="C7">
-        <v>11183.01778766573</v>
+        <v>12142.07563423963</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25187.62025436357</v>
+        <v>27574.91304855726</v>
       </c>
       <c r="C8">
-        <v>56782.86679543317</v>
+        <v>61652.57683123275</v>
       </c>
       <c r="D8">
-        <v>842.0366477607306</v>
+        <v>922.0155006272304</v>
       </c>
       <c r="E8">
-        <v>68.00169520746671</v>
+        <v>74.36924002709223</v>
       </c>
       <c r="F8">
-        <v>1986.949068961554</v>
+        <v>2157.350219305074</v>
       </c>
       <c r="G8">
-        <v>1716.772877712475</v>
+        <v>1869.401994213779</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12202.51193718216</v>
+        <v>13326.59148394828</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>982.0672288830128</v>
+        <v>1073.588617634249</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54586.34619591368</v>
+        <v>59309.92894830228</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6934.683362216287</v>
+        <v>7574.614132775279</v>
       </c>
       <c r="C7">
-        <v>12288.99300960179</v>
+        <v>13352.41050261443</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29185.73201269082</v>
+        <v>31878.98374469788</v>
       </c>
       <c r="C8">
-        <v>62398.56417682429</v>
+        <v>67798.17052639756</v>
       </c>
       <c r="D8">
-        <v>976.2009549745726</v>
+        <v>1066.127318715862</v>
       </c>
       <c r="E8">
-        <v>78.56537831064098</v>
+        <v>85.88708941073986</v>
       </c>
       <c r="F8">
-        <v>2183.453847836549</v>
+        <v>2372.397157932093</v>
       </c>
       <c r="G8">
-        <v>1922.367637181807</v>
+        <v>2092.70246353897</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12939.642889574</v>
+        <v>14081.07873201091</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1036.277029984265</v>
+        <v>1132.071207753525</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>59466.04371639396</v>
+        <v>64640.77750462363</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7348.1783126504</v>
+        <v>8001.017992180711</v>
       </c>
       <c r="C7">
-        <v>13387.55653138303</v>
+        <v>14552.54139997761</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30925.99211998345</v>
+        <v>33673.57307484528</v>
       </c>
       <c r="C8">
-        <v>67976.6279256299</v>
+        <v>73891.95256054752</v>
       </c>
       <c r="D8">
-        <v>1035.171431165919</v>
+        <v>1126.486298560872</v>
       </c>
       <c r="E8">
-        <v>82.90216239874114</v>
+        <v>90.56569662028191</v>
       </c>
       <c r="F8">
-        <v>2378.641748655761</v>
+        <v>2585.631100184947</v>
       </c>
       <c r="G8">
-        <v>2073.573484403343</v>
+        <v>2255.355939215831</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.884620513980304E-13</v>
+        <v>6.44759454489316E-13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.054143843626954E-15</v>
+        <v>1.391447314330563E-15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01155396116243872</v>
+        <v>0.01419030029942119</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.370818273402328E-13</v>
+        <v>3.129429384078353E-13</v>
       </c>
       <c r="C7">
-        <v>0.002601136691743785</v>
+        <v>0.003194654219167933</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.977970610066423E-13</v>
+        <v>1.317070767123834E-12</v>
       </c>
       <c r="C8">
-        <v>0.01320752600848997</v>
+        <v>0.01622116931483</v>
       </c>
       <c r="D8">
-        <v>3.907696411184241E-14</v>
+        <v>5.158075635914526E-14</v>
       </c>
       <c r="E8">
-        <v>8.43315074901563E-17</v>
+        <v>1.113157851464449E-16</v>
       </c>
       <c r="F8">
-        <v>0.000462158446497549</v>
+        <v>0.0005676120119768481</v>
       </c>
       <c r="G8">
-        <v>0.0002601136691980867</v>
+        <v>0.0003194654219480875</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13034.38339522705</v>
+        <v>14124.84054872696</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1037.68379518157</v>
+        <v>1132.437192471714</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>64127.79498756219</v>
+        <v>69724.98971123979</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7395.435052094188</v>
+        <v>8022.545933063277</v>
       </c>
       <c r="C7">
-        <v>14437.05393826712</v>
+        <v>15697.14719649299</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31124.87972034812</v>
+        <v>33764.17688190689</v>
       </c>
       <c r="C8">
-        <v>73305.5536761532</v>
+        <v>79703.80046340059</v>
       </c>
       <c r="D8">
-        <v>1042.750671618164</v>
+        <v>1129.987243898157</v>
       </c>
       <c r="E8">
-        <v>83.01470361452554</v>
+        <v>90.59497539773704</v>
       </c>
       <c r="F8">
-        <v>2565.11179950249</v>
+        <v>2788.999588449594</v>
       </c>
       <c r="G8">
-        <v>2183.24889903613</v>
+        <v>2371.969312955625</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12965.15085898118</v>
+        <v>13993.10394744725</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1027.134220688804</v>
+        <v>1119.394135349911</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>68391.56625364497</v>
+        <v>74367.08188827106</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7350.819355049527</v>
+        <v>7945.095509034164</v>
       </c>
       <c r="C7">
-        <v>15396.95433342042</v>
+        <v>16742.218762718</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30937.10737235605</v>
+        <v>33438.21429617457</v>
       </c>
       <c r="C8">
-        <v>78179.54183478693</v>
+        <v>85010.25357501963</v>
       </c>
       <c r="D8">
-        <v>1037.212068718494</v>
+        <v>1119.448315795779</v>
       </c>
       <c r="E8">
-        <v>82.17073765510428</v>
+        <v>89.55153082799286</v>
       </c>
       <c r="F8">
-        <v>2735.662650145801</v>
+        <v>2974.683275530845</v>
       </c>
       <c r="G8">
-        <v>2274.777368846994</v>
+        <v>2468.731427175216</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12959.53273858082</v>
+        <v>13940.08874690471</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1025.196574830317</v>
+        <v>1115.436068979763</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72087.8929922805</v>
+        <v>78383.35342618619</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7346.053589315137</v>
+        <v>7915.293803490489</v>
       </c>
       <c r="C7">
-        <v>16229.10626550369</v>
+        <v>17646.3996851223</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30917.04987956309</v>
+        <v>33312.78901774616</v>
       </c>
       <c r="C8">
-        <v>82404.87467519101</v>
+        <v>89601.32066001369</v>
       </c>
       <c r="D8">
-        <v>1036.762619086465</v>
+        <v>1115.207099752377</v>
       </c>
       <c r="E8">
-        <v>82.01572598642532</v>
+        <v>89.23488551838102</v>
       </c>
       <c r="F8">
-        <v>2883.515719691222</v>
+        <v>3135.33413704745</v>
       </c>
       <c r="G8">
-        <v>2357.515985481883</v>
+        <v>2556.169348861278</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13022.25199377975</v>
+        <v>13972.1978865683</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1033.153521409759</v>
+        <v>1122.011348072045</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75065.00477751459</v>
+        <v>81609.55142144168</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7384.777527646588</v>
+        <v>7937.767601512309</v>
       </c>
       <c r="C7">
-        <v>16899.34174501787</v>
+        <v>18372.71180114105</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31080.02581192873</v>
+        <v>33407.37361694298</v>
       </c>
       <c r="C8">
-        <v>85808.06088820075</v>
+        <v>93289.24148057157</v>
       </c>
       <c r="D8">
-        <v>1041.780159502379</v>
+        <v>1117.775830925464</v>
       </c>
       <c r="E8">
-        <v>82.65228171278068</v>
+        <v>89.76090784576357</v>
       </c>
       <c r="F8">
-        <v>3002.600191100586</v>
+        <v>3264.38205685767</v>
       </c>
       <c r="G8">
-        <v>2428.411927266445</v>
+        <v>2631.047940265335</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12647.00150586479</v>
+        <v>13539.10306894896</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1008.383027199801</v>
+        <v>1092.719970728894</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77197.76689676411</v>
+        <v>83910.54953864957</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7177.27256688939</v>
+        <v>7697.532119730606</v>
       </c>
       <c r="C7">
-        <v>17379.48926543503</v>
+        <v>18890.73419589865</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30206.70775836615</v>
+        <v>32396.30389320875</v>
       </c>
       <c r="C8">
-        <v>88246.05689354344</v>
+        <v>95919.55086548689</v>
       </c>
       <c r="D8">
-        <v>1011.760120469183</v>
+        <v>1083.128245515916</v>
       </c>
       <c r="E8">
-        <v>80.67064217598404</v>
+        <v>87.41759765831146</v>
       </c>
       <c r="F8">
-        <v>3087.910675870567</v>
+        <v>3356.421981545986</v>
       </c>
       <c r="G8">
-        <v>2455.676183232441</v>
+        <v>2658.826631562925</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11385.65919279831</v>
+        <v>12154.86546534674</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>913.638569024504</v>
+        <v>987.0923157569349</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78398.10040356907</v>
+        <v>85191.67148391758</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6467.620176936267</v>
+        <v>6916.987428687708</v>
       </c>
       <c r="C7">
-        <v>17649.71966373601</v>
+        <v>19179.15244930841</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27220.02135993799</v>
+        <v>29111.25582586254</v>
       </c>
       <c r="C8">
-        <v>89618.17817620162</v>
+        <v>97384.02276168662</v>
       </c>
       <c r="D8">
-        <v>910.8527354238641</v>
+        <v>972.3892372277385</v>
       </c>
       <c r="E8">
-        <v>73.09108552196028</v>
+        <v>78.96738526055475</v>
       </c>
       <c r="F8">
-        <v>3135.924016142766</v>
+        <v>3407.666859356706</v>
       </c>
       <c r="G8">
-        <v>2411.733984067227</v>
+        <v>2609.613987799612</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9367.914817199011</v>
+        <v>9960.941479102508</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>761.5178837165554</v>
+        <v>819.0061276115551</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78625.58589040894</v>
+        <v>85410.23741032966</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5331.810448435364</v>
+        <v>5679.163231152347</v>
       </c>
       <c r="C7">
-        <v>17700.93334174127</v>
+        <v>19228.35807175794</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22439.78315410301</v>
+        <v>23901.67329395797</v>
       </c>
       <c r="C8">
-        <v>89878.22063625068</v>
+        <v>97633.8691232134</v>
       </c>
       <c r="D8">
-        <v>749.4331853759205</v>
+        <v>796.8753183282003</v>
       </c>
       <c r="E8">
-        <v>60.9214306973244</v>
+        <v>65.52049020892437</v>
       </c>
       <c r="F8">
-        <v>3145.023435616361</v>
+        <v>3416.40949641319</v>
       </c>
       <c r="G8">
-        <v>2303.274379017662</v>
+        <v>2490.752130291028</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6993.77439948868</v>
+        <v>7389.715400684358</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>587.9712750022536</v>
+        <v>627.6833126170882</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77896.19516401773</v>
+        <v>84585.07663127079</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4001.145502995159</v>
+        <v>4234.467197526014</v>
       </c>
       <c r="C7">
-        <v>17536.72602319828</v>
+        <v>19042.59009583851</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16839.46537926408</v>
+        <v>17821.4373156364</v>
       </c>
       <c r="C8">
-        <v>89044.44191277002</v>
+        <v>96690.61405273285</v>
       </c>
       <c r="D8">
-        <v>559.5019519590941</v>
+        <v>591.1772320547483</v>
       </c>
       <c r="E8">
-        <v>47.03770200018027</v>
+        <v>50.21466500936703</v>
       </c>
       <c r="F8">
-        <v>3115.847806560712</v>
+        <v>3383.403065250835</v>
       </c>
       <c r="G8">
-        <v>2153.787152619343</v>
+        <v>2327.705729336452</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5098.894146760843</v>
+        <v>5349.820962109294</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>464.5920387224888</v>
+        <v>491.3994984734977</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76286.79409125808</v>
+        <v>82801.42172695136</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2955.123108031467</v>
+        <v>3104.726896291827</v>
       </c>
       <c r="C7">
-        <v>17174.40247690697</v>
+        <v>18641.03688375771</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12437.11163013393</v>
+        <v>13066.74327215525</v>
       </c>
       <c r="C8">
-        <v>87204.70866217997</v>
+        <v>94651.68833645518</v>
       </c>
       <c r="D8">
-        <v>407.9115317408672</v>
+        <v>427.9856769687433</v>
       </c>
       <c r="E8">
-        <v>37.16736309779909</v>
+        <v>39.31195987787979</v>
       </c>
       <c r="F8">
-        <v>3051.471763650326</v>
+        <v>3312.056869078057</v>
       </c>
       <c r="G8">
-        <v>2012.952558493843</v>
+        <v>2174.576378004953</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4165.293216997798</v>
+        <v>4366.138278813486</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>429.1825355250594</v>
+        <v>451.9134998384736</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73933.3719476696</v>
+        <v>80208.94344115684</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2466.625323667854</v>
+        <v>2587.719087603381</v>
       </c>
       <c r="C7">
-        <v>16644.57789096745</v>
+        <v>18057.39372476463</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10381.19001431654</v>
+        <v>10890.83262639116</v>
       </c>
       <c r="C8">
-        <v>84514.47249698928</v>
+        <v>91688.18310178383</v>
       </c>
       <c r="D8">
-        <v>333.2234573598236</v>
+        <v>349.2910623050787</v>
       </c>
       <c r="E8">
-        <v>34.33460284200473</v>
+        <v>36.15307998707787</v>
       </c>
       <c r="F8">
-        <v>2957.334877906786</v>
+        <v>3208.357737646276</v>
       </c>
       <c r="G8">
-        <v>1911.12032146353</v>
+        <v>2064.511281236801</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.250143144444144E-11</v>
+        <v>2.965938742535407E-11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.646962569536629E-14</v>
+        <v>8.639778640452511E-14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03299485623165402</v>
+        <v>0.03905517850972395</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.094034607654471E-11</v>
+        <v>1.441930380310713E-11</v>
       </c>
       <c r="C7">
-        <v>0.007428113179225132</v>
+        <v>0.008792470079828796</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.604420880351203E-11</v>
+        <v>6.068596280833805E-11</v>
       </c>
       <c r="C8">
-        <v>0.03771697132258465</v>
+        <v>0.04464462695359469</v>
       </c>
       <c r="D8">
-        <v>1.800114515555315E-12</v>
+        <v>2.372750994028324E-12</v>
       </c>
       <c r="E8">
-        <v>5.317570055629301E-15</v>
+        <v>6.911822912362005E-15</v>
       </c>
       <c r="F8">
-        <v>0.001319794249266162</v>
+        <v>0.001562207140388959</v>
       </c>
       <c r="G8">
-        <v>0.0007428113190165477</v>
+        <v>0.0008792470094248097</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3782.605327154632</v>
+        <v>3988.403969712205</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>438.951826468807</v>
+        <v>462.9993328889088</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71021.98877255314</v>
+        <v>77011.82262356434</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2292.101663357245</v>
+        <v>2416.982481834962</v>
       </c>
       <c r="C7">
-        <v>15989.13985598946</v>
+        <v>17337.62773718168</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9646.67907652061</v>
+        <v>10172.26011767882</v>
       </c>
       <c r="C8">
-        <v>81186.4217561718</v>
+        <v>88033.50088873362</v>
       </c>
       <c r="D8">
-        <v>302.6084261723704</v>
+        <v>319.0723175769762</v>
       </c>
       <c r="E8">
-        <v>35.11614611750454</v>
+        <v>37.03994663111268</v>
       </c>
       <c r="F8">
-        <v>2840.879550902128</v>
+        <v>3080.472904942576</v>
       </c>
       <c r="G8">
-        <v>1828.12415193467</v>
+        <v>1975.461021901664</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3431.762934344822</v>
+        <v>3644.213382992081</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>439.7334960014635</v>
+        <v>465.2488906003541</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>67773.08495134536</v>
+        <v>73451.56587909559</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2123.444898150959</v>
+        <v>2253.093407836951</v>
       </c>
       <c r="C7">
-        <v>15257.71599031442</v>
+        <v>16536.10916533707</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8936.859911847916</v>
+        <v>9482.506549466105</v>
       </c>
       <c r="C8">
-        <v>77472.54552667723</v>
+        <v>83963.71193164942</v>
       </c>
       <c r="D8">
-        <v>274.5410347475857</v>
+        <v>291.5370706393663</v>
       </c>
       <c r="E8">
-        <v>35.17867968011706</v>
+        <v>37.2199112480283</v>
       </c>
       <c r="F8">
-        <v>2710.923398053817</v>
+        <v>2938.062635163826</v>
       </c>
       <c r="G8">
-        <v>1738.116088846538</v>
+        <v>1878.920257317402</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3031.244895493199</v>
+        <v>3237.030094284171</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>417.8414486335598</v>
+        <v>442.723238746112</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>64421.56825068923</v>
+        <v>69785.20994537008</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1906.781707679979</v>
+        <v>2032.539454089775</v>
       </c>
       <c r="C7">
-        <v>14503.19094556962</v>
+        <v>15710.70454348242</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8024.99797326913</v>
+        <v>8554.269706890607</v>
       </c>
       <c r="C8">
-        <v>73641.37080058346</v>
+        <v>79772.63921898673</v>
       </c>
       <c r="D8">
-        <v>242.4995916394558</v>
+        <v>258.9624075427336</v>
       </c>
       <c r="E8">
-        <v>33.42731589068477</v>
+        <v>35.41785909968895</v>
       </c>
       <c r="F8">
-        <v>2576.862730027571</v>
+        <v>2791.408397814806</v>
       </c>
       <c r="G8">
-        <v>1640.99726532496</v>
+        <v>1774.324399757219</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2743.419816575947</v>
+        <v>2940.287479574055</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>387.2927646351069</v>
+        <v>410.1936315465246</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>61196.2238568225</v>
+        <v>66262.79614722136</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1735.391576208114</v>
+        <v>1854.743853360033</v>
       </c>
       <c r="C7">
-        <v>13777.07100034505</v>
+        <v>14917.70553257565</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7303.674996359763</v>
+        <v>7805.988280775829</v>
       </c>
       <c r="C8">
-        <v>69954.42574603208</v>
+        <v>75746.10916599032</v>
       </c>
       <c r="D8">
-        <v>219.4735853260756</v>
+        <v>235.2229983659243</v>
       </c>
       <c r="E8">
-        <v>30.98342117080854</v>
+        <v>32.81549052372196</v>
       </c>
       <c r="F8">
-        <v>2447.848954272902</v>
+        <v>2650.511845888857</v>
       </c>
       <c r="G8">
-        <v>1551.246257655316</v>
+        <v>1677.244938593568</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2697.106185611326</v>
+        <v>2898.54929805555</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>364.1806971512412</v>
+        <v>385.8252344438608</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58301.90738316286</v>
+        <v>63107.90194976337</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1688.545099616715</v>
+        <v>1808.777352355105</v>
       </c>
       <c r="C7">
-        <v>13125.47518213948</v>
+        <v>14207.44599991807</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7106.514053297123</v>
+        <v>7612.530856720904</v>
       </c>
       <c r="C8">
-        <v>66645.88423674142</v>
+        <v>72139.6969077925</v>
       </c>
       <c r="D8">
-        <v>215.768494848906</v>
+        <v>231.8839438444439</v>
       </c>
       <c r="E8">
-        <v>29.13445577209929</v>
+        <v>30.86601875550885</v>
       </c>
       <c r="F8">
-        <v>2332.076295326516</v>
+        <v>2524.316077990537</v>
       </c>
       <c r="G8">
-        <v>1481.40202817562</v>
+        <v>1601.622335227317</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2875.192797561964</v>
+        <v>3100.895418540607</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>351.0401337227518</v>
+        <v>373.2581055653961</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55906.72700982733</v>
+        <v>60503.64427829687</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1760.660410206382</v>
+        <v>1893.219123302792</v>
       </c>
       <c r="C7">
-        <v>12586.24958973559</v>
+        <v>13621.15095454188</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7410.022954705613</v>
+        <v>7967.91765217058</v>
       </c>
       <c r="C8">
-        <v>63907.91354157452</v>
+        <v>69162.72646059019</v>
       </c>
       <c r="D8">
-        <v>230.015423804957</v>
+        <v>248.0716334832484</v>
       </c>
       <c r="E8">
-        <v>28.08321069782013</v>
+        <v>29.86064844523167</v>
       </c>
       <c r="F8">
-        <v>2236.269080393095</v>
+        <v>2420.145771131877</v>
       </c>
       <c r="G8">
-        <v>1434.690999994197</v>
+        <v>1551.437007784467</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3274.783044406441</v>
+        <v>3548.874853805545</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>349.6350125100824</v>
+        <v>374.5172533868088</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54134.70191262694</v>
+        <v>58584.68797098638</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1952.206051138641</v>
+        <v>2110.96174106707</v>
       </c>
       <c r="C7">
-        <v>12187.31458950352</v>
+        <v>13189.13741471578</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8216.173639956416</v>
+        <v>8884.322534394209</v>
       </c>
       <c r="C8">
-        <v>61882.28205208532</v>
+        <v>66969.13545040457</v>
       </c>
       <c r="D8">
-        <v>261.9826435525152</v>
+        <v>283.9099883044435</v>
       </c>
       <c r="E8">
-        <v>27.97080100080658</v>
+        <v>29.96138027094469</v>
       </c>
       <c r="F8">
-        <v>2165.38807650508</v>
+        <v>2343.387518839457</v>
       </c>
       <c r="G8">
-        <v>1413.952064064216</v>
+        <v>1530.009915578284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3950.47358291499</v>
+        <v>4302.52460096127</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>369.9110582676302</v>
+        <v>399.7693031959927</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53063.07624887759</v>
+        <v>57434.36088957284</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2300.088022351666</v>
+        <v>2501.77322932709</v>
       </c>
       <c r="C7">
-        <v>11946.06011455734</v>
+        <v>12930.16493446384</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9680.290954842021</v>
+        <v>10529.11563713113</v>
       </c>
       <c r="C8">
-        <v>60657.2888548304</v>
+        <v>65654.17734794607</v>
       </c>
       <c r="D8">
-        <v>316.037886633199</v>
+        <v>344.2019680769014</v>
       </c>
       <c r="E8">
-        <v>29.5928846614104</v>
+        <v>31.9815442556794</v>
       </c>
       <c r="F8">
-        <v>2122.523049955105</v>
+        <v>2297.374435582916</v>
       </c>
       <c r="G8">
-        <v>1424.6148136909</v>
+        <v>1543.193816379092</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4983.023239163046</v>
+        <v>5447.968536059539</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>426.9313436713954</v>
+        <v>464.6726599867246</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>52723.01943520171</v>
+        <v>57085.48509489751</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2859.26946516855</v>
+        <v>3123.83886749259</v>
       </c>
       <c r="C7">
-        <v>11869.50331789738</v>
+        <v>12851.62272563754</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12033.69613343226</v>
+        <v>13147.17908163127</v>
       </c>
       <c r="C8">
-        <v>60268.56423062192</v>
+        <v>65255.37159924002</v>
       </c>
       <c r="D8">
-        <v>398.6418591330435</v>
+        <v>435.8374828847629</v>
       </c>
       <c r="E8">
-        <v>34.15450749371161</v>
+        <v>37.17381279893795</v>
       </c>
       <c r="F8">
-        <v>2108.92077740807</v>
+        <v>2283.419403795903</v>
       </c>
       <c r="G8">
-        <v>1472.877278306593</v>
+        <v>1597.546159313013</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6393.729678748129</v>
+        <v>7004.248862309613</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>526.9488633485029</v>
+        <v>575.6257536463395</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53102.67750798784</v>
+        <v>57523.7879514259</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3646.660118401684</v>
+        <v>3993.132829898125</v>
       </c>
       <c r="C7">
-        <v>11954.97552345155</v>
+        <v>12950.29759793315</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15347.55653544712</v>
+        <v>16805.74275380298</v>
       </c>
       <c r="C8">
-        <v>60702.55771564049</v>
+        <v>65756.40291618901</v>
       </c>
       <c r="D8">
-        <v>511.4983742998501</v>
+        <v>560.3399089847687</v>
       </c>
       <c r="E8">
-        <v>42.15590906788021</v>
+        <v>46.05006029170713</v>
       </c>
       <c r="F8">
-        <v>2124.107100319516</v>
+        <v>2300.951518057038</v>
       </c>
       <c r="G8">
-        <v>1560.163564185323</v>
+        <v>1694.343042783127</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Max.xlsx
+++ b/Recycling/SW2/SW2_Max.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.995736619867579E-10</v>
+        <v>8.884151799852865E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.753932560596006E-12</v>
+        <v>3.059925067328895E-12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09643475066249763</v>
+        <v>0.1134526478382325</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.891731134843901E-10</v>
+        <v>4.324145705382113E-10</v>
       </c>
       <c r="C7">
-        <v>0.02171030045720187</v>
+        <v>0.02554152994964926</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>0.1102361743812845</v>
       </c>
       <c r="D8">
-        <v>6.39658929589406E-11</v>
+        <v>7.107321439882288E-11</v>
       </c>
       <c r="E8">
-        <v>2.203146048476803E-13</v>
+        <v>2.447940053863115E-13</v>
       </c>
       <c r="F8">
-        <v>0.003857390026499909</v>
+        <v>0.004538105913529304</v>
       </c>
       <c r="G8">
-        <v>0.002171030084637498</v>
+        <v>0.002554153038206382</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8877.41406961706</v>
+        <v>9863.793410685621</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>722.1243668572148</v>
+        <v>802.3604076191276</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58693.2201928651</v>
+        <v>69050.84728572365</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5053.146239309417</v>
+        <v>5614.60693256602</v>
       </c>
       <c r="C7">
-        <v>13213.57121197338</v>
+        <v>15545.37789643927</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>67093.20044621591</v>
       </c>
       <c r="D8">
-        <v>710.1931255693644</v>
+        <v>789.1034728548493</v>
       </c>
       <c r="E8">
-        <v>57.76994934857716</v>
+        <v>64.18883260953018</v>
       </c>
       <c r="F8">
-        <v>2347.728807714606</v>
+        <v>2762.033891428948</v>
       </c>
       <c r="G8">
-        <v>1826.671745128279</v>
+        <v>2115.998482900528</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10899.32088132152</v>
+        <v>12110.35653480169</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>884.1844894744873</v>
+        <v>982.4272105272081</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60502.77835594553</v>
+        <v>71179.73924228887</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6201.491614031933</v>
+        <v>6890.546237813259</v>
       </c>
       <c r="C7">
-        <v>13620.95600993642</v>
+        <v>16024.65412933697</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>69161.73661028553</v>
       </c>
       <c r="D8">
-        <v>871.9456705057214</v>
+        <v>968.828522784135</v>
       </c>
       <c r="E8">
-        <v>70.73475915795895</v>
+        <v>78.59417684217661</v>
       </c>
       <c r="F8">
-        <v>2420.111134237824</v>
+        <v>2847.189569691557</v>
       </c>
       <c r="G8">
-        <v>1982.244762396835</v>
+        <v>2291.520036715023</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.459853060855509E-08</v>
+        <v>1.622058956506122E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.91844515126912E-11</v>
+        <v>6.576050168076799E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2181035858331883</v>
+        <v>0.256592453921398</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.114909032813633E-09</v>
+        <v>7.905454480904036E-09</v>
       </c>
       <c r="C7">
-        <v>0.04910153597849306</v>
+        <v>0.05776651291587419</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1560,16 +1560,16 @@
         <v>0.2493178522878767</v>
       </c>
       <c r="D8">
-        <v>1.167882448684407E-09</v>
+        <v>1.297647165204897E-09</v>
       </c>
       <c r="E8">
-        <v>4.734756121015293E-12</v>
+        <v>5.260840134461437E-12</v>
       </c>
       <c r="F8">
-        <v>0.008724143433327539</v>
+        <v>0.01026369815685593</v>
       </c>
       <c r="G8">
-        <v>0.004910154309340209</v>
+        <v>0.005776652082132866</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.962680483424368E-07</v>
+        <v>2.180756092693743E-07</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.279073283756305E-10</v>
+        <v>1.03100814263959E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.460478347989555</v>
+        <v>0.5417392329288883</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.579546692894899E-08</v>
+        <v>1.064394076988322E-07</v>
       </c>
       <c r="C7">
-        <v>0.1036672280501573</v>
+        <v>0.1219614447648909</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1778,16 +1778,16 @@
         <v>0.5263804916698241</v>
       </c>
       <c r="D8">
-        <v>1.570144386739494E-08</v>
+        <v>1.744604874154993E-08</v>
       </c>
       <c r="E8">
-        <v>7.423258627005041E-11</v>
+        <v>8.248065141116712E-11</v>
       </c>
       <c r="F8">
-        <v>0.01841913391958222</v>
+        <v>0.02166956931715555</v>
       </c>
       <c r="G8">
-        <v>0.01036673238456242</v>
+        <v>0.01219615512042986</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.059565803901055E-06</v>
+        <v>2.28840644877895E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.120701736279172E-08</v>
+        <v>1.245224151421302E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9223322931532713</v>
+        <v>1.085096815474437</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.006799398910526E-06</v>
+        <v>1.118665998789474E-06</v>
       </c>
       <c r="C7">
-        <v>0.2076441435081624</v>
+        <v>0.2442872276566616</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1996,16 +1996,16 @@
         <v>1.054333451448162</v>
       </c>
       <c r="D8">
-        <v>1.647652643120844E-07</v>
+        <v>1.830725159023159E-07</v>
       </c>
       <c r="E8">
-        <v>8.96561389023337E-10</v>
+        <v>9.961793211370411E-10</v>
       </c>
       <c r="F8">
-        <v>0.03689329172613089</v>
+        <v>0.0434038726189775</v>
       </c>
       <c r="G8">
-        <v>0.02076451503075612</v>
+        <v>0.02442883463226603</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.761098483180265E-05</v>
+        <v>1.956776092422516E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.087234580209068E-07</v>
+        <v>1.208038422454519E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.775421966913115</v>
+        <v>2.088731725780135</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.622618208803105E-06</v>
+        <v>9.580686898670115E-06</v>
       </c>
       <c r="C7">
-        <v>0.3996997355745716</v>
+        <v>0.4702349830289078</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>2.029514508000993</v>
       </c>
       <c r="D8">
-        <v>1.408878786544211E-06</v>
+        <v>1.565420873938012E-06</v>
       </c>
       <c r="E8">
-        <v>8.697876641672537E-09</v>
+        <v>9.66430737963615E-09</v>
       </c>
       <c r="F8">
-        <v>0.07101687867652466</v>
+        <v>0.08354926903120548</v>
       </c>
       <c r="G8">
-        <v>0.03997083581927803</v>
+        <v>0.04702445637158063</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001267890596592312</v>
+        <v>0.0001408767329547013</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.757794681037199E-07</v>
+        <v>9.73088297893022E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.314004067188923</v>
+        <v>3.89882831433991</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.217645174056818E-05</v>
+        <v>6.908494637840909E-05</v>
       </c>
       <c r="C7">
-        <v>0.7460798469512744</v>
+        <v>0.877740996413264</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         <v>3.788293408145807</v>
       </c>
       <c r="D8">
-        <v>1.014312477273849E-05</v>
+        <v>1.12701386363761E-05</v>
       </c>
       <c r="E8">
-        <v>7.006235744829755E-08</v>
+        <v>7.784706383144172E-08</v>
       </c>
       <c r="F8">
-        <v>0.132560162687557</v>
+        <v>0.1559531325735965</v>
       </c>
       <c r="G8">
-        <v>0.07461420234030147</v>
+        <v>0.08778100813596422</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0007883597326943932</v>
+        <v>0.0008759552585493258</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.015140545551558E-06</v>
+        <v>6.683489495057287E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.021336408888529</v>
+        <v>7.083925186927681</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0003872091940063597</v>
+        <v>0.0004302324377848441</v>
       </c>
       <c r="C7">
-        <v>1.355580034093419</v>
+        <v>1.594800040109905</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2650,16 +2650,16 @@
         <v>6.883090232707425</v>
       </c>
       <c r="D8">
-        <v>6.306877861555143E-05</v>
+        <v>7.007642068394602E-05</v>
       </c>
       <c r="E8">
-        <v>4.812112436441245E-07</v>
+        <v>5.346791596045826E-07</v>
       </c>
       <c r="F8">
-        <v>0.2408534563555414</v>
+        <v>0.2833570074771075</v>
       </c>
       <c r="G8">
-        <v>0.1355967243287425</v>
+        <v>0.1595230272547689</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004319994171470933</v>
+        <v>0.004799993523856592</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.599420802329776E-05</v>
+        <v>3.999356447033084E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.64496198527221</v>
+        <v>12.52348468855554</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002125011251304158</v>
+        <v>0.002361123612560175</v>
       </c>
       <c r="C7">
-        <v>2.396494225039003</v>
+        <v>2.819404970634121</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         <v>12.16843386464996</v>
       </c>
       <c r="D8">
-        <v>0.0003455995337176744</v>
+        <v>0.0003839994819085271</v>
       </c>
       <c r="E8">
-        <v>2.879536641863819E-06</v>
+        <v>3.199485157626466E-06</v>
       </c>
       <c r="F8">
-        <v>0.4257984794108886</v>
+        <v>0.5009393875422219</v>
       </c>
       <c r="G8">
-        <v>0.2398619236290306</v>
+        <v>0.282176609424668</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02120480999202463</v>
+        <v>0.02356089999113847</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000190993023592182</v>
+        <v>0.00021221447065798</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18.27434543160692</v>
+        <v>21.49922991953756</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01044583364298556</v>
+        <v>0.01160648182553951</v>
       </c>
       <c r="C7">
-        <v>4.114092972225301</v>
+        <v>4.840109379088589</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>20.88970952756208</v>
       </c>
       <c r="D8">
-        <v>0.001696384799361969</v>
+        <v>0.001884871999291077</v>
       </c>
       <c r="E8">
-        <v>1.527944188737455E-05</v>
+        <v>1.697715765263839E-05</v>
       </c>
       <c r="F8">
-        <v>0.7309738172642775</v>
+        <v>0.859969196781503</v>
       </c>
       <c r="G8">
-        <v>0.4124538805868285</v>
+        <v>0.4851715860914128</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09448526190686592</v>
+        <v>0.1049836243409621</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0009118726096895651</v>
+        <v>0.001013191788543961</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30.4174135723055</v>
+        <v>35.78519243800647</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04660939527406979</v>
+        <v>0.05178821697118866</v>
       </c>
       <c r="C7">
-        <v>6.84785498224483</v>
+        <v>8.056299979111566</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3304,16 +3304,16 @@
         <v>34.77065356366708</v>
       </c>
       <c r="D8">
-        <v>0.007558820952549269</v>
+        <v>0.008398689947276966</v>
       </c>
       <c r="E8">
-        <v>7.294980877516518E-05</v>
+        <v>8.105534308351685E-05</v>
       </c>
       <c r="F8">
-        <v>1.216696542892221</v>
+        <v>1.43140769752026</v>
       </c>
       <c r="G8">
-        <v>0.68944643775189</v>
+        <v>0.8108088196082754</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3864039331643383</v>
+        <v>0.4293377035159314</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003965131336001044</v>
+        <v>0.004405701484445604</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49.07218076312823</v>
+        <v>57.73197736838615</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1908621702260782</v>
+        <v>0.2120690780289758</v>
       </c>
       <c r="C7">
-        <v>11.04759208831497</v>
+        <v>12.99716716272349</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>56.09522955896253</v>
       </c>
       <c r="D8">
-        <v>0.03091231465314705</v>
+        <v>0.0343470162812745</v>
       </c>
       <c r="E8">
-        <v>0.0003172105068800834</v>
+        <v>0.0003524561187556481</v>
       </c>
       <c r="F8">
-        <v>1.962887230525131</v>
+        <v>2.309279094735448</v>
       </c>
       <c r="G8">
-        <v>1.123845425854105</v>
+        <v>1.320923624075246</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.463425948724236</v>
+        <v>1.626028831915818</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01586309220410758</v>
+        <v>0.01762565800456397</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76.78750481970545</v>
+        <v>90.33824096435936</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7237472679216722</v>
+        <v>0.8041636310240803</v>
       </c>
       <c r="C7">
-        <v>17.28712719784063</v>
+        <v>20.33779670334191</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3958,16 +3958,16 @@
         <v>87.77707946001486</v>
       </c>
       <c r="D8">
-        <v>0.1170740758979388</v>
+        <v>0.1300823065532654</v>
       </c>
       <c r="E8">
-        <v>0.001269047376328606</v>
+        <v>0.001410052640365117</v>
       </c>
       <c r="F8">
-        <v>3.07150019278822</v>
+        <v>3.613529638574378</v>
       </c>
       <c r="G8">
-        <v>1.801087446576229</v>
+        <v>2.114196033436599</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.168409562008447</v>
+        <v>5.742677291120497</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05887416368291554</v>
+        <v>0.06541573742546171</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>116.7054206951013</v>
+        <v>137.3004949354133</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.559090191394522</v>
+        <v>2.843433545993914</v>
       </c>
       <c r="C7">
-        <v>26.27382484911764</v>
+        <v>30.91038217543252</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4176,16 +4176,16 @@
         <v>133.4079159079474</v>
       </c>
       <c r="D8">
-        <v>0.4134727649606756</v>
+        <v>0.4594141832896395</v>
       </c>
       <c r="E8">
-        <v>0.004709933094633241</v>
+        <v>0.005233258994036935</v>
       </c>
       <c r="F8">
-        <v>4.668216827804056</v>
+        <v>5.492019797416535</v>
       </c>
       <c r="G8">
-        <v>2.883291504051215</v>
+        <v>3.375381572142642</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.08713532915442</v>
+        <v>18.98570592128269</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2039526243066155</v>
+        <v>0.2266140270073506</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>172.5755091824185</v>
+        <v>203.0300108028453</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.470395778206196</v>
+        <v>9.411550864673552</v>
       </c>
       <c r="C7">
-        <v>38.85182602916131</v>
+        <v>45.70803062254272</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4394,16 +4394,16 @@
         <v>197.2739473424107</v>
       </c>
       <c r="D8">
-        <v>1.366970826332353</v>
+        <v>1.518856473702615</v>
       </c>
       <c r="E8">
-        <v>0.01631620994452923</v>
+        <v>0.01812912216058804</v>
       </c>
       <c r="F8">
-        <v>6.903020367296747</v>
+        <v>8.12120043211382</v>
       </c>
       <c r="G8">
-        <v>4.732222180736749</v>
+        <v>5.511958148721627</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52.74933311635031</v>
+        <v>58.61037012927813</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6611138246162966</v>
+        <v>0.7345709162403296</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>248.7270303478749</v>
+        <v>292.6200357033823</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.18213027190049</v>
+        <v>29.09125585766721</v>
       </c>
       <c r="C7">
-        <v>55.99577458937639</v>
+        <v>65.87738186985457</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4612,16 +4612,16 @@
         <v>284.3240232634335</v>
       </c>
       <c r="D8">
-        <v>4.219946649308023</v>
+        <v>4.688829610342248</v>
       </c>
       <c r="E8">
-        <v>0.05288910596930371</v>
+        <v>0.05876567329922634</v>
       </c>
       <c r="F8">
-        <v>9.949081213915006</v>
+        <v>11.7048014281353</v>
       </c>
       <c r="G8">
-        <v>8.217790486127685</v>
+        <v>9.496863772752178</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>149.4216731242916</v>
+        <v>166.0240812492129</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.994218578661015</v>
+        <v>2.215798420734461</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>349.9797214447257</v>
+        <v>411.7408487585009</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74.29409869125199</v>
+        <v>82.54899854583553</v>
       </c>
       <c r="C7">
-        <v>78.79073523075589</v>
+        <v>92.6949826244187</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4830,16 +4830,16 @@
         <v>400.0676658367475</v>
       </c>
       <c r="D8">
-        <v>11.95373384994332</v>
+        <v>13.28192649993703</v>
       </c>
       <c r="E8">
-        <v>0.1595374862928811</v>
+        <v>0.1772638736587568</v>
       </c>
       <c r="F8">
-        <v>13.99918885778904</v>
+        <v>16.46963395034005</v>
       </c>
       <c r="G8">
-        <v>15.30848339220078</v>
+        <v>17.52439811702542</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>368.9497955053607</v>
+        <v>409.9442172281786</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.465006023531271</v>
+        <v>6.072228915034745</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>481.4762345648949</v>
+        <v>566.4426288998764</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>184.0186648186084</v>
+        <v>204.4651831317871</v>
       </c>
       <c r="C7">
-        <v>108.3944702878889</v>
+        <v>127.5229062210457</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5048,16 +5048,16 @@
         <v>550.3835265743128</v>
       </c>
       <c r="D8">
-        <v>29.51598364042884</v>
+        <v>32.79553737825427</v>
       </c>
       <c r="E8">
-        <v>0.4372004818825014</v>
+        <v>0.4857783132027794</v>
       </c>
       <c r="F8">
-        <v>19.25904938259581</v>
+        <v>22.65770515599507</v>
       </c>
       <c r="G8">
-        <v>29.24131351064972</v>
+        <v>33.19880893528328</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>710.43378124295</v>
+        <v>789.3708680477222</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.77253213436893</v>
+        <v>14.19170237152104</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>648.436353206606</v>
+        <v>762.8662978901247</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>356.720225978977</v>
+        <v>396.3558066433078</v>
       </c>
       <c r="C7">
-        <v>145.9821066449064</v>
+        <v>171.7436548763605</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5266,16 +5266,16 @@
         <v>741.2384271870762</v>
       </c>
       <c r="D8">
-        <v>56.83470249943597</v>
+        <v>63.14966944381774</v>
       </c>
       <c r="E8">
-        <v>1.021802570749514</v>
+        <v>1.135336189721682</v>
       </c>
       <c r="F8">
-        <v>25.93745412826426</v>
+        <v>30.51465191560501</v>
       </c>
       <c r="G8">
-        <v>50.27023326238833</v>
+        <v>56.80994615196682</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>933.1709613586801</v>
+        <v>1036.856623731867</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.3609389707181</v>
+        <v>24.84548774524234</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>855.8308353292047</v>
+        <v>1006.859806269652</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>474.4729616682895</v>
+        <v>527.1921796314327</v>
       </c>
       <c r="C7">
-        <v>192.672708208295</v>
+        <v>226.6737743627</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5484,16 +5484,16 @@
         <v>978.3145241326341</v>
       </c>
       <c r="D8">
-        <v>74.65367690869437</v>
+        <v>82.9485298985493</v>
       </c>
       <c r="E8">
-        <v>1.788875117657447</v>
+        <v>1.987639019619386</v>
       </c>
       <c r="F8">
-        <v>34.23323341316821</v>
+        <v>40.27439225078614</v>
       </c>
       <c r="G8">
-        <v>66.71456698765843</v>
+        <v>75.38659539941327</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>909.528336507073</v>
+        <v>1010.587040563414</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.17602281482333</v>
+        <v>26.86224757202593</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1107.971757854374</v>
+        <v>1303.496185711028</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>464.9737048563358</v>
+        <v>516.6374498403731</v>
       </c>
       <c r="C7">
-        <v>249.4370503979231</v>
+        <v>293.4553534093213</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5702,16 +5702,16 @@
         <v>1266.541024571461</v>
       </c>
       <c r="D8">
-        <v>72.76226692056581</v>
+        <v>80.84696324507311</v>
       </c>
       <c r="E8">
-        <v>1.934081825185865</v>
+        <v>2.148979805762073</v>
       </c>
       <c r="F8">
-        <v>44.31887031417499</v>
+        <v>52.13984742844117</v>
       </c>
       <c r="G8">
-        <v>71.44107552542587</v>
+        <v>81.00928032496942</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.121085478750846E-07</v>
+        <v>3.671865269118643E-07</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.02648195083078E-08</v>
+        <v>8.266449353918563E-08</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.24843419150034E-08</v>
+        <v>1.468746107647458E-08</v>
       </c>
       <c r="G8">
-        <v>7.026481950830778E-09</v>
+        <v>8.266449353918561E-09</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>883.5822709144828</v>
+        <v>981.7580787938698</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.93272454319652</v>
+        <v>16.59191615910725</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1408.080282460502</v>
+        <v>1656.565038188825</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>442.6519930671377</v>
+        <v>491.8355478523753</v>
       </c>
       <c r="C7">
-        <v>317.0003115066634</v>
+        <v>372.9415429490158</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6138,16 +6138,16 @@
         <v>1609.600092226174</v>
       </c>
       <c r="D8">
-        <v>70.68658167315859</v>
+        <v>78.54064630350955</v>
       </c>
       <c r="E8">
-        <v>1.194617963455721</v>
+        <v>1.327353292728579</v>
       </c>
       <c r="F8">
-        <v>56.32321129842011</v>
+        <v>66.26260152755307</v>
       </c>
       <c r="G8">
-        <v>75.96523045738009</v>
+        <v>86.47770908013909</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>932.0307007070596</v>
+        <v>1035.589667452288</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.596423893016526</v>
+        <v>10.66269321446281</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1757.913867440443</v>
+        <v>2068.13396169464</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>460.4057913577433</v>
+        <v>511.5619903974925</v>
       </c>
       <c r="C7">
-        <v>395.7581471183877</v>
+        <v>465.5978201392796</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6356,16 +6356,16 @@
         <v>2009.500707028883</v>
       </c>
       <c r="D8">
-        <v>74.56245605656473</v>
+        <v>82.84717339618304</v>
       </c>
       <c r="E8">
-        <v>0.7677139114413217</v>
+        <v>0.8530154571570242</v>
       </c>
       <c r="F8">
-        <v>70.3165546976178</v>
+        <v>82.72535846778567</v>
       </c>
       <c r="G8">
-        <v>85.61639384761308</v>
+        <v>97.71598105367718</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>990.0579934050155</v>
+        <v>1100.064437116684</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.86466444865804</v>
+        <v>16.51629383184226</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2157.523101551676</v>
+        <v>2538.262472413736</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>494.0160740724821</v>
+        <v>548.9067489694246</v>
       </c>
       <c r="C7">
-        <v>485.7219462512351</v>
+        <v>571.4375838249825</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6574,16 +6574,16 @@
         <v>2466.300697833322</v>
       </c>
       <c r="D8">
-        <v>79.2046394724012</v>
+        <v>88.00515496933467</v>
       </c>
       <c r="E8">
-        <v>1.189173155892642</v>
+        <v>1.32130350654738</v>
       </c>
       <c r="F8">
-        <v>86.3009240620671</v>
+        <v>101.5304988965495</v>
       </c>
       <c r="G8">
-        <v>97.97380203237171</v>
+        <v>112.0344332794407</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1041.679358522754</v>
+        <v>1157.421509469726</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.62638628598478</v>
+        <v>25.14042920664976</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2605.253503998009</v>
+        <v>3065.004122350598</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>527.1721351667586</v>
+        <v>585.7468168519539</v>
       </c>
       <c r="C7">
-        <v>586.5192365864705</v>
+        <v>690.0226312782006</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6792,16 +6792,16 @@
         <v>2978.108800004013</v>
       </c>
       <c r="D8">
-        <v>83.33434868182025</v>
+        <v>92.59372075757804</v>
       </c>
       <c r="E8">
-        <v>1.810110902878781</v>
+        <v>2.01123433653198</v>
       </c>
       <c r="F8">
-        <v>104.2101401599204</v>
+        <v>122.600164894024</v>
       </c>
       <c r="G8">
-        <v>111.3691371753229</v>
+        <v>127.5769448130154</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1080.326608750618</v>
+        <v>1200.362898611798</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.54696224082196</v>
+        <v>35.05218026757996</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3098.169538779687</v>
+        <v>3644.905339740807</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>555.2877878617206</v>
+        <v>616.9864309574673</v>
       </c>
       <c r="C7">
-        <v>697.4891425774696</v>
+        <v>820.5754618558465</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7010,16 +7010,16 @@
         <v>3541.569353302829</v>
       </c>
       <c r="D8">
-        <v>86.42612870004942</v>
+        <v>96.02903188894378</v>
       </c>
       <c r="E8">
-        <v>2.523756979265755</v>
+        <v>2.804174421406395</v>
       </c>
       <c r="F8">
-        <v>123.9267815511876</v>
+        <v>145.7962135896324</v>
       </c>
       <c r="G8">
-        <v>125.277693043919</v>
+        <v>143.7561892813313</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1162.063325218546</v>
+        <v>1291.181472465051</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44.26964933839616</v>
+        <v>49.18849926488462</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3633.130917389956</v>
+        <v>4274.271667517595</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>608.2450947683752</v>
+        <v>675.8278830759725</v>
       </c>
       <c r="C7">
-        <v>817.9246928623992</v>
+        <v>962.264344543999</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>4153.092641480601</v>
       </c>
       <c r="D8">
-        <v>92.96506601748364</v>
+        <v>103.294517797204</v>
       </c>
       <c r="E8">
-        <v>3.541571947071691</v>
+        <v>3.935079941190768</v>
       </c>
       <c r="F8">
-        <v>145.3252366955984</v>
+        <v>170.970866700704</v>
       </c>
       <c r="G8">
-        <v>142.6169787630774</v>
+        <v>163.8092227619971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1198.035852381355</v>
+        <v>1331.150947090394</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54.30344317701834</v>
+        <v>60.33715908557594</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4208.776320155939</v>
+        <v>4951.501553124634</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>636.2474313371805</v>
+        <v>706.9415903746449</v>
       </c>
       <c r="C7">
-        <v>947.5194143191383</v>
+        <v>1114.728722728398</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7446,16 +7446,16 @@
         <v>4811.122517279028</v>
       </c>
       <c r="D8">
-        <v>95.84286819050831</v>
+        <v>106.4920757672314</v>
       </c>
       <c r="E8">
-        <v>4.344275454161465</v>
+        <v>4.826972726846073</v>
       </c>
       <c r="F8">
-        <v>168.3510528062377</v>
+        <v>198.0600621249856</v>
       </c>
       <c r="G8">
-        <v>158.3766845656318</v>
+        <v>182.1670313103043</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1169.908905450918</v>
+        <v>1299.898783834354</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62.51984498035123</v>
+        <v>69.46649442261247</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4828.628252394769</v>
+        <v>5680.739120464435</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>631.3602446286453</v>
+        <v>701.511382920717</v>
       </c>
       <c r="C7">
-        <v>1087.066326562211</v>
+        <v>1278.901560661425</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7664,16 +7664,16 @@
         <v>5519.68561536799</v>
       </c>
       <c r="D8">
-        <v>93.59271243607343</v>
+        <v>103.9919027067483</v>
       </c>
       <c r="E8">
-        <v>5.001587598428096</v>
+        <v>5.557319553808995</v>
       </c>
       <c r="F8">
-        <v>193.1451300957909</v>
+        <v>227.2295648185776</v>
       </c>
       <c r="G8">
-        <v>171.8426571190856</v>
+        <v>198.0412943582141</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1191.936452112963</v>
+        <v>1324.37383568107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>92.53081854843066</v>
+        <v>102.8120206093674</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5505.373917178341</v>
+        <v>6476.910490798048</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>673.7798781448336</v>
+        <v>748.6443090498152</v>
       </c>
       <c r="C7">
-        <v>1239.421692388587</v>
+        <v>1458.143167515984</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7882,16 +7882,16 @@
         <v>6293.284889512967</v>
       </c>
       <c r="D8">
-        <v>95.35491616903695</v>
+        <v>105.9499068544855</v>
       </c>
       <c r="E8">
-        <v>7.402465483874449</v>
+        <v>8.224961648749389</v>
       </c>
       <c r="F8">
-        <v>220.2149566871338</v>
+        <v>259.0764196319221</v>
       </c>
       <c r="G8">
-        <v>191.320157053342</v>
+        <v>220.6787476565799</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1199.872572191219</v>
+        <v>1333.191746879132</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>152.8585356465747</v>
+        <v>169.842817385083</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6266.055104105486</v>
+        <v>7371.829534241748</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>741.494619397414</v>
+        <v>823.8829104415711</v>
       </c>
       <c r="C7">
-        <v>1410.673414479175</v>
+        <v>1659.615781740206</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8100,16 +8100,16 @@
         <v>7162.832261125277</v>
       </c>
       <c r="D8">
-        <v>95.98980577529746</v>
+        <v>106.6553397503305</v>
       </c>
       <c r="E8">
-        <v>12.22868285172597</v>
+        <v>13.58742539080663</v>
       </c>
       <c r="F8">
-        <v>250.6422041642197</v>
+        <v>294.8731813696702</v>
       </c>
       <c r="G8">
-        <v>215.2168033876589</v>
+        <v>248.3498692181777</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.909867334425444E-05</v>
+        <v>2.246902746382876E-05</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.299673445404202E-06</v>
+        <v>5.058439347534356E-06</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.639469337701783E-07</v>
+        <v>8.98761098553151E-07</v>
       </c>
       <c r="G8">
-        <v>4.299673445404201E-07</v>
+        <v>5.058439347534355E-07</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1232.270365615798</v>
+        <v>1369.189295128665</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>224.0669282245248</v>
+        <v>248.9632535828053</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7157.392828363732</v>
+        <v>8420.462151016156</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>832.5478116206095</v>
+        <v>925.0531240228994</v>
       </c>
       <c r="C7">
-        <v>1611.339768356218</v>
+        <v>1895.693845124962</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8536,16 +8536,16 @@
         <v>8181.735303119253</v>
       </c>
       <c r="D8">
-        <v>98.58162924926383</v>
+        <v>109.5351436102931</v>
       </c>
       <c r="E8">
-        <v>17.92535425796197</v>
+        <v>19.91706028662441</v>
       </c>
       <c r="F8">
-        <v>286.2957131345495</v>
+        <v>336.8184860406465</v>
       </c>
       <c r="G8">
-        <v>244.3887579976827</v>
+        <v>282.074696914786</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1291.957794637884</v>
+        <v>1435.50866070876</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>300.7277184780925</v>
+        <v>334.1419094201028</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8249.979198557125</v>
+        <v>9705.857880655441</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>942.5575840533043</v>
+        <v>1047.286204503671</v>
       </c>
       <c r="C7">
-        <v>1857.313115198361</v>
+        <v>2185.074253174542</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8754,16 +8754,16 @@
         <v>9430.68903404949</v>
       </c>
       <c r="D8">
-        <v>103.3566235710307</v>
+        <v>114.8406928567008</v>
       </c>
       <c r="E8">
-        <v>24.05821747824739</v>
+        <v>26.73135275360821</v>
       </c>
       <c r="F8">
-        <v>329.9991679422853</v>
+        <v>388.234315226218</v>
       </c>
       <c r="G8">
-        <v>279.9870699251665</v>
+        <v>323.2360457678213</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1284.593111163927</v>
+        <v>1427.325679071029</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>314.2475515318048</v>
+        <v>349.1639461464497</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9639.755222861946</v>
+        <v>11340.88849748464</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>953.3160029124981</v>
+        <v>1059.240003236109</v>
       </c>
       <c r="C7">
-        <v>2170.192599498276</v>
+        <v>2553.167764115619</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8972,16 +8972,16 @@
         <v>11019.36522301353</v>
       </c>
       <c r="D8">
-        <v>102.7674488931141</v>
+        <v>114.1860543256823</v>
       </c>
       <c r="E8">
-        <v>25.13980412254437</v>
+        <v>27.93311569171597</v>
       </c>
       <c r="F8">
-        <v>385.5902089144782</v>
+        <v>453.6355398993861</v>
       </c>
       <c r="G8">
-        <v>312.3508602410773</v>
+        <v>361.2407767351727</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1203.446457989871</v>
+        <v>1337.162731099857</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>272.5077140412063</v>
+        <v>302.7863489346736</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11445.19121862205</v>
+        <v>13464.9308454377</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>869.9175058516132</v>
+        <v>966.5750065017924</v>
       </c>
       <c r="C7">
-        <v>2576.649376281775</v>
+        <v>3031.352207390324</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>13083.18926876032</v>
       </c>
       <c r="D8">
-        <v>96.27571663918964</v>
+        <v>106.9730184879885</v>
       </c>
       <c r="E8">
-        <v>21.80061712329649</v>
+        <v>24.22290791477388</v>
       </c>
       <c r="F8">
-        <v>457.8076487448822</v>
+        <v>538.5972338175085</v>
       </c>
       <c r="G8">
-        <v>344.6566882133388</v>
+        <v>399.7927213892115</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1083.897635937725</v>
+        <v>1204.330706597473</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>264.0348636674737</v>
+        <v>293.3720707416374</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13799.12187307437</v>
+        <v>16234.26102714632</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>803.1941261692243</v>
+        <v>892.4379179658047</v>
       </c>
       <c r="C7">
-        <v>3106.588442982258</v>
+        <v>3654.809932920304</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9408,16 +9408,16 @@
         <v>15774.00672121389</v>
       </c>
       <c r="D8">
-        <v>86.71181087501799</v>
+        <v>96.34645652779777</v>
       </c>
       <c r="E8">
-        <v>21.12278909339788</v>
+        <v>23.46976565933098</v>
       </c>
       <c r="F8">
-        <v>551.9648749229752</v>
+        <v>649.3704410858533</v>
       </c>
       <c r="G8">
-        <v>390.9782569151481</v>
+        <v>454.7247850886108</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1072.909095402176</v>
+        <v>1192.121217113529</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>243.7166254102296</v>
+        <v>270.7962504558106</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16835.25520395119</v>
+        <v>19806.18259288375</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>776.3708305872715</v>
+        <v>862.6342562080793</v>
       </c>
       <c r="C7">
-        <v>3790.111409429815</v>
+        <v>4458.954599329194</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9626,16 +9626,16 @@
         <v>19244.6614489761</v>
       </c>
       <c r="D8">
-        <v>85.83272763217407</v>
+        <v>95.3696973690823</v>
       </c>
       <c r="E8">
-        <v>19.49733003281835</v>
+        <v>21.66370003646484</v>
       </c>
       <c r="F8">
-        <v>673.4102081580482</v>
+        <v>792.2473037153509</v>
       </c>
       <c r="G8">
-        <v>456.6482240017085</v>
+        <v>532.1588855537271</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1251.123719405516</v>
+        <v>1390.137466006129</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>213.9763763153585</v>
+        <v>237.7515292392872</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>20670.68464717029</v>
+        <v>24318.4525260827</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>830.9705873077845</v>
+        <v>923.3006525642048</v>
       </c>
       <c r="C7">
-        <v>4653.579454119511</v>
+        <v>5474.79935778766</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9844,16 +9844,16 @@
         <v>23629.00491463756</v>
       </c>
       <c r="D8">
-        <v>100.0898975524412</v>
+        <v>111.2109972804903</v>
       </c>
       <c r="E8">
-        <v>17.11811010522867</v>
+        <v>19.02012233914297</v>
       </c>
       <c r="F8">
-        <v>826.8273858868124</v>
+        <v>972.7381010433087</v>
       </c>
       <c r="G8">
-        <v>548.4550041427294</v>
+        <v>639.8100010351864</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1712.956388523141</v>
+        <v>1903.284876136824</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>184.8100810071211</v>
+        <v>205.3445344523568</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25386.75230732321</v>
+        <v>29866.76742038025</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1023.187929591012</v>
+        <v>1136.875477323347</v>
       </c>
       <c r="C7">
-        <v>5715.305078700091</v>
+        <v>6723.888327882461</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10062,16 +10062,16 @@
         <v>29020.02063674001</v>
       </c>
       <c r="D8">
-        <v>137.0365110818512</v>
+        <v>152.2627900909458</v>
       </c>
       <c r="E8">
-        <v>14.78480648056968</v>
+        <v>16.42756275618854</v>
       </c>
       <c r="F8">
-        <v>1015.470092292929</v>
+        <v>1194.670696815211</v>
       </c>
       <c r="G8">
-        <v>673.8493008291101</v>
+        <v>786.0763805205805</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2667.877656076265</v>
+        <v>2964.308506751406</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>210.8381329826022</v>
+        <v>234.2645922028913</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31010.85864206125</v>
+        <v>36483.36310830736</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1512.051103122799</v>
+        <v>1680.056781247554</v>
       </c>
       <c r="C7">
-        <v>6981.456932586711</v>
+        <v>8213.478744219659</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10280,16 +10280,16 @@
         <v>35449.03053613691</v>
       </c>
       <c r="D8">
-        <v>213.4302124861011</v>
+        <v>237.1446805401124</v>
       </c>
       <c r="E8">
-        <v>16.86705063860817</v>
+        <v>18.7411673762313</v>
       </c>
       <c r="F8">
-        <v>1240.434345682451</v>
+        <v>1459.334524332296</v>
       </c>
       <c r="G8">
-        <v>849.3508035709508</v>
+        <v>989.3535525467212</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4095.545536174373</v>
+        <v>4550.606151304858</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>328.7581638517623</v>
+        <v>365.2868487241804</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>37501.26463356276</v>
+        <v>44119.13486301501</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2326.592421039596</v>
+        <v>2585.102690043995</v>
       </c>
       <c r="C7">
-        <v>8442.638334484798</v>
+        <v>9932.515687629175</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10498,16 +10498,16 @@
         <v>42868.32204432489</v>
       </c>
       <c r="D8">
-        <v>327.6436428939496</v>
+        <v>364.0484921043885</v>
       </c>
       <c r="E8">
-        <v>26.30065310814097</v>
+        <v>29.22294789793442</v>
       </c>
       <c r="F8">
-        <v>1500.050585342512</v>
+        <v>1764.765394520602</v>
       </c>
       <c r="G8">
-        <v>1076.923075552439</v>
+        <v>1251.761837767317</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002095100189919424</v>
+        <v>0.0002464823752846381</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.716687117311135E-05</v>
+        <v>5.549043667424864E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8.380400759677704E-06</v>
+        <v>9.859295011385534E-06</v>
       </c>
       <c r="G8">
-        <v>4.716687117311134E-06</v>
+        <v>5.549043667424863E-06</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5768.387401390477</v>
+        <v>6409.319334878308</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>468.433496484823</v>
+        <v>520.4816627609144</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>44736.11043998337</v>
+        <v>52630.71816468632</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3282.608731657184</v>
+        <v>3647.343035174649</v>
       </c>
       <c r="C7">
-        <v>10071.41504764948</v>
+        <v>11848.72358546998</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10934,16 +10934,16 @@
         <v>51138.59514047801</v>
       </c>
       <c r="D8">
-        <v>461.4709921112379</v>
+        <v>512.7455467902644</v>
       </c>
       <c r="E8">
-        <v>37.47467971878582</v>
+        <v>41.63853302087313</v>
       </c>
       <c r="F8">
-        <v>1789.444417599336</v>
+        <v>2105.228726587455</v>
       </c>
       <c r="G8">
-        <v>1335.402377930666</v>
+        <v>1549.606662064462</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8113.707644663092</v>
+        <v>9015.230716292324</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>654.9305298015215</v>
+        <v>727.7005886683572</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>52507.53663422288</v>
+        <v>61773.57251085045</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4613.064459893511</v>
+        <v>5125.627177659456</v>
       </c>
       <c r="C7">
-        <v>11820.99179771953</v>
+        <v>13907.04917378769</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11152,16 +11152,16 @@
         <v>60022.2422412801</v>
       </c>
       <c r="D8">
-        <v>649.096611573047</v>
+        <v>721.2184573033855</v>
       </c>
       <c r="E8">
-        <v>52.3944423841217</v>
+        <v>58.21604709346855</v>
       </c>
       <c r="F8">
-        <v>2100.301465368917</v>
+        <v>2470.94290043402</v>
       </c>
       <c r="G8">
-        <v>1643.405625761304</v>
+        <v>1903.267635144714</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11556.06105837128</v>
+        <v>12840.06784263476</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>932.3816853580038</v>
+        <v>1035.979650397782</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60522.31186579198</v>
+        <v>71202.71984210821</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6569.784753289784</v>
+        <v>7299.760836988648</v>
       </c>
       <c r="C7">
-        <v>13625.35357787575</v>
+        <v>16029.82773867735</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>69184.06569168945</v>
       </c>
       <c r="D8">
-        <v>924.4848846697021</v>
+        <v>1027.20542741078</v>
       </c>
       <c r="E8">
-        <v>74.59053482864026</v>
+        <v>82.87837203182252</v>
       </c>
       <c r="F8">
-        <v>2420.892474631681</v>
+        <v>2848.108793684331</v>
       </c>
       <c r="G8">
-        <v>2019.513833116553</v>
+        <v>2332.958857566599</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13954.83399353588</v>
+        <v>15505.37110392875</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1125.957271301869</v>
+        <v>1251.063634779854</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>68411.29588819171</v>
+        <v>80483.87751551966</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7933.557810186599</v>
+        <v>8815.064233540666</v>
       </c>
       <c r="C7">
-        <v>15401.39605480174</v>
+        <v>18119.28947623735</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11588,16 +11588,16 @@
         <v>78202.09510961195</v>
       </c>
       <c r="D8">
-        <v>1116.38671948287</v>
+        <v>1240.4296883143</v>
       </c>
       <c r="E8">
-        <v>90.07658170414946</v>
+        <v>100.0850907823883</v>
       </c>
       <c r="F8">
-        <v>2736.451835527671</v>
+        <v>3219.355100620789</v>
       </c>
       <c r="G8">
-        <v>2333.495386498834</v>
+        <v>2693.435370977801</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14280.65464609804</v>
+        <v>15867.39405122004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1149.42145489004</v>
+        <v>1277.134949877822</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75750.32648386361</v>
+        <v>89118.03115748659</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8115.801020849121</v>
+        <v>9017.556689832358</v>
       </c>
       <c r="C7">
-        <v>17053.62783019427</v>
+        <v>20063.09156493444</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11806,16 +11806,16 @@
         <v>86591.46357871809</v>
       </c>
       <c r="D8">
-        <v>1142.452371687842</v>
+        <v>1269.391524097603</v>
       </c>
       <c r="E8">
-        <v>91.95371639120317</v>
+        <v>102.1707959902257</v>
       </c>
       <c r="F8">
-        <v>3030.013059354547</v>
+        <v>3564.721246299467</v>
       </c>
       <c r="G8">
-        <v>2516.942885104339</v>
+        <v>2908.064825476679</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14154.14956599173</v>
+        <v>15726.83285110192</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1135.045831221638</v>
+        <v>1261.162034690709</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>82093.76579630535</v>
+        <v>96580.90093682983</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8039.466779438741</v>
+        <v>8932.740866043045</v>
       </c>
       <c r="C7">
-        <v>18481.7227073939</v>
+        <v>21743.20318516929</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12024,16 +12024,16 @@
         <v>93842.75502106082</v>
       </c>
       <c r="D8">
-        <v>1132.331965279338</v>
+        <v>1258.146628088153</v>
       </c>
       <c r="E8">
-        <v>90.80366649773099</v>
+        <v>100.8929627752566</v>
       </c>
       <c r="F8">
-        <v>3283.750631852217</v>
+        <v>3863.236037473197</v>
       </c>
       <c r="G8">
-        <v>2652.118948683263</v>
+        <v>3067.594405121233</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13860.9348537514</v>
+        <v>15401.03872639044</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1106.138647103608</v>
+        <v>1229.042941226232</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>87018.88235894236</v>
+        <v>102375.1557164028</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7867.211214000056</v>
+        <v>8741.345793333398</v>
       </c>
       <c r="C7">
-        <v>19590.51139225097</v>
+        <v>23047.66046147173</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12242,16 +12242,16 @@
         <v>99472.73803566038</v>
       </c>
       <c r="D8">
-        <v>1108.874788300112</v>
+        <v>1232.083098111235</v>
       </c>
       <c r="E8">
-        <v>88.49109176828864</v>
+        <v>98.32343529809849</v>
       </c>
       <c r="F8">
-        <v>3480.755294357697</v>
+        <v>4095.006228656115</v>
       </c>
       <c r="G8">
-        <v>2745.772260625102</v>
+        <v>3178.900625480513</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13383.22319633638</v>
+        <v>14870.24799592931</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1065.061240636981</v>
+        <v>1183.401378485534</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>90175.41181089915</v>
+        <v>106088.7197775284</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7592.942072120871</v>
+        <v>8436.602302356523</v>
       </c>
       <c r="C7">
-        <v>20301.13906882191</v>
+        <v>23883.69302214343</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12460,16 +12460,16 @@
         <v>103081.019580592</v>
       </c>
       <c r="D8">
-        <v>1070.65785570691</v>
+        <v>1189.619839674344</v>
       </c>
       <c r="E8">
-        <v>85.20489925095841</v>
+        <v>94.67211027884267</v>
       </c>
       <c r="F8">
-        <v>3607.016472435969</v>
+        <v>4243.548791101141</v>
       </c>
       <c r="G8">
-        <v>2789.408114094278</v>
+        <v>3232.029532449995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12966.51340577194</v>
+        <v>14407.23711752438</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1033.200327789913</v>
+        <v>1148.000364211015</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>91331.57818312108</v>
+        <v>107448.9155095542</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7357.900968248664</v>
+        <v>8175.445520276294</v>
       </c>
       <c r="C7">
-        <v>20561.42614528566</v>
+        <v>24189.91311210077</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12678,16 +12678,16 @@
         <v>104402.6526739163</v>
       </c>
       <c r="D8">
-        <v>1037.321072461755</v>
+        <v>1152.57896940195</v>
       </c>
       <c r="E8">
-        <v>82.65602622319304</v>
+        <v>91.84002913688116</v>
       </c>
       <c r="F8">
-        <v>3653.263127324846</v>
+        <v>4297.956620382172</v>
       </c>
       <c r="G8">
-        <v>2791.932711353431</v>
+        <v>3236.535863237706</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12586.49078054358</v>
+        <v>13984.98975615954</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1006.915461727226</v>
+        <v>1118.794957474696</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>90407.06326597715</v>
+        <v>106361.2509011496</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7146.487122639837</v>
+        <v>7940.541247377597</v>
       </c>
       <c r="C7">
-        <v>20353.29062888238</v>
+        <v>23945.04779868515</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12896,16 +12896,16 @@
         <v>103345.8242285246</v>
       </c>
       <c r="D8">
-        <v>1006.919262443486</v>
+        <v>1118.799180492763</v>
       </c>
       <c r="E8">
-        <v>80.55323693817805</v>
+        <v>89.5035965979756</v>
       </c>
       <c r="F8">
-        <v>3616.282530639089</v>
+        <v>4254.450036045987</v>
       </c>
       <c r="G8">
-        <v>2749.977775152222</v>
+        <v>3188.558904606275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001155467972064247</v>
+        <v>0.001359374084781467</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0002601298460342681</v>
+        <v>0.0003060351129814919</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.621871888256992E-05</v>
+        <v>5.437496339125873E-05</v>
       </c>
       <c r="G8">
-        <v>2.60129846034268E-05</v>
+        <v>3.060351129814918E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11598.63994741095</v>
+        <v>12887.3777193455</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>931.6226425568271</v>
+        <v>1035.136269507586</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>87485.66829171147</v>
+        <v>102924.3156373076</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6589.549956318004</v>
+        <v>7321.72217368667</v>
       </c>
       <c r="C7">
-        <v>19695.59864326778</v>
+        <v>23171.2925214915</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13332,16 +13332,16 @@
         <v>100006.328832857</v>
       </c>
       <c r="D8">
-        <v>927.8911957928755</v>
+        <v>1030.990217547639</v>
       </c>
       <c r="E8">
-        <v>74.52981140454614</v>
+        <v>82.81090156060684</v>
       </c>
       <c r="F8">
-        <v>3499.426731668462</v>
+        <v>4116.972625492308</v>
       </c>
       <c r="G8">
-        <v>2628.514859958577</v>
+        <v>3049.301469517817</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9279.65278875765</v>
+        <v>10310.72532084183</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>748.0726437544155</v>
+        <v>831.1918263937949</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>82805.35259781282</v>
+        <v>97418.06187977978</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5274.935791892079</v>
+        <v>5861.039768768975</v>
       </c>
       <c r="C7">
-        <v>18641.9218384745</v>
+        <v>21931.67275114647</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13550,16 +13550,16 @@
         <v>94656.18178060032</v>
       </c>
       <c r="D8">
-        <v>742.3722231006117</v>
+        <v>824.8580256673463</v>
       </c>
       <c r="E8">
-        <v>59.84581150035321</v>
+        <v>66.49534611150357</v>
       </c>
       <c r="F8">
-        <v>3312.214103912515</v>
+        <v>3896.722475191194</v>
       </c>
       <c r="G8">
-        <v>2391.685763036657</v>
+        <v>2779.271251991544</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5612.017279122676</v>
+        <v>6235.574754580751</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>459.1932809966113</v>
+        <v>510.2147566629015</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76729.31524238035</v>
+        <v>90269.78263809455</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3197.285205153893</v>
+        <v>3552.539116837658</v>
       </c>
       <c r="C7">
-        <v>17274.02701146044</v>
+        <v>20322.38471936523</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13768,16 +13768,16 @@
         <v>87710.56198214392</v>
       </c>
       <c r="D8">
-        <v>448.9613823298138</v>
+        <v>498.8459803664598</v>
       </c>
       <c r="E8">
-        <v>36.73546247972889</v>
+        <v>40.8171805330321</v>
       </c>
       <c r="F8">
-        <v>3069.172609695217</v>
+        <v>3610.791305523785</v>
       </c>
       <c r="G8">
-        <v>2047.131221661433</v>
+        <v>2387.492383620288</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3038.226395780845</v>
+        <v>3375.807106423162</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>276.9246083364244</v>
+        <v>307.6940092626938</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69706.31097906768</v>
+        <v>82007.4246812561</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1760.937593004705</v>
+        <v>1956.597325560783</v>
       </c>
       <c r="C7">
-        <v>15692.94206416434</v>
+        <v>18462.28478136981</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13986,16 +13986,16 @@
         <v>79682.44849263485</v>
       </c>
       <c r="D8">
-        <v>243.0581116624675</v>
+        <v>270.0645685138528</v>
       </c>
       <c r="E8">
-        <v>22.15396866691394</v>
+        <v>24.61552074101549</v>
       </c>
       <c r="F8">
-        <v>2788.25243916271</v>
+        <v>3280.296987250247</v>
       </c>
       <c r="G8">
-        <v>1745.387965716904</v>
+        <v>2041.888210693059</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2643.586053878495</v>
+        <v>2937.317837642772</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>293.8776549797647</v>
+        <v>326.5307277552941</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62229.25336108238</v>
+        <v>73210.88630715574</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1588.246831234998</v>
+        <v>1764.71870137222</v>
       </c>
       <c r="C7">
-        <v>14009.63634390183</v>
+        <v>16481.92511047274</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14204,16 +14204,16 @@
         <v>71135.29902864316</v>
       </c>
       <c r="D8">
-        <v>211.4868843102795</v>
+        <v>234.9854270114216</v>
       </c>
       <c r="E8">
-        <v>23.51021239838116</v>
+        <v>26.12245822042351</v>
       </c>
       <c r="F8">
-        <v>2489.170134443298</v>
+        <v>2928.435452286232</v>
       </c>
       <c r="G8">
-        <v>1559.788317513682</v>
+        <v>1824.664381184495</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2523.991105807144</v>
+        <v>2804.434562007938</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>339.0372342134371</v>
+        <v>376.7080380149301</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54797.90351042413</v>
+        <v>64468.12177696956</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1578.292505500941</v>
+        <v>1753.65833944549</v>
       </c>
       <c r="C7">
-        <v>12336.6207872482</v>
+        <v>14513.67151440964</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14422,16 +14422,16 @@
         <v>62640.39887701064</v>
       </c>
       <c r="D8">
-        <v>201.9192884645714</v>
+        <v>224.3547649606349</v>
       </c>
       <c r="E8">
-        <v>27.12297873707496</v>
+        <v>30.13664304119439</v>
       </c>
       <c r="F8">
-        <v>2191.916140416967</v>
+        <v>2578.724871078785</v>
       </c>
       <c r="G8">
-        <v>1391.491329274913</v>
+        <v>1626.732985385513</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2222.162394015927</v>
+        <v>2469.069326684364</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>356.4724188956631</v>
+        <v>396.0804654396256</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>47886.22586983663</v>
+        <v>56336.73631745487</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1450.94759760281</v>
+        <v>1612.163997336455</v>
       </c>
       <c r="C7">
-        <v>10780.59873907969</v>
+        <v>12683.05734009375</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14640,16 +14640,16 @@
         <v>54739.54470959972</v>
       </c>
       <c r="D8">
-        <v>177.7729915212741</v>
+        <v>197.525546134749</v>
       </c>
       <c r="E8">
-        <v>28.51779351165304</v>
+        <v>31.68643723517004</v>
       </c>
       <c r="F8">
-        <v>1915.449034793467</v>
+        <v>2253.469452698197</v>
       </c>
       <c r="G8">
-        <v>1223.15463366825</v>
+        <v>1429.522133743021</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1712.807815613562</v>
+        <v>1903.119795126179</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>328.9705395777671</v>
+        <v>365.5228217530745</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>41911.64223658812</v>
+        <v>49307.81439598603</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1175.767550469356</v>
+        <v>1306.408389410396</v>
       </c>
       <c r="C7">
-        <v>9435.54413072108</v>
+        <v>11100.64015378951</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14858,16 +14858,16 @@
         <v>47909.8983557104</v>
       </c>
       <c r="D8">
-        <v>137.0246252490849</v>
+        <v>152.2495836100943</v>
       </c>
       <c r="E8">
-        <v>26.31764316622136</v>
+        <v>29.24182574024595</v>
       </c>
       <c r="F8">
-        <v>1676.465689463526</v>
+        <v>1972.312575839443</v>
       </c>
       <c r="G8">
-        <v>1061.131168119043</v>
+        <v>1240.70485431999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1327.219428844946</v>
+        <v>1474.688254272162</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>285.9631219068041</v>
+        <v>317.7368021186712</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>37204.69644137033</v>
+        <v>43770.23110749451</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>943.9575078033963</v>
+        <v>1048.841675337107</v>
       </c>
       <c r="C7">
-        <v>8375.872106394674</v>
+        <v>9853.967183993733</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15076,16 +15076,16 @@
         <v>42529.30998979195</v>
       </c>
       <c r="D8">
-        <v>106.1775543075956</v>
+        <v>117.9750603417729</v>
       </c>
       <c r="E8">
-        <v>22.87704975254432</v>
+        <v>25.41894416949368</v>
       </c>
       <c r="F8">
-        <v>1488.187857654814</v>
+        <v>1750.809244299782</v>
       </c>
       <c r="G8">
-        <v>931.9829614198068</v>
+        <v>1090.280885933084</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1267.973608028662</v>
+        <v>1408.859564476291</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>261.690672291481</v>
+        <v>290.767413657201</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>33982.66511267544</v>
+        <v>39979.60601491229</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>889.635038511115</v>
+        <v>988.483376123461</v>
       </c>
       <c r="C7">
-        <v>7650.498029644075</v>
+        <v>9000.585917228324</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15294,16 +15294,16 @@
         <v>38846.15215538175</v>
       </c>
       <c r="D8">
-        <v>101.4378886422929</v>
+        <v>112.7087651581032</v>
       </c>
       <c r="E8">
-        <v>20.93525378331847</v>
+        <v>23.26139309257607</v>
       </c>
       <c r="F8">
-        <v>1359.306604507019</v>
+        <v>1599.184240596493</v>
       </c>
       <c r="G8">
-        <v>854.0133068155188</v>
+        <v>998.9069293351781</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004485588116110603</v>
+        <v>0.005277162489541887</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.00100983789618369</v>
+        <v>0.001188044583745518</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15518,10 +15518,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0001794235246444243</v>
+        <v>0.0002110864995816757</v>
       </c>
       <c r="G8">
-        <v>0.000100983789618369</v>
+        <v>0.0001188044583745517</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1378.682903388795</v>
+        <v>1531.869892654217</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>244.8098854972772</v>
+        <v>272.0109838858636</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>32335.06856407207</v>
+        <v>38041.25713420244</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>925.24128550402</v>
+        <v>1028.045872782244</v>
       </c>
       <c r="C7">
-        <v>7279.575557644171</v>
+        <v>8564.206538404907</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15730,16 +15730,16 @@
         <v>36962.75701831654</v>
       </c>
       <c r="D8">
-        <v>110.2946322711036</v>
+        <v>122.5495914123373</v>
       </c>
       <c r="E8">
-        <v>19.58479083978217</v>
+        <v>21.76087871086908</v>
       </c>
       <c r="F8">
-        <v>1293.402742562884</v>
+        <v>1521.650285368099</v>
       </c>
       <c r="G8">
-        <v>820.4816843148188</v>
+        <v>959.2252411187152</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1715.373139277741</v>
+        <v>1905.970154753045</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>232.2749163227636</v>
+        <v>258.0832403586263</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>32228.39436696127</v>
+        <v>37915.75807877797</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1074.615886141259</v>
+        <v>1194.017651268065</v>
       </c>
       <c r="C7">
-        <v>7255.560056443659</v>
+        <v>8535.953007580774</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15948,16 +15948,16 @@
         <v>36840.81596165487</v>
       </c>
       <c r="D8">
-        <v>137.2298511422192</v>
+        <v>152.4776123802435</v>
       </c>
       <c r="E8">
-        <v>18.58199330582108</v>
+        <v>20.64665922869009</v>
       </c>
       <c r="F8">
-        <v>1289.135774678452</v>
+        <v>1516.63032315112</v>
       </c>
       <c r="G8">
-        <v>833.0175942584916</v>
+        <v>972.9970658848837</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2375.966122642024</v>
+        <v>2639.962358491137</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>240.0881915964802</v>
+        <v>266.7646573294224</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>33530.8193022854</v>
+        <v>39448.02270857106</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1402.007732972181</v>
+        <v>1557.786369969089</v>
       </c>
       <c r="C7">
-        <v>7548.774239863897</v>
+        <v>8880.910870428115</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16166,16 +16166,16 @@
         <v>38329.63966164457</v>
       </c>
       <c r="D8">
-        <v>190.0772898113618</v>
+        <v>211.1969886792909</v>
       </c>
       <c r="E8">
-        <v>19.20705532771841</v>
+        <v>21.34117258635379</v>
       </c>
       <c r="F8">
-        <v>1341.232772091417</v>
+        <v>1577.920908342844</v>
       </c>
       <c r="G8">
-        <v>895.0781972836077</v>
+        <v>1043.86972403972</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3444.24791155814</v>
+        <v>3826.942123953488</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>291.8027526944858</v>
+        <v>324.2252807716509</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>36049.05692834232</v>
+        <v>42410.65520981449</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1972.832379518333</v>
+        <v>2192.035977242592</v>
       </c>
       <c r="C7">
-        <v>8115.703641440996</v>
+        <v>9547.886636989406</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16384,16 +16384,16 @@
         <v>41208.27915801315</v>
       </c>
       <c r="D8">
-        <v>275.539832924651</v>
+        <v>306.1553699162789</v>
       </c>
       <c r="E8">
-        <v>23.34422021555886</v>
+        <v>25.93802246173206</v>
       </c>
       <c r="F8">
-        <v>1441.962277133694</v>
+        <v>1696.426208392581</v>
       </c>
       <c r="G8">
-        <v>1008.853602095933</v>
+        <v>1173.9922614232</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4946.05641296995</v>
+        <v>5495.618236633277</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>399.9799067614449</v>
+        <v>444.4221186238276</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>39564.3963277767</v>
+        <v>46546.34862091376</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2812.872725352274</v>
+        <v>3125.414139280304</v>
       </c>
       <c r="C7">
-        <v>8907.109996997007</v>
+        <v>10478.95293764354</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16602,16 +16602,16 @@
         <v>45226.72234766459</v>
       </c>
       <c r="D8">
-        <v>395.6845130375958</v>
+        <v>439.6494589306619</v>
       </c>
       <c r="E8">
-        <v>31.99839254091557</v>
+        <v>35.55376948990619</v>
       </c>
       <c r="F8">
-        <v>1582.575853111069</v>
+        <v>1861.853944836552</v>
       </c>
       <c r="G8">
-        <v>1171.998272234928</v>
+        <v>1360.436707692384</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6857.873301915859</v>
+        <v>7619.859224350954</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>554.0807812122125</v>
+        <v>615.6453124580138</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>43857.00504838856</v>
+        <v>51596.47652751596</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3899.607965790318</v>
+        <v>4332.89773976702</v>
       </c>
       <c r="C7">
-        <v>9873.502551853589</v>
+        <v>11615.88535512187</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16820,16 +16820,16 @@
         <v>50133.67508228721</v>
       </c>
       <c r="D8">
-        <v>548.6298641532685</v>
+        <v>609.588737948076</v>
       </c>
       <c r="E8">
-        <v>44.32646249697698</v>
+        <v>49.25162499664108</v>
       </c>
       <c r="F8">
-        <v>1754.280201935544</v>
+        <v>2063.85906110064</v>
       </c>
       <c r="G8">
-        <v>1377.31105176439</v>
+        <v>1594.878309488889</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9141.041773833787</v>
+        <v>10156.71308203754</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>738.3387779721592</v>
+        <v>820.3764199690658</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>48715.1469876215</v>
+        <v>57311.93763249589</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5197.668585342777</v>
+        <v>5775.187317047529</v>
       </c>
       <c r="C7">
-        <v>10967.21327791343</v>
+        <v>12902.60385636875</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17038,16 +17038,16 @@
         <v>55687.09828609273</v>
       </c>
       <c r="D8">
-        <v>731.2833419067026</v>
+        <v>812.5370465630028</v>
       </c>
       <c r="E8">
-        <v>59.0671022377727</v>
+        <v>65.63011359752522</v>
       </c>
       <c r="F8">
-        <v>1948.605879504862</v>
+        <v>2292.477505299838</v>
       </c>
       <c r="G8">
-        <v>1616.488186325621</v>
+        <v>1867.779117341627</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11525.19375784038</v>
+        <v>12805.77084204487</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>929.6155003386533</v>
+        <v>1032.906111487392</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53933.7554826268</v>
+        <v>63451.47703838448</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6551.944307898162</v>
+        <v>7279.938119886846</v>
       </c>
       <c r="C7">
-        <v>12142.07563423963</v>
+        <v>14284.79486381133</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17256,16 +17256,16 @@
         <v>61652.57683123275</v>
       </c>
       <c r="D8">
-        <v>922.0155006272304</v>
+        <v>1024.461667363589</v>
       </c>
       <c r="E8">
-        <v>74.36924002709223</v>
+        <v>82.63248891899134</v>
       </c>
       <c r="F8">
-        <v>2157.350219305074</v>
+        <v>2538.059081535382</v>
       </c>
       <c r="G8">
-        <v>1869.401994213779</v>
+        <v>2156.473298369818</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13326.59148394828</v>
+        <v>14807.32387105364</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1073.588617634249</v>
+        <v>1192.876241815832</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>59309.92894830228</v>
+        <v>69776.38699800268</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7574.614132775279</v>
+        <v>8416.237925305866</v>
       </c>
       <c r="C7">
-        <v>13352.41050261443</v>
+        <v>15708.71823836992</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17474,16 +17474,16 @@
         <v>67798.17052639756</v>
       </c>
       <c r="D8">
-        <v>1066.127318715862</v>
+        <v>1184.585909684291</v>
       </c>
       <c r="E8">
-        <v>85.88708941073986</v>
+        <v>95.43009934526651</v>
       </c>
       <c r="F8">
-        <v>2372.397157932093</v>
+        <v>2791.05547992011</v>
       </c>
       <c r="G8">
-        <v>2092.70246353897</v>
+        <v>2412.495616367578</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14081.07873201091</v>
+        <v>15645.64303556768</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1132.071207753525</v>
+        <v>1257.856897503916</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>64640.77750462363</v>
+        <v>76047.97353485133</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8001.017992180711</v>
+        <v>8890.019991311901</v>
       </c>
       <c r="C7">
-        <v>14552.54139997761</v>
+        <v>17120.63694115013</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17692,16 +17692,16 @@
         <v>73891.95256054752</v>
       </c>
       <c r="D8">
-        <v>1126.486298560872</v>
+        <v>1251.651442845414</v>
       </c>
       <c r="E8">
-        <v>90.56569662028191</v>
+        <v>100.6285518003132</v>
       </c>
       <c r="F8">
-        <v>2585.631100184947</v>
+        <v>3041.918941394056</v>
       </c>
       <c r="G8">
-        <v>2255.355939215831</v>
+        <v>2601.065693246202</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.44759454489316E-13</v>
+        <v>7.163993938770178E-13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.391447314330563E-15</v>
+        <v>1.546052571478403E-15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01419030029942119</v>
+        <v>0.01669447094049552</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.129429384078353E-13</v>
+        <v>3.477143760087058E-13</v>
       </c>
       <c r="C7">
-        <v>0.003194654219167933</v>
+        <v>0.003758416728432863</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17910,16 +17910,16 @@
         <v>0.01622116931483</v>
       </c>
       <c r="D8">
-        <v>5.158075635914526E-14</v>
+        <v>5.731195151016139E-14</v>
       </c>
       <c r="E8">
-        <v>1.113157851464449E-16</v>
+        <v>1.236842057182722E-16</v>
       </c>
       <c r="F8">
-        <v>0.0005676120119768481</v>
+        <v>0.0006677788376198214</v>
       </c>
       <c r="G8">
-        <v>0.0003194654219480875</v>
+        <v>0.0003758416728780577</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14124.84054872696</v>
+        <v>15694.26727636329</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1132.437192471714</v>
+        <v>1258.263547190793</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69724.98971123979</v>
+        <v>82029.39966028211</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8022.545933063277</v>
+        <v>8913.939925625862</v>
       </c>
       <c r="C7">
-        <v>15697.14719649299</v>
+        <v>18467.2319958741</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18128,16 +18128,16 @@
         <v>79703.80046340059</v>
       </c>
       <c r="D8">
-        <v>1129.987243898157</v>
+        <v>1255.541382109063</v>
       </c>
       <c r="E8">
-        <v>90.59497539773704</v>
+        <v>100.6610837752634</v>
       </c>
       <c r="F8">
-        <v>2788.999588449594</v>
+        <v>3281.175986411287</v>
       </c>
       <c r="G8">
-        <v>2371.969312955625</v>
+        <v>2738.117192149996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13993.10394744725</v>
+        <v>15547.89327494139</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1119.394135349911</v>
+        <v>1243.771261499901</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>74367.08188827106</v>
+        <v>87490.68457443656</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7945.095509034164</v>
+        <v>8827.883898926848</v>
       </c>
       <c r="C7">
-        <v>16742.218762718</v>
+        <v>19696.72795613883</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18346,16 +18346,16 @@
         <v>85010.25357501963</v>
       </c>
       <c r="D8">
-        <v>1119.448315795779</v>
+        <v>1243.83146199531</v>
       </c>
       <c r="E8">
-        <v>89.55153082799286</v>
+        <v>99.50170091999206</v>
       </c>
       <c r="F8">
-        <v>2974.683275530845</v>
+        <v>3499.627382977465</v>
       </c>
       <c r="G8">
-        <v>2468.731427175216</v>
+        <v>2852.461185506567</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13940.08874690471</v>
+        <v>15488.98749656079</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1115.436068979763</v>
+        <v>1239.373409977515</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78383.35342618619</v>
+        <v>92215.70991316024</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7915.293803490489</v>
+        <v>8794.77089276721</v>
       </c>
       <c r="C7">
-        <v>17646.3996851223</v>
+        <v>20760.47021779095</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18564,16 +18564,16 @@
         <v>89601.32066001369</v>
       </c>
       <c r="D8">
-        <v>1115.207099752377</v>
+        <v>1239.118999724863</v>
       </c>
       <c r="E8">
-        <v>89.23488551838102</v>
+        <v>99.14987279820113</v>
       </c>
       <c r="F8">
-        <v>3135.33413704745</v>
+        <v>3688.628396526413</v>
       </c>
       <c r="G8">
-        <v>2556.169348861278</v>
+        <v>2955.524111055815</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13972.1978865683</v>
+        <v>15524.66431840922</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1122.011348072045</v>
+        <v>1246.679275635606</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81609.55142144168</v>
+        <v>96011.23696640198</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7937.767601512309</v>
+        <v>8819.74177945812</v>
       </c>
       <c r="C7">
-        <v>18372.71180114105</v>
+        <v>21614.95506016594</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18782,16 +18782,16 @@
         <v>93289.24148057157</v>
       </c>
       <c r="D8">
-        <v>1117.775830925464</v>
+        <v>1241.973145472737</v>
       </c>
       <c r="E8">
-        <v>89.76090784576357</v>
+        <v>99.73434205084843</v>
       </c>
       <c r="F8">
-        <v>3264.38205685767</v>
+        <v>3840.449478656083</v>
       </c>
       <c r="G8">
-        <v>2631.047940265335</v>
+        <v>3043.469683962405</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13539.10306894896</v>
+        <v>15043.44785438774</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1092.719970728894</v>
+        <v>1214.133300809882</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83910.54953864957</v>
+        <v>98718.29357488184</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7697.532119730606</v>
+        <v>8552.813466367341</v>
       </c>
       <c r="C7">
-        <v>18890.73419589865</v>
+        <v>22224.39317164547</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19000,16 +19000,16 @@
         <v>95919.55086548689</v>
       </c>
       <c r="D8">
-        <v>1083.128245515916</v>
+        <v>1203.475828351018</v>
       </c>
       <c r="E8">
-        <v>87.41759765831146</v>
+        <v>97.13066406479054</v>
       </c>
       <c r="F8">
-        <v>3356.421981545986</v>
+        <v>3948.731742995277</v>
       </c>
       <c r="G8">
-        <v>2658.826631562925</v>
+        <v>3077.72066380128</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12154.86546534674</v>
+        <v>13505.40607260748</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>987.0923157569349</v>
+        <v>1096.769239729928</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85191.67148391758</v>
+        <v>100225.4958634325</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6916.987428687708</v>
+        <v>7685.541587430786</v>
       </c>
       <c r="C7">
-        <v>19179.15244930841</v>
+        <v>22563.70876389225</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19218,16 +19218,16 @@
         <v>97384.02276168662</v>
       </c>
       <c r="D8">
-        <v>972.3892372277385</v>
+        <v>1080.432485808598</v>
       </c>
       <c r="E8">
-        <v>78.96738526055475</v>
+        <v>87.74153917839418</v>
       </c>
       <c r="F8">
-        <v>3407.666859356706</v>
+        <v>4009.019834537302</v>
       </c>
       <c r="G8">
-        <v>2609.613987799612</v>
+        <v>3024.925035132303</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9960.941479102508</v>
+        <v>11067.71275455834</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>819.0061276115551</v>
+        <v>910.0068084572835</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85410.23741032966</v>
+        <v>100482.6322474467</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5679.163231152347</v>
+        <v>6310.181367947052</v>
       </c>
       <c r="C7">
-        <v>19228.35807175794</v>
+        <v>22621.59773147992</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19436,16 +19436,16 @@
         <v>97633.8691232134</v>
       </c>
       <c r="D8">
-        <v>796.8753183282003</v>
+        <v>885.417020364667</v>
       </c>
       <c r="E8">
-        <v>65.52049020892437</v>
+        <v>72.80054467658265</v>
       </c>
       <c r="F8">
-        <v>3416.40949641319</v>
+        <v>4019.30528989787</v>
       </c>
       <c r="G8">
-        <v>2490.752130291028</v>
+        <v>2893.177909942697</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7389.715400684358</v>
+        <v>8210.794889649285</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>627.6833126170882</v>
+        <v>697.4259029078758</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84585.07663127079</v>
+        <v>99511.85486031859</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4234.467197526014</v>
+        <v>4704.963552806683</v>
       </c>
       <c r="C7">
-        <v>19042.59009583851</v>
+        <v>22403.04717157472</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19654,16 +19654,16 @@
         <v>96690.61405273285</v>
       </c>
       <c r="D8">
-        <v>591.1772320547483</v>
+        <v>656.8635911719425</v>
       </c>
       <c r="E8">
-        <v>50.21466500936703</v>
+        <v>55.79407223263003</v>
       </c>
       <c r="F8">
-        <v>3383.403065250835</v>
+        <v>3980.474194412747</v>
       </c>
       <c r="G8">
-        <v>2327.705729336452</v>
+        <v>2710.80107243814</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5349.820962109294</v>
+        <v>5944.245513454771</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>491.3994984734977</v>
+        <v>545.9994427483308</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>82801.42172695136</v>
+        <v>97413.43732582513</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3104.726896291827</v>
+        <v>3449.696551435364</v>
       </c>
       <c r="C7">
-        <v>18641.03688375771</v>
+        <v>21930.63162795025</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19872,16 +19872,16 @@
         <v>94651.68833645518</v>
       </c>
       <c r="D8">
-        <v>427.9856769687433</v>
+        <v>475.5396410763814</v>
       </c>
       <c r="E8">
-        <v>39.31195987787979</v>
+        <v>43.67995541986645</v>
       </c>
       <c r="F8">
-        <v>3312.056869078057</v>
+        <v>3896.537493033009</v>
       </c>
       <c r="G8">
-        <v>2174.576378004953</v>
+        <v>2538.032817938561</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4366.138278813486</v>
+        <v>4851.264754237207</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>451.9134998384736</v>
+        <v>502.1261109316373</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80208.94344115684</v>
+        <v>94363.46287194923</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2587.719087603381</v>
+        <v>2875.243430670423</v>
       </c>
       <c r="C7">
-        <v>18057.39372476463</v>
+        <v>21243.99261737015</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20090,16 +20090,16 @@
         <v>91688.18310178383</v>
       </c>
       <c r="D8">
-        <v>349.2910623050787</v>
+        <v>388.1011803389763</v>
       </c>
       <c r="E8">
-        <v>36.15307998707787</v>
+        <v>40.17008887453096</v>
       </c>
       <c r="F8">
-        <v>3208.357737646276</v>
+        <v>3774.538514877973</v>
       </c>
       <c r="G8">
-        <v>2064.511281236801</v>
+        <v>2411.923604804057</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.965938742535407E-11</v>
+        <v>3.295487491706008E-11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.639778640452511E-14</v>
+        <v>9.599754044947233E-14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03905517850972395</v>
+        <v>0.04594726883496936</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.441930380310713E-11</v>
+        <v>1.602144867011903E-11</v>
       </c>
       <c r="C7">
-        <v>0.008792470079828796</v>
+        <v>0.01034408244685741</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20308,16 +20308,16 @@
         <v>0.04464462695359469</v>
       </c>
       <c r="D8">
-        <v>2.372750994028324E-12</v>
+        <v>2.636389993364805E-12</v>
       </c>
       <c r="E8">
-        <v>6.911822912362005E-15</v>
+        <v>7.679803235957783E-15</v>
       </c>
       <c r="F8">
-        <v>0.001562207140388959</v>
+        <v>0.001837890753398776</v>
       </c>
       <c r="G8">
-        <v>0.0008792470094248097</v>
+        <v>0.001034408246287885</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3988.403969712205</v>
+        <v>4431.559966346894</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>462.9993328889088</v>
+        <v>514.4437032098986</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77011.82262356434</v>
+        <v>90602.14426301686</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2416.982481834962</v>
+        <v>2685.536090927736</v>
       </c>
       <c r="C7">
-        <v>17337.62773718168</v>
+        <v>20397.20910256668</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20526,16 +20526,16 @@
         <v>88033.50088873362</v>
       </c>
       <c r="D8">
-        <v>319.0723175769762</v>
+        <v>354.5247973077513</v>
       </c>
       <c r="E8">
-        <v>37.03994663111268</v>
+        <v>41.15549625679186</v>
       </c>
       <c r="F8">
-        <v>3080.472904942576</v>
+        <v>3624.085770520678</v>
       </c>
       <c r="G8">
-        <v>1975.461021901664</v>
+        <v>2308.274519349441</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3644.213382992081</v>
+        <v>4049.125981102311</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>465.2488906003541</v>
+        <v>516.9432117781712</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73451.56587909559</v>
+        <v>86413.60691658306</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2253.093407836951</v>
+        <v>2503.437119818834</v>
       </c>
       <c r="C7">
-        <v>16536.10916533707</v>
+        <v>19454.24607686714</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20744,16 +20744,16 @@
         <v>83963.71193164942</v>
       </c>
       <c r="D8">
-        <v>291.5370706393663</v>
+        <v>323.9300784881847</v>
       </c>
       <c r="E8">
-        <v>37.2199112480283</v>
+        <v>41.35545694225367</v>
       </c>
       <c r="F8">
-        <v>2938.062635163826</v>
+        <v>3456.544276663325</v>
       </c>
       <c r="G8">
-        <v>1878.920257317402</v>
+        <v>2195.768319668598</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3237.030094284171</v>
+        <v>3596.70010476019</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>442.723238746112</v>
+        <v>491.9147097179023</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69785.20994537008</v>
+        <v>82100.24699455302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2032.539454089775</v>
+        <v>2258.377171210861</v>
       </c>
       <c r="C7">
-        <v>15710.70454348242</v>
+        <v>18483.18181586168</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20962,16 +20962,16 @@
         <v>79772.63921898673</v>
       </c>
       <c r="D8">
-        <v>258.9624075427336</v>
+        <v>287.7360083808151</v>
       </c>
       <c r="E8">
-        <v>35.41785909968895</v>
+        <v>39.35317677743216</v>
       </c>
       <c r="F8">
-        <v>2791.408397814806</v>
+        <v>3284.009879782124</v>
       </c>
       <c r="G8">
-        <v>1774.324399757219</v>
+        <v>2074.155898707254</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2940.287479574055</v>
+        <v>3266.986088415616</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>410.1936315465246</v>
+        <v>455.7707017183607</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>66262.79614722136</v>
+        <v>77956.23076143691</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1854.743853360033</v>
+        <v>2060.82650373337</v>
       </c>
       <c r="C7">
-        <v>14917.70553257565</v>
+        <v>17550.24180303018</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21180,16 +21180,16 @@
         <v>75746.10916599032</v>
       </c>
       <c r="D8">
-        <v>235.2229983659243</v>
+        <v>261.3588870732492</v>
       </c>
       <c r="E8">
-        <v>32.81549052372196</v>
+        <v>36.46165613746884</v>
       </c>
       <c r="F8">
-        <v>2650.511845888857</v>
+        <v>3118.249230457479</v>
       </c>
       <c r="G8">
-        <v>1677.244938593568</v>
+        <v>1961.106830676354</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2898.54929805555</v>
+        <v>3220.610331172833</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>385.8252344438608</v>
+        <v>428.6947049376231</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>63107.90194976337</v>
+        <v>74244.59052913338</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1808.777352355105</v>
+        <v>2009.752613727894</v>
       </c>
       <c r="C7">
-        <v>14207.44599991807</v>
+        <v>16714.64235284479</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21398,16 +21398,16 @@
         <v>72139.6969077925</v>
       </c>
       <c r="D8">
-        <v>231.8839438444439</v>
+        <v>257.6488264938265</v>
       </c>
       <c r="E8">
-        <v>30.86601875550885</v>
+        <v>34.29557639500983</v>
       </c>
       <c r="F8">
-        <v>2524.316077990537</v>
+        <v>2969.783621165338</v>
       </c>
       <c r="G8">
-        <v>1601.622335227317</v>
+        <v>1872.439496657268</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3100.895418540607</v>
+        <v>3445.439353934008</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>373.2581055653961</v>
+        <v>414.7312284059957</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60503.64427829687</v>
+        <v>71180.75797446692</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1893.219123302792</v>
+        <v>2103.576803669769</v>
       </c>
       <c r="C7">
-        <v>13621.15095454188</v>
+        <v>16024.88347593163</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21616,16 +21616,16 @@
         <v>69162.72646059019</v>
       </c>
       <c r="D8">
-        <v>248.0716334832484</v>
+        <v>275.6351483147205</v>
       </c>
       <c r="E8">
-        <v>29.86064844523167</v>
+        <v>33.17849827247964</v>
       </c>
       <c r="F8">
-        <v>2420.145771131877</v>
+        <v>2847.230318978679</v>
       </c>
       <c r="G8">
-        <v>1551.437007784467</v>
+        <v>1812.846027960139</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3548.874853805545</v>
+        <v>3943.19428200616</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>374.5172533868088</v>
+        <v>416.1302815408986</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58584.68797098638</v>
+        <v>68923.1623188075</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2110.96174106707</v>
+        <v>2345.513045630078</v>
       </c>
       <c r="C7">
-        <v>13189.13741471578</v>
+        <v>15516.6322526068</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21834,16 +21834,16 @@
         <v>66969.13545040457</v>
       </c>
       <c r="D8">
-        <v>283.9099883044435</v>
+        <v>315.4555425604927</v>
       </c>
       <c r="E8">
-        <v>29.96138027094469</v>
+        <v>33.29042252327187</v>
       </c>
       <c r="F8">
-        <v>2343.387518839457</v>
+        <v>2756.926492752303</v>
       </c>
       <c r="G8">
-        <v>1530.009915578284</v>
+        <v>1786.214529823687</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4302.52460096127</v>
+        <v>4780.582889956966</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>399.7693031959927</v>
+        <v>444.1881146622142</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>57434.36088957284</v>
+        <v>67569.83634067392</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2501.77322932709</v>
+        <v>2779.748032585655</v>
       </c>
       <c r="C7">
-        <v>12930.16493446384</v>
+        <v>15211.95874642805</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22052,16 +22052,16 @@
         <v>65654.17734794607</v>
       </c>
       <c r="D8">
-        <v>344.2019680769014</v>
+        <v>382.4466311965571</v>
       </c>
       <c r="E8">
-        <v>31.9815442556794</v>
+        <v>35.53504917297712</v>
       </c>
       <c r="F8">
-        <v>2297.374435582916</v>
+        <v>2702.793453626959</v>
       </c>
       <c r="G8">
-        <v>1543.193816379092</v>
+        <v>1799.17067790137</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5447.968536059539</v>
+        <v>6053.298373399487</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>464.6726599867246</v>
+        <v>516.3029555408051</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>57085.48509489751</v>
+        <v>67159.3942292912</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3123.83886749259</v>
+        <v>3470.932074991767</v>
       </c>
       <c r="C7">
-        <v>12851.62272563754</v>
+        <v>15119.55614780887</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22270,16 +22270,16 @@
         <v>65255.37159924002</v>
       </c>
       <c r="D8">
-        <v>435.8374828847629</v>
+        <v>484.2638698719587</v>
       </c>
       <c r="E8">
-        <v>37.17381279893795</v>
+        <v>41.30423644326439</v>
       </c>
       <c r="F8">
-        <v>2283.419403795903</v>
+        <v>2686.37576917165</v>
       </c>
       <c r="G8">
-        <v>1597.546159313013</v>
+        <v>1859.048822280063</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7004.248862309613</v>
+        <v>7782.49873589957</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>575.6257536463395</v>
+        <v>639.584170718155</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>57523.7879514259</v>
+        <v>67675.04464873637</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3993.132829898125</v>
+        <v>4436.814255442362</v>
       </c>
       <c r="C7">
-        <v>12950.29759793315</v>
+        <v>15235.64423286253</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22488,16 +22488,16 @@
         <v>65756.40291618901</v>
       </c>
       <c r="D8">
-        <v>560.3399089847687</v>
+        <v>622.5998988719654</v>
       </c>
       <c r="E8">
-        <v>46.05006029170713</v>
+        <v>51.16673365745237</v>
       </c>
       <c r="F8">
-        <v>2300.951518057038</v>
+        <v>2707.001785949457</v>
       </c>
       <c r="G8">
-        <v>1694.343042783127</v>
+        <v>1967.245848830489</v>
       </c>
       <c r="H8">
         <v>0</v>
